--- a/data-raw/BAG-open/Dashboard_3_COVID19_labtests_positivity.xlsx
+++ b/data-raw/BAG-open/Dashboard_3_COVID19_labtests_positivity.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43854</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43854</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43855</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43855</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43857</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43857</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43858</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43858</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43859</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43859</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43860</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43860</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43861</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43861</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43862</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43862</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43863</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43863</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43864</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43864</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43865</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43865</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43866</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43866</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43867</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43867</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43868</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43868</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43869</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43869</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43870</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43870</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43871</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43871</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43872</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43872</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43873</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43873</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43874</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43874</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43875</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43875</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43876</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43876</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43877</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43877</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43879</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43879</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43880</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43880</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43881</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43881</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43882</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43882</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43883</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43883</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43884</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43884</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43885</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43885</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43886</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43886</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43887</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43887</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43888</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43888</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43889</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43889</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43890</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43890</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43891</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43891</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43892</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43892</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43893</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43893</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43894</v>
@@ -1470,13 +1470,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43894</v>
       </c>
       <c r="C79" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43895</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43895</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43896</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43896</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43897</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43897</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43898</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43898</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43899</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43899</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43900</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43900</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43901</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43901</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43902</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43902</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43903</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43903</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43904</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43904</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43905</v>
@@ -1778,13 +1778,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="C101" t="n">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D101" t="s">
         <v>5</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43906</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43906</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43907</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43907</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43908</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43908</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43909</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43909</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43910</v>
@@ -1918,13 +1918,13 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="C111" t="n">
-        <v>6841</v>
+        <v>6842</v>
       </c>
       <c r="D111" t="s">
         <v>5</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43911</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43911</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43912</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43912</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43913</v>
@@ -2002,13 +2002,13 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43913</v>
       </c>
       <c r="C117" t="n">
-        <v>5381</v>
+        <v>5382</v>
       </c>
       <c r="D117" t="s">
         <v>5</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43914</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43914</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43915</v>
@@ -2058,13 +2058,13 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43915</v>
       </c>
       <c r="C121" t="n">
-        <v>6480</v>
+        <v>6482</v>
       </c>
       <c r="D121" t="s">
         <v>5</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43916</v>
@@ -2086,13 +2086,13 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43916</v>
       </c>
       <c r="C123" t="n">
-        <v>6547</v>
+        <v>6549</v>
       </c>
       <c r="D123" t="s">
         <v>5</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43917</v>
@@ -2114,13 +2114,13 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43917</v>
       </c>
       <c r="C125" t="n">
-        <v>5856</v>
+        <v>5857</v>
       </c>
       <c r="D125" t="s">
         <v>5</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43918</v>
@@ -2142,13 +2142,13 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43918</v>
       </c>
       <c r="C127" t="n">
-        <v>4756</v>
+        <v>4757</v>
       </c>
       <c r="D127" t="s">
         <v>5</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43919</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43919</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43920</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43920</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43921</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43921</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43922</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43922</v>
@@ -2268,13 +2268,13 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43923</v>
       </c>
       <c r="C136" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D136" t="s">
         <v>4</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43923</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43924</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43924</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43925</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43925</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43926</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43926</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43927</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43927</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43928</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43928</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43929</v>
@@ -2450,13 +2450,13 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43929</v>
       </c>
       <c r="C149" t="n">
-        <v>5763</v>
+        <v>5764</v>
       </c>
       <c r="D149" t="s">
         <v>5</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43930</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43930</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43931</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43931</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43932</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43932</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43933</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43933</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43934</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43934</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43935</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43935</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43936</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43936</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43937</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43937</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43938</v>
@@ -2702,13 +2702,13 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43938</v>
       </c>
       <c r="C167" t="n">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="D167" t="s">
         <v>5</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43939</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43939</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43940</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43940</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43941</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43941</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43942</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43942</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43943</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43943</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43944</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43944</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43945</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43945</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43946</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43946</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43947</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43947</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43948</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43948</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43949</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43949</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43950</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43950</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43951</v>
@@ -3066,13 +3066,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C193" t="n">
-        <v>4638</v>
+        <v>4639</v>
       </c>
       <c r="D193" t="s">
         <v>5</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43952</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43952</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43953</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43953</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43954</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43954</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43955</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43955</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43956</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43956</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43957</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43957</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43958</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43958</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43959</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43959</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43960</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43960</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43961</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43961</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43962</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43962</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43963</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43963</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43964</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43964</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43965</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43965</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43966</v>
@@ -3486,13 +3486,13 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43966</v>
       </c>
       <c r="C223" t="n">
-        <v>5527</v>
+        <v>5526</v>
       </c>
       <c r="D223" t="s">
         <v>5</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43967</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43967</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43968</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43968</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43969</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43969</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43970</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43970</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43971</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43971</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43972</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43972</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>43973</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>43973</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>43974</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>43974</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>43975</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>43975</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>43976</v>
@@ -3766,13 +3766,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>43976</v>
       </c>
       <c r="C243" t="n">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="D243" t="s">
         <v>5</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>43977</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>43977</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>43978</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>43978</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>43979</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>43979</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>43980</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>43980</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>43981</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>43981</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>43982</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>43982</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>43983</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>43983</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>43984</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>43984</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>43985</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>43985</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>43986</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>43986</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>43987</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>43987</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>43988</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>43988</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>43989</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>43989</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>43990</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>43990</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>43991</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>43991</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>43992</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>43992</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>43993</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>43993</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>43994</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>43994</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>43995</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>43995</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>43996</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>43996</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>43997</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>43997</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>43998</v>
@@ -4382,13 +4382,13 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>43998</v>
       </c>
       <c r="C287" t="n">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="D287" t="s">
         <v>5</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>43999</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>43999</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44000</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44000</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44001</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44001</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44002</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44002</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44003</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44003</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44004</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44004</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44005</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44005</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44006</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44006</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44007</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44007</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44008</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44008</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44009</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44009</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44010</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44010</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44011</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44011</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44012</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44012</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44013</v>
@@ -4802,13 +4802,13 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44013</v>
       </c>
       <c r="C317" t="n">
-        <v>11116</v>
+        <v>11117</v>
       </c>
       <c r="D317" t="s">
         <v>5</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44014</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44014</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44015</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44015</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44016</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44016</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44017</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44017</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44018</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44018</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44019</v>
@@ -4970,13 +4970,13 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44019</v>
       </c>
       <c r="C329" t="n">
-        <v>9861</v>
+        <v>9860</v>
       </c>
       <c r="D329" t="s">
         <v>5</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44020</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44020</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44021</v>
@@ -5026,13 +5026,13 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44021</v>
       </c>
       <c r="C333" t="n">
-        <v>8410</v>
+        <v>8409</v>
       </c>
       <c r="D333" t="s">
         <v>5</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44022</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44022</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44023</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44023</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44024</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44024</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44025</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44025</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44026</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44026</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44027</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44027</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44028</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44028</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44029</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44029</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44030</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44030</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44031</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44031</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44032</v>
@@ -5334,13 +5334,13 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44032</v>
       </c>
       <c r="C355" t="n">
-        <v>5564</v>
+        <v>5563</v>
       </c>
       <c r="D355" t="s">
         <v>5</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44033</v>
@@ -5362,13 +5362,13 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44033</v>
       </c>
       <c r="C357" t="n">
-        <v>6683</v>
+        <v>6682</v>
       </c>
       <c r="D357" t="s">
         <v>5</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44034</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44034</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44035</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44035</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44036</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44036</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44037</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44037</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44038</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44038</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44039</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44039</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44040</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44040</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44041</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44041</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44042</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44042</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44043</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44043</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44044</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44044</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44045</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44045</v>
@@ -5712,13 +5712,13 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44046</v>
       </c>
       <c r="C382" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D382" t="s">
         <v>4</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44046</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44047</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44047</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44048</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44048</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44049</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44049</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44050</v>
@@ -5838,13 +5838,13 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44050</v>
       </c>
       <c r="C391" t="n">
-        <v>5957</v>
+        <v>5958</v>
       </c>
       <c r="D391" t="s">
         <v>5</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44051</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44051</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44052</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44052</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44053</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44053</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44054</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44054</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44055</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44055</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44056</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44056</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44057</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44057</v>
@@ -6048,13 +6048,13 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44058</v>
       </c>
       <c r="C406" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D406" t="s">
         <v>4</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44058</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>44059</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B409" s="1" t="n">
         <v>44059</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B410" s="1" t="n">
         <v>44060</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B411" s="1" t="n">
         <v>44060</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B412" s="1" t="n">
         <v>44061</v>
@@ -6146,13 +6146,13 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B413" s="1" t="n">
         <v>44061</v>
       </c>
       <c r="C413" t="n">
-        <v>10234</v>
+        <v>10235</v>
       </c>
       <c r="D413" t="s">
         <v>5</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B414" s="1" t="n">
         <v>44062</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B415" s="1" t="n">
         <v>44062</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B416" s="1" t="n">
         <v>44063</v>
@@ -6202,13 +6202,13 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B417" s="1" t="n">
         <v>44063</v>
       </c>
       <c r="C417" t="n">
-        <v>9739</v>
+        <v>9740</v>
       </c>
       <c r="D417" t="s">
         <v>5</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B418" s="1" t="n">
         <v>44064</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B419" s="1" t="n">
         <v>44064</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B420" s="1" t="n">
         <v>44065</v>
@@ -6258,13 +6258,13 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B421" s="1" t="n">
         <v>44065</v>
       </c>
       <c r="C421" t="n">
-        <v>5886</v>
+        <v>5888</v>
       </c>
       <c r="D421" t="s">
         <v>5</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B422" s="1" t="n">
         <v>44066</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B423" s="1" t="n">
         <v>44066</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B424" s="1" t="n">
         <v>44067</v>
@@ -6314,13 +6314,13 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B425" s="1" t="n">
         <v>44067</v>
       </c>
       <c r="C425" t="n">
-        <v>9717</v>
+        <v>9716</v>
       </c>
       <c r="D425" t="s">
         <v>5</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B426" s="1" t="n">
         <v>44068</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B427" s="1" t="n">
         <v>44068</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B428" s="1" t="n">
         <v>44069</v>
@@ -6370,13 +6370,13 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B429" s="1" t="n">
         <v>44069</v>
       </c>
       <c r="C429" t="n">
-        <v>12457</v>
+        <v>12459</v>
       </c>
       <c r="D429" t="s">
         <v>5</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B430" s="1" t="n">
         <v>44070</v>
@@ -6398,13 +6398,13 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B431" s="1" t="n">
         <v>44070</v>
       </c>
       <c r="C431" t="n">
-        <v>12746</v>
+        <v>12745</v>
       </c>
       <c r="D431" t="s">
         <v>5</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B432" s="1" t="n">
         <v>44071</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B433" s="1" t="n">
         <v>44071</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B434" s="1" t="n">
         <v>44072</v>
@@ -6454,13 +6454,13 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B435" s="1" t="n">
         <v>44072</v>
       </c>
       <c r="C435" t="n">
-        <v>8092</v>
+        <v>8093</v>
       </c>
       <c r="D435" t="s">
         <v>5</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B436" s="1" t="n">
         <v>44073</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B437" s="1" t="n">
         <v>44073</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B438" s="1" t="n">
         <v>44074</v>
@@ -6510,13 +6510,13 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B439" s="1" t="n">
         <v>44074</v>
       </c>
       <c r="C439" t="n">
-        <v>11101</v>
+        <v>11100</v>
       </c>
       <c r="D439" t="s">
         <v>5</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B440" s="1" t="n">
         <v>44075</v>
@@ -6538,13 +6538,13 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B441" s="1" t="n">
         <v>44075</v>
       </c>
       <c r="C441" t="n">
-        <v>16021</v>
+        <v>16024</v>
       </c>
       <c r="D441" t="s">
         <v>5</v>
@@ -6552,7 +6552,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B442" s="1" t="n">
         <v>44076</v>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B443" s="1" t="n">
         <v>44076</v>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B444" s="1" t="n">
         <v>44077</v>
@@ -6594,13 +6594,13 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B445" s="1" t="n">
         <v>44077</v>
       </c>
       <c r="C445" t="n">
-        <v>15065</v>
+        <v>15064</v>
       </c>
       <c r="D445" t="s">
         <v>5</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B446" s="1" t="n">
         <v>44078</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B447" s="1" t="n">
         <v>44078</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B448" s="1" t="n">
         <v>44079</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B449" s="1" t="n">
         <v>44079</v>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B450" s="1" t="n">
         <v>44080</v>
@@ -6678,13 +6678,13 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B451" s="1" t="n">
         <v>44080</v>
       </c>
       <c r="C451" t="n">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="D451" t="s">
         <v>5</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B452" s="1" t="n">
         <v>44081</v>
@@ -6706,13 +6706,13 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B453" s="1" t="n">
         <v>44081</v>
       </c>
       <c r="C453" t="n">
-        <v>13040</v>
+        <v>13041</v>
       </c>
       <c r="D453" t="s">
         <v>5</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B454" s="1" t="n">
         <v>44082</v>
@@ -6734,13 +6734,13 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B455" s="1" t="n">
         <v>44082</v>
       </c>
       <c r="C455" t="n">
-        <v>17063</v>
+        <v>17062</v>
       </c>
       <c r="D455" t="s">
         <v>5</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B456" s="1" t="n">
         <v>44083</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B457" s="1" t="n">
         <v>44083</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B458" s="1" t="n">
         <v>44084</v>
@@ -6790,13 +6790,13 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B459" s="1" t="n">
         <v>44084</v>
       </c>
       <c r="C459" t="n">
-        <v>15124</v>
+        <v>15120</v>
       </c>
       <c r="D459" t="s">
         <v>5</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B460" s="1" t="n">
         <v>44085</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B461" s="1" t="n">
         <v>44085</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B462" s="1" t="n">
         <v>44086</v>
@@ -6846,13 +6846,13 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B463" s="1" t="n">
         <v>44086</v>
       </c>
       <c r="C463" t="n">
-        <v>9397</v>
+        <v>9398</v>
       </c>
       <c r="D463" t="s">
         <v>5</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B464" s="1" t="n">
         <v>44087</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B465" s="1" t="n">
         <v>44087</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B466" s="1" t="n">
         <v>44088</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B467" s="1" t="n">
         <v>44088</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B468" s="1" t="n">
         <v>44089</v>
@@ -6930,13 +6930,13 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B469" s="1" t="n">
         <v>44089</v>
       </c>
       <c r="C469" t="n">
-        <v>16294</v>
+        <v>16295</v>
       </c>
       <c r="D469" t="s">
         <v>5</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B470" s="1" t="n">
         <v>44090</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B471" s="1" t="n">
         <v>44090</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B472" s="1" t="n">
         <v>44091</v>
@@ -6986,13 +6986,13 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B473" s="1" t="n">
         <v>44091</v>
       </c>
       <c r="C473" t="n">
-        <v>14709</v>
+        <v>14712</v>
       </c>
       <c r="D473" t="s">
         <v>5</v>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B474" s="1" t="n">
         <v>44092</v>
@@ -7014,13 +7014,13 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B475" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C475" t="n">
-        <v>12959</v>
+        <v>12960</v>
       </c>
       <c r="D475" t="s">
         <v>5</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B476" s="1" t="n">
         <v>44093</v>
@@ -7042,13 +7042,13 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B477" s="1" t="n">
         <v>44093</v>
       </c>
       <c r="C477" t="n">
-        <v>7416</v>
+        <v>7417</v>
       </c>
       <c r="D477" t="s">
         <v>5</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B478" s="1" t="n">
         <v>44094</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B479" s="1" t="n">
         <v>44094</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B480" s="1" t="n">
         <v>44095</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B481" s="1" t="n">
         <v>44095</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B482" s="1" t="n">
         <v>44096</v>
@@ -7126,13 +7126,13 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B483" s="1" t="n">
         <v>44096</v>
       </c>
       <c r="C483" t="n">
-        <v>12947</v>
+        <v>12946</v>
       </c>
       <c r="D483" t="s">
         <v>5</v>
@@ -7140,7 +7140,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B484" s="1" t="n">
         <v>44097</v>
@@ -7154,13 +7154,13 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B485" s="1" t="n">
         <v>44097</v>
       </c>
       <c r="C485" t="n">
-        <v>12506</v>
+        <v>12507</v>
       </c>
       <c r="D485" t="s">
         <v>5</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B486" s="1" t="n">
         <v>44098</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B487" s="1" t="n">
         <v>44098</v>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B488" s="1" t="n">
         <v>44099</v>
@@ -7210,13 +7210,13 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B489" s="1" t="n">
         <v>44099</v>
       </c>
       <c r="C489" t="n">
-        <v>10822</v>
+        <v>10824</v>
       </c>
       <c r="D489" t="s">
         <v>5</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B490" s="1" t="n">
         <v>44100</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B491" s="1" t="n">
         <v>44100</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B492" s="1" t="n">
         <v>44101</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B493" s="1" t="n">
         <v>44101</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B494" s="1" t="n">
         <v>44102</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B495" s="1" t="n">
         <v>44102</v>
@@ -7308,7 +7308,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B496" s="1" t="n">
         <v>44103</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B497" s="1" t="n">
         <v>44103</v>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B498" s="1" t="n">
         <v>44104</v>
@@ -7350,13 +7350,13 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B499" s="1" t="n">
         <v>44104</v>
       </c>
       <c r="C499" t="n">
-        <v>11326</v>
+        <v>11328</v>
       </c>
       <c r="D499" t="s">
         <v>5</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B500" s="1" t="n">
         <v>44105</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B501" s="1" t="n">
         <v>44105</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B502" s="1" t="n">
         <v>44106</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B503" s="1" t="n">
         <v>44106</v>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B504" s="1" t="n">
         <v>44107</v>
@@ -7434,7 +7434,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B505" s="1" t="n">
         <v>44107</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B506" s="1" t="n">
         <v>44108</v>
@@ -7462,7 +7462,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B507" s="1" t="n">
         <v>44108</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B508" s="1" t="n">
         <v>44109</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B509" s="1" t="n">
         <v>44109</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B510" s="1" t="n">
         <v>44110</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B511" s="1" t="n">
         <v>44110</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B512" s="1" t="n">
         <v>44111</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B513" s="1" t="n">
         <v>44111</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B514" s="1" t="n">
         <v>44112</v>
@@ -7574,13 +7574,13 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B515" s="1" t="n">
         <v>44112</v>
       </c>
       <c r="C515" t="n">
-        <v>14299</v>
+        <v>14300</v>
       </c>
       <c r="D515" t="s">
         <v>5</v>
@@ -7588,7 +7588,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B516" s="1" t="n">
         <v>44113</v>
@@ -7602,13 +7602,13 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B517" s="1" t="n">
         <v>44113</v>
       </c>
       <c r="C517" t="n">
-        <v>14317</v>
+        <v>14319</v>
       </c>
       <c r="D517" t="s">
         <v>5</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B518" s="1" t="n">
         <v>44114</v>
@@ -7630,13 +7630,13 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B519" s="1" t="n">
         <v>44114</v>
       </c>
       <c r="C519" t="n">
-        <v>9253</v>
+        <v>9255</v>
       </c>
       <c r="D519" t="s">
         <v>5</v>
@@ -7644,7 +7644,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B520" s="1" t="n">
         <v>44115</v>
@@ -7658,7 +7658,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B521" s="1" t="n">
         <v>44115</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B522" s="1" t="n">
         <v>44116</v>
@@ -7686,13 +7686,13 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B523" s="1" t="n">
         <v>44116</v>
       </c>
       <c r="C523" t="n">
-        <v>13113</v>
+        <v>13112</v>
       </c>
       <c r="D523" t="s">
         <v>5</v>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B524" s="1" t="n">
         <v>44117</v>
@@ -7714,13 +7714,13 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B525" s="1" t="n">
         <v>44117</v>
       </c>
       <c r="C525" t="n">
-        <v>17620</v>
+        <v>17619</v>
       </c>
       <c r="D525" t="s">
         <v>5</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B526" s="1" t="n">
         <v>44118</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B527" s="1" t="n">
         <v>44118</v>
@@ -7756,13 +7756,13 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B528" s="1" t="n">
         <v>44119</v>
       </c>
       <c r="C528" t="n">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="D528" t="s">
         <v>4</v>
@@ -7770,7 +7770,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B529" s="1" t="n">
         <v>44119</v>
@@ -7784,13 +7784,13 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B530" s="1" t="n">
         <v>44120</v>
       </c>
       <c r="C530" t="n">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="D530" t="s">
         <v>4</v>
@@ -7798,13 +7798,13 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B531" s="1" t="n">
         <v>44120</v>
       </c>
       <c r="C531" t="n">
-        <v>20623</v>
+        <v>20627</v>
       </c>
       <c r="D531" t="s">
         <v>5</v>
@@ -7812,7 +7812,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B532" s="1" t="n">
         <v>44121</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B533" s="1" t="n">
         <v>44121</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B534" s="1" t="n">
         <v>44122</v>
@@ -7854,13 +7854,13 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B535" s="1" t="n">
         <v>44122</v>
       </c>
       <c r="C535" t="n">
-        <v>6752</v>
+        <v>6753</v>
       </c>
       <c r="D535" t="s">
         <v>5</v>
@@ -7868,13 +7868,13 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B536" s="1" t="n">
         <v>44123</v>
       </c>
       <c r="C536" t="n">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="D536" t="s">
         <v>4</v>
@@ -7882,13 +7882,13 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B537" s="1" t="n">
         <v>44123</v>
       </c>
       <c r="C537" t="n">
-        <v>17315</v>
+        <v>17316</v>
       </c>
       <c r="D537" t="s">
         <v>5</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B538" s="1" t="n">
         <v>44124</v>
@@ -7910,13 +7910,13 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B539" s="1" t="n">
         <v>44124</v>
       </c>
       <c r="C539" t="n">
-        <v>23173</v>
+        <v>23170</v>
       </c>
       <c r="D539" t="s">
         <v>5</v>
@@ -7924,13 +7924,13 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B540" s="1" t="n">
         <v>44125</v>
       </c>
       <c r="C540" t="n">
-        <v>6123</v>
+        <v>6136</v>
       </c>
       <c r="D540" t="s">
         <v>4</v>
@@ -7938,13 +7938,13 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B541" s="1" t="n">
         <v>44125</v>
       </c>
       <c r="C541" t="n">
-        <v>22269</v>
+        <v>22265</v>
       </c>
       <c r="D541" t="s">
         <v>5</v>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B542" s="1" t="n">
         <v>44126</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B543" s="1" t="n">
         <v>44126</v>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B544" s="1" t="n">
         <v>44127</v>
@@ -7994,13 +7994,13 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B545" s="1" t="n">
         <v>44127</v>
       </c>
       <c r="C545" t="n">
-        <v>24827</v>
+        <v>24979</v>
       </c>
       <c r="D545" t="s">
         <v>5</v>
@@ -8008,13 +8008,13 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B546" s="1" t="n">
         <v>44128</v>
       </c>
       <c r="C546" t="n">
-        <v>5905</v>
+        <v>5904</v>
       </c>
       <c r="D546" t="s">
         <v>4</v>
@@ -8022,13 +8022,13 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B547" s="1" t="n">
         <v>44128</v>
       </c>
       <c r="C547" t="n">
-        <v>16943</v>
+        <v>17198</v>
       </c>
       <c r="D547" t="s">
         <v>5</v>
@@ -8036,13 +8036,13 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B548" s="1" t="n">
         <v>44129</v>
       </c>
       <c r="C548" t="n">
-        <v>3685</v>
+        <v>3686</v>
       </c>
       <c r="D548" t="s">
         <v>4</v>
@@ -8050,13 +8050,13 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B549" s="1" t="n">
         <v>44129</v>
       </c>
       <c r="C549" t="n">
-        <v>9392</v>
+        <v>9478</v>
       </c>
       <c r="D549" t="s">
         <v>5</v>
@@ -8064,13 +8064,13 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B550" s="1" t="n">
         <v>44130</v>
       </c>
       <c r="C550" t="n">
-        <v>7550</v>
+        <v>7554</v>
       </c>
       <c r="D550" t="s">
         <v>4</v>
@@ -8078,13 +8078,13 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B551" s="1" t="n">
         <v>44130</v>
       </c>
       <c r="C551" t="n">
-        <v>21109</v>
+        <v>21347</v>
       </c>
       <c r="D551" t="s">
         <v>5</v>
@@ -8092,7 +8092,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B552" s="1" t="n">
         <v>44131</v>
@@ -8106,13 +8106,13 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B553" s="1" t="n">
         <v>44131</v>
       </c>
       <c r="C553" t="n">
-        <v>27552</v>
+        <v>27888</v>
       </c>
       <c r="D553" t="s">
         <v>5</v>
@@ -8120,13 +8120,13 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B554" s="1" t="n">
         <v>44132</v>
       </c>
       <c r="C554" t="n">
-        <v>9685</v>
+        <v>9686</v>
       </c>
       <c r="D554" t="s">
         <v>4</v>
@@ -8134,13 +8134,13 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B555" s="1" t="n">
         <v>44132</v>
       </c>
       <c r="C555" t="n">
-        <v>27462</v>
+        <v>27822</v>
       </c>
       <c r="D555" t="s">
         <v>5</v>
@@ -8148,13 +8148,13 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B556" s="1" t="n">
         <v>44133</v>
       </c>
       <c r="C556" t="n">
-        <v>9752</v>
+        <v>9754</v>
       </c>
       <c r="D556" t="s">
         <v>4</v>
@@ -8162,13 +8162,13 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B557" s="1" t="n">
         <v>44133</v>
       </c>
       <c r="C557" t="n">
-        <v>28358</v>
+        <v>28398</v>
       </c>
       <c r="D557" t="s">
         <v>5</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B558" s="1" t="n">
         <v>44134</v>
@@ -8190,13 +8190,13 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B559" s="1" t="n">
         <v>44134</v>
       </c>
       <c r="C559" t="n">
-        <v>28424</v>
+        <v>28434</v>
       </c>
       <c r="D559" t="s">
         <v>5</v>
@@ -8204,13 +8204,13 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B560" s="1" t="n">
         <v>44135</v>
       </c>
       <c r="C560" t="n">
-        <v>6821</v>
+        <v>6808</v>
       </c>
       <c r="D560" t="s">
         <v>4</v>
@@ -8218,13 +8218,13 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B561" s="1" t="n">
         <v>44135</v>
       </c>
       <c r="C561" t="n">
-        <v>17737</v>
+        <v>17739</v>
       </c>
       <c r="D561" t="s">
         <v>5</v>
@@ -8232,7 +8232,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B562" s="1" t="n">
         <v>44136</v>
@@ -8246,13 +8246,13 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B563" s="1" t="n">
         <v>44136</v>
       </c>
       <c r="C563" t="n">
-        <v>8925</v>
+        <v>8926</v>
       </c>
       <c r="D563" t="s">
         <v>5</v>
@@ -8260,13 +8260,13 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B564" s="1" t="n">
         <v>44137</v>
       </c>
       <c r="C564" t="n">
-        <v>8066</v>
+        <v>8074</v>
       </c>
       <c r="D564" t="s">
         <v>4</v>
@@ -8274,13 +8274,13 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B565" s="1" t="n">
         <v>44137</v>
       </c>
       <c r="C565" t="n">
-        <v>22270</v>
+        <v>22318</v>
       </c>
       <c r="D565" t="s">
         <v>5</v>
@@ -8288,13 +8288,13 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B566" s="1" t="n">
         <v>44138</v>
       </c>
       <c r="C566" t="n">
-        <v>10806</v>
+        <v>10884</v>
       </c>
       <c r="D566" t="s">
         <v>4</v>
@@ -8302,13 +8302,13 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B567" s="1" t="n">
         <v>44138</v>
       </c>
       <c r="C567" t="n">
-        <v>27388</v>
+        <v>27419</v>
       </c>
       <c r="D567" t="s">
         <v>5</v>
@@ -8316,13 +8316,13 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B568" s="1" t="n">
         <v>44139</v>
       </c>
       <c r="C568" t="n">
-        <v>9878</v>
+        <v>9899</v>
       </c>
       <c r="D568" t="s">
         <v>4</v>
@@ -8330,13 +8330,13 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B569" s="1" t="n">
         <v>44139</v>
       </c>
       <c r="C569" t="n">
-        <v>26688</v>
+        <v>26716</v>
       </c>
       <c r="D569" t="s">
         <v>5</v>
@@ -8344,13 +8344,13 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B570" s="1" t="n">
         <v>44140</v>
       </c>
       <c r="C570" t="n">
-        <v>8900</v>
+        <v>8922</v>
       </c>
       <c r="D570" t="s">
         <v>4</v>
@@ -8358,13 +8358,13 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B571" s="1" t="n">
         <v>44140</v>
       </c>
       <c r="C571" t="n">
-        <v>26242</v>
+        <v>26306</v>
       </c>
       <c r="D571" t="s">
         <v>5</v>
@@ -8372,13 +8372,13 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B572" s="1" t="n">
         <v>44141</v>
       </c>
       <c r="C572" t="n">
-        <v>7984</v>
+        <v>8187</v>
       </c>
       <c r="D572" t="s">
         <v>4</v>
@@ -8386,13 +8386,13 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B573" s="1" t="n">
         <v>44141</v>
       </c>
       <c r="C573" t="n">
-        <v>23892</v>
+        <v>24533</v>
       </c>
       <c r="D573" t="s">
         <v>5</v>
@@ -8400,13 +8400,13 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B574" s="1" t="n">
         <v>44142</v>
       </c>
       <c r="C574" t="n">
-        <v>5391</v>
+        <v>5663</v>
       </c>
       <c r="D574" t="s">
         <v>4</v>
@@ -8414,13 +8414,13 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B575" s="1" t="n">
         <v>44142</v>
       </c>
       <c r="C575" t="n">
-        <v>15065</v>
+        <v>17074</v>
       </c>
       <c r="D575" t="s">
         <v>5</v>
@@ -8428,13 +8428,13 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B576" s="1" t="n">
         <v>44143</v>
       </c>
       <c r="C576" t="n">
-        <v>2834</v>
+        <v>3443</v>
       </c>
       <c r="D576" t="s">
         <v>4</v>
@@ -8442,15 +8442,1219 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>44144.3265903125</v>
+        <v>44187.3316185185</v>
       </c>
       <c r="B577" s="1" t="n">
         <v>44143</v>
       </c>
       <c r="C577" t="n">
-        <v>5479</v>
+        <v>8427</v>
       </c>
       <c r="D577" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B578" s="1" t="n">
+        <v>44144</v>
+      </c>
+      <c r="C578" t="n">
+        <v>7242</v>
+      </c>
+      <c r="D578" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B579" s="1" t="n">
+        <v>44144</v>
+      </c>
+      <c r="C579" t="n">
+        <v>20363</v>
+      </c>
+      <c r="D579" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B580" s="1" t="n">
+        <v>44145</v>
+      </c>
+      <c r="C580" t="n">
+        <v>8936</v>
+      </c>
+      <c r="D580" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B581" s="1" t="n">
+        <v>44145</v>
+      </c>
+      <c r="C581" t="n">
+        <v>25691</v>
+      </c>
+      <c r="D581" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B582" s="1" t="n">
+        <v>44146</v>
+      </c>
+      <c r="C582" t="n">
+        <v>7325</v>
+      </c>
+      <c r="D582" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B583" s="1" t="n">
+        <v>44146</v>
+      </c>
+      <c r="C583" t="n">
+        <v>24176</v>
+      </c>
+      <c r="D583" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B584" s="1" t="n">
+        <v>44147</v>
+      </c>
+      <c r="C584" t="n">
+        <v>6800</v>
+      </c>
+      <c r="D584" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B585" s="1" t="n">
+        <v>44147</v>
+      </c>
+      <c r="C585" t="n">
+        <v>23892</v>
+      </c>
+      <c r="D585" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B586" s="1" t="n">
+        <v>44148</v>
+      </c>
+      <c r="C586" t="n">
+        <v>6238</v>
+      </c>
+      <c r="D586" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B587" s="1" t="n">
+        <v>44148</v>
+      </c>
+      <c r="C587" t="n">
+        <v>22062</v>
+      </c>
+      <c r="D587" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B588" s="1" t="n">
+        <v>44149</v>
+      </c>
+      <c r="C588" t="n">
+        <v>4288</v>
+      </c>
+      <c r="D588" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B589" s="1" t="n">
+        <v>44149</v>
+      </c>
+      <c r="C589" t="n">
+        <v>14273</v>
+      </c>
+      <c r="D589" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B590" s="1" t="n">
+        <v>44150</v>
+      </c>
+      <c r="C590" t="n">
+        <v>2489</v>
+      </c>
+      <c r="D590" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B591" s="1" t="n">
+        <v>44150</v>
+      </c>
+      <c r="C591" t="n">
+        <v>6957</v>
+      </c>
+      <c r="D591" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B592" s="1" t="n">
+        <v>44151</v>
+      </c>
+      <c r="C592" t="n">
+        <v>6037</v>
+      </c>
+      <c r="D592" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B593" s="1" t="n">
+        <v>44151</v>
+      </c>
+      <c r="C593" t="n">
+        <v>19851</v>
+      </c>
+      <c r="D593" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B594" s="1" t="n">
+        <v>44152</v>
+      </c>
+      <c r="C594" t="n">
+        <v>6335</v>
+      </c>
+      <c r="D594" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B595" s="1" t="n">
+        <v>44152</v>
+      </c>
+      <c r="C595" t="n">
+        <v>22993</v>
+      </c>
+      <c r="D595" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B596" s="1" t="n">
+        <v>44153</v>
+      </c>
+      <c r="C596" t="n">
+        <v>5509</v>
+      </c>
+      <c r="D596" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B597" s="1" t="n">
+        <v>44153</v>
+      </c>
+      <c r="C597" t="n">
+        <v>20888</v>
+      </c>
+      <c r="D597" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B598" s="1" t="n">
+        <v>44154</v>
+      </c>
+      <c r="C598" t="n">
+        <v>5094</v>
+      </c>
+      <c r="D598" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B599" s="1" t="n">
+        <v>44154</v>
+      </c>
+      <c r="C599" t="n">
+        <v>20446</v>
+      </c>
+      <c r="D599" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B600" s="1" t="n">
+        <v>44155</v>
+      </c>
+      <c r="C600" t="n">
+        <v>4663</v>
+      </c>
+      <c r="D600" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B601" s="1" t="n">
+        <v>44155</v>
+      </c>
+      <c r="C601" t="n">
+        <v>20970</v>
+      </c>
+      <c r="D601" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B602" s="1" t="n">
+        <v>44156</v>
+      </c>
+      <c r="C602" t="n">
+        <v>3220</v>
+      </c>
+      <c r="D602" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B603" s="1" t="n">
+        <v>44156</v>
+      </c>
+      <c r="C603" t="n">
+        <v>13324</v>
+      </c>
+      <c r="D603" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B604" s="1" t="n">
+        <v>44157</v>
+      </c>
+      <c r="C604" t="n">
+        <v>2043</v>
+      </c>
+      <c r="D604" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B605" s="1" t="n">
+        <v>44157</v>
+      </c>
+      <c r="C605" t="n">
+        <v>7365</v>
+      </c>
+      <c r="D605" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B606" s="1" t="n">
+        <v>44158</v>
+      </c>
+      <c r="C606" t="n">
+        <v>5031</v>
+      </c>
+      <c r="D606" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B607" s="1" t="n">
+        <v>44158</v>
+      </c>
+      <c r="C607" t="n">
+        <v>21525</v>
+      </c>
+      <c r="D607" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B608" s="1" t="n">
+        <v>44159</v>
+      </c>
+      <c r="C608" t="n">
+        <v>5091</v>
+      </c>
+      <c r="D608" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B609" s="1" t="n">
+        <v>44159</v>
+      </c>
+      <c r="C609" t="n">
+        <v>24575</v>
+      </c>
+      <c r="D609" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B610" s="1" t="n">
+        <v>44160</v>
+      </c>
+      <c r="C610" t="n">
+        <v>4723</v>
+      </c>
+      <c r="D610" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B611" s="1" t="n">
+        <v>44160</v>
+      </c>
+      <c r="C611" t="n">
+        <v>22958</v>
+      </c>
+      <c r="D611" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B612" s="1" t="n">
+        <v>44161</v>
+      </c>
+      <c r="C612" t="n">
+        <v>4308</v>
+      </c>
+      <c r="D612" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B613" s="1" t="n">
+        <v>44161</v>
+      </c>
+      <c r="C613" t="n">
+        <v>21919</v>
+      </c>
+      <c r="D613" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B614" s="1" t="n">
+        <v>44162</v>
+      </c>
+      <c r="C614" t="n">
+        <v>4450</v>
+      </c>
+      <c r="D614" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B615" s="1" t="n">
+        <v>44162</v>
+      </c>
+      <c r="C615" t="n">
+        <v>21642</v>
+      </c>
+      <c r="D615" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B616" s="1" t="n">
+        <v>44163</v>
+      </c>
+      <c r="C616" t="n">
+        <v>2812</v>
+      </c>
+      <c r="D616" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B617" s="1" t="n">
+        <v>44163</v>
+      </c>
+      <c r="C617" t="n">
+        <v>13001</v>
+      </c>
+      <c r="D617" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B618" s="1" t="n">
+        <v>44164</v>
+      </c>
+      <c r="C618" t="n">
+        <v>1833</v>
+      </c>
+      <c r="D618" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B619" s="1" t="n">
+        <v>44164</v>
+      </c>
+      <c r="C619" t="n">
+        <v>6943</v>
+      </c>
+      <c r="D619" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B620" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="C620" t="n">
+        <v>4953</v>
+      </c>
+      <c r="D620" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B621" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="C621" t="n">
+        <v>20452</v>
+      </c>
+      <c r="D621" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B622" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="C622" t="n">
+        <v>4939</v>
+      </c>
+      <c r="D622" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B623" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="C623" t="n">
+        <v>22217</v>
+      </c>
+      <c r="D623" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B624" s="1" t="n">
+        <v>44167</v>
+      </c>
+      <c r="C624" t="n">
+        <v>4829</v>
+      </c>
+      <c r="D624" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B625" s="1" t="n">
+        <v>44167</v>
+      </c>
+      <c r="C625" t="n">
+        <v>23090</v>
+      </c>
+      <c r="D625" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B626" s="1" t="n">
+        <v>44168</v>
+      </c>
+      <c r="C626" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D626" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B627" s="1" t="n">
+        <v>44168</v>
+      </c>
+      <c r="C627" t="n">
+        <v>22844</v>
+      </c>
+      <c r="D627" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B628" s="1" t="n">
+        <v>44169</v>
+      </c>
+      <c r="C628" t="n">
+        <v>4756</v>
+      </c>
+      <c r="D628" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B629" s="1" t="n">
+        <v>44169</v>
+      </c>
+      <c r="C629" t="n">
+        <v>23718</v>
+      </c>
+      <c r="D629" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B630" s="1" t="n">
+        <v>44170</v>
+      </c>
+      <c r="C630" t="n">
+        <v>3243</v>
+      </c>
+      <c r="D630" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B631" s="1" t="n">
+        <v>44170</v>
+      </c>
+      <c r="C631" t="n">
+        <v>14959</v>
+      </c>
+      <c r="D631" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B632" s="1" t="n">
+        <v>44171</v>
+      </c>
+      <c r="C632" t="n">
+        <v>2053</v>
+      </c>
+      <c r="D632" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B633" s="1" t="n">
+        <v>44171</v>
+      </c>
+      <c r="C633" t="n">
+        <v>8259</v>
+      </c>
+      <c r="D633" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B634" s="1" t="n">
+        <v>44172</v>
+      </c>
+      <c r="C634" t="n">
+        <v>5307</v>
+      </c>
+      <c r="D634" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B635" s="1" t="n">
+        <v>44172</v>
+      </c>
+      <c r="C635" t="n">
+        <v>23586</v>
+      </c>
+      <c r="D635" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B636" s="1" t="n">
+        <v>44173</v>
+      </c>
+      <c r="C636" t="n">
+        <v>5294</v>
+      </c>
+      <c r="D636" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B637" s="1" t="n">
+        <v>44173</v>
+      </c>
+      <c r="C637" t="n">
+        <v>26107</v>
+      </c>
+      <c r="D637" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B638" s="1" t="n">
+        <v>44174</v>
+      </c>
+      <c r="C638" t="n">
+        <v>5356</v>
+      </c>
+      <c r="D638" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B639" s="1" t="n">
+        <v>44174</v>
+      </c>
+      <c r="C639" t="n">
+        <v>27601</v>
+      </c>
+      <c r="D639" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B640" s="1" t="n">
+        <v>44175</v>
+      </c>
+      <c r="C640" t="n">
+        <v>5258</v>
+      </c>
+      <c r="D640" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B641" s="1" t="n">
+        <v>44175</v>
+      </c>
+      <c r="C641" t="n">
+        <v>29361</v>
+      </c>
+      <c r="D641" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B642" s="1" t="n">
+        <v>44176</v>
+      </c>
+      <c r="C642" t="n">
+        <v>5018</v>
+      </c>
+      <c r="D642" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B643" s="1" t="n">
+        <v>44176</v>
+      </c>
+      <c r="C643" t="n">
+        <v>34452</v>
+      </c>
+      <c r="D643" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B644" s="1" t="n">
+        <v>44177</v>
+      </c>
+      <c r="C644" t="n">
+        <v>3536</v>
+      </c>
+      <c r="D644" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B645" s="1" t="n">
+        <v>44177</v>
+      </c>
+      <c r="C645" t="n">
+        <v>23367</v>
+      </c>
+      <c r="D645" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B646" s="1" t="n">
+        <v>44178</v>
+      </c>
+      <c r="C646" t="n">
+        <v>2287</v>
+      </c>
+      <c r="D646" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B647" s="1" t="n">
+        <v>44178</v>
+      </c>
+      <c r="C647" t="n">
+        <v>13197</v>
+      </c>
+      <c r="D647" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B648" s="1" t="n">
+        <v>44179</v>
+      </c>
+      <c r="C648" t="n">
+        <v>5178</v>
+      </c>
+      <c r="D648" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B649" s="1" t="n">
+        <v>44179</v>
+      </c>
+      <c r="C649" t="n">
+        <v>26937</v>
+      </c>
+      <c r="D649" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B650" s="1" t="n">
+        <v>44180</v>
+      </c>
+      <c r="C650" t="n">
+        <v>5840</v>
+      </c>
+      <c r="D650" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B651" s="1" t="n">
+        <v>44180</v>
+      </c>
+      <c r="C651" t="n">
+        <v>33507</v>
+      </c>
+      <c r="D651" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B652" s="1" t="n">
+        <v>44181</v>
+      </c>
+      <c r="C652" t="n">
+        <v>5251</v>
+      </c>
+      <c r="D652" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B653" s="1" t="n">
+        <v>44181</v>
+      </c>
+      <c r="C653" t="n">
+        <v>35606</v>
+      </c>
+      <c r="D653" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B654" s="1" t="n">
+        <v>44182</v>
+      </c>
+      <c r="C654" t="n">
+        <v>4787</v>
+      </c>
+      <c r="D654" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B655" s="1" t="n">
+        <v>44182</v>
+      </c>
+      <c r="C655" t="n">
+        <v>38112</v>
+      </c>
+      <c r="D655" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B656" s="1" t="n">
+        <v>44183</v>
+      </c>
+      <c r="C656" t="n">
+        <v>4892</v>
+      </c>
+      <c r="D656" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B657" s="1" t="n">
+        <v>44183</v>
+      </c>
+      <c r="C657" t="n">
+        <v>39528</v>
+      </c>
+      <c r="D657" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B658" s="1" t="n">
+        <v>44184</v>
+      </c>
+      <c r="C658" t="n">
+        <v>3163</v>
+      </c>
+      <c r="D658" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B659" s="1" t="n">
+        <v>44184</v>
+      </c>
+      <c r="C659" t="n">
+        <v>22630</v>
+      </c>
+      <c r="D659" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B660" s="1" t="n">
+        <v>44185</v>
+      </c>
+      <c r="C660" t="n">
+        <v>2104</v>
+      </c>
+      <c r="D660" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B661" s="1" t="n">
+        <v>44185</v>
+      </c>
+      <c r="C661" t="n">
+        <v>12815</v>
+      </c>
+      <c r="D661" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B662" s="1" t="n">
+        <v>44186</v>
+      </c>
+      <c r="C662" t="n">
+        <v>4074</v>
+      </c>
+      <c r="D662" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>44187.3316185185</v>
+      </c>
+      <c r="B663" s="1" t="n">
+        <v>44186</v>
+      </c>
+      <c r="C663" t="n">
+        <v>22936</v>
+      </c>
+      <c r="D663" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data-raw/BAG-open/Dashboard_3_COVID19_labtests_positivity.xlsx
+++ b/data-raw/BAG-open/Dashboard_3_COVID19_labtests_positivity.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43854</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43854</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43855</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43855</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43857</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43857</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43858</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43858</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43859</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43859</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43860</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43860</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43861</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43861</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43862</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43862</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43863</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43863</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43864</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43864</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43865</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43865</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43866</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43866</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43867</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43867</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43868</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43868</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43869</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43869</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43870</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43870</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43871</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43871</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43872</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43872</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43873</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43873</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43874</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43874</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43875</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43875</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43876</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43876</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43877</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43877</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43879</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43879</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43880</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43880</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43881</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43881</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43882</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43882</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43883</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43883</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43884</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43884</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43885</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43885</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43886</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43886</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43887</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43887</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43888</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43888</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43889</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43889</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43890</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43890</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43891</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43891</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43892</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43892</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43893</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43893</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43894</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43894</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43895</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43895</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43896</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43896</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43897</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43897</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43898</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43898</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43899</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43899</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43900</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43900</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43901</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43901</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43902</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43902</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43903</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43903</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43904</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43904</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43905</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43905</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43906</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43906</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43907</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43907</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43908</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43908</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43909</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43909</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43910</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43910</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43911</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43911</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43912</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43912</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43913</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43913</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43914</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43914</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43915</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43915</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43916</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43916</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43917</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43917</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43918</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43918</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43919</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43919</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43920</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43920</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43921</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43921</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43922</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43922</v>
@@ -2268,13 +2268,13 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43923</v>
       </c>
       <c r="C136" t="n">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D136" t="s">
         <v>4</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43923</v>
@@ -2296,13 +2296,13 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43924</v>
       </c>
       <c r="C138" t="n">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D138" t="s">
         <v>4</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43924</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43925</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43925</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43926</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43926</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43927</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43927</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43928</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43928</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43929</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43929</v>
@@ -2464,13 +2464,13 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43930</v>
       </c>
       <c r="C150" t="n">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D150" t="s">
         <v>4</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43930</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43931</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43931</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43932</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43932</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43933</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43933</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43934</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43934</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43935</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43935</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43936</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43936</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43937</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43937</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43938</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43938</v>
@@ -2716,13 +2716,13 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43939</v>
       </c>
       <c r="C168" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D168" t="s">
         <v>4</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43939</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43940</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43940</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43941</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43941</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43942</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43942</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43943</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43943</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43944</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43944</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43945</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43945</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43946</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43946</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43947</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43947</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43948</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43948</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43949</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43949</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43950</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43950</v>
@@ -3052,13 +3052,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C192" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D192" t="s">
         <v>4</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43951</v>
@@ -3080,13 +3080,13 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43952</v>
       </c>
       <c r="C194" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D194" t="s">
         <v>4</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43952</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43953</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43953</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43954</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43954</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43955</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43955</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43956</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43956</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43957</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43957</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43958</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43958</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43959</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43959</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43960</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43960</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43961</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43961</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43962</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43962</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43963</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43963</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43964</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43964</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43965</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43965</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43966</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43966</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43967</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43967</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43968</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43968</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43969</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43969</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43970</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43970</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43971</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43971</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43972</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43972</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>43973</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>43973</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>43974</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>43974</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>43975</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>43975</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>43976</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>43976</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>43977</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>43977</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>43978</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>43978</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>43979</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>43979</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>43980</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>43980</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>43981</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>43981</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>43982</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>43982</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>43983</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>43983</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>43984</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>43984</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>43985</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>43985</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>43986</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>43986</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>43987</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>43987</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>43988</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>43988</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>43989</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>43989</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>43990</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>43990</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>43991</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>43991</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>43992</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>43992</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>43993</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>43993</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>43994</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>43994</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>43995</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>43995</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>43996</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>43996</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>43997</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>43997</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>43998</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>43998</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>43999</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>43999</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44000</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44000</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44001</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44001</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44002</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44002</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44003</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44003</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44004</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44004</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44005</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44005</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44006</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44006</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44007</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44007</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44008</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44008</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44009</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44009</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44010</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44010</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44011</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44011</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44012</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44012</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44013</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44013</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44014</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44014</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44015</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44015</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44016</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44016</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44017</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44017</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44018</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44018</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44019</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44019</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44020</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44020</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44021</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44021</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44022</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44022</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44023</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44023</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44024</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44024</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44025</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44025</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44026</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44026</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44027</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44027</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44028</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44028</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44029</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44029</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44030</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44030</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44031</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44031</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44032</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44032</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44033</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44033</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44034</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44034</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44035</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44035</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44036</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44036</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44037</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44037</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44038</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44038</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44039</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44039</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44040</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44040</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44041</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44041</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44042</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44042</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44043</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44043</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44044</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44044</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44045</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44045</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44046</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44046</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44047</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44047</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44048</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44048</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44049</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44049</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44050</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44050</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44051</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44051</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44052</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44052</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44053</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44053</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44054</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44054</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44055</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44055</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44056</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44056</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44057</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44057</v>
@@ -6048,13 +6048,13 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44058</v>
       </c>
       <c r="C406" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D406" t="s">
         <v>4</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44058</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>44059</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B409" s="1" t="n">
         <v>44059</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B410" s="1" t="n">
         <v>44060</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B411" s="1" t="n">
         <v>44060</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B412" s="1" t="n">
         <v>44061</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B413" s="1" t="n">
         <v>44061</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B414" s="1" t="n">
         <v>44062</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B415" s="1" t="n">
         <v>44062</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B416" s="1" t="n">
         <v>44063</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B417" s="1" t="n">
         <v>44063</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B418" s="1" t="n">
         <v>44064</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B419" s="1" t="n">
         <v>44064</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B420" s="1" t="n">
         <v>44065</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B421" s="1" t="n">
         <v>44065</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B422" s="1" t="n">
         <v>44066</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B423" s="1" t="n">
         <v>44066</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B424" s="1" t="n">
         <v>44067</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B425" s="1" t="n">
         <v>44067</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B426" s="1" t="n">
         <v>44068</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B427" s="1" t="n">
         <v>44068</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B428" s="1" t="n">
         <v>44069</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B429" s="1" t="n">
         <v>44069</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B430" s="1" t="n">
         <v>44070</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B431" s="1" t="n">
         <v>44070</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B432" s="1" t="n">
         <v>44071</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B433" s="1" t="n">
         <v>44071</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B434" s="1" t="n">
         <v>44072</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B435" s="1" t="n">
         <v>44072</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B436" s="1" t="n">
         <v>44073</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B437" s="1" t="n">
         <v>44073</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B438" s="1" t="n">
         <v>44074</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B439" s="1" t="n">
         <v>44074</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B440" s="1" t="n">
         <v>44075</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B441" s="1" t="n">
         <v>44075</v>
@@ -6552,7 +6552,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B442" s="1" t="n">
         <v>44076</v>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B443" s="1" t="n">
         <v>44076</v>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B444" s="1" t="n">
         <v>44077</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B445" s="1" t="n">
         <v>44077</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B446" s="1" t="n">
         <v>44078</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B447" s="1" t="n">
         <v>44078</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B448" s="1" t="n">
         <v>44079</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B449" s="1" t="n">
         <v>44079</v>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B450" s="1" t="n">
         <v>44080</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B451" s="1" t="n">
         <v>44080</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B452" s="1" t="n">
         <v>44081</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B453" s="1" t="n">
         <v>44081</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B454" s="1" t="n">
         <v>44082</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B455" s="1" t="n">
         <v>44082</v>
@@ -6748,13 +6748,13 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B456" s="1" t="n">
         <v>44083</v>
       </c>
       <c r="C456" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D456" t="s">
         <v>4</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B457" s="1" t="n">
         <v>44083</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B458" s="1" t="n">
         <v>44084</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B459" s="1" t="n">
         <v>44084</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B460" s="1" t="n">
         <v>44085</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B461" s="1" t="n">
         <v>44085</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B462" s="1" t="n">
         <v>44086</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B463" s="1" t="n">
         <v>44086</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B464" s="1" t="n">
         <v>44087</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B465" s="1" t="n">
         <v>44087</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B466" s="1" t="n">
         <v>44088</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B467" s="1" t="n">
         <v>44088</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B468" s="1" t="n">
         <v>44089</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B469" s="1" t="n">
         <v>44089</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B470" s="1" t="n">
         <v>44090</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B471" s="1" t="n">
         <v>44090</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B472" s="1" t="n">
         <v>44091</v>
@@ -6986,7 +6986,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B473" s="1" t="n">
         <v>44091</v>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B474" s="1" t="n">
         <v>44092</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B475" s="1" t="n">
         <v>44092</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B476" s="1" t="n">
         <v>44093</v>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B477" s="1" t="n">
         <v>44093</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B478" s="1" t="n">
         <v>44094</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B479" s="1" t="n">
         <v>44094</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B480" s="1" t="n">
         <v>44095</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B481" s="1" t="n">
         <v>44095</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B482" s="1" t="n">
         <v>44096</v>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B483" s="1" t="n">
         <v>44096</v>
@@ -7140,7 +7140,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B484" s="1" t="n">
         <v>44097</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B485" s="1" t="n">
         <v>44097</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B486" s="1" t="n">
         <v>44098</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B487" s="1" t="n">
         <v>44098</v>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B488" s="1" t="n">
         <v>44099</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B489" s="1" t="n">
         <v>44099</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B490" s="1" t="n">
         <v>44100</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B491" s="1" t="n">
         <v>44100</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B492" s="1" t="n">
         <v>44101</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B493" s="1" t="n">
         <v>44101</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B494" s="1" t="n">
         <v>44102</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B495" s="1" t="n">
         <v>44102</v>
@@ -7308,13 +7308,13 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B496" s="1" t="n">
         <v>44103</v>
       </c>
       <c r="C496" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D496" t="s">
         <v>4</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B497" s="1" t="n">
         <v>44103</v>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B498" s="1" t="n">
         <v>44104</v>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B499" s="1" t="n">
         <v>44104</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B500" s="1" t="n">
         <v>44105</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B501" s="1" t="n">
         <v>44105</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B502" s="1" t="n">
         <v>44106</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B503" s="1" t="n">
         <v>44106</v>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B504" s="1" t="n">
         <v>44107</v>
@@ -7434,7 +7434,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B505" s="1" t="n">
         <v>44107</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B506" s="1" t="n">
         <v>44108</v>
@@ -7462,7 +7462,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B507" s="1" t="n">
         <v>44108</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B508" s="1" t="n">
         <v>44109</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B509" s="1" t="n">
         <v>44109</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B510" s="1" t="n">
         <v>44110</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B511" s="1" t="n">
         <v>44110</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B512" s="1" t="n">
         <v>44111</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B513" s="1" t="n">
         <v>44111</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B514" s="1" t="n">
         <v>44112</v>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B515" s="1" t="n">
         <v>44112</v>
@@ -7588,7 +7588,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B516" s="1" t="n">
         <v>44113</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B517" s="1" t="n">
         <v>44113</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B518" s="1" t="n">
         <v>44114</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B519" s="1" t="n">
         <v>44114</v>
@@ -7644,7 +7644,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B520" s="1" t="n">
         <v>44115</v>
@@ -7658,7 +7658,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B521" s="1" t="n">
         <v>44115</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B522" s="1" t="n">
         <v>44116</v>
@@ -7686,7 +7686,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B523" s="1" t="n">
         <v>44116</v>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B524" s="1" t="n">
         <v>44117</v>
@@ -7714,7 +7714,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B525" s="1" t="n">
         <v>44117</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B526" s="1" t="n">
         <v>44118</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B527" s="1" t="n">
         <v>44118</v>
@@ -7756,7 +7756,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B528" s="1" t="n">
         <v>44119</v>
@@ -7770,7 +7770,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B529" s="1" t="n">
         <v>44119</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B530" s="1" t="n">
         <v>44120</v>
@@ -7798,7 +7798,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B531" s="1" t="n">
         <v>44120</v>
@@ -7812,7 +7812,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B532" s="1" t="n">
         <v>44121</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B533" s="1" t="n">
         <v>44121</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B534" s="1" t="n">
         <v>44122</v>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B535" s="1" t="n">
         <v>44122</v>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B536" s="1" t="n">
         <v>44123</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B537" s="1" t="n">
         <v>44123</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B538" s="1" t="n">
         <v>44124</v>
@@ -7910,7 +7910,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B539" s="1" t="n">
         <v>44124</v>
@@ -7924,7 +7924,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B540" s="1" t="n">
         <v>44125</v>
@@ -7938,7 +7938,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B541" s="1" t="n">
         <v>44125</v>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B542" s="1" t="n">
         <v>44126</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B543" s="1" t="n">
         <v>44126</v>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B544" s="1" t="n">
         <v>44127</v>
@@ -7994,7 +7994,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B545" s="1" t="n">
         <v>44127</v>
@@ -8008,7 +8008,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B546" s="1" t="n">
         <v>44128</v>
@@ -8022,7 +8022,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B547" s="1" t="n">
         <v>44128</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B548" s="1" t="n">
         <v>44129</v>
@@ -8050,7 +8050,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B549" s="1" t="n">
         <v>44129</v>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B550" s="1" t="n">
         <v>44130</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B551" s="1" t="n">
         <v>44130</v>
@@ -8092,7 +8092,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B552" s="1" t="n">
         <v>44131</v>
@@ -8106,7 +8106,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B553" s="1" t="n">
         <v>44131</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B554" s="1" t="n">
         <v>44132</v>
@@ -8134,7 +8134,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B555" s="1" t="n">
         <v>44132</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B556" s="1" t="n">
         <v>44133</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B557" s="1" t="n">
         <v>44133</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B558" s="1" t="n">
         <v>44134</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B559" s="1" t="n">
         <v>44134</v>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B560" s="1" t="n">
         <v>44135</v>
@@ -8218,7 +8218,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B561" s="1" t="n">
         <v>44135</v>
@@ -8232,7 +8232,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B562" s="1" t="n">
         <v>44136</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B563" s="1" t="n">
         <v>44136</v>
@@ -8260,13 +8260,13 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B564" s="1" t="n">
         <v>44137</v>
       </c>
       <c r="C564" t="n">
-        <v>8074</v>
+        <v>8075</v>
       </c>
       <c r="D564" t="s">
         <v>4</v>
@@ -8274,7 +8274,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B565" s="1" t="n">
         <v>44137</v>
@@ -8288,13 +8288,13 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B566" s="1" t="n">
         <v>44138</v>
       </c>
       <c r="C566" t="n">
-        <v>10884</v>
+        <v>10885</v>
       </c>
       <c r="D566" t="s">
         <v>4</v>
@@ -8302,7 +8302,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B567" s="1" t="n">
         <v>44138</v>
@@ -8316,13 +8316,13 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B568" s="1" t="n">
         <v>44139</v>
       </c>
       <c r="C568" t="n">
-        <v>9899</v>
+        <v>9900</v>
       </c>
       <c r="D568" t="s">
         <v>4</v>
@@ -8330,7 +8330,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B569" s="1" t="n">
         <v>44139</v>
@@ -8344,13 +8344,13 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B570" s="1" t="n">
         <v>44140</v>
       </c>
       <c r="C570" t="n">
-        <v>8922</v>
+        <v>8921</v>
       </c>
       <c r="D570" t="s">
         <v>4</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B571" s="1" t="n">
         <v>44140</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B572" s="1" t="n">
         <v>44141</v>
@@ -8386,7 +8386,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B573" s="1" t="n">
         <v>44141</v>
@@ -8400,7 +8400,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B574" s="1" t="n">
         <v>44142</v>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B575" s="1" t="n">
         <v>44142</v>
@@ -8428,13 +8428,13 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B576" s="1" t="n">
         <v>44143</v>
       </c>
       <c r="C576" t="n">
-        <v>3443</v>
+        <v>3444</v>
       </c>
       <c r="D576" t="s">
         <v>4</v>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B577" s="1" t="n">
         <v>44143</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B578" s="1" t="n">
         <v>44144</v>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B579" s="1" t="n">
         <v>44144</v>
@@ -8484,7 +8484,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B580" s="1" t="n">
         <v>44145</v>
@@ -8498,7 +8498,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B581" s="1" t="n">
         <v>44145</v>
@@ -8512,7 +8512,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B582" s="1" t="n">
         <v>44146</v>
@@ -8526,7 +8526,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B583" s="1" t="n">
         <v>44146</v>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B584" s="1" t="n">
         <v>44147</v>
@@ -8554,7 +8554,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B585" s="1" t="n">
         <v>44147</v>
@@ -8568,7 +8568,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B586" s="1" t="n">
         <v>44148</v>
@@ -8582,7 +8582,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B587" s="1" t="n">
         <v>44148</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B588" s="1" t="n">
         <v>44149</v>
@@ -8610,7 +8610,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B589" s="1" t="n">
         <v>44149</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B590" s="1" t="n">
         <v>44150</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B591" s="1" t="n">
         <v>44150</v>
@@ -8652,13 +8652,13 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B592" s="1" t="n">
         <v>44151</v>
       </c>
       <c r="C592" t="n">
-        <v>6037</v>
+        <v>6039</v>
       </c>
       <c r="D592" t="s">
         <v>4</v>
@@ -8666,7 +8666,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B593" s="1" t="n">
         <v>44151</v>
@@ -8680,13 +8680,13 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B594" s="1" t="n">
         <v>44152</v>
       </c>
       <c r="C594" t="n">
-        <v>6335</v>
+        <v>6357</v>
       </c>
       <c r="D594" t="s">
         <v>4</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B595" s="1" t="n">
         <v>44152</v>
@@ -8708,13 +8708,13 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B596" s="1" t="n">
         <v>44153</v>
       </c>
       <c r="C596" t="n">
-        <v>5509</v>
+        <v>5511</v>
       </c>
       <c r="D596" t="s">
         <v>4</v>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B597" s="1" t="n">
         <v>44153</v>
@@ -8736,13 +8736,13 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B598" s="1" t="n">
         <v>44154</v>
       </c>
       <c r="C598" t="n">
-        <v>5094</v>
+        <v>5099</v>
       </c>
       <c r="D598" t="s">
         <v>4</v>
@@ -8750,7 +8750,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B599" s="1" t="n">
         <v>44154</v>
@@ -8764,13 +8764,13 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B600" s="1" t="n">
         <v>44155</v>
       </c>
       <c r="C600" t="n">
-        <v>4663</v>
+        <v>4665</v>
       </c>
       <c r="D600" t="s">
         <v>4</v>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B601" s="1" t="n">
         <v>44155</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B602" s="1" t="n">
         <v>44156</v>
@@ -8806,7 +8806,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B603" s="1" t="n">
         <v>44156</v>
@@ -8820,13 +8820,13 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B604" s="1" t="n">
         <v>44157</v>
       </c>
       <c r="C604" t="n">
-        <v>2043</v>
+        <v>2048</v>
       </c>
       <c r="D604" t="s">
         <v>4</v>
@@ -8834,7 +8834,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B605" s="1" t="n">
         <v>44157</v>
@@ -8848,13 +8848,13 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B606" s="1" t="n">
         <v>44158</v>
       </c>
       <c r="C606" t="n">
-        <v>5031</v>
+        <v>5037</v>
       </c>
       <c r="D606" t="s">
         <v>4</v>
@@ -8862,7 +8862,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B607" s="1" t="n">
         <v>44158</v>
@@ -8876,13 +8876,13 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B608" s="1" t="n">
         <v>44159</v>
       </c>
       <c r="C608" t="n">
-        <v>5091</v>
+        <v>5095</v>
       </c>
       <c r="D608" t="s">
         <v>4</v>
@@ -8890,7 +8890,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B609" s="1" t="n">
         <v>44159</v>
@@ -8904,13 +8904,13 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B610" s="1" t="n">
         <v>44160</v>
       </c>
       <c r="C610" t="n">
-        <v>4723</v>
+        <v>4726</v>
       </c>
       <c r="D610" t="s">
         <v>4</v>
@@ -8918,7 +8918,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B611" s="1" t="n">
         <v>44160</v>
@@ -8932,13 +8932,13 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B612" s="1" t="n">
         <v>44161</v>
       </c>
       <c r="C612" t="n">
-        <v>4308</v>
+        <v>4311</v>
       </c>
       <c r="D612" t="s">
         <v>4</v>
@@ -8946,7 +8946,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B613" s="1" t="n">
         <v>44161</v>
@@ -8960,13 +8960,13 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B614" s="1" t="n">
         <v>44162</v>
       </c>
       <c r="C614" t="n">
-        <v>4450</v>
+        <v>4456</v>
       </c>
       <c r="D614" t="s">
         <v>4</v>
@@ -8974,7 +8974,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B615" s="1" t="n">
         <v>44162</v>
@@ -8988,13 +8988,13 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B616" s="1" t="n">
         <v>44163</v>
       </c>
       <c r="C616" t="n">
-        <v>2812</v>
+        <v>2819</v>
       </c>
       <c r="D616" t="s">
         <v>4</v>
@@ -9002,7 +9002,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B617" s="1" t="n">
         <v>44163</v>
@@ -9016,13 +9016,13 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B618" s="1" t="n">
         <v>44164</v>
       </c>
       <c r="C618" t="n">
-        <v>1833</v>
+        <v>1844</v>
       </c>
       <c r="D618" t="s">
         <v>4</v>
@@ -9030,7 +9030,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B619" s="1" t="n">
         <v>44164</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B620" s="1" t="n">
         <v>44165</v>
@@ -9058,7 +9058,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B621" s="1" t="n">
         <v>44165</v>
@@ -9072,13 +9072,13 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B622" s="1" t="n">
         <v>44166</v>
       </c>
       <c r="C622" t="n">
-        <v>4939</v>
+        <v>4940</v>
       </c>
       <c r="D622" t="s">
         <v>4</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B623" s="1" t="n">
         <v>44166</v>
@@ -9100,7 +9100,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B624" s="1" t="n">
         <v>44167</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B625" s="1" t="n">
         <v>44167</v>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B626" s="1" t="n">
         <v>44168</v>
@@ -9142,7 +9142,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B627" s="1" t="n">
         <v>44168</v>
@@ -9156,13 +9156,13 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B628" s="1" t="n">
         <v>44169</v>
       </c>
       <c r="C628" t="n">
-        <v>4756</v>
+        <v>4757</v>
       </c>
       <c r="D628" t="s">
         <v>4</v>
@@ -9170,7 +9170,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B629" s="1" t="n">
         <v>44169</v>
@@ -9184,13 +9184,13 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B630" s="1" t="n">
         <v>44170</v>
       </c>
       <c r="C630" t="n">
-        <v>3243</v>
+        <v>3246</v>
       </c>
       <c r="D630" t="s">
         <v>4</v>
@@ -9198,7 +9198,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B631" s="1" t="n">
         <v>44170</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B632" s="1" t="n">
         <v>44171</v>
@@ -9226,7 +9226,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B633" s="1" t="n">
         <v>44171</v>
@@ -9240,13 +9240,13 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B634" s="1" t="n">
         <v>44172</v>
       </c>
       <c r="C634" t="n">
-        <v>5307</v>
+        <v>5308</v>
       </c>
       <c r="D634" t="s">
         <v>4</v>
@@ -9254,7 +9254,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B635" s="1" t="n">
         <v>44172</v>
@@ -9268,13 +9268,13 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B636" s="1" t="n">
         <v>44173</v>
       </c>
       <c r="C636" t="n">
-        <v>5294</v>
+        <v>5293</v>
       </c>
       <c r="D636" t="s">
         <v>4</v>
@@ -9282,7 +9282,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B637" s="1" t="n">
         <v>44173</v>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B638" s="1" t="n">
         <v>44174</v>
@@ -9310,7 +9310,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B639" s="1" t="n">
         <v>44174</v>
@@ -9324,13 +9324,13 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B640" s="1" t="n">
         <v>44175</v>
       </c>
       <c r="C640" t="n">
-        <v>5258</v>
+        <v>5263</v>
       </c>
       <c r="D640" t="s">
         <v>4</v>
@@ -9338,7 +9338,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B641" s="1" t="n">
         <v>44175</v>
@@ -9352,13 +9352,13 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B642" s="1" t="n">
         <v>44176</v>
       </c>
       <c r="C642" t="n">
-        <v>5018</v>
+        <v>5022</v>
       </c>
       <c r="D642" t="s">
         <v>4</v>
@@ -9366,7 +9366,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B643" s="1" t="n">
         <v>44176</v>
@@ -9380,13 +9380,13 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B644" s="1" t="n">
         <v>44177</v>
       </c>
       <c r="C644" t="n">
-        <v>3536</v>
+        <v>3537</v>
       </c>
       <c r="D644" t="s">
         <v>4</v>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B645" s="1" t="n">
         <v>44177</v>
@@ -9408,13 +9408,13 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B646" s="1" t="n">
         <v>44178</v>
       </c>
       <c r="C646" t="n">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="D646" t="s">
         <v>4</v>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B647" s="1" t="n">
         <v>44178</v>
@@ -9436,13 +9436,13 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B648" s="1" t="n">
         <v>44179</v>
       </c>
       <c r="C648" t="n">
-        <v>5178</v>
+        <v>5183</v>
       </c>
       <c r="D648" t="s">
         <v>4</v>
@@ -9450,7 +9450,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B649" s="1" t="n">
         <v>44179</v>
@@ -9464,13 +9464,13 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B650" s="1" t="n">
         <v>44180</v>
       </c>
       <c r="C650" t="n">
-        <v>5840</v>
+        <v>5853</v>
       </c>
       <c r="D650" t="s">
         <v>4</v>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B651" s="1" t="n">
         <v>44180</v>
@@ -9492,13 +9492,13 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B652" s="1" t="n">
         <v>44181</v>
       </c>
       <c r="C652" t="n">
-        <v>5251</v>
+        <v>5258</v>
       </c>
       <c r="D652" t="s">
         <v>4</v>
@@ -9506,7 +9506,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B653" s="1" t="n">
         <v>44181</v>
@@ -9520,13 +9520,13 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B654" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C654" t="n">
-        <v>4787</v>
+        <v>4792</v>
       </c>
       <c r="D654" t="s">
         <v>4</v>
@@ -9534,13 +9534,13 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B655" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C655" t="n">
-        <v>38112</v>
+        <v>38248</v>
       </c>
       <c r="D655" t="s">
         <v>5</v>
@@ -9548,13 +9548,13 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B656" s="1" t="n">
         <v>44183</v>
       </c>
       <c r="C656" t="n">
-        <v>4892</v>
+        <v>4910</v>
       </c>
       <c r="D656" t="s">
         <v>4</v>
@@ -9562,13 +9562,13 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B657" s="1" t="n">
         <v>44183</v>
       </c>
       <c r="C657" t="n">
-        <v>39528</v>
+        <v>40149</v>
       </c>
       <c r="D657" t="s">
         <v>5</v>
@@ -9576,13 +9576,13 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B658" s="1" t="n">
         <v>44184</v>
       </c>
       <c r="C658" t="n">
-        <v>3163</v>
+        <v>3182</v>
       </c>
       <c r="D658" t="s">
         <v>4</v>
@@ -9590,13 +9590,13 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B659" s="1" t="n">
         <v>44184</v>
       </c>
       <c r="C659" t="n">
-        <v>22630</v>
+        <v>23338</v>
       </c>
       <c r="D659" t="s">
         <v>5</v>
@@ -9604,13 +9604,13 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B660" s="1" t="n">
         <v>44185</v>
       </c>
       <c r="C660" t="n">
-        <v>2104</v>
+        <v>2120</v>
       </c>
       <c r="D660" t="s">
         <v>4</v>
@@ -9618,13 +9618,13 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B661" s="1" t="n">
         <v>44185</v>
       </c>
       <c r="C661" t="n">
-        <v>12815</v>
+        <v>13237</v>
       </c>
       <c r="D661" t="s">
         <v>5</v>
@@ -9632,13 +9632,13 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B662" s="1" t="n">
         <v>44186</v>
       </c>
       <c r="C662" t="n">
-        <v>4074</v>
+        <v>5195</v>
       </c>
       <c r="D662" t="s">
         <v>4</v>
@@ -9646,15 +9646,799 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>44187.3316185185</v>
+        <v>44215.3287074074</v>
       </c>
       <c r="B663" s="1" t="n">
         <v>44186</v>
       </c>
       <c r="C663" t="n">
-        <v>22936</v>
+        <v>33418</v>
       </c>
       <c r="D663" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B664" s="1" t="n">
+        <v>44187</v>
+      </c>
+      <c r="C664" t="n">
+        <v>5219</v>
+      </c>
+      <c r="D664" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B665" s="1" t="n">
+        <v>44187</v>
+      </c>
+      <c r="C665" t="n">
+        <v>39728</v>
+      </c>
+      <c r="D665" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B666" s="1" t="n">
+        <v>44188</v>
+      </c>
+      <c r="C666" t="n">
+        <v>5131</v>
+      </c>
+      <c r="D666" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B667" s="1" t="n">
+        <v>44188</v>
+      </c>
+      <c r="C667" t="n">
+        <v>41716</v>
+      </c>
+      <c r="D667" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B668" s="1" t="n">
+        <v>44189</v>
+      </c>
+      <c r="C668" t="n">
+        <v>4034</v>
+      </c>
+      <c r="D668" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B669" s="1" t="n">
+        <v>44189</v>
+      </c>
+      <c r="C669" t="n">
+        <v>30847</v>
+      </c>
+      <c r="D669" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B670" s="1" t="n">
+        <v>44190</v>
+      </c>
+      <c r="C670" t="n">
+        <v>1915</v>
+      </c>
+      <c r="D670" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B671" s="1" t="n">
+        <v>44190</v>
+      </c>
+      <c r="C671" t="n">
+        <v>11176</v>
+      </c>
+      <c r="D671" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B672" s="1" t="n">
+        <v>44191</v>
+      </c>
+      <c r="C672" t="n">
+        <v>2372</v>
+      </c>
+      <c r="D672" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B673" s="1" t="n">
+        <v>44191</v>
+      </c>
+      <c r="C673" t="n">
+        <v>12914</v>
+      </c>
+      <c r="D673" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B674" s="1" t="n">
+        <v>44192</v>
+      </c>
+      <c r="C674" t="n">
+        <v>2284</v>
+      </c>
+      <c r="D674" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B675" s="1" t="n">
+        <v>44192</v>
+      </c>
+      <c r="C675" t="n">
+        <v>10583</v>
+      </c>
+      <c r="D675" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B676" s="1" t="n">
+        <v>44193</v>
+      </c>
+      <c r="C676" t="n">
+        <v>4802</v>
+      </c>
+      <c r="D676" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B677" s="1" t="n">
+        <v>44193</v>
+      </c>
+      <c r="C677" t="n">
+        <v>24544</v>
+      </c>
+      <c r="D677" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B678" s="1" t="n">
+        <v>44194</v>
+      </c>
+      <c r="C678" t="n">
+        <v>5029</v>
+      </c>
+      <c r="D678" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B679" s="1" t="n">
+        <v>44194</v>
+      </c>
+      <c r="C679" t="n">
+        <v>24653</v>
+      </c>
+      <c r="D679" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B680" s="1" t="n">
+        <v>44195</v>
+      </c>
+      <c r="C680" t="n">
+        <v>4686</v>
+      </c>
+      <c r="D680" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B681" s="1" t="n">
+        <v>44195</v>
+      </c>
+      <c r="C681" t="n">
+        <v>23792</v>
+      </c>
+      <c r="D681" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B682" s="1" t="n">
+        <v>44196</v>
+      </c>
+      <c r="C682" t="n">
+        <v>3720</v>
+      </c>
+      <c r="D682" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B683" s="1" t="n">
+        <v>44196</v>
+      </c>
+      <c r="C683" t="n">
+        <v>20046</v>
+      </c>
+      <c r="D683" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B684" s="1" t="n">
+        <v>44197</v>
+      </c>
+      <c r="C684" t="n">
+        <v>1728</v>
+      </c>
+      <c r="D684" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B685" s="1" t="n">
+        <v>44197</v>
+      </c>
+      <c r="C685" t="n">
+        <v>8331</v>
+      </c>
+      <c r="D685" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B686" s="1" t="n">
+        <v>44198</v>
+      </c>
+      <c r="C686" t="n">
+        <v>2776</v>
+      </c>
+      <c r="D686" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B687" s="1" t="n">
+        <v>44198</v>
+      </c>
+      <c r="C687" t="n">
+        <v>13304</v>
+      </c>
+      <c r="D687" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B688" s="1" t="n">
+        <v>44199</v>
+      </c>
+      <c r="C688" t="n">
+        <v>2386</v>
+      </c>
+      <c r="D688" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B689" s="1" t="n">
+        <v>44199</v>
+      </c>
+      <c r="C689" t="n">
+        <v>9961</v>
+      </c>
+      <c r="D689" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B690" s="1" t="n">
+        <v>44200</v>
+      </c>
+      <c r="C690" t="n">
+        <v>4826</v>
+      </c>
+      <c r="D690" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B691" s="1" t="n">
+        <v>44200</v>
+      </c>
+      <c r="C691" t="n">
+        <v>24722</v>
+      </c>
+      <c r="D691" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B692" s="1" t="n">
+        <v>44201</v>
+      </c>
+      <c r="C692" t="n">
+        <v>5048</v>
+      </c>
+      <c r="D692" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B693" s="1" t="n">
+        <v>44201</v>
+      </c>
+      <c r="C693" t="n">
+        <v>26497</v>
+      </c>
+      <c r="D693" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B694" s="1" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C694" t="n">
+        <v>3722</v>
+      </c>
+      <c r="D694" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B695" s="1" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C695" t="n">
+        <v>23388</v>
+      </c>
+      <c r="D695" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B696" s="1" t="n">
+        <v>44203</v>
+      </c>
+      <c r="C696" t="n">
+        <v>3727</v>
+      </c>
+      <c r="D696" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B697" s="1" t="n">
+        <v>44203</v>
+      </c>
+      <c r="C697" t="n">
+        <v>24039</v>
+      </c>
+      <c r="D697" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B698" s="1" t="n">
+        <v>44204</v>
+      </c>
+      <c r="C698" t="n">
+        <v>3280</v>
+      </c>
+      <c r="D698" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B699" s="1" t="n">
+        <v>44204</v>
+      </c>
+      <c r="C699" t="n">
+        <v>23369</v>
+      </c>
+      <c r="D699" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B700" s="1" t="n">
+        <v>44205</v>
+      </c>
+      <c r="C700" t="n">
+        <v>2252</v>
+      </c>
+      <c r="D700" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B701" s="1" t="n">
+        <v>44205</v>
+      </c>
+      <c r="C701" t="n">
+        <v>13637</v>
+      </c>
+      <c r="D701" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B702" s="1" t="n">
+        <v>44206</v>
+      </c>
+      <c r="C702" t="n">
+        <v>1427</v>
+      </c>
+      <c r="D702" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B703" s="1" t="n">
+        <v>44206</v>
+      </c>
+      <c r="C703" t="n">
+        <v>7550</v>
+      </c>
+      <c r="D703" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B704" s="1" t="n">
+        <v>44207</v>
+      </c>
+      <c r="C704" t="n">
+        <v>3373</v>
+      </c>
+      <c r="D704" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B705" s="1" t="n">
+        <v>44207</v>
+      </c>
+      <c r="C705" t="n">
+        <v>24430</v>
+      </c>
+      <c r="D705" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B706" s="1" t="n">
+        <v>44208</v>
+      </c>
+      <c r="C706" t="n">
+        <v>3114</v>
+      </c>
+      <c r="D706" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B707" s="1" t="n">
+        <v>44208</v>
+      </c>
+      <c r="C707" t="n">
+        <v>22852</v>
+      </c>
+      <c r="D707" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B708" s="1" t="n">
+        <v>44209</v>
+      </c>
+      <c r="C708" t="n">
+        <v>2802</v>
+      </c>
+      <c r="D708" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B709" s="1" t="n">
+        <v>44209</v>
+      </c>
+      <c r="C709" t="n">
+        <v>21871</v>
+      </c>
+      <c r="D709" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B710" s="1" t="n">
+        <v>44210</v>
+      </c>
+      <c r="C710" t="n">
+        <v>2658</v>
+      </c>
+      <c r="D710" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B711" s="1" t="n">
+        <v>44210</v>
+      </c>
+      <c r="C711" t="n">
+        <v>21251</v>
+      </c>
+      <c r="D711" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B712" s="1" t="n">
+        <v>44211</v>
+      </c>
+      <c r="C712" t="n">
+        <v>2377</v>
+      </c>
+      <c r="D712" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B713" s="1" t="n">
+        <v>44211</v>
+      </c>
+      <c r="C713" t="n">
+        <v>20549</v>
+      </c>
+      <c r="D713" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B714" s="1" t="n">
+        <v>44212</v>
+      </c>
+      <c r="C714" t="n">
+        <v>1787</v>
+      </c>
+      <c r="D714" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B715" s="1" t="n">
+        <v>44212</v>
+      </c>
+      <c r="C715" t="n">
+        <v>12694</v>
+      </c>
+      <c r="D715" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B716" s="1" t="n">
+        <v>44213</v>
+      </c>
+      <c r="C716" t="n">
+        <v>1063</v>
+      </c>
+      <c r="D716" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B717" s="1" t="n">
+        <v>44213</v>
+      </c>
+      <c r="C717" t="n">
+        <v>6917</v>
+      </c>
+      <c r="D717" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B718" s="1" t="n">
+        <v>44214</v>
+      </c>
+      <c r="C718" t="n">
+        <v>2290</v>
+      </c>
+      <c r="D718" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="2" t="n">
+        <v>44215.3287074074</v>
+      </c>
+      <c r="B719" s="1" t="n">
+        <v>44214</v>
+      </c>
+      <c r="C719" t="n">
+        <v>17145</v>
+      </c>
+      <c r="D719" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data-raw/BAG-open/Dashboard_3_COVID19_labtests_positivity.xlsx
+++ b/data-raw/BAG-open/Dashboard_3_COVID19_labtests_positivity.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43854</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43854</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43855</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43855</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43857</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43857</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43858</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43858</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43859</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43859</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43860</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43860</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43861</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43861</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43862</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43862</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43863</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43863</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43864</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43864</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43865</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43865</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43866</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43866</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43867</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43867</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43868</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43868</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43869</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43869</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43870</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43870</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43871</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43871</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43872</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43872</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43873</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43873</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43874</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43874</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43875</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43875</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43876</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43876</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43877</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43877</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43879</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43879</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43880</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43880</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43881</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43881</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43882</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43882</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43883</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43883</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43884</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43884</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43885</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43885</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43886</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43886</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43887</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43887</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43888</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43888</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43889</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43889</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43890</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43890</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43891</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43891</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43892</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43892</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43893</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43893</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43894</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43894</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43895</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43895</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43896</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43896</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43897</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43897</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43898</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43898</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43899</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43899</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43900</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43900</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43901</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43901</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43902</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43902</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43903</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43903</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43904</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43904</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43905</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43905</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43906</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43906</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43907</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43907</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43908</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43908</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43909</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43909</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43910</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43910</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43911</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43911</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43912</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43912</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43913</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43913</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43914</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43914</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43915</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43915</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43916</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43916</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43917</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43917</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43918</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43918</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43919</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43919</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43920</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43920</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43921</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43921</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43922</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43922</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43923</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43923</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43924</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43924</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43925</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43925</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43926</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43926</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43927</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43927</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43928</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43928</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43929</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43929</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43930</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43930</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43931</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43931</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43932</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43932</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43933</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43933</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43934</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43934</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43935</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43935</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43936</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43936</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43937</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43937</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43938</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43938</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43939</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43939</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43940</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43940</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43941</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43941</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43942</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43942</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43943</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43943</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43944</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43944</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43945</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43945</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43946</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43946</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43947</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43947</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43948</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43948</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43949</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43949</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43950</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43950</v>
@@ -3052,13 +3052,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C192" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D192" t="s">
         <v>4</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43951</v>
@@ -3080,13 +3080,13 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43952</v>
       </c>
       <c r="C194" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D194" t="s">
         <v>4</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43952</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43953</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43953</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43954</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43954</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43955</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43955</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43956</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43956</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43957</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43957</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43958</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43958</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43959</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43959</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43960</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43960</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43961</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43961</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43962</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43962</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43963</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43963</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43964</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43964</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43965</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43965</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43966</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43966</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43967</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43967</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43968</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43968</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43969</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43969</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43970</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43970</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43971</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43971</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43972</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43972</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>43973</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>43973</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>43974</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>43974</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>43975</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>43975</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>43976</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>43976</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>43977</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>43977</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>43978</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>43978</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>43979</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>43979</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>43980</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>43980</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>43981</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>43981</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>43982</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>43982</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>43983</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>43983</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>43984</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>43984</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>43985</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>43985</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>43986</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>43986</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>43987</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>43987</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>43988</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>43988</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>43989</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>43989</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>43990</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>43990</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>43991</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>43991</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>43992</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>43992</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>43993</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>43993</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>43994</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>43994</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>43995</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>43995</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>43996</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>43996</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>43997</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>43997</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>43998</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>43998</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>43999</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>43999</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44000</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44000</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44001</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44001</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44002</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44002</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44003</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44003</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44004</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44004</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44005</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44005</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44006</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44006</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44007</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44007</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44008</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44008</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44009</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44009</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44010</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44010</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44011</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44011</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44012</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44012</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44013</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44013</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44014</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44014</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44015</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44015</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44016</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44016</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44017</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44017</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44018</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44018</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44019</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44019</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44020</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44020</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44021</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44021</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44022</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44022</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44023</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44023</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44024</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44024</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44025</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44025</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44026</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44026</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44027</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44027</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44028</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44028</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44029</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44029</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44030</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44030</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44031</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44031</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44032</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44032</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44033</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44033</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44034</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44034</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44035</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44035</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44036</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44036</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44037</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44037</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44038</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44038</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44039</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44039</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44040</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44040</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44041</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44041</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44042</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44042</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44043</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44043</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44044</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44044</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44045</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44045</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44046</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44046</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44047</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44047</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44048</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44048</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44049</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44049</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44050</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44050</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44051</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44051</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44052</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44052</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44053</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44053</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44054</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44054</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44055</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44055</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44056</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44056</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44057</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44057</v>
@@ -6048,13 +6048,13 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44058</v>
       </c>
       <c r="C406" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D406" t="s">
         <v>4</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44058</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>44059</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B409" s="1" t="n">
         <v>44059</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B410" s="1" t="n">
         <v>44060</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B411" s="1" t="n">
         <v>44060</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B412" s="1" t="n">
         <v>44061</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B413" s="1" t="n">
         <v>44061</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B414" s="1" t="n">
         <v>44062</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B415" s="1" t="n">
         <v>44062</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B416" s="1" t="n">
         <v>44063</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B417" s="1" t="n">
         <v>44063</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B418" s="1" t="n">
         <v>44064</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B419" s="1" t="n">
         <v>44064</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B420" s="1" t="n">
         <v>44065</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B421" s="1" t="n">
         <v>44065</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B422" s="1" t="n">
         <v>44066</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B423" s="1" t="n">
         <v>44066</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B424" s="1" t="n">
         <v>44067</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B425" s="1" t="n">
         <v>44067</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B426" s="1" t="n">
         <v>44068</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B427" s="1" t="n">
         <v>44068</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B428" s="1" t="n">
         <v>44069</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B429" s="1" t="n">
         <v>44069</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B430" s="1" t="n">
         <v>44070</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B431" s="1" t="n">
         <v>44070</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B432" s="1" t="n">
         <v>44071</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B433" s="1" t="n">
         <v>44071</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B434" s="1" t="n">
         <v>44072</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B435" s="1" t="n">
         <v>44072</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B436" s="1" t="n">
         <v>44073</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B437" s="1" t="n">
         <v>44073</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B438" s="1" t="n">
         <v>44074</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B439" s="1" t="n">
         <v>44074</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B440" s="1" t="n">
         <v>44075</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B441" s="1" t="n">
         <v>44075</v>
@@ -6552,7 +6552,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B442" s="1" t="n">
         <v>44076</v>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B443" s="1" t="n">
         <v>44076</v>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B444" s="1" t="n">
         <v>44077</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B445" s="1" t="n">
         <v>44077</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B446" s="1" t="n">
         <v>44078</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B447" s="1" t="n">
         <v>44078</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B448" s="1" t="n">
         <v>44079</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B449" s="1" t="n">
         <v>44079</v>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B450" s="1" t="n">
         <v>44080</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B451" s="1" t="n">
         <v>44080</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B452" s="1" t="n">
         <v>44081</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B453" s="1" t="n">
         <v>44081</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B454" s="1" t="n">
         <v>44082</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B455" s="1" t="n">
         <v>44082</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B456" s="1" t="n">
         <v>44083</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B457" s="1" t="n">
         <v>44083</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B458" s="1" t="n">
         <v>44084</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B459" s="1" t="n">
         <v>44084</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B460" s="1" t="n">
         <v>44085</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B461" s="1" t="n">
         <v>44085</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B462" s="1" t="n">
         <v>44086</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B463" s="1" t="n">
         <v>44086</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B464" s="1" t="n">
         <v>44087</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B465" s="1" t="n">
         <v>44087</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B466" s="1" t="n">
         <v>44088</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B467" s="1" t="n">
         <v>44088</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B468" s="1" t="n">
         <v>44089</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B469" s="1" t="n">
         <v>44089</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B470" s="1" t="n">
         <v>44090</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B471" s="1" t="n">
         <v>44090</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B472" s="1" t="n">
         <v>44091</v>
@@ -6986,7 +6986,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B473" s="1" t="n">
         <v>44091</v>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B474" s="1" t="n">
         <v>44092</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B475" s="1" t="n">
         <v>44092</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B476" s="1" t="n">
         <v>44093</v>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B477" s="1" t="n">
         <v>44093</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B478" s="1" t="n">
         <v>44094</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B479" s="1" t="n">
         <v>44094</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B480" s="1" t="n">
         <v>44095</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B481" s="1" t="n">
         <v>44095</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B482" s="1" t="n">
         <v>44096</v>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B483" s="1" t="n">
         <v>44096</v>
@@ -7140,7 +7140,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B484" s="1" t="n">
         <v>44097</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B485" s="1" t="n">
         <v>44097</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B486" s="1" t="n">
         <v>44098</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B487" s="1" t="n">
         <v>44098</v>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B488" s="1" t="n">
         <v>44099</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B489" s="1" t="n">
         <v>44099</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B490" s="1" t="n">
         <v>44100</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B491" s="1" t="n">
         <v>44100</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B492" s="1" t="n">
         <v>44101</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B493" s="1" t="n">
         <v>44101</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B494" s="1" t="n">
         <v>44102</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B495" s="1" t="n">
         <v>44102</v>
@@ -7308,13 +7308,13 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B496" s="1" t="n">
         <v>44103</v>
       </c>
       <c r="C496" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D496" t="s">
         <v>4</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B497" s="1" t="n">
         <v>44103</v>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B498" s="1" t="n">
         <v>44104</v>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B499" s="1" t="n">
         <v>44104</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B500" s="1" t="n">
         <v>44105</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B501" s="1" t="n">
         <v>44105</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B502" s="1" t="n">
         <v>44106</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B503" s="1" t="n">
         <v>44106</v>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B504" s="1" t="n">
         <v>44107</v>
@@ -7434,7 +7434,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B505" s="1" t="n">
         <v>44107</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B506" s="1" t="n">
         <v>44108</v>
@@ -7462,7 +7462,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B507" s="1" t="n">
         <v>44108</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B508" s="1" t="n">
         <v>44109</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B509" s="1" t="n">
         <v>44109</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B510" s="1" t="n">
         <v>44110</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B511" s="1" t="n">
         <v>44110</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B512" s="1" t="n">
         <v>44111</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B513" s="1" t="n">
         <v>44111</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B514" s="1" t="n">
         <v>44112</v>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B515" s="1" t="n">
         <v>44112</v>
@@ -7588,7 +7588,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B516" s="1" t="n">
         <v>44113</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B517" s="1" t="n">
         <v>44113</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B518" s="1" t="n">
         <v>44114</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B519" s="1" t="n">
         <v>44114</v>
@@ -7644,7 +7644,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B520" s="1" t="n">
         <v>44115</v>
@@ -7658,7 +7658,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B521" s="1" t="n">
         <v>44115</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B522" s="1" t="n">
         <v>44116</v>
@@ -7686,7 +7686,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B523" s="1" t="n">
         <v>44116</v>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B524" s="1" t="n">
         <v>44117</v>
@@ -7714,7 +7714,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B525" s="1" t="n">
         <v>44117</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B526" s="1" t="n">
         <v>44118</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B527" s="1" t="n">
         <v>44118</v>
@@ -7756,7 +7756,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B528" s="1" t="n">
         <v>44119</v>
@@ -7770,7 +7770,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B529" s="1" t="n">
         <v>44119</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B530" s="1" t="n">
         <v>44120</v>
@@ -7798,7 +7798,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B531" s="1" t="n">
         <v>44120</v>
@@ -7812,7 +7812,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B532" s="1" t="n">
         <v>44121</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B533" s="1" t="n">
         <v>44121</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B534" s="1" t="n">
         <v>44122</v>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B535" s="1" t="n">
         <v>44122</v>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B536" s="1" t="n">
         <v>44123</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B537" s="1" t="n">
         <v>44123</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B538" s="1" t="n">
         <v>44124</v>
@@ -7910,7 +7910,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B539" s="1" t="n">
         <v>44124</v>
@@ -7924,7 +7924,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B540" s="1" t="n">
         <v>44125</v>
@@ -7938,7 +7938,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B541" s="1" t="n">
         <v>44125</v>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B542" s="1" t="n">
         <v>44126</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B543" s="1" t="n">
         <v>44126</v>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B544" s="1" t="n">
         <v>44127</v>
@@ -7994,7 +7994,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B545" s="1" t="n">
         <v>44127</v>
@@ -8008,7 +8008,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B546" s="1" t="n">
         <v>44128</v>
@@ -8022,7 +8022,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B547" s="1" t="n">
         <v>44128</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B548" s="1" t="n">
         <v>44129</v>
@@ -8050,7 +8050,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B549" s="1" t="n">
         <v>44129</v>
@@ -8064,13 +8064,13 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B550" s="1" t="n">
         <v>44130</v>
       </c>
       <c r="C550" t="n">
-        <v>7554</v>
+        <v>7553</v>
       </c>
       <c r="D550" t="s">
         <v>4</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B551" s="1" t="n">
         <v>44130</v>
@@ -8092,7 +8092,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B552" s="1" t="n">
         <v>44131</v>
@@ -8106,7 +8106,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B553" s="1" t="n">
         <v>44131</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B554" s="1" t="n">
         <v>44132</v>
@@ -8134,7 +8134,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B555" s="1" t="n">
         <v>44132</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B556" s="1" t="n">
         <v>44133</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B557" s="1" t="n">
         <v>44133</v>
@@ -8176,13 +8176,13 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B558" s="1" t="n">
         <v>44134</v>
       </c>
       <c r="C558" t="n">
-        <v>9879</v>
+        <v>9880</v>
       </c>
       <c r="D558" t="s">
         <v>4</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B559" s="1" t="n">
         <v>44134</v>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B560" s="1" t="n">
         <v>44135</v>
@@ -8218,7 +8218,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B561" s="1" t="n">
         <v>44135</v>
@@ -8232,7 +8232,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B562" s="1" t="n">
         <v>44136</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B563" s="1" t="n">
         <v>44136</v>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B564" s="1" t="n">
         <v>44137</v>
@@ -8274,7 +8274,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B565" s="1" t="n">
         <v>44137</v>
@@ -8288,13 +8288,13 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B566" s="1" t="n">
         <v>44138</v>
       </c>
       <c r="C566" t="n">
-        <v>10885</v>
+        <v>10886</v>
       </c>
       <c r="D566" t="s">
         <v>4</v>
@@ -8302,7 +8302,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B567" s="1" t="n">
         <v>44138</v>
@@ -8316,13 +8316,13 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B568" s="1" t="n">
         <v>44139</v>
       </c>
       <c r="C568" t="n">
-        <v>9900</v>
+        <v>9901</v>
       </c>
       <c r="D568" t="s">
         <v>4</v>
@@ -8330,7 +8330,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B569" s="1" t="n">
         <v>44139</v>
@@ -8344,13 +8344,13 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B570" s="1" t="n">
         <v>44140</v>
       </c>
       <c r="C570" t="n">
-        <v>8921</v>
+        <v>8922</v>
       </c>
       <c r="D570" t="s">
         <v>4</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B571" s="1" t="n">
         <v>44140</v>
@@ -8372,13 +8372,13 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B572" s="1" t="n">
         <v>44141</v>
       </c>
       <c r="C572" t="n">
-        <v>8187</v>
+        <v>8189</v>
       </c>
       <c r="D572" t="s">
         <v>4</v>
@@ -8386,7 +8386,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B573" s="1" t="n">
         <v>44141</v>
@@ -8400,7 +8400,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B574" s="1" t="n">
         <v>44142</v>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B575" s="1" t="n">
         <v>44142</v>
@@ -8428,7 +8428,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B576" s="1" t="n">
         <v>44143</v>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B577" s="1" t="n">
         <v>44143</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B578" s="1" t="n">
         <v>44144</v>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B579" s="1" t="n">
         <v>44144</v>
@@ -8484,13 +8484,13 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B580" s="1" t="n">
         <v>44145</v>
       </c>
       <c r="C580" t="n">
-        <v>8936</v>
+        <v>8937</v>
       </c>
       <c r="D580" t="s">
         <v>4</v>
@@ -8498,7 +8498,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B581" s="1" t="n">
         <v>44145</v>
@@ -8512,7 +8512,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B582" s="1" t="n">
         <v>44146</v>
@@ -8526,7 +8526,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B583" s="1" t="n">
         <v>44146</v>
@@ -8540,13 +8540,13 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B584" s="1" t="n">
         <v>44147</v>
       </c>
       <c r="C584" t="n">
-        <v>6800</v>
+        <v>6802</v>
       </c>
       <c r="D584" t="s">
         <v>4</v>
@@ -8554,7 +8554,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B585" s="1" t="n">
         <v>44147</v>
@@ -8568,13 +8568,13 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B586" s="1" t="n">
         <v>44148</v>
       </c>
       <c r="C586" t="n">
-        <v>6238</v>
+        <v>6239</v>
       </c>
       <c r="D586" t="s">
         <v>4</v>
@@ -8582,7 +8582,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B587" s="1" t="n">
         <v>44148</v>
@@ -8596,13 +8596,13 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B588" s="1" t="n">
         <v>44149</v>
       </c>
       <c r="C588" t="n">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="D588" t="s">
         <v>4</v>
@@ -8610,7 +8610,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B589" s="1" t="n">
         <v>44149</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B590" s="1" t="n">
         <v>44150</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B591" s="1" t="n">
         <v>44150</v>
@@ -8652,13 +8652,13 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B592" s="1" t="n">
         <v>44151</v>
       </c>
       <c r="C592" t="n">
-        <v>6039</v>
+        <v>6040</v>
       </c>
       <c r="D592" t="s">
         <v>4</v>
@@ -8666,7 +8666,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B593" s="1" t="n">
         <v>44151</v>
@@ -8680,13 +8680,13 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B594" s="1" t="n">
         <v>44152</v>
       </c>
       <c r="C594" t="n">
-        <v>6357</v>
+        <v>6358</v>
       </c>
       <c r="D594" t="s">
         <v>4</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B595" s="1" t="n">
         <v>44152</v>
@@ -8708,7 +8708,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B596" s="1" t="n">
         <v>44153</v>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B597" s="1" t="n">
         <v>44153</v>
@@ -8736,7 +8736,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B598" s="1" t="n">
         <v>44154</v>
@@ -8750,7 +8750,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B599" s="1" t="n">
         <v>44154</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B600" s="1" t="n">
         <v>44155</v>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B601" s="1" t="n">
         <v>44155</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B602" s="1" t="n">
         <v>44156</v>
@@ -8806,7 +8806,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B603" s="1" t="n">
         <v>44156</v>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B604" s="1" t="n">
         <v>44157</v>
@@ -8834,7 +8834,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B605" s="1" t="n">
         <v>44157</v>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B606" s="1" t="n">
         <v>44158</v>
@@ -8862,7 +8862,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B607" s="1" t="n">
         <v>44158</v>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B608" s="1" t="n">
         <v>44159</v>
@@ -8890,7 +8890,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B609" s="1" t="n">
         <v>44159</v>
@@ -8904,7 +8904,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B610" s="1" t="n">
         <v>44160</v>
@@ -8918,7 +8918,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B611" s="1" t="n">
         <v>44160</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B612" s="1" t="n">
         <v>44161</v>
@@ -8946,7 +8946,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B613" s="1" t="n">
         <v>44161</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B614" s="1" t="n">
         <v>44162</v>
@@ -8974,7 +8974,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B615" s="1" t="n">
         <v>44162</v>
@@ -8988,7 +8988,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B616" s="1" t="n">
         <v>44163</v>
@@ -9002,7 +9002,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B617" s="1" t="n">
         <v>44163</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B618" s="1" t="n">
         <v>44164</v>
@@ -9030,7 +9030,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B619" s="1" t="n">
         <v>44164</v>
@@ -9044,13 +9044,13 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B620" s="1" t="n">
         <v>44165</v>
       </c>
       <c r="C620" t="n">
-        <v>4953</v>
+        <v>4954</v>
       </c>
       <c r="D620" t="s">
         <v>4</v>
@@ -9058,7 +9058,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B621" s="1" t="n">
         <v>44165</v>
@@ -9072,13 +9072,13 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B622" s="1" t="n">
         <v>44166</v>
       </c>
       <c r="C622" t="n">
-        <v>4940</v>
+        <v>4941</v>
       </c>
       <c r="D622" t="s">
         <v>4</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B623" s="1" t="n">
         <v>44166</v>
@@ -9100,7 +9100,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B624" s="1" t="n">
         <v>44167</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B625" s="1" t="n">
         <v>44167</v>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B626" s="1" t="n">
         <v>44168</v>
@@ -9142,7 +9142,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B627" s="1" t="n">
         <v>44168</v>
@@ -9156,13 +9156,13 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B628" s="1" t="n">
         <v>44169</v>
       </c>
       <c r="C628" t="n">
-        <v>4757</v>
+        <v>4758</v>
       </c>
       <c r="D628" t="s">
         <v>4</v>
@@ -9170,7 +9170,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B629" s="1" t="n">
         <v>44169</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B630" s="1" t="n">
         <v>44170</v>
@@ -9198,7 +9198,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B631" s="1" t="n">
         <v>44170</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B632" s="1" t="n">
         <v>44171</v>
@@ -9226,7 +9226,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B633" s="1" t="n">
         <v>44171</v>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B634" s="1" t="n">
         <v>44172</v>
@@ -9254,7 +9254,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B635" s="1" t="n">
         <v>44172</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B636" s="1" t="n">
         <v>44173</v>
@@ -9282,7 +9282,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B637" s="1" t="n">
         <v>44173</v>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B638" s="1" t="n">
         <v>44174</v>
@@ -9310,7 +9310,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B639" s="1" t="n">
         <v>44174</v>
@@ -9324,13 +9324,13 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B640" s="1" t="n">
         <v>44175</v>
       </c>
       <c r="C640" t="n">
-        <v>5263</v>
+        <v>5264</v>
       </c>
       <c r="D640" t="s">
         <v>4</v>
@@ -9338,7 +9338,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B641" s="1" t="n">
         <v>44175</v>
@@ -9352,7 +9352,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B642" s="1" t="n">
         <v>44176</v>
@@ -9366,7 +9366,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B643" s="1" t="n">
         <v>44176</v>
@@ -9380,13 +9380,13 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B644" s="1" t="n">
         <v>44177</v>
       </c>
       <c r="C644" t="n">
-        <v>3537</v>
+        <v>3539</v>
       </c>
       <c r="D644" t="s">
         <v>4</v>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B645" s="1" t="n">
         <v>44177</v>
@@ -9408,13 +9408,13 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B646" s="1" t="n">
         <v>44178</v>
       </c>
       <c r="C646" t="n">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="D646" t="s">
         <v>4</v>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B647" s="1" t="n">
         <v>44178</v>
@@ -9436,7 +9436,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B648" s="1" t="n">
         <v>44179</v>
@@ -9450,7 +9450,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B649" s="1" t="n">
         <v>44179</v>
@@ -9464,7 +9464,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B650" s="1" t="n">
         <v>44180</v>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B651" s="1" t="n">
         <v>44180</v>
@@ -9492,7 +9492,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B652" s="1" t="n">
         <v>44181</v>
@@ -9506,7 +9506,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B653" s="1" t="n">
         <v>44181</v>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B654" s="1" t="n">
         <v>44182</v>
@@ -9534,7 +9534,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B655" s="1" t="n">
         <v>44182</v>
@@ -9548,13 +9548,13 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B656" s="1" t="n">
         <v>44183</v>
       </c>
       <c r="C656" t="n">
-        <v>4910</v>
+        <v>4912</v>
       </c>
       <c r="D656" t="s">
         <v>4</v>
@@ -9562,7 +9562,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B657" s="1" t="n">
         <v>44183</v>
@@ -9576,7 +9576,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B658" s="1" t="n">
         <v>44184</v>
@@ -9590,7 +9590,7 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B659" s="1" t="n">
         <v>44184</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B660" s="1" t="n">
         <v>44185</v>
@@ -9618,7 +9618,7 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B661" s="1" t="n">
         <v>44185</v>
@@ -9632,7 +9632,7 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B662" s="1" t="n">
         <v>44186</v>
@@ -9646,7 +9646,7 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B663" s="1" t="n">
         <v>44186</v>
@@ -9660,13 +9660,13 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B664" s="1" t="n">
         <v>44187</v>
       </c>
       <c r="C664" t="n">
-        <v>5219</v>
+        <v>5220</v>
       </c>
       <c r="D664" t="s">
         <v>4</v>
@@ -9674,7 +9674,7 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B665" s="1" t="n">
         <v>44187</v>
@@ -9688,13 +9688,13 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B666" s="1" t="n">
         <v>44188</v>
       </c>
       <c r="C666" t="n">
-        <v>5131</v>
+        <v>5133</v>
       </c>
       <c r="D666" t="s">
         <v>4</v>
@@ -9702,7 +9702,7 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B667" s="1" t="n">
         <v>44188</v>
@@ -9716,13 +9716,13 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B668" s="1" t="n">
         <v>44189</v>
       </c>
       <c r="C668" t="n">
-        <v>4034</v>
+        <v>4036</v>
       </c>
       <c r="D668" t="s">
         <v>4</v>
@@ -9730,7 +9730,7 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B669" s="1" t="n">
         <v>44189</v>
@@ -9744,7 +9744,7 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B670" s="1" t="n">
         <v>44190</v>
@@ -9758,7 +9758,7 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B671" s="1" t="n">
         <v>44190</v>
@@ -9772,7 +9772,7 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B672" s="1" t="n">
         <v>44191</v>
@@ -9786,7 +9786,7 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B673" s="1" t="n">
         <v>44191</v>
@@ -9800,13 +9800,13 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B674" s="1" t="n">
         <v>44192</v>
       </c>
       <c r="C674" t="n">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="D674" t="s">
         <v>4</v>
@@ -9814,7 +9814,7 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B675" s="1" t="n">
         <v>44192</v>
@@ -9828,7 +9828,7 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B676" s="1" t="n">
         <v>44193</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B677" s="1" t="n">
         <v>44193</v>
@@ -9856,13 +9856,13 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B678" s="1" t="n">
         <v>44194</v>
       </c>
       <c r="C678" t="n">
-        <v>5029</v>
+        <v>5031</v>
       </c>
       <c r="D678" t="s">
         <v>4</v>
@@ -9870,7 +9870,7 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B679" s="1" t="n">
         <v>44194</v>
@@ -9884,7 +9884,7 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B680" s="1" t="n">
         <v>44195</v>
@@ -9898,7 +9898,7 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B681" s="1" t="n">
         <v>44195</v>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B682" s="1" t="n">
         <v>44196</v>
@@ -9926,7 +9926,7 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B683" s="1" t="n">
         <v>44196</v>
@@ -9940,13 +9940,13 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B684" s="1" t="n">
         <v>44197</v>
       </c>
       <c r="C684" t="n">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="D684" t="s">
         <v>4</v>
@@ -9954,7 +9954,7 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B685" s="1" t="n">
         <v>44197</v>
@@ -9968,13 +9968,13 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B686" s="1" t="n">
         <v>44198</v>
       </c>
       <c r="C686" t="n">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="D686" t="s">
         <v>4</v>
@@ -9982,7 +9982,7 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B687" s="1" t="n">
         <v>44198</v>
@@ -9996,13 +9996,13 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B688" s="1" t="n">
         <v>44199</v>
       </c>
       <c r="C688" t="n">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="D688" t="s">
         <v>4</v>
@@ -10010,7 +10010,7 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B689" s="1" t="n">
         <v>44199</v>
@@ -10024,13 +10024,13 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B690" s="1" t="n">
         <v>44200</v>
       </c>
       <c r="C690" t="n">
-        <v>4826</v>
+        <v>4828</v>
       </c>
       <c r="D690" t="s">
         <v>4</v>
@@ -10038,7 +10038,7 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B691" s="1" t="n">
         <v>44200</v>
@@ -10052,13 +10052,13 @@
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B692" s="1" t="n">
         <v>44201</v>
       </c>
       <c r="C692" t="n">
-        <v>5048</v>
+        <v>5050</v>
       </c>
       <c r="D692" t="s">
         <v>4</v>
@@ -10066,7 +10066,7 @@
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B693" s="1" t="n">
         <v>44201</v>
@@ -10080,13 +10080,13 @@
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B694" s="1" t="n">
         <v>44202</v>
       </c>
       <c r="C694" t="n">
-        <v>3722</v>
+        <v>3723</v>
       </c>
       <c r="D694" t="s">
         <v>4</v>
@@ -10094,7 +10094,7 @@
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B695" s="1" t="n">
         <v>44202</v>
@@ -10108,13 +10108,13 @@
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B696" s="1" t="n">
         <v>44203</v>
       </c>
       <c r="C696" t="n">
-        <v>3727</v>
+        <v>3728</v>
       </c>
       <c r="D696" t="s">
         <v>4</v>
@@ -10122,7 +10122,7 @@
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B697" s="1" t="n">
         <v>44203</v>
@@ -10136,13 +10136,13 @@
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B698" s="1" t="n">
         <v>44204</v>
       </c>
       <c r="C698" t="n">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="D698" t="s">
         <v>4</v>
@@ -10150,7 +10150,7 @@
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B699" s="1" t="n">
         <v>44204</v>
@@ -10164,7 +10164,7 @@
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B700" s="1" t="n">
         <v>44205</v>
@@ -10178,7 +10178,7 @@
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B701" s="1" t="n">
         <v>44205</v>
@@ -10192,13 +10192,13 @@
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B702" s="1" t="n">
         <v>44206</v>
       </c>
       <c r="C702" t="n">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="D702" t="s">
         <v>4</v>
@@ -10206,7 +10206,7 @@
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B703" s="1" t="n">
         <v>44206</v>
@@ -10220,13 +10220,13 @@
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B704" s="1" t="n">
         <v>44207</v>
       </c>
       <c r="C704" t="n">
-        <v>3373</v>
+        <v>3376</v>
       </c>
       <c r="D704" t="s">
         <v>4</v>
@@ -10234,7 +10234,7 @@
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B705" s="1" t="n">
         <v>44207</v>
@@ -10248,13 +10248,13 @@
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B706" s="1" t="n">
         <v>44208</v>
       </c>
       <c r="C706" t="n">
-        <v>3114</v>
+        <v>3116</v>
       </c>
       <c r="D706" t="s">
         <v>4</v>
@@ -10262,7 +10262,7 @@
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B707" s="1" t="n">
         <v>44208</v>
@@ -10276,13 +10276,13 @@
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B708" s="1" t="n">
         <v>44209</v>
       </c>
       <c r="C708" t="n">
-        <v>2802</v>
+        <v>2805</v>
       </c>
       <c r="D708" t="s">
         <v>4</v>
@@ -10290,7 +10290,7 @@
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B709" s="1" t="n">
         <v>44209</v>
@@ -10304,7 +10304,7 @@
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B710" s="1" t="n">
         <v>44210</v>
@@ -10318,13 +10318,13 @@
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B711" s="1" t="n">
         <v>44210</v>
       </c>
       <c r="C711" t="n">
-        <v>21251</v>
+        <v>21263</v>
       </c>
       <c r="D711" t="s">
         <v>5</v>
@@ -10332,13 +10332,13 @@
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B712" s="1" t="n">
         <v>44211</v>
       </c>
       <c r="C712" t="n">
-        <v>2377</v>
+        <v>2383</v>
       </c>
       <c r="D712" t="s">
         <v>4</v>
@@ -10346,13 +10346,13 @@
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B713" s="1" t="n">
         <v>44211</v>
       </c>
       <c r="C713" t="n">
-        <v>20549</v>
+        <v>20563</v>
       </c>
       <c r="D713" t="s">
         <v>5</v>
@@ -10360,13 +10360,13 @@
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B714" s="1" t="n">
         <v>44212</v>
       </c>
       <c r="C714" t="n">
-        <v>1787</v>
+        <v>1791</v>
       </c>
       <c r="D714" t="s">
         <v>4</v>
@@ -10374,13 +10374,13 @@
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B715" s="1" t="n">
         <v>44212</v>
       </c>
       <c r="C715" t="n">
-        <v>12694</v>
+        <v>12755</v>
       </c>
       <c r="D715" t="s">
         <v>5</v>
@@ -10388,13 +10388,13 @@
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B716" s="1" t="n">
         <v>44213</v>
       </c>
       <c r="C716" t="n">
-        <v>1063</v>
+        <v>1075</v>
       </c>
       <c r="D716" t="s">
         <v>4</v>
@@ -10402,13 +10402,13 @@
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B717" s="1" t="n">
         <v>44213</v>
       </c>
       <c r="C717" t="n">
-        <v>6917</v>
+        <v>6929</v>
       </c>
       <c r="D717" t="s">
         <v>5</v>
@@ -10416,13 +10416,13 @@
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B718" s="1" t="n">
         <v>44214</v>
       </c>
       <c r="C718" t="n">
-        <v>2290</v>
+        <v>2844</v>
       </c>
       <c r="D718" t="s">
         <v>4</v>
@@ -10430,15 +10430,407 @@
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>44215.3287074074</v>
+        <v>44229.3279087153</v>
       </c>
       <c r="B719" s="1" t="n">
         <v>44214</v>
       </c>
       <c r="C719" t="n">
-        <v>17145</v>
+        <v>24976</v>
       </c>
       <c r="D719" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B720" s="1" t="n">
+        <v>44215</v>
+      </c>
+      <c r="C720" t="n">
+        <v>2984</v>
+      </c>
+      <c r="D720" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B721" s="1" t="n">
+        <v>44215</v>
+      </c>
+      <c r="C721" t="n">
+        <v>28633</v>
+      </c>
+      <c r="D721" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B722" s="1" t="n">
+        <v>44216</v>
+      </c>
+      <c r="C722" t="n">
+        <v>2541</v>
+      </c>
+      <c r="D722" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B723" s="1" t="n">
+        <v>44216</v>
+      </c>
+      <c r="C723" t="n">
+        <v>24300</v>
+      </c>
+      <c r="D723" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B724" s="1" t="n">
+        <v>44217</v>
+      </c>
+      <c r="C724" t="n">
+        <v>2300</v>
+      </c>
+      <c r="D724" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B725" s="1" t="n">
+        <v>44217</v>
+      </c>
+      <c r="C725" t="n">
+        <v>23905</v>
+      </c>
+      <c r="D725" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B726" s="1" t="n">
+        <v>44218</v>
+      </c>
+      <c r="C726" t="n">
+        <v>2341</v>
+      </c>
+      <c r="D726" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B727" s="1" t="n">
+        <v>44218</v>
+      </c>
+      <c r="C727" t="n">
+        <v>24525</v>
+      </c>
+      <c r="D727" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B728" s="1" t="n">
+        <v>44219</v>
+      </c>
+      <c r="C728" t="n">
+        <v>1511</v>
+      </c>
+      <c r="D728" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B729" s="1" t="n">
+        <v>44219</v>
+      </c>
+      <c r="C729" t="n">
+        <v>14666</v>
+      </c>
+      <c r="D729" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B730" s="1" t="n">
+        <v>44220</v>
+      </c>
+      <c r="C730" t="n">
+        <v>844</v>
+      </c>
+      <c r="D730" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B731" s="1" t="n">
+        <v>44220</v>
+      </c>
+      <c r="C731" t="n">
+        <v>7389</v>
+      </c>
+      <c r="D731" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B732" s="1" t="n">
+        <v>44221</v>
+      </c>
+      <c r="C732" t="n">
+        <v>2332</v>
+      </c>
+      <c r="D732" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B733" s="1" t="n">
+        <v>44221</v>
+      </c>
+      <c r="C733" t="n">
+        <v>23672</v>
+      </c>
+      <c r="D733" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B734" s="1" t="n">
+        <v>44222</v>
+      </c>
+      <c r="C734" t="n">
+        <v>2271</v>
+      </c>
+      <c r="D734" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B735" s="1" t="n">
+        <v>44222</v>
+      </c>
+      <c r="C735" t="n">
+        <v>25963</v>
+      </c>
+      <c r="D735" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B736" s="1" t="n">
+        <v>44223</v>
+      </c>
+      <c r="C736" t="n">
+        <v>2126</v>
+      </c>
+      <c r="D736" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B737" s="1" t="n">
+        <v>44223</v>
+      </c>
+      <c r="C737" t="n">
+        <v>24008</v>
+      </c>
+      <c r="D737" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B738" s="1" t="n">
+        <v>44224</v>
+      </c>
+      <c r="C738" t="n">
+        <v>2041</v>
+      </c>
+      <c r="D738" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B739" s="1" t="n">
+        <v>44224</v>
+      </c>
+      <c r="C739" t="n">
+        <v>27248</v>
+      </c>
+      <c r="D739" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B740" s="1" t="n">
+        <v>44225</v>
+      </c>
+      <c r="C740" t="n">
+        <v>2321</v>
+      </c>
+      <c r="D740" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B741" s="1" t="n">
+        <v>44225</v>
+      </c>
+      <c r="C741" t="n">
+        <v>27624</v>
+      </c>
+      <c r="D741" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B742" s="1" t="n">
+        <v>44226</v>
+      </c>
+      <c r="C742" t="n">
+        <v>1609</v>
+      </c>
+      <c r="D742" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B743" s="1" t="n">
+        <v>44226</v>
+      </c>
+      <c r="C743" t="n">
+        <v>17659</v>
+      </c>
+      <c r="D743" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B744" s="1" t="n">
+        <v>44227</v>
+      </c>
+      <c r="C744" t="n">
+        <v>966</v>
+      </c>
+      <c r="D744" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B745" s="1" t="n">
+        <v>44227</v>
+      </c>
+      <c r="C745" t="n">
+        <v>10050</v>
+      </c>
+      <c r="D745" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B746" s="1" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C746" t="n">
+        <v>1763</v>
+      </c>
+      <c r="D746" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2" t="n">
+        <v>44229.3279087153</v>
+      </c>
+      <c r="B747" s="1" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C747" t="n">
+        <v>19650</v>
+      </c>
+      <c r="D747" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data-raw/BAG-open/Dashboard_3_COVID19_labtests_positivity.xlsx
+++ b/data-raw/BAG-open/Dashboard_3_COVID19_labtests_positivity.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43854</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43854</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43855</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43855</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43857</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43857</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43858</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43858</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43859</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43859</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43860</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43860</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43861</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43861</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43862</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43862</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43863</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43863</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43864</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43864</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43865</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43865</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43866</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43866</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43867</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43867</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43868</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43868</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43869</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43869</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43870</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43870</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43871</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43871</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43872</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43872</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43873</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43873</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43874</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43874</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43875</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43875</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43876</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43876</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43877</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43877</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43879</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43879</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43880</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43880</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43881</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43881</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43882</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43882</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43883</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43883</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43884</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43884</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43885</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43885</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43886</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43886</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43887</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43887</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43888</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43888</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43889</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43889</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43890</v>
@@ -1358,13 +1358,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43890</v>
       </c>
       <c r="C71" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43891</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43891</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43892</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43892</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43893</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43893</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43894</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43894</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43895</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43895</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43896</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43896</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43897</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43897</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43898</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43898</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43899</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43899</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43900</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43900</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43901</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43901</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43902</v>
@@ -1694,13 +1694,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43902</v>
       </c>
       <c r="C95" t="n">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43903</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43903</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43904</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43904</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43905</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43905</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43906</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43906</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43907</v>
@@ -1834,13 +1834,13 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43907</v>
       </c>
       <c r="C105" t="n">
-        <v>8291</v>
+        <v>8293</v>
       </c>
       <c r="D105" t="s">
         <v>5</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43908</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43908</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43909</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43909</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43910</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43910</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43911</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43911</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43912</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43912</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43913</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43913</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43914</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43914</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43915</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43915</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43916</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43916</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43917</v>
@@ -2114,13 +2114,13 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43917</v>
       </c>
       <c r="C125" t="n">
-        <v>5857</v>
+        <v>5858</v>
       </c>
       <c r="D125" t="s">
         <v>5</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43918</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43918</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43919</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43919</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43920</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43920</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43921</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43921</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43922</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43922</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43923</v>
@@ -2282,13 +2282,13 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43923</v>
       </c>
       <c r="C137" t="n">
-        <v>5896</v>
+        <v>5897</v>
       </c>
       <c r="D137" t="s">
         <v>5</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43924</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43924</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43925</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43925</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43926</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43926</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43927</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43927</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43928</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43928</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43929</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43929</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43930</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43930</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43931</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43931</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43932</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43932</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43933</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43933</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43934</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43934</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43935</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43935</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43936</v>
@@ -2646,13 +2646,13 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43936</v>
       </c>
       <c r="C163" t="n">
-        <v>5122</v>
+        <v>5123</v>
       </c>
       <c r="D163" t="s">
         <v>5</v>
@@ -2660,13 +2660,13 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43937</v>
       </c>
       <c r="C164" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D164" t="s">
         <v>4</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43937</v>
       </c>
       <c r="C165" t="n">
-        <v>4664</v>
+        <v>4665</v>
       </c>
       <c r="D165" t="s">
         <v>5</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43938</v>
@@ -2702,13 +2702,13 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43938</v>
       </c>
       <c r="C167" t="n">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="D167" t="s">
         <v>5</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43939</v>
@@ -2730,13 +2730,13 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43939</v>
       </c>
       <c r="C169" t="n">
-        <v>3382</v>
+        <v>3426</v>
       </c>
       <c r="D169" t="s">
         <v>5</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43940</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43940</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43941</v>
@@ -2786,13 +2786,13 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43941</v>
       </c>
       <c r="C173" t="n">
-        <v>3133</v>
+        <v>3138</v>
       </c>
       <c r="D173" t="s">
         <v>5</v>
@@ -2800,13 +2800,13 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43942</v>
       </c>
       <c r="C174" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D174" t="s">
         <v>4</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43942</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43943</v>
@@ -2842,13 +2842,13 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43943</v>
       </c>
       <c r="C177" t="n">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="D177" t="s">
         <v>5</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43944</v>
@@ -2870,13 +2870,13 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43944</v>
       </c>
       <c r="C179" t="n">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="D179" t="s">
         <v>5</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43945</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43945</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43946</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43946</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43947</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43947</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43948</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43948</v>
@@ -2996,13 +2996,13 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43949</v>
       </c>
       <c r="C188" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D188" t="s">
         <v>4</v>
@@ -3010,13 +3010,13 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43949</v>
       </c>
       <c r="C189" t="n">
-        <v>5361</v>
+        <v>5362</v>
       </c>
       <c r="D189" t="s">
         <v>5</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43950</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43950</v>
@@ -3052,13 +3052,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C192" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D192" t="s">
         <v>4</v>
@@ -3066,13 +3066,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C193" t="n">
-        <v>4639</v>
+        <v>4642</v>
       </c>
       <c r="D193" t="s">
         <v>5</v>
@@ -3080,13 +3080,13 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43952</v>
       </c>
       <c r="C194" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D194" t="s">
         <v>4</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43952</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43953</v>
@@ -3122,13 +3122,13 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43953</v>
       </c>
       <c r="C197" t="n">
-        <v>3040</v>
+        <v>3042</v>
       </c>
       <c r="D197" t="s">
         <v>5</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43954</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43954</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43955</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43955</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43956</v>
@@ -3206,13 +3206,13 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="C203" t="n">
-        <v>5770</v>
+        <v>5771</v>
       </c>
       <c r="D203" t="s">
         <v>5</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43957</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43957</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43958</v>
@@ -3262,13 +3262,13 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43958</v>
       </c>
       <c r="C207" t="n">
-        <v>4578</v>
+        <v>4579</v>
       </c>
       <c r="D207" t="s">
         <v>5</v>
@@ -3276,13 +3276,13 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43959</v>
       </c>
       <c r="C208" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D208" t="s">
         <v>4</v>
@@ -3290,13 +3290,13 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43959</v>
       </c>
       <c r="C209" t="n">
-        <v>4253</v>
+        <v>4255</v>
       </c>
       <c r="D209" t="s">
         <v>5</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43960</v>
@@ -3318,13 +3318,13 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43960</v>
       </c>
       <c r="C211" t="n">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="D211" t="s">
         <v>5</v>
@@ -3332,13 +3332,13 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43961</v>
       </c>
       <c r="C212" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D212" t="s">
         <v>4</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43961</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43962</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43962</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43963</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43963</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43964</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43964</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43965</v>
@@ -3458,13 +3458,13 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43965</v>
       </c>
       <c r="C221" t="n">
-        <v>5641</v>
+        <v>5640</v>
       </c>
       <c r="D221" t="s">
         <v>5</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43966</v>
@@ -3486,13 +3486,13 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43966</v>
       </c>
       <c r="C223" t="n">
-        <v>5526</v>
+        <v>5525</v>
       </c>
       <c r="D223" t="s">
         <v>5</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43967</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43967</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43968</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43968</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43969</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43969</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43970</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43970</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43971</v>
@@ -3626,13 +3626,13 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43971</v>
       </c>
       <c r="C233" t="n">
-        <v>4803</v>
+        <v>4802</v>
       </c>
       <c r="D233" t="s">
         <v>5</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43972</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43972</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>43973</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>43973</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>43974</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>43974</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>43975</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>43975</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>43976</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>43976</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>43977</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>43977</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>43978</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>43978</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>43979</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>43979</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>43980</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>43980</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>43981</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>43981</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>43982</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>43982</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>43983</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>43983</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>43984</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>43984</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>43985</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>43985</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>43986</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>43986</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>43987</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>43987</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>43988</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>43988</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>43989</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>43989</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>43990</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>43990</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>43991</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>43991</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>43992</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>43992</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>43993</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>43993</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>43994</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>43994</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>43995</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>43995</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>43996</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>43996</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>43997</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>43997</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>43998</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>43998</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>43999</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>43999</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44000</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44000</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44001</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44001</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44002</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44002</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44003</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44003</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44004</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44004</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44005</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44005</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44006</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44006</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44007</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44007</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44008</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44008</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44009</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44009</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44010</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44010</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44011</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44011</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44012</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44012</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44013</v>
@@ -4802,13 +4802,13 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44013</v>
       </c>
       <c r="C317" t="n">
-        <v>11117</v>
+        <v>11116</v>
       </c>
       <c r="D317" t="s">
         <v>5</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44014</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44014</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44015</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44015</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44016</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44016</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44017</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44017</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44018</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44018</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44019</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44019</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44020</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44020</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44021</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44021</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44022</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44022</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44023</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44023</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44024</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44024</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44025</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44025</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44026</v>
@@ -5166,13 +5166,13 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44026</v>
       </c>
       <c r="C343" t="n">
-        <v>8637</v>
+        <v>8636</v>
       </c>
       <c r="D343" t="s">
         <v>5</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44027</v>
@@ -5194,13 +5194,13 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44027</v>
       </c>
       <c r="C345" t="n">
-        <v>7615</v>
+        <v>7613</v>
       </c>
       <c r="D345" t="s">
         <v>5</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44028</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44028</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44029</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44029</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44030</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44030</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44031</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44031</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44032</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44032</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44033</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44033</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44034</v>
@@ -5390,13 +5390,13 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44034</v>
       </c>
       <c r="C359" t="n">
-        <v>6586</v>
+        <v>6587</v>
       </c>
       <c r="D359" t="s">
         <v>5</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44035</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44035</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44036</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44036</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44037</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44037</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44038</v>
@@ -5502,13 +5502,13 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44038</v>
       </c>
       <c r="C367" t="n">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="D367" t="s">
         <v>5</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44039</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44039</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44040</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44040</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44041</v>
@@ -5586,13 +5586,13 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44041</v>
       </c>
       <c r="C373" t="n">
-        <v>6578</v>
+        <v>6577</v>
       </c>
       <c r="D373" t="s">
         <v>5</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44042</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44042</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44043</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44043</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44044</v>
@@ -5670,13 +5670,13 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44044</v>
       </c>
       <c r="C379" t="n">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="D379" t="s">
         <v>5</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44045</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44045</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44046</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44046</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44047</v>
@@ -5754,13 +5754,13 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44047</v>
       </c>
       <c r="C385" t="n">
-        <v>7111</v>
+        <v>7106</v>
       </c>
       <c r="D385" t="s">
         <v>5</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44048</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44048</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44049</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44049</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44050</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44050</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44051</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44051</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44052</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44052</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44053</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44053</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44054</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44054</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44055</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44055</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44056</v>
@@ -6006,13 +6006,13 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44056</v>
       </c>
       <c r="C403" t="n">
-        <v>7065</v>
+        <v>7058</v>
       </c>
       <c r="D403" t="s">
         <v>5</v>
@@ -6020,13 +6020,13 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44057</v>
       </c>
       <c r="C404" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D404" t="s">
         <v>4</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44057</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44058</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44058</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>44059</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B409" s="1" t="n">
         <v>44059</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B410" s="1" t="n">
         <v>44060</v>
@@ -6118,13 +6118,13 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B411" s="1" t="n">
         <v>44060</v>
       </c>
       <c r="C411" t="n">
-        <v>7969</v>
+        <v>7959</v>
       </c>
       <c r="D411" t="s">
         <v>5</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B412" s="1" t="n">
         <v>44061</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B413" s="1" t="n">
         <v>44061</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B414" s="1" t="n">
         <v>44062</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B415" s="1" t="n">
         <v>44062</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B416" s="1" t="n">
         <v>44063</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B417" s="1" t="n">
         <v>44063</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B418" s="1" t="n">
         <v>44064</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B419" s="1" t="n">
         <v>44064</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B420" s="1" t="n">
         <v>44065</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B421" s="1" t="n">
         <v>44065</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B422" s="1" t="n">
         <v>44066</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B423" s="1" t="n">
         <v>44066</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B424" s="1" t="n">
         <v>44067</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B425" s="1" t="n">
         <v>44067</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B426" s="1" t="n">
         <v>44068</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B427" s="1" t="n">
         <v>44068</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B428" s="1" t="n">
         <v>44069</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B429" s="1" t="n">
         <v>44069</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B430" s="1" t="n">
         <v>44070</v>
@@ -6398,13 +6398,13 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B431" s="1" t="n">
         <v>44070</v>
       </c>
       <c r="C431" t="n">
-        <v>12745</v>
+        <v>12744</v>
       </c>
       <c r="D431" t="s">
         <v>5</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B432" s="1" t="n">
         <v>44071</v>
@@ -6426,13 +6426,13 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B433" s="1" t="n">
         <v>44071</v>
       </c>
       <c r="C433" t="n">
-        <v>12193</v>
+        <v>12168</v>
       </c>
       <c r="D433" t="s">
         <v>5</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B434" s="1" t="n">
         <v>44072</v>
@@ -6454,13 +6454,13 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B435" s="1" t="n">
         <v>44072</v>
       </c>
       <c r="C435" t="n">
-        <v>8093</v>
+        <v>8060</v>
       </c>
       <c r="D435" t="s">
         <v>5</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B436" s="1" t="n">
         <v>44073</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B437" s="1" t="n">
         <v>44073</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B438" s="1" t="n">
         <v>44074</v>
@@ -6510,13 +6510,13 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B439" s="1" t="n">
         <v>44074</v>
       </c>
       <c r="C439" t="n">
-        <v>11100</v>
+        <v>11099</v>
       </c>
       <c r="D439" t="s">
         <v>5</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B440" s="1" t="n">
         <v>44075</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B441" s="1" t="n">
         <v>44075</v>
@@ -6552,7 +6552,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B442" s="1" t="n">
         <v>44076</v>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B443" s="1" t="n">
         <v>44076</v>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B444" s="1" t="n">
         <v>44077</v>
@@ -6594,13 +6594,13 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B445" s="1" t="n">
         <v>44077</v>
       </c>
       <c r="C445" t="n">
-        <v>15064</v>
+        <v>15063</v>
       </c>
       <c r="D445" t="s">
         <v>5</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B446" s="1" t="n">
         <v>44078</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B447" s="1" t="n">
         <v>44078</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B448" s="1" t="n">
         <v>44079</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B449" s="1" t="n">
         <v>44079</v>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B450" s="1" t="n">
         <v>44080</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B451" s="1" t="n">
         <v>44080</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B452" s="1" t="n">
         <v>44081</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B453" s="1" t="n">
         <v>44081</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B454" s="1" t="n">
         <v>44082</v>
@@ -6734,13 +6734,13 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B455" s="1" t="n">
         <v>44082</v>
       </c>
       <c r="C455" t="n">
-        <v>17062</v>
+        <v>17054</v>
       </c>
       <c r="D455" t="s">
         <v>5</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B456" s="1" t="n">
         <v>44083</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B457" s="1" t="n">
         <v>44083</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B458" s="1" t="n">
         <v>44084</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B459" s="1" t="n">
         <v>44084</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B460" s="1" t="n">
         <v>44085</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B461" s="1" t="n">
         <v>44085</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B462" s="1" t="n">
         <v>44086</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B463" s="1" t="n">
         <v>44086</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B464" s="1" t="n">
         <v>44087</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B465" s="1" t="n">
         <v>44087</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B466" s="1" t="n">
         <v>44088</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B467" s="1" t="n">
         <v>44088</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B468" s="1" t="n">
         <v>44089</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B469" s="1" t="n">
         <v>44089</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B470" s="1" t="n">
         <v>44090</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B471" s="1" t="n">
         <v>44090</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B472" s="1" t="n">
         <v>44091</v>
@@ -6986,13 +6986,13 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B473" s="1" t="n">
         <v>44091</v>
       </c>
       <c r="C473" t="n">
-        <v>14712</v>
+        <v>14707</v>
       </c>
       <c r="D473" t="s">
         <v>5</v>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B474" s="1" t="n">
         <v>44092</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B475" s="1" t="n">
         <v>44092</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B476" s="1" t="n">
         <v>44093</v>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B477" s="1" t="n">
         <v>44093</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B478" s="1" t="n">
         <v>44094</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B479" s="1" t="n">
         <v>44094</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B480" s="1" t="n">
         <v>44095</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B481" s="1" t="n">
         <v>44095</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B482" s="1" t="n">
         <v>44096</v>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B483" s="1" t="n">
         <v>44096</v>
@@ -7140,7 +7140,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B484" s="1" t="n">
         <v>44097</v>
@@ -7154,13 +7154,13 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B485" s="1" t="n">
         <v>44097</v>
       </c>
       <c r="C485" t="n">
-        <v>12507</v>
+        <v>12508</v>
       </c>
       <c r="D485" t="s">
         <v>5</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B486" s="1" t="n">
         <v>44098</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B487" s="1" t="n">
         <v>44098</v>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B488" s="1" t="n">
         <v>44099</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B489" s="1" t="n">
         <v>44099</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B490" s="1" t="n">
         <v>44100</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B491" s="1" t="n">
         <v>44100</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B492" s="1" t="n">
         <v>44101</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B493" s="1" t="n">
         <v>44101</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B494" s="1" t="n">
         <v>44102</v>
@@ -7294,13 +7294,13 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B495" s="1" t="n">
         <v>44102</v>
       </c>
       <c r="C495" t="n">
-        <v>9074</v>
+        <v>9073</v>
       </c>
       <c r="D495" t="s">
         <v>5</v>
@@ -7308,13 +7308,13 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B496" s="1" t="n">
         <v>44103</v>
       </c>
       <c r="C496" t="n">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D496" t="s">
         <v>4</v>
@@ -7322,13 +7322,13 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B497" s="1" t="n">
         <v>44103</v>
       </c>
       <c r="C497" t="n">
-        <v>11961</v>
+        <v>11960</v>
       </c>
       <c r="D497" t="s">
         <v>5</v>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B498" s="1" t="n">
         <v>44104</v>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B499" s="1" t="n">
         <v>44104</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B500" s="1" t="n">
         <v>44105</v>
@@ -7378,13 +7378,13 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B501" s="1" t="n">
         <v>44105</v>
       </c>
       <c r="C501" t="n">
-        <v>11463</v>
+        <v>11462</v>
       </c>
       <c r="D501" t="s">
         <v>5</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B502" s="1" t="n">
         <v>44106</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B503" s="1" t="n">
         <v>44106</v>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B504" s="1" t="n">
         <v>44107</v>
@@ -7434,7 +7434,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B505" s="1" t="n">
         <v>44107</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B506" s="1" t="n">
         <v>44108</v>
@@ -7462,7 +7462,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B507" s="1" t="n">
         <v>44108</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B508" s="1" t="n">
         <v>44109</v>
@@ -7490,13 +7490,13 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B509" s="1" t="n">
         <v>44109</v>
       </c>
       <c r="C509" t="n">
-        <v>11031</v>
+        <v>11030</v>
       </c>
       <c r="D509" t="s">
         <v>5</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B510" s="1" t="n">
         <v>44110</v>
@@ -7518,13 +7518,13 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B511" s="1" t="n">
         <v>44110</v>
       </c>
       <c r="C511" t="n">
-        <v>13749</v>
+        <v>13748</v>
       </c>
       <c r="D511" t="s">
         <v>5</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B512" s="1" t="n">
         <v>44111</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B513" s="1" t="n">
         <v>44111</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B514" s="1" t="n">
         <v>44112</v>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B515" s="1" t="n">
         <v>44112</v>
@@ -7588,7 +7588,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B516" s="1" t="n">
         <v>44113</v>
@@ -7602,13 +7602,13 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B517" s="1" t="n">
         <v>44113</v>
       </c>
       <c r="C517" t="n">
-        <v>14319</v>
+        <v>14320</v>
       </c>
       <c r="D517" t="s">
         <v>5</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B518" s="1" t="n">
         <v>44114</v>
@@ -7630,13 +7630,13 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B519" s="1" t="n">
         <v>44114</v>
       </c>
       <c r="C519" t="n">
-        <v>9255</v>
+        <v>9254</v>
       </c>
       <c r="D519" t="s">
         <v>5</v>
@@ -7644,7 +7644,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B520" s="1" t="n">
         <v>44115</v>
@@ -7658,13 +7658,13 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B521" s="1" t="n">
         <v>44115</v>
       </c>
       <c r="C521" t="n">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="D521" t="s">
         <v>5</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B522" s="1" t="n">
         <v>44116</v>
@@ -7686,13 +7686,13 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B523" s="1" t="n">
         <v>44116</v>
       </c>
       <c r="C523" t="n">
-        <v>13112</v>
+        <v>13110</v>
       </c>
       <c r="D523" t="s">
         <v>5</v>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B524" s="1" t="n">
         <v>44117</v>
@@ -7714,13 +7714,13 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B525" s="1" t="n">
         <v>44117</v>
       </c>
       <c r="C525" t="n">
-        <v>17619</v>
+        <v>17617</v>
       </c>
       <c r="D525" t="s">
         <v>5</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B526" s="1" t="n">
         <v>44118</v>
@@ -7742,13 +7742,13 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B527" s="1" t="n">
         <v>44118</v>
       </c>
       <c r="C527" t="n">
-        <v>17441</v>
+        <v>17443</v>
       </c>
       <c r="D527" t="s">
         <v>5</v>
@@ -7756,7 +7756,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B528" s="1" t="n">
         <v>44119</v>
@@ -7770,13 +7770,13 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B529" s="1" t="n">
         <v>44119</v>
       </c>
       <c r="C529" t="n">
-        <v>18876</v>
+        <v>18877</v>
       </c>
       <c r="D529" t="s">
         <v>5</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B530" s="1" t="n">
         <v>44120</v>
@@ -7798,13 +7798,13 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B531" s="1" t="n">
         <v>44120</v>
       </c>
       <c r="C531" t="n">
-        <v>20627</v>
+        <v>20628</v>
       </c>
       <c r="D531" t="s">
         <v>5</v>
@@ -7812,7 +7812,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B532" s="1" t="n">
         <v>44121</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B533" s="1" t="n">
         <v>44121</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B534" s="1" t="n">
         <v>44122</v>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B535" s="1" t="n">
         <v>44122</v>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B536" s="1" t="n">
         <v>44123</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B537" s="1" t="n">
         <v>44123</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B538" s="1" t="n">
         <v>44124</v>
@@ -7910,13 +7910,13 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B539" s="1" t="n">
         <v>44124</v>
       </c>
       <c r="C539" t="n">
-        <v>23170</v>
+        <v>23169</v>
       </c>
       <c r="D539" t="s">
         <v>5</v>
@@ -7924,7 +7924,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B540" s="1" t="n">
         <v>44125</v>
@@ -7938,13 +7938,13 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B541" s="1" t="n">
         <v>44125</v>
       </c>
       <c r="C541" t="n">
-        <v>22265</v>
+        <v>22267</v>
       </c>
       <c r="D541" t="s">
         <v>5</v>
@@ -7952,13 +7952,13 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B542" s="1" t="n">
         <v>44126</v>
       </c>
       <c r="C542" t="n">
-        <v>6819</v>
+        <v>6818</v>
       </c>
       <c r="D542" t="s">
         <v>4</v>
@@ -7966,13 +7966,13 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B543" s="1" t="n">
         <v>44126</v>
       </c>
       <c r="C543" t="n">
-        <v>23870</v>
+        <v>23869</v>
       </c>
       <c r="D543" t="s">
         <v>5</v>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B544" s="1" t="n">
         <v>44127</v>
@@ -7994,13 +7994,13 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B545" s="1" t="n">
         <v>44127</v>
       </c>
       <c r="C545" t="n">
-        <v>24979</v>
+        <v>24980</v>
       </c>
       <c r="D545" t="s">
         <v>5</v>
@@ -8008,13 +8008,13 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B546" s="1" t="n">
         <v>44128</v>
       </c>
       <c r="C546" t="n">
-        <v>5904</v>
+        <v>5905</v>
       </c>
       <c r="D546" t="s">
         <v>4</v>
@@ -8022,7 +8022,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B547" s="1" t="n">
         <v>44128</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B548" s="1" t="n">
         <v>44129</v>
@@ -8050,7 +8050,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B549" s="1" t="n">
         <v>44129</v>
@@ -8064,13 +8064,13 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B550" s="1" t="n">
         <v>44130</v>
       </c>
       <c r="C550" t="n">
-        <v>7553</v>
+        <v>7552</v>
       </c>
       <c r="D550" t="s">
         <v>4</v>
@@ -8078,13 +8078,13 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B551" s="1" t="n">
         <v>44130</v>
       </c>
       <c r="C551" t="n">
-        <v>21347</v>
+        <v>21332</v>
       </c>
       <c r="D551" t="s">
         <v>5</v>
@@ -8092,13 +8092,13 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B552" s="1" t="n">
         <v>44131</v>
       </c>
       <c r="C552" t="n">
-        <v>10122</v>
+        <v>10123</v>
       </c>
       <c r="D552" t="s">
         <v>4</v>
@@ -8106,7 +8106,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B553" s="1" t="n">
         <v>44131</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B554" s="1" t="n">
         <v>44132</v>
@@ -8134,13 +8134,13 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B555" s="1" t="n">
         <v>44132</v>
       </c>
       <c r="C555" t="n">
-        <v>27822</v>
+        <v>27821</v>
       </c>
       <c r="D555" t="s">
         <v>5</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B556" s="1" t="n">
         <v>44133</v>
@@ -8162,13 +8162,13 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B557" s="1" t="n">
         <v>44133</v>
       </c>
       <c r="C557" t="n">
-        <v>28398</v>
+        <v>28397</v>
       </c>
       <c r="D557" t="s">
         <v>5</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B558" s="1" t="n">
         <v>44134</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B559" s="1" t="n">
         <v>44134</v>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B560" s="1" t="n">
         <v>44135</v>
@@ -8218,13 +8218,13 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B561" s="1" t="n">
         <v>44135</v>
       </c>
       <c r="C561" t="n">
-        <v>17739</v>
+        <v>17740</v>
       </c>
       <c r="D561" t="s">
         <v>5</v>
@@ -8232,13 +8232,13 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B562" s="1" t="n">
         <v>44136</v>
       </c>
       <c r="C562" t="n">
-        <v>3914</v>
+        <v>3915</v>
       </c>
       <c r="D562" t="s">
         <v>4</v>
@@ -8246,13 +8246,13 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B563" s="1" t="n">
         <v>44136</v>
       </c>
       <c r="C563" t="n">
-        <v>8926</v>
+        <v>8931</v>
       </c>
       <c r="D563" t="s">
         <v>5</v>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B564" s="1" t="n">
         <v>44137</v>
@@ -8274,13 +8274,13 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B565" s="1" t="n">
         <v>44137</v>
       </c>
       <c r="C565" t="n">
-        <v>22318</v>
+        <v>22317</v>
       </c>
       <c r="D565" t="s">
         <v>5</v>
@@ -8288,13 +8288,13 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B566" s="1" t="n">
         <v>44138</v>
       </c>
       <c r="C566" t="n">
-        <v>10886</v>
+        <v>10904</v>
       </c>
       <c r="D566" t="s">
         <v>4</v>
@@ -8302,13 +8302,13 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B567" s="1" t="n">
         <v>44138</v>
       </c>
       <c r="C567" t="n">
-        <v>27419</v>
+        <v>27456</v>
       </c>
       <c r="D567" t="s">
         <v>5</v>
@@ -8316,13 +8316,13 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B568" s="1" t="n">
         <v>44139</v>
       </c>
       <c r="C568" t="n">
-        <v>9901</v>
+        <v>9902</v>
       </c>
       <c r="D568" t="s">
         <v>4</v>
@@ -8330,13 +8330,13 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B569" s="1" t="n">
         <v>44139</v>
       </c>
       <c r="C569" t="n">
-        <v>26716</v>
+        <v>26717</v>
       </c>
       <c r="D569" t="s">
         <v>5</v>
@@ -8344,13 +8344,13 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B570" s="1" t="n">
         <v>44140</v>
       </c>
       <c r="C570" t="n">
-        <v>8922</v>
+        <v>8923</v>
       </c>
       <c r="D570" t="s">
         <v>4</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B571" s="1" t="n">
         <v>44140</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B572" s="1" t="n">
         <v>44141</v>
@@ -8386,13 +8386,13 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B573" s="1" t="n">
         <v>44141</v>
       </c>
       <c r="C573" t="n">
-        <v>24533</v>
+        <v>24534</v>
       </c>
       <c r="D573" t="s">
         <v>5</v>
@@ -8400,13 +8400,13 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B574" s="1" t="n">
         <v>44142</v>
       </c>
       <c r="C574" t="n">
-        <v>5663</v>
+        <v>5669</v>
       </c>
       <c r="D574" t="s">
         <v>4</v>
@@ -8414,13 +8414,13 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B575" s="1" t="n">
         <v>44142</v>
       </c>
       <c r="C575" t="n">
-        <v>17074</v>
+        <v>17076</v>
       </c>
       <c r="D575" t="s">
         <v>5</v>
@@ -8428,13 +8428,13 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B576" s="1" t="n">
         <v>44143</v>
       </c>
       <c r="C576" t="n">
-        <v>3444</v>
+        <v>3448</v>
       </c>
       <c r="D576" t="s">
         <v>4</v>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B577" s="1" t="n">
         <v>44143</v>
@@ -8456,13 +8456,13 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B578" s="1" t="n">
         <v>44144</v>
       </c>
       <c r="C578" t="n">
-        <v>7242</v>
+        <v>7244</v>
       </c>
       <c r="D578" t="s">
         <v>4</v>
@@ -8470,13 +8470,13 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B579" s="1" t="n">
         <v>44144</v>
       </c>
       <c r="C579" t="n">
-        <v>20363</v>
+        <v>20362</v>
       </c>
       <c r="D579" t="s">
         <v>5</v>
@@ -8484,13 +8484,13 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B580" s="1" t="n">
         <v>44145</v>
       </c>
       <c r="C580" t="n">
-        <v>8937</v>
+        <v>8938</v>
       </c>
       <c r="D580" t="s">
         <v>4</v>
@@ -8498,13 +8498,13 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B581" s="1" t="n">
         <v>44145</v>
       </c>
       <c r="C581" t="n">
-        <v>25691</v>
+        <v>25694</v>
       </c>
       <c r="D581" t="s">
         <v>5</v>
@@ -8512,7 +8512,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B582" s="1" t="n">
         <v>44146</v>
@@ -8526,13 +8526,13 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B583" s="1" t="n">
         <v>44146</v>
       </c>
       <c r="C583" t="n">
-        <v>24176</v>
+        <v>24180</v>
       </c>
       <c r="D583" t="s">
         <v>5</v>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B584" s="1" t="n">
         <v>44147</v>
@@ -8554,13 +8554,13 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B585" s="1" t="n">
         <v>44147</v>
       </c>
       <c r="C585" t="n">
-        <v>23892</v>
+        <v>23895</v>
       </c>
       <c r="D585" t="s">
         <v>5</v>
@@ -8568,7 +8568,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B586" s="1" t="n">
         <v>44148</v>
@@ -8582,13 +8582,13 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B587" s="1" t="n">
         <v>44148</v>
       </c>
       <c r="C587" t="n">
-        <v>22062</v>
+        <v>22067</v>
       </c>
       <c r="D587" t="s">
         <v>5</v>
@@ -8596,13 +8596,13 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B588" s="1" t="n">
         <v>44149</v>
       </c>
       <c r="C588" t="n">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="D588" t="s">
         <v>4</v>
@@ -8610,13 +8610,13 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B589" s="1" t="n">
         <v>44149</v>
       </c>
       <c r="C589" t="n">
-        <v>14273</v>
+        <v>14299</v>
       </c>
       <c r="D589" t="s">
         <v>5</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B590" s="1" t="n">
         <v>44150</v>
@@ -8638,13 +8638,13 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B591" s="1" t="n">
         <v>44150</v>
       </c>
       <c r="C591" t="n">
-        <v>6957</v>
+        <v>6951</v>
       </c>
       <c r="D591" t="s">
         <v>5</v>
@@ -8652,13 +8652,13 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B592" s="1" t="n">
         <v>44151</v>
       </c>
       <c r="C592" t="n">
-        <v>6040</v>
+        <v>6041</v>
       </c>
       <c r="D592" t="s">
         <v>4</v>
@@ -8666,13 +8666,13 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B593" s="1" t="n">
         <v>44151</v>
       </c>
       <c r="C593" t="n">
-        <v>19851</v>
+        <v>19829</v>
       </c>
       <c r="D593" t="s">
         <v>5</v>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B594" s="1" t="n">
         <v>44152</v>
@@ -8694,13 +8694,13 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B595" s="1" t="n">
         <v>44152</v>
       </c>
       <c r="C595" t="n">
-        <v>22993</v>
+        <v>22960</v>
       </c>
       <c r="D595" t="s">
         <v>5</v>
@@ -8708,13 +8708,13 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B596" s="1" t="n">
         <v>44153</v>
       </c>
       <c r="C596" t="n">
-        <v>5511</v>
+        <v>5513</v>
       </c>
       <c r="D596" t="s">
         <v>4</v>
@@ -8722,13 +8722,13 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B597" s="1" t="n">
         <v>44153</v>
       </c>
       <c r="C597" t="n">
-        <v>20888</v>
+        <v>20913</v>
       </c>
       <c r="D597" t="s">
         <v>5</v>
@@ -8736,7 +8736,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B598" s="1" t="n">
         <v>44154</v>
@@ -8750,13 +8750,13 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B599" s="1" t="n">
         <v>44154</v>
       </c>
       <c r="C599" t="n">
-        <v>20446</v>
+        <v>20495</v>
       </c>
       <c r="D599" t="s">
         <v>5</v>
@@ -8764,13 +8764,13 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B600" s="1" t="n">
         <v>44155</v>
       </c>
       <c r="C600" t="n">
-        <v>4665</v>
+        <v>4667</v>
       </c>
       <c r="D600" t="s">
         <v>4</v>
@@ -8778,13 +8778,13 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B601" s="1" t="n">
         <v>44155</v>
       </c>
       <c r="C601" t="n">
-        <v>20970</v>
+        <v>20978</v>
       </c>
       <c r="D601" t="s">
         <v>5</v>
@@ -8792,13 +8792,13 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B602" s="1" t="n">
         <v>44156</v>
       </c>
       <c r="C602" t="n">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="D602" t="s">
         <v>4</v>
@@ -8806,13 +8806,13 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B603" s="1" t="n">
         <v>44156</v>
       </c>
       <c r="C603" t="n">
-        <v>13324</v>
+        <v>13325</v>
       </c>
       <c r="D603" t="s">
         <v>5</v>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B604" s="1" t="n">
         <v>44157</v>
@@ -8834,13 +8834,13 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B605" s="1" t="n">
         <v>44157</v>
       </c>
       <c r="C605" t="n">
-        <v>7365</v>
+        <v>7366</v>
       </c>
       <c r="D605" t="s">
         <v>5</v>
@@ -8848,13 +8848,13 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B606" s="1" t="n">
         <v>44158</v>
       </c>
       <c r="C606" t="n">
-        <v>5037</v>
+        <v>5038</v>
       </c>
       <c r="D606" t="s">
         <v>4</v>
@@ -8862,13 +8862,13 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B607" s="1" t="n">
         <v>44158</v>
       </c>
       <c r="C607" t="n">
-        <v>21525</v>
+        <v>21523</v>
       </c>
       <c r="D607" t="s">
         <v>5</v>
@@ -8876,13 +8876,13 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B608" s="1" t="n">
         <v>44159</v>
       </c>
       <c r="C608" t="n">
-        <v>5095</v>
+        <v>5096</v>
       </c>
       <c r="D608" t="s">
         <v>4</v>
@@ -8890,13 +8890,13 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B609" s="1" t="n">
         <v>44159</v>
       </c>
       <c r="C609" t="n">
-        <v>24575</v>
+        <v>24584</v>
       </c>
       <c r="D609" t="s">
         <v>5</v>
@@ -8904,13 +8904,13 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B610" s="1" t="n">
         <v>44160</v>
       </c>
       <c r="C610" t="n">
-        <v>4726</v>
+        <v>4728</v>
       </c>
       <c r="D610" t="s">
         <v>4</v>
@@ -8918,13 +8918,13 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B611" s="1" t="n">
         <v>44160</v>
       </c>
       <c r="C611" t="n">
-        <v>22958</v>
+        <v>22998</v>
       </c>
       <c r="D611" t="s">
         <v>5</v>
@@ -8932,13 +8932,13 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B612" s="1" t="n">
         <v>44161</v>
       </c>
       <c r="C612" t="n">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="D612" t="s">
         <v>4</v>
@@ -8946,13 +8946,13 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B613" s="1" t="n">
         <v>44161</v>
       </c>
       <c r="C613" t="n">
-        <v>21919</v>
+        <v>21920</v>
       </c>
       <c r="D613" t="s">
         <v>5</v>
@@ -8960,13 +8960,13 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B614" s="1" t="n">
         <v>44162</v>
       </c>
       <c r="C614" t="n">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="D614" t="s">
         <v>4</v>
@@ -8974,13 +8974,13 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B615" s="1" t="n">
         <v>44162</v>
       </c>
       <c r="C615" t="n">
-        <v>21642</v>
+        <v>21661</v>
       </c>
       <c r="D615" t="s">
         <v>5</v>
@@ -8988,13 +8988,13 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B616" s="1" t="n">
         <v>44163</v>
       </c>
       <c r="C616" t="n">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="D616" t="s">
         <v>4</v>
@@ -9002,13 +9002,13 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B617" s="1" t="n">
         <v>44163</v>
       </c>
       <c r="C617" t="n">
-        <v>13001</v>
+        <v>13007</v>
       </c>
       <c r="D617" t="s">
         <v>5</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B618" s="1" t="n">
         <v>44164</v>
@@ -9030,13 +9030,13 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B619" s="1" t="n">
         <v>44164</v>
       </c>
       <c r="C619" t="n">
-        <v>6943</v>
+        <v>6949</v>
       </c>
       <c r="D619" t="s">
         <v>5</v>
@@ -9044,13 +9044,13 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B620" s="1" t="n">
         <v>44165</v>
       </c>
       <c r="C620" t="n">
-        <v>4954</v>
+        <v>4953</v>
       </c>
       <c r="D620" t="s">
         <v>4</v>
@@ -9058,13 +9058,13 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B621" s="1" t="n">
         <v>44165</v>
       </c>
       <c r="C621" t="n">
-        <v>20452</v>
+        <v>20458</v>
       </c>
       <c r="D621" t="s">
         <v>5</v>
@@ -9072,7 +9072,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B622" s="1" t="n">
         <v>44166</v>
@@ -9086,13 +9086,13 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B623" s="1" t="n">
         <v>44166</v>
       </c>
       <c r="C623" t="n">
-        <v>22217</v>
+        <v>22257</v>
       </c>
       <c r="D623" t="s">
         <v>5</v>
@@ -9100,13 +9100,13 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B624" s="1" t="n">
         <v>44167</v>
       </c>
       <c r="C624" t="n">
-        <v>4829</v>
+        <v>4831</v>
       </c>
       <c r="D624" t="s">
         <v>4</v>
@@ -9114,13 +9114,13 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B625" s="1" t="n">
         <v>44167</v>
       </c>
       <c r="C625" t="n">
-        <v>23090</v>
+        <v>23136</v>
       </c>
       <c r="D625" t="s">
         <v>5</v>
@@ -9128,13 +9128,13 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B626" s="1" t="n">
         <v>44168</v>
       </c>
       <c r="C626" t="n">
-        <v>4500</v>
+        <v>4502</v>
       </c>
       <c r="D626" t="s">
         <v>4</v>
@@ -9142,13 +9142,13 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B627" s="1" t="n">
         <v>44168</v>
       </c>
       <c r="C627" t="n">
-        <v>22844</v>
+        <v>22946</v>
       </c>
       <c r="D627" t="s">
         <v>5</v>
@@ -9156,13 +9156,13 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B628" s="1" t="n">
         <v>44169</v>
       </c>
       <c r="C628" t="n">
-        <v>4758</v>
+        <v>4764</v>
       </c>
       <c r="D628" t="s">
         <v>4</v>
@@ -9170,13 +9170,13 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B629" s="1" t="n">
         <v>44169</v>
       </c>
       <c r="C629" t="n">
-        <v>23718</v>
+        <v>23865</v>
       </c>
       <c r="D629" t="s">
         <v>5</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B630" s="1" t="n">
         <v>44170</v>
@@ -9198,13 +9198,13 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B631" s="1" t="n">
         <v>44170</v>
       </c>
       <c r="C631" t="n">
-        <v>14959</v>
+        <v>15066</v>
       </c>
       <c r="D631" t="s">
         <v>5</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B632" s="1" t="n">
         <v>44171</v>
@@ -9226,13 +9226,13 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B633" s="1" t="n">
         <v>44171</v>
       </c>
       <c r="C633" t="n">
-        <v>8259</v>
+        <v>8069</v>
       </c>
       <c r="D633" t="s">
         <v>5</v>
@@ -9240,13 +9240,13 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B634" s="1" t="n">
         <v>44172</v>
       </c>
       <c r="C634" t="n">
-        <v>5308</v>
+        <v>5309</v>
       </c>
       <c r="D634" t="s">
         <v>4</v>
@@ -9254,13 +9254,13 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B635" s="1" t="n">
         <v>44172</v>
       </c>
       <c r="C635" t="n">
-        <v>23586</v>
+        <v>23796</v>
       </c>
       <c r="D635" t="s">
         <v>5</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B636" s="1" t="n">
         <v>44173</v>
@@ -9282,13 +9282,13 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B637" s="1" t="n">
         <v>44173</v>
       </c>
       <c r="C637" t="n">
-        <v>26107</v>
+        <v>26195</v>
       </c>
       <c r="D637" t="s">
         <v>5</v>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B638" s="1" t="n">
         <v>44174</v>
@@ -9310,13 +9310,13 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B639" s="1" t="n">
         <v>44174</v>
       </c>
       <c r="C639" t="n">
-        <v>27601</v>
+        <v>27703</v>
       </c>
       <c r="D639" t="s">
         <v>5</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B640" s="1" t="n">
         <v>44175</v>
@@ -9338,13 +9338,13 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B641" s="1" t="n">
         <v>44175</v>
       </c>
       <c r="C641" t="n">
-        <v>29361</v>
+        <v>29477</v>
       </c>
       <c r="D641" t="s">
         <v>5</v>
@@ -9352,13 +9352,13 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B642" s="1" t="n">
         <v>44176</v>
       </c>
       <c r="C642" t="n">
-        <v>5022</v>
+        <v>5021</v>
       </c>
       <c r="D642" t="s">
         <v>4</v>
@@ -9366,13 +9366,13 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B643" s="1" t="n">
         <v>44176</v>
       </c>
       <c r="C643" t="n">
-        <v>34452</v>
+        <v>34561</v>
       </c>
       <c r="D643" t="s">
         <v>5</v>
@@ -9380,13 +9380,13 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B644" s="1" t="n">
         <v>44177</v>
       </c>
       <c r="C644" t="n">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="D644" t="s">
         <v>4</v>
@@ -9394,13 +9394,13 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B645" s="1" t="n">
         <v>44177</v>
       </c>
       <c r="C645" t="n">
-        <v>23367</v>
+        <v>23466</v>
       </c>
       <c r="D645" t="s">
         <v>5</v>
@@ -9408,13 +9408,13 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B646" s="1" t="n">
         <v>44178</v>
       </c>
       <c r="C646" t="n">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D646" t="s">
         <v>4</v>
@@ -9422,13 +9422,13 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B647" s="1" t="n">
         <v>44178</v>
       </c>
       <c r="C647" t="n">
-        <v>13197</v>
+        <v>13286</v>
       </c>
       <c r="D647" t="s">
         <v>5</v>
@@ -9436,13 +9436,13 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B648" s="1" t="n">
         <v>44179</v>
       </c>
       <c r="C648" t="n">
-        <v>5183</v>
+        <v>5181</v>
       </c>
       <c r="D648" t="s">
         <v>4</v>
@@ -9450,13 +9450,13 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B649" s="1" t="n">
         <v>44179</v>
       </c>
       <c r="C649" t="n">
-        <v>26937</v>
+        <v>27053</v>
       </c>
       <c r="D649" t="s">
         <v>5</v>
@@ -9464,13 +9464,13 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B650" s="1" t="n">
         <v>44180</v>
       </c>
       <c r="C650" t="n">
-        <v>5853</v>
+        <v>5852</v>
       </c>
       <c r="D650" t="s">
         <v>4</v>
@@ -9478,13 +9478,13 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B651" s="1" t="n">
         <v>44180</v>
       </c>
       <c r="C651" t="n">
-        <v>33507</v>
+        <v>33700</v>
       </c>
       <c r="D651" t="s">
         <v>5</v>
@@ -9492,13 +9492,13 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B652" s="1" t="n">
         <v>44181</v>
       </c>
       <c r="C652" t="n">
-        <v>5258</v>
+        <v>5262</v>
       </c>
       <c r="D652" t="s">
         <v>4</v>
@@ -9506,13 +9506,13 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B653" s="1" t="n">
         <v>44181</v>
       </c>
       <c r="C653" t="n">
-        <v>35606</v>
+        <v>35984</v>
       </c>
       <c r="D653" t="s">
         <v>5</v>
@@ -9520,13 +9520,13 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B654" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C654" t="n">
-        <v>4792</v>
+        <v>4793</v>
       </c>
       <c r="D654" t="s">
         <v>4</v>
@@ -9534,13 +9534,13 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B655" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C655" t="n">
-        <v>38248</v>
+        <v>39197</v>
       </c>
       <c r="D655" t="s">
         <v>5</v>
@@ -9548,13 +9548,13 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B656" s="1" t="n">
         <v>44183</v>
       </c>
       <c r="C656" t="n">
-        <v>4912</v>
+        <v>4911</v>
       </c>
       <c r="D656" t="s">
         <v>4</v>
@@ -9562,13 +9562,13 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B657" s="1" t="n">
         <v>44183</v>
       </c>
       <c r="C657" t="n">
-        <v>40149</v>
+        <v>40202</v>
       </c>
       <c r="D657" t="s">
         <v>5</v>
@@ -9576,13 +9576,13 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B658" s="1" t="n">
         <v>44184</v>
       </c>
       <c r="C658" t="n">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="D658" t="s">
         <v>4</v>
@@ -9590,13 +9590,13 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B659" s="1" t="n">
         <v>44184</v>
       </c>
       <c r="C659" t="n">
-        <v>23338</v>
+        <v>23458</v>
       </c>
       <c r="D659" t="s">
         <v>5</v>
@@ -9604,13 +9604,13 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B660" s="1" t="n">
         <v>44185</v>
       </c>
       <c r="C660" t="n">
-        <v>2120</v>
+        <v>2127</v>
       </c>
       <c r="D660" t="s">
         <v>4</v>
@@ -9618,13 +9618,13 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B661" s="1" t="n">
         <v>44185</v>
       </c>
       <c r="C661" t="n">
-        <v>13237</v>
+        <v>13160</v>
       </c>
       <c r="D661" t="s">
         <v>5</v>
@@ -9632,13 +9632,13 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B662" s="1" t="n">
         <v>44186</v>
       </c>
       <c r="C662" t="n">
-        <v>5195</v>
+        <v>5187</v>
       </c>
       <c r="D662" t="s">
         <v>4</v>
@@ -9646,13 +9646,13 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B663" s="1" t="n">
         <v>44186</v>
       </c>
       <c r="C663" t="n">
-        <v>33418</v>
+        <v>33552</v>
       </c>
       <c r="D663" t="s">
         <v>5</v>
@@ -9660,13 +9660,13 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B664" s="1" t="n">
         <v>44187</v>
       </c>
       <c r="C664" t="n">
-        <v>5220</v>
+        <v>5217</v>
       </c>
       <c r="D664" t="s">
         <v>4</v>
@@ -9674,13 +9674,13 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B665" s="1" t="n">
         <v>44187</v>
       </c>
       <c r="C665" t="n">
-        <v>39728</v>
+        <v>40068</v>
       </c>
       <c r="D665" t="s">
         <v>5</v>
@@ -9688,13 +9688,13 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B666" s="1" t="n">
         <v>44188</v>
       </c>
       <c r="C666" t="n">
-        <v>5133</v>
+        <v>5129</v>
       </c>
       <c r="D666" t="s">
         <v>4</v>
@@ -9702,13 +9702,13 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B667" s="1" t="n">
         <v>44188</v>
       </c>
       <c r="C667" t="n">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="D667" t="s">
         <v>5</v>
@@ -9716,13 +9716,13 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B668" s="1" t="n">
         <v>44189</v>
       </c>
       <c r="C668" t="n">
-        <v>4036</v>
+        <v>4030</v>
       </c>
       <c r="D668" t="s">
         <v>4</v>
@@ -9730,13 +9730,13 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B669" s="1" t="n">
         <v>44189</v>
       </c>
       <c r="C669" t="n">
-        <v>30847</v>
+        <v>30873</v>
       </c>
       <c r="D669" t="s">
         <v>5</v>
@@ -9744,13 +9744,13 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B670" s="1" t="n">
         <v>44190</v>
       </c>
       <c r="C670" t="n">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D670" t="s">
         <v>4</v>
@@ -9758,13 +9758,13 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B671" s="1" t="n">
         <v>44190</v>
       </c>
       <c r="C671" t="n">
-        <v>11176</v>
+        <v>11169</v>
       </c>
       <c r="D671" t="s">
         <v>5</v>
@@ -9772,13 +9772,13 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B672" s="1" t="n">
         <v>44191</v>
       </c>
       <c r="C672" t="n">
-        <v>2372</v>
+        <v>2357</v>
       </c>
       <c r="D672" t="s">
         <v>4</v>
@@ -9786,13 +9786,13 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B673" s="1" t="n">
         <v>44191</v>
       </c>
       <c r="C673" t="n">
-        <v>12914</v>
+        <v>12993</v>
       </c>
       <c r="D673" t="s">
         <v>5</v>
@@ -9800,13 +9800,13 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B674" s="1" t="n">
         <v>44192</v>
       </c>
       <c r="C674" t="n">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="D674" t="s">
         <v>4</v>
@@ -9814,13 +9814,13 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B675" s="1" t="n">
         <v>44192</v>
       </c>
       <c r="C675" t="n">
-        <v>10583</v>
+        <v>10669</v>
       </c>
       <c r="D675" t="s">
         <v>5</v>
@@ -9828,13 +9828,13 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B676" s="1" t="n">
         <v>44193</v>
       </c>
       <c r="C676" t="n">
-        <v>4802</v>
+        <v>4790</v>
       </c>
       <c r="D676" t="s">
         <v>4</v>
@@ -9842,13 +9842,13 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B677" s="1" t="n">
         <v>44193</v>
       </c>
       <c r="C677" t="n">
-        <v>24544</v>
+        <v>24462</v>
       </c>
       <c r="D677" t="s">
         <v>5</v>
@@ -9856,13 +9856,13 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B678" s="1" t="n">
         <v>44194</v>
       </c>
       <c r="C678" t="n">
-        <v>5031</v>
+        <v>5019</v>
       </c>
       <c r="D678" t="s">
         <v>4</v>
@@ -9870,13 +9870,13 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B679" s="1" t="n">
         <v>44194</v>
       </c>
       <c r="C679" t="n">
-        <v>24653</v>
+        <v>24679</v>
       </c>
       <c r="D679" t="s">
         <v>5</v>
@@ -9884,13 +9884,13 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B680" s="1" t="n">
         <v>44195</v>
       </c>
       <c r="C680" t="n">
-        <v>4686</v>
+        <v>4678</v>
       </c>
       <c r="D680" t="s">
         <v>4</v>
@@ -9898,13 +9898,13 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B681" s="1" t="n">
         <v>44195</v>
       </c>
       <c r="C681" t="n">
-        <v>23792</v>
+        <v>23884</v>
       </c>
       <c r="D681" t="s">
         <v>5</v>
@@ -9912,13 +9912,13 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B682" s="1" t="n">
         <v>44196</v>
       </c>
       <c r="C682" t="n">
-        <v>3720</v>
+        <v>3708</v>
       </c>
       <c r="D682" t="s">
         <v>4</v>
@@ -9926,13 +9926,13 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B683" s="1" t="n">
         <v>44196</v>
       </c>
       <c r="C683" t="n">
-        <v>20046</v>
+        <v>20048</v>
       </c>
       <c r="D683" t="s">
         <v>5</v>
@@ -9940,13 +9940,13 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B684" s="1" t="n">
         <v>44197</v>
       </c>
       <c r="C684" t="n">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="D684" t="s">
         <v>4</v>
@@ -9954,13 +9954,13 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B685" s="1" t="n">
         <v>44197</v>
       </c>
       <c r="C685" t="n">
-        <v>8331</v>
+        <v>8402</v>
       </c>
       <c r="D685" t="s">
         <v>5</v>
@@ -9968,13 +9968,13 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B686" s="1" t="n">
         <v>44198</v>
       </c>
       <c r="C686" t="n">
-        <v>2777</v>
+        <v>2768</v>
       </c>
       <c r="D686" t="s">
         <v>4</v>
@@ -9982,13 +9982,13 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B687" s="1" t="n">
         <v>44198</v>
       </c>
       <c r="C687" t="n">
-        <v>13304</v>
+        <v>13268</v>
       </c>
       <c r="D687" t="s">
         <v>5</v>
@@ -9996,13 +9996,13 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B688" s="1" t="n">
         <v>44199</v>
       </c>
       <c r="C688" t="n">
-        <v>2387</v>
+        <v>2377</v>
       </c>
       <c r="D688" t="s">
         <v>4</v>
@@ -10010,13 +10010,13 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B689" s="1" t="n">
         <v>44199</v>
       </c>
       <c r="C689" t="n">
-        <v>9961</v>
+        <v>10037</v>
       </c>
       <c r="D689" t="s">
         <v>5</v>
@@ -10024,13 +10024,13 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B690" s="1" t="n">
         <v>44200</v>
       </c>
       <c r="C690" t="n">
-        <v>4828</v>
+        <v>4804</v>
       </c>
       <c r="D690" t="s">
         <v>4</v>
@@ -10038,13 +10038,13 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B691" s="1" t="n">
         <v>44200</v>
       </c>
       <c r="C691" t="n">
-        <v>24722</v>
+        <v>24893</v>
       </c>
       <c r="D691" t="s">
         <v>5</v>
@@ -10052,13 +10052,13 @@
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B692" s="1" t="n">
         <v>44201</v>
       </c>
       <c r="C692" t="n">
-        <v>5050</v>
+        <v>5014</v>
       </c>
       <c r="D692" t="s">
         <v>4</v>
@@ -10066,13 +10066,13 @@
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B693" s="1" t="n">
         <v>44201</v>
       </c>
       <c r="C693" t="n">
-        <v>26497</v>
+        <v>26495</v>
       </c>
       <c r="D693" t="s">
         <v>5</v>
@@ -10080,13 +10080,13 @@
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B694" s="1" t="n">
         <v>44202</v>
       </c>
       <c r="C694" t="n">
-        <v>3723</v>
+        <v>3708</v>
       </c>
       <c r="D694" t="s">
         <v>4</v>
@@ -10094,13 +10094,13 @@
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B695" s="1" t="n">
         <v>44202</v>
       </c>
       <c r="C695" t="n">
-        <v>23388</v>
+        <v>23394</v>
       </c>
       <c r="D695" t="s">
         <v>5</v>
@@ -10108,13 +10108,13 @@
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B696" s="1" t="n">
         <v>44203</v>
       </c>
       <c r="C696" t="n">
-        <v>3728</v>
+        <v>3709</v>
       </c>
       <c r="D696" t="s">
         <v>4</v>
@@ -10122,13 +10122,13 @@
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B697" s="1" t="n">
         <v>44203</v>
       </c>
       <c r="C697" t="n">
-        <v>24039</v>
+        <v>24055</v>
       </c>
       <c r="D697" t="s">
         <v>5</v>
@@ -10136,13 +10136,13 @@
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B698" s="1" t="n">
         <v>44204</v>
       </c>
       <c r="C698" t="n">
-        <v>3281</v>
+        <v>3275</v>
       </c>
       <c r="D698" t="s">
         <v>4</v>
@@ -10150,13 +10150,13 @@
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B699" s="1" t="n">
         <v>44204</v>
       </c>
       <c r="C699" t="n">
-        <v>23369</v>
+        <v>23390</v>
       </c>
       <c r="D699" t="s">
         <v>5</v>
@@ -10164,13 +10164,13 @@
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B700" s="1" t="n">
         <v>44205</v>
       </c>
       <c r="C700" t="n">
-        <v>2252</v>
+        <v>2229</v>
       </c>
       <c r="D700" t="s">
         <v>4</v>
@@ -10178,13 +10178,13 @@
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B701" s="1" t="n">
         <v>44205</v>
       </c>
       <c r="C701" t="n">
-        <v>13637</v>
+        <v>13640</v>
       </c>
       <c r="D701" t="s">
         <v>5</v>
@@ -10192,13 +10192,13 @@
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B702" s="1" t="n">
         <v>44206</v>
       </c>
       <c r="C702" t="n">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="D702" t="s">
         <v>4</v>
@@ -10206,7 +10206,7 @@
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B703" s="1" t="n">
         <v>44206</v>
@@ -10220,13 +10220,13 @@
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B704" s="1" t="n">
         <v>44207</v>
       </c>
       <c r="C704" t="n">
-        <v>3376</v>
+        <v>3324</v>
       </c>
       <c r="D704" t="s">
         <v>4</v>
@@ -10234,13 +10234,13 @@
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B705" s="1" t="n">
         <v>44207</v>
       </c>
       <c r="C705" t="n">
-        <v>24430</v>
+        <v>24441</v>
       </c>
       <c r="D705" t="s">
         <v>5</v>
@@ -10248,13 +10248,13 @@
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B706" s="1" t="n">
         <v>44208</v>
       </c>
       <c r="C706" t="n">
-        <v>3116</v>
+        <v>3082</v>
       </c>
       <c r="D706" t="s">
         <v>4</v>
@@ -10262,13 +10262,13 @@
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B707" s="1" t="n">
         <v>44208</v>
       </c>
       <c r="C707" t="n">
-        <v>22852</v>
+        <v>22860</v>
       </c>
       <c r="D707" t="s">
         <v>5</v>
@@ -10276,13 +10276,13 @@
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B708" s="1" t="n">
         <v>44209</v>
       </c>
       <c r="C708" t="n">
-        <v>2805</v>
+        <v>2778</v>
       </c>
       <c r="D708" t="s">
         <v>4</v>
@@ -10290,13 +10290,13 @@
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B709" s="1" t="n">
         <v>44209</v>
       </c>
       <c r="C709" t="n">
-        <v>21871</v>
+        <v>21883</v>
       </c>
       <c r="D709" t="s">
         <v>5</v>
@@ -10304,13 +10304,13 @@
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B710" s="1" t="n">
         <v>44210</v>
       </c>
       <c r="C710" t="n">
-        <v>2658</v>
+        <v>2627</v>
       </c>
       <c r="D710" t="s">
         <v>4</v>
@@ -10318,13 +10318,13 @@
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B711" s="1" t="n">
         <v>44210</v>
       </c>
       <c r="C711" t="n">
-        <v>21263</v>
+        <v>21320</v>
       </c>
       <c r="D711" t="s">
         <v>5</v>
@@ -10332,13 +10332,13 @@
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B712" s="1" t="n">
         <v>44211</v>
       </c>
       <c r="C712" t="n">
-        <v>2383</v>
+        <v>2324</v>
       </c>
       <c r="D712" t="s">
         <v>4</v>
@@ -10346,13 +10346,13 @@
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B713" s="1" t="n">
         <v>44211</v>
       </c>
       <c r="C713" t="n">
-        <v>20563</v>
+        <v>20570</v>
       </c>
       <c r="D713" t="s">
         <v>5</v>
@@ -10360,13 +10360,13 @@
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B714" s="1" t="n">
         <v>44212</v>
       </c>
       <c r="C714" t="n">
-        <v>1791</v>
+        <v>1733</v>
       </c>
       <c r="D714" t="s">
         <v>4</v>
@@ -10374,13 +10374,13 @@
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B715" s="1" t="n">
         <v>44212</v>
       </c>
       <c r="C715" t="n">
-        <v>12755</v>
+        <v>12778</v>
       </c>
       <c r="D715" t="s">
         <v>5</v>
@@ -10388,13 +10388,13 @@
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B716" s="1" t="n">
         <v>44213</v>
       </c>
       <c r="C716" t="n">
-        <v>1075</v>
+        <v>1045</v>
       </c>
       <c r="D716" t="s">
         <v>4</v>
@@ -10402,13 +10402,13 @@
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B717" s="1" t="n">
         <v>44213</v>
       </c>
       <c r="C717" t="n">
-        <v>6929</v>
+        <v>6927</v>
       </c>
       <c r="D717" t="s">
         <v>5</v>
@@ -10416,13 +10416,13 @@
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B718" s="1" t="n">
         <v>44214</v>
       </c>
       <c r="C718" t="n">
-        <v>2844</v>
+        <v>2780</v>
       </c>
       <c r="D718" t="s">
         <v>4</v>
@@ -10430,13 +10430,13 @@
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B719" s="1" t="n">
         <v>44214</v>
       </c>
       <c r="C719" t="n">
-        <v>24976</v>
+        <v>25062</v>
       </c>
       <c r="D719" t="s">
         <v>5</v>
@@ -10444,13 +10444,13 @@
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B720" s="1" t="n">
         <v>44215</v>
       </c>
       <c r="C720" t="n">
-        <v>2984</v>
+        <v>2857</v>
       </c>
       <c r="D720" t="s">
         <v>4</v>
@@ -10458,13 +10458,13 @@
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B721" s="1" t="n">
         <v>44215</v>
       </c>
       <c r="C721" t="n">
-        <v>28633</v>
+        <v>28655</v>
       </c>
       <c r="D721" t="s">
         <v>5</v>
@@ -10472,13 +10472,13 @@
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B722" s="1" t="n">
         <v>44216</v>
       </c>
       <c r="C722" t="n">
-        <v>2541</v>
+        <v>2457</v>
       </c>
       <c r="D722" t="s">
         <v>4</v>
@@ -10486,13 +10486,13 @@
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B723" s="1" t="n">
         <v>44216</v>
       </c>
       <c r="C723" t="n">
-        <v>24300</v>
+        <v>24416</v>
       </c>
       <c r="D723" t="s">
         <v>5</v>
@@ -10500,13 +10500,13 @@
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B724" s="1" t="n">
         <v>44217</v>
       </c>
       <c r="C724" t="n">
-        <v>2300</v>
+        <v>2210</v>
       </c>
       <c r="D724" t="s">
         <v>4</v>
@@ -10514,13 +10514,13 @@
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B725" s="1" t="n">
         <v>44217</v>
       </c>
       <c r="C725" t="n">
-        <v>23905</v>
+        <v>23913</v>
       </c>
       <c r="D725" t="s">
         <v>5</v>
@@ -10528,13 +10528,13 @@
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B726" s="1" t="n">
         <v>44218</v>
       </c>
       <c r="C726" t="n">
-        <v>2341</v>
+        <v>2224</v>
       </c>
       <c r="D726" t="s">
         <v>4</v>
@@ -10542,13 +10542,13 @@
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B727" s="1" t="n">
         <v>44218</v>
       </c>
       <c r="C727" t="n">
-        <v>24525</v>
+        <v>24516</v>
       </c>
       <c r="D727" t="s">
         <v>5</v>
@@ -10556,13 +10556,13 @@
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B728" s="1" t="n">
         <v>44219</v>
       </c>
       <c r="C728" t="n">
-        <v>1511</v>
+        <v>1406</v>
       </c>
       <c r="D728" t="s">
         <v>4</v>
@@ -10570,13 +10570,13 @@
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B729" s="1" t="n">
         <v>44219</v>
       </c>
       <c r="C729" t="n">
-        <v>14666</v>
+        <v>14673</v>
       </c>
       <c r="D729" t="s">
         <v>5</v>
@@ -10584,13 +10584,13 @@
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B730" s="1" t="n">
         <v>44220</v>
       </c>
       <c r="C730" t="n">
-        <v>844</v>
+        <v>751</v>
       </c>
       <c r="D730" t="s">
         <v>4</v>
@@ -10598,13 +10598,13 @@
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B731" s="1" t="n">
         <v>44220</v>
       </c>
       <c r="C731" t="n">
-        <v>7389</v>
+        <v>7405</v>
       </c>
       <c r="D731" t="s">
         <v>5</v>
@@ -10612,13 +10612,13 @@
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B732" s="1" t="n">
         <v>44221</v>
       </c>
       <c r="C732" t="n">
-        <v>2332</v>
+        <v>2160</v>
       </c>
       <c r="D732" t="s">
         <v>4</v>
@@ -10626,13 +10626,13 @@
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B733" s="1" t="n">
         <v>44221</v>
       </c>
       <c r="C733" t="n">
-        <v>23672</v>
+        <v>23643</v>
       </c>
       <c r="D733" t="s">
         <v>5</v>
@@ -10640,13 +10640,13 @@
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B734" s="1" t="n">
         <v>44222</v>
       </c>
       <c r="C734" t="n">
-        <v>2271</v>
+        <v>2106</v>
       </c>
       <c r="D734" t="s">
         <v>4</v>
@@ -10654,13 +10654,13 @@
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B735" s="1" t="n">
         <v>44222</v>
       </c>
       <c r="C735" t="n">
-        <v>25963</v>
+        <v>25900</v>
       </c>
       <c r="D735" t="s">
         <v>5</v>
@@ -10668,13 +10668,13 @@
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B736" s="1" t="n">
         <v>44223</v>
       </c>
       <c r="C736" t="n">
-        <v>2126</v>
+        <v>2091</v>
       </c>
       <c r="D736" t="s">
         <v>4</v>
@@ -10682,13 +10682,13 @@
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B737" s="1" t="n">
         <v>44223</v>
       </c>
       <c r="C737" t="n">
-        <v>24008</v>
+        <v>23853</v>
       </c>
       <c r="D737" t="s">
         <v>5</v>
@@ -10696,13 +10696,13 @@
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B738" s="1" t="n">
         <v>44224</v>
       </c>
       <c r="C738" t="n">
-        <v>2041</v>
+        <v>2017</v>
       </c>
       <c r="D738" t="s">
         <v>4</v>
@@ -10710,13 +10710,13 @@
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B739" s="1" t="n">
         <v>44224</v>
       </c>
       <c r="C739" t="n">
-        <v>27248</v>
+        <v>27058</v>
       </c>
       <c r="D739" t="s">
         <v>5</v>
@@ -10724,13 +10724,13 @@
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B740" s="1" t="n">
         <v>44225</v>
       </c>
       <c r="C740" t="n">
-        <v>2321</v>
+        <v>1982</v>
       </c>
       <c r="D740" t="s">
         <v>4</v>
@@ -10738,13 +10738,13 @@
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B741" s="1" t="n">
         <v>44225</v>
       </c>
       <c r="C741" t="n">
-        <v>27624</v>
+        <v>27458</v>
       </c>
       <c r="D741" t="s">
         <v>5</v>
@@ -10752,13 +10752,13 @@
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B742" s="1" t="n">
         <v>44226</v>
       </c>
       <c r="C742" t="n">
-        <v>1609</v>
+        <v>1340</v>
       </c>
       <c r="D742" t="s">
         <v>4</v>
@@ -10766,13 +10766,13 @@
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B743" s="1" t="n">
         <v>44226</v>
       </c>
       <c r="C743" t="n">
-        <v>17659</v>
+        <v>17601</v>
       </c>
       <c r="D743" t="s">
         <v>5</v>
@@ -10780,13 +10780,13 @@
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B744" s="1" t="n">
         <v>44227</v>
       </c>
       <c r="C744" t="n">
-        <v>966</v>
+        <v>879</v>
       </c>
       <c r="D744" t="s">
         <v>4</v>
@@ -10794,13 +10794,13 @@
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B745" s="1" t="n">
         <v>44227</v>
       </c>
       <c r="C745" t="n">
-        <v>10050</v>
+        <v>10155</v>
       </c>
       <c r="D745" t="s">
         <v>5</v>
@@ -10808,13 +10808,13 @@
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B746" s="1" t="n">
         <v>44228</v>
       </c>
       <c r="C746" t="n">
-        <v>1763</v>
+        <v>2065</v>
       </c>
       <c r="D746" t="s">
         <v>4</v>
@@ -10822,15 +10822,1079 @@
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>44229.3279087153</v>
+        <v>44267.3291771219</v>
       </c>
       <c r="B747" s="1" t="n">
         <v>44228</v>
       </c>
       <c r="C747" t="n">
-        <v>19650</v>
+        <v>26733</v>
       </c>
       <c r="D747" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B748" s="1" t="n">
+        <v>44229</v>
+      </c>
+      <c r="C748" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D748" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B749" s="1" t="n">
+        <v>44229</v>
+      </c>
+      <c r="C749" t="n">
+        <v>28506</v>
+      </c>
+      <c r="D749" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B750" s="1" t="n">
+        <v>44230</v>
+      </c>
+      <c r="C750" t="n">
+        <v>1868</v>
+      </c>
+      <c r="D750" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B751" s="1" t="n">
+        <v>44230</v>
+      </c>
+      <c r="C751" t="n">
+        <v>29408</v>
+      </c>
+      <c r="D751" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B752" s="1" t="n">
+        <v>44231</v>
+      </c>
+      <c r="C752" t="n">
+        <v>1803</v>
+      </c>
+      <c r="D752" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B753" s="1" t="n">
+        <v>44231</v>
+      </c>
+      <c r="C753" t="n">
+        <v>32903</v>
+      </c>
+      <c r="D753" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B754" s="1" t="n">
+        <v>44232</v>
+      </c>
+      <c r="C754" t="n">
+        <v>1695</v>
+      </c>
+      <c r="D754" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B755" s="1" t="n">
+        <v>44232</v>
+      </c>
+      <c r="C755" t="n">
+        <v>29913</v>
+      </c>
+      <c r="D755" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B756" s="1" t="n">
+        <v>44233</v>
+      </c>
+      <c r="C756" t="n">
+        <v>1140</v>
+      </c>
+      <c r="D756" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B757" s="1" t="n">
+        <v>44233</v>
+      </c>
+      <c r="C757" t="n">
+        <v>17367</v>
+      </c>
+      <c r="D757" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B758" s="1" t="n">
+        <v>44234</v>
+      </c>
+      <c r="C758" t="n">
+        <v>722</v>
+      </c>
+      <c r="D758" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B759" s="1" t="n">
+        <v>44234</v>
+      </c>
+      <c r="C759" t="n">
+        <v>10223</v>
+      </c>
+      <c r="D759" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B760" s="1" t="n">
+        <v>44235</v>
+      </c>
+      <c r="C760" t="n">
+        <v>1713</v>
+      </c>
+      <c r="D760" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B761" s="1" t="n">
+        <v>44235</v>
+      </c>
+      <c r="C761" t="n">
+        <v>31807</v>
+      </c>
+      <c r="D761" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B762" s="1" t="n">
+        <v>44236</v>
+      </c>
+      <c r="C762" t="n">
+        <v>1757</v>
+      </c>
+      <c r="D762" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B763" s="1" t="n">
+        <v>44236</v>
+      </c>
+      <c r="C763" t="n">
+        <v>31890</v>
+      </c>
+      <c r="D763" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B764" s="1" t="n">
+        <v>44237</v>
+      </c>
+      <c r="C764" t="n">
+        <v>1433</v>
+      </c>
+      <c r="D764" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B765" s="1" t="n">
+        <v>44237</v>
+      </c>
+      <c r="C765" t="n">
+        <v>30705</v>
+      </c>
+      <c r="D765" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B766" s="1" t="n">
+        <v>44238</v>
+      </c>
+      <c r="C766" t="n">
+        <v>1413</v>
+      </c>
+      <c r="D766" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B767" s="1" t="n">
+        <v>44238</v>
+      </c>
+      <c r="C767" t="n">
+        <v>33053</v>
+      </c>
+      <c r="D767" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B768" s="1" t="n">
+        <v>44239</v>
+      </c>
+      <c r="C768" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D768" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B769" s="1" t="n">
+        <v>44239</v>
+      </c>
+      <c r="C769" t="n">
+        <v>31288</v>
+      </c>
+      <c r="D769" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B770" s="1" t="n">
+        <v>44240</v>
+      </c>
+      <c r="C770" t="n">
+        <v>947</v>
+      </c>
+      <c r="D770" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B771" s="1" t="n">
+        <v>44240</v>
+      </c>
+      <c r="C771" t="n">
+        <v>17691</v>
+      </c>
+      <c r="D771" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B772" s="1" t="n">
+        <v>44241</v>
+      </c>
+      <c r="C772" t="n">
+        <v>599</v>
+      </c>
+      <c r="D772" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B773" s="1" t="n">
+        <v>44241</v>
+      </c>
+      <c r="C773" t="n">
+        <v>8860</v>
+      </c>
+      <c r="D773" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B774" s="1" t="n">
+        <v>44242</v>
+      </c>
+      <c r="C774" t="n">
+        <v>1331</v>
+      </c>
+      <c r="D774" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B775" s="1" t="n">
+        <v>44242</v>
+      </c>
+      <c r="C775" t="n">
+        <v>29765</v>
+      </c>
+      <c r="D775" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B776" s="1" t="n">
+        <v>44243</v>
+      </c>
+      <c r="C776" t="n">
+        <v>1338</v>
+      </c>
+      <c r="D776" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B777" s="1" t="n">
+        <v>44243</v>
+      </c>
+      <c r="C777" t="n">
+        <v>29738</v>
+      </c>
+      <c r="D777" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B778" s="1" t="n">
+        <v>44244</v>
+      </c>
+      <c r="C778" t="n">
+        <v>1412</v>
+      </c>
+      <c r="D778" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B779" s="1" t="n">
+        <v>44244</v>
+      </c>
+      <c r="C779" t="n">
+        <v>28249</v>
+      </c>
+      <c r="D779" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B780" s="1" t="n">
+        <v>44245</v>
+      </c>
+      <c r="C780" t="n">
+        <v>1128</v>
+      </c>
+      <c r="D780" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B781" s="1" t="n">
+        <v>44245</v>
+      </c>
+      <c r="C781" t="n">
+        <v>29608</v>
+      </c>
+      <c r="D781" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B782" s="1" t="n">
+        <v>44246</v>
+      </c>
+      <c r="C782" t="n">
+        <v>1266</v>
+      </c>
+      <c r="D782" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B783" s="1" t="n">
+        <v>44246</v>
+      </c>
+      <c r="C783" t="n">
+        <v>28917</v>
+      </c>
+      <c r="D783" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B784" s="1" t="n">
+        <v>44247</v>
+      </c>
+      <c r="C784" t="n">
+        <v>826</v>
+      </c>
+      <c r="D784" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B785" s="1" t="n">
+        <v>44247</v>
+      </c>
+      <c r="C785" t="n">
+        <v>14858</v>
+      </c>
+      <c r="D785" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B786" s="1" t="n">
+        <v>44248</v>
+      </c>
+      <c r="C786" t="n">
+        <v>567</v>
+      </c>
+      <c r="D786" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B787" s="1" t="n">
+        <v>44248</v>
+      </c>
+      <c r="C787" t="n">
+        <v>8063</v>
+      </c>
+      <c r="D787" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B788" s="1" t="n">
+        <v>44249</v>
+      </c>
+      <c r="C788" t="n">
+        <v>1425</v>
+      </c>
+      <c r="D788" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B789" s="1" t="n">
+        <v>44249</v>
+      </c>
+      <c r="C789" t="n">
+        <v>25492</v>
+      </c>
+      <c r="D789" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B790" s="1" t="n">
+        <v>44250</v>
+      </c>
+      <c r="C790" t="n">
+        <v>1429</v>
+      </c>
+      <c r="D790" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B791" s="1" t="n">
+        <v>44250</v>
+      </c>
+      <c r="C791" t="n">
+        <v>26293</v>
+      </c>
+      <c r="D791" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B792" s="1" t="n">
+        <v>44251</v>
+      </c>
+      <c r="C792" t="n">
+        <v>1244</v>
+      </c>
+      <c r="D792" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B793" s="1" t="n">
+        <v>44251</v>
+      </c>
+      <c r="C793" t="n">
+        <v>25349</v>
+      </c>
+      <c r="D793" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B794" s="1" t="n">
+        <v>44252</v>
+      </c>
+      <c r="C794" t="n">
+        <v>1233</v>
+      </c>
+      <c r="D794" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B795" s="1" t="n">
+        <v>44252</v>
+      </c>
+      <c r="C795" t="n">
+        <v>29716</v>
+      </c>
+      <c r="D795" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B796" s="1" t="n">
+        <v>44253</v>
+      </c>
+      <c r="C796" t="n">
+        <v>1244</v>
+      </c>
+      <c r="D796" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B797" s="1" t="n">
+        <v>44253</v>
+      </c>
+      <c r="C797" t="n">
+        <v>29652</v>
+      </c>
+      <c r="D797" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B798" s="1" t="n">
+        <v>44254</v>
+      </c>
+      <c r="C798" t="n">
+        <v>893</v>
+      </c>
+      <c r="D798" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B799" s="1" t="n">
+        <v>44254</v>
+      </c>
+      <c r="C799" t="n">
+        <v>15575</v>
+      </c>
+      <c r="D799" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B800" s="1" t="n">
+        <v>44255</v>
+      </c>
+      <c r="C800" t="n">
+        <v>603</v>
+      </c>
+      <c r="D800" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B801" s="1" t="n">
+        <v>44255</v>
+      </c>
+      <c r="C801" t="n">
+        <v>8349</v>
+      </c>
+      <c r="D801" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B802" s="1" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C802" t="n">
+        <v>1395</v>
+      </c>
+      <c r="D802" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B803" s="1" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C803" t="n">
+        <v>26774</v>
+      </c>
+      <c r="D803" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B804" s="1" t="n">
+        <v>44257</v>
+      </c>
+      <c r="C804" t="n">
+        <v>1410</v>
+      </c>
+      <c r="D804" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B805" s="1" t="n">
+        <v>44257</v>
+      </c>
+      <c r="C805" t="n">
+        <v>28667</v>
+      </c>
+      <c r="D805" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B806" s="1" t="n">
+        <v>44258</v>
+      </c>
+      <c r="C806" t="n">
+        <v>1386</v>
+      </c>
+      <c r="D806" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B807" s="1" t="n">
+        <v>44258</v>
+      </c>
+      <c r="C807" t="n">
+        <v>27490</v>
+      </c>
+      <c r="D807" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B808" s="1" t="n">
+        <v>44259</v>
+      </c>
+      <c r="C808" t="n">
+        <v>1187</v>
+      </c>
+      <c r="D808" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B809" s="1" t="n">
+        <v>44259</v>
+      </c>
+      <c r="C809" t="n">
+        <v>29951</v>
+      </c>
+      <c r="D809" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B810" s="1" t="n">
+        <v>44260</v>
+      </c>
+      <c r="C810" t="n">
+        <v>1313</v>
+      </c>
+      <c r="D810" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B811" s="1" t="n">
+        <v>44260</v>
+      </c>
+      <c r="C811" t="n">
+        <v>30436</v>
+      </c>
+      <c r="D811" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B812" s="1" t="n">
+        <v>44261</v>
+      </c>
+      <c r="C812" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D812" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B813" s="1" t="n">
+        <v>44261</v>
+      </c>
+      <c r="C813" t="n">
+        <v>15253</v>
+      </c>
+      <c r="D813" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B814" s="1" t="n">
+        <v>44262</v>
+      </c>
+      <c r="C814" t="n">
+        <v>584</v>
+      </c>
+      <c r="D814" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B815" s="1" t="n">
+        <v>44262</v>
+      </c>
+      <c r="C815" t="n">
+        <v>8546</v>
+      </c>
+      <c r="D815" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B816" s="1" t="n">
+        <v>44263</v>
+      </c>
+      <c r="C816" t="n">
+        <v>1596</v>
+      </c>
+      <c r="D816" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B817" s="1" t="n">
+        <v>44263</v>
+      </c>
+      <c r="C817" t="n">
+        <v>30085</v>
+      </c>
+      <c r="D817" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B818" s="1" t="n">
+        <v>44264</v>
+      </c>
+      <c r="C818" t="n">
+        <v>1654</v>
+      </c>
+      <c r="D818" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B819" s="1" t="n">
+        <v>44264</v>
+      </c>
+      <c r="C819" t="n">
+        <v>32097</v>
+      </c>
+      <c r="D819" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B820" s="1" t="n">
+        <v>44265</v>
+      </c>
+      <c r="C820" t="n">
+        <v>1602</v>
+      </c>
+      <c r="D820" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B821" s="1" t="n">
+        <v>44265</v>
+      </c>
+      <c r="C821" t="n">
+        <v>30426</v>
+      </c>
+      <c r="D821" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B822" s="1" t="n">
+        <v>44266</v>
+      </c>
+      <c r="C822" t="n">
+        <v>1291</v>
+      </c>
+      <c r="D822" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="2" t="n">
+        <v>44267.3291771219</v>
+      </c>
+      <c r="B823" s="1" t="n">
+        <v>44266</v>
+      </c>
+      <c r="C823" t="n">
+        <v>22870</v>
+      </c>
+      <c r="D823" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data-raw/BAG-open/Dashboard_3_COVID19_labtests_positivity.xlsx
+++ b/data-raw/BAG-open/Dashboard_3_COVID19_labtests_positivity.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43867</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43867</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43873</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43873</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43885</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43885</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43886</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43886</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43887</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43887</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43888</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43888</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43889</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43889</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43890</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43890</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43891</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43891</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43892</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43892</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43893</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43893</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43894</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43894</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43895</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43895</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43896</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43896</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43897</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43897</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43898</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43898</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43899</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43899</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43900</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43900</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43901</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43901</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43902</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43902</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43903</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43903</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43904</v>
@@ -994,13 +994,13 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="C45" t="n">
-        <v>4766</v>
+        <v>4767</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43905</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43905</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43906</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43906</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43907</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43907</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43908</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43908</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43909</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43909</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43910</v>
@@ -1162,13 +1162,13 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="C57" t="n">
-        <v>6843</v>
+        <v>6844</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43911</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43911</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43912</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43912</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43913</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43913</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43914</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43914</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43915</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43915</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43916</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43916</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43917</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43917</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43918</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43918</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43919</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43919</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43920</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43920</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43921</v>
@@ -1470,13 +1470,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43921</v>
       </c>
       <c r="C79" t="n">
-        <v>5739</v>
+        <v>5740</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43922</v>
@@ -1498,13 +1498,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43922</v>
       </c>
       <c r="C81" t="n">
-        <v>5531</v>
+        <v>5532</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43923</v>
@@ -1526,13 +1526,13 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43923</v>
       </c>
       <c r="C83" t="n">
-        <v>5897</v>
+        <v>5898</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43924</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43924</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43925</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43925</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43926</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43926</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43927</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43927</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43928</v>
@@ -1666,13 +1666,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43928</v>
       </c>
       <c r="C93" t="n">
-        <v>5881</v>
+        <v>5882</v>
       </c>
       <c r="D93" t="s">
         <v>5</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43929</v>
@@ -1694,13 +1694,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43929</v>
       </c>
       <c r="C95" t="n">
-        <v>5764</v>
+        <v>5766</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43930</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43930</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43931</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43931</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43932</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43932</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43933</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43933</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43934</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43934</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43935</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43935</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43936</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43936</v>
@@ -1904,13 +1904,13 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43937</v>
       </c>
       <c r="C110" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D110" t="s">
         <v>4</v>
@@ -1918,13 +1918,13 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43937</v>
       </c>
       <c r="C111" t="n">
-        <v>4665</v>
+        <v>4666</v>
       </c>
       <c r="D111" t="s">
         <v>5</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43938</v>
@@ -1946,13 +1946,13 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43938</v>
       </c>
       <c r="C113" t="n">
-        <v>4211</v>
+        <v>4213</v>
       </c>
       <c r="D113" t="s">
         <v>5</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43939</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43939</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43940</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43940</v>
@@ -2016,13 +2016,13 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43941</v>
       </c>
       <c r="C118" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D118" t="s">
         <v>4</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43941</v>
@@ -2044,13 +2044,13 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43942</v>
       </c>
       <c r="C120" t="n">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D120" t="s">
         <v>4</v>
@@ -2058,13 +2058,13 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43942</v>
       </c>
       <c r="C121" t="n">
-        <v>4638</v>
+        <v>4639</v>
       </c>
       <c r="D121" t="s">
         <v>5</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43943</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43943</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43944</v>
@@ -2114,13 +2114,13 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43944</v>
       </c>
       <c r="C125" t="n">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="D125" t="s">
         <v>5</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43945</v>
@@ -2142,13 +2142,13 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43945</v>
       </c>
       <c r="C127" t="n">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="D127" t="s">
         <v>5</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43946</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43946</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43947</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43947</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43948</v>
@@ -2226,13 +2226,13 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43948</v>
       </c>
       <c r="C133" t="n">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="D133" t="s">
         <v>5</v>
@@ -2240,13 +2240,13 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43949</v>
       </c>
       <c r="C134" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43949</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43950</v>
@@ -2282,13 +2282,13 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="C137" t="n">
-        <v>5624</v>
+        <v>5625</v>
       </c>
       <c r="D137" t="s">
         <v>5</v>
@@ -2296,13 +2296,13 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C138" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D138" t="s">
         <v>4</v>
@@ -2310,13 +2310,13 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C139" t="n">
-        <v>4642</v>
+        <v>4645</v>
       </c>
       <c r="D139" t="s">
         <v>5</v>
@@ -2324,13 +2324,13 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43952</v>
       </c>
       <c r="C140" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D140" t="s">
         <v>4</v>
@@ -2338,13 +2338,13 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43952</v>
       </c>
       <c r="C141" t="n">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="D141" t="s">
         <v>5</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43953</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43953</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43954</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43954</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43955</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43955</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43956</v>
@@ -2450,13 +2450,13 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="C149" t="n">
-        <v>5772</v>
+        <v>5773</v>
       </c>
       <c r="D149" t="s">
         <v>5</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43957</v>
@@ -2478,13 +2478,13 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43957</v>
       </c>
       <c r="C151" t="n">
-        <v>5231</v>
+        <v>5236</v>
       </c>
       <c r="D151" t="s">
         <v>5</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43958</v>
@@ -2506,13 +2506,13 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43958</v>
       </c>
       <c r="C153" t="n">
-        <v>4589</v>
+        <v>4590</v>
       </c>
       <c r="D153" t="s">
         <v>5</v>
@@ -2520,13 +2520,13 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43959</v>
       </c>
       <c r="C154" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D154" t="s">
         <v>4</v>
@@ -2534,13 +2534,13 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43959</v>
       </c>
       <c r="C155" t="n">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="D155" t="s">
         <v>5</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43960</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43960</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43961</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43961</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43962</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43962</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43963</v>
@@ -2646,13 +2646,13 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43963</v>
       </c>
       <c r="C163" t="n">
-        <v>5494</v>
+        <v>5496</v>
       </c>
       <c r="D163" t="s">
         <v>5</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43964</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43964</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43965</v>
@@ -2702,13 +2702,13 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43965</v>
       </c>
       <c r="C167" t="n">
-        <v>5640</v>
+        <v>5642</v>
       </c>
       <c r="D167" t="s">
         <v>5</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43966</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43966</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43967</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43967</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43968</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43968</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43969</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43969</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43970</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43970</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43971</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43971</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43972</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43972</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43973</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43973</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43974</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43974</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43975</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43975</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43976</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43976</v>
@@ -3024,13 +3024,13 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43977</v>
       </c>
       <c r="C190" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D190" t="s">
         <v>4</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43977</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43978</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43978</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43979</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43979</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43980</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43980</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43981</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43981</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43982</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43982</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43983</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43983</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43984</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43984</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43985</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43985</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43986</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43986</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43987</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43987</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43988</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43988</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43989</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43989</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43990</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43990</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43991</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43991</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43992</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43992</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43993</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43993</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43994</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43994</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43995</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43995</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43996</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43996</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43997</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43997</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43998</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43998</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43999</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43999</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>44000</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>44000</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>44001</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>44001</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>44002</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>44002</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>44003</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>44003</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>44004</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>44004</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>44005</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>44005</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>44006</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>44006</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>44007</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>44007</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>44008</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>44008</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>44009</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>44009</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>44010</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>44010</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>44011</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>44011</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>44012</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>44012</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>44013</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>44013</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>44014</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>44014</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>44015</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>44015</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>44016</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>44016</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>44017</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>44017</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>44018</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>44018</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>44019</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>44019</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>44020</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>44020</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>44021</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>44021</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>44022</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>44022</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>44023</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>44023</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>44024</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>44024</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>44025</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>44025</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>44026</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>44026</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44027</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44027</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44028</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44028</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44029</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44029</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44030</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44030</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44031</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44031</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44032</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44032</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44033</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44033</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44034</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44034</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44035</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44035</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44036</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44036</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44037</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44037</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44038</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44038</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44039</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44039</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44040</v>
@@ -4802,13 +4802,13 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44040</v>
       </c>
       <c r="C317" t="n">
-        <v>7142</v>
+        <v>7141</v>
       </c>
       <c r="D317" t="s">
         <v>5</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44041</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44041</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44042</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44042</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44043</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44043</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44044</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44044</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44045</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44045</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44046</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44046</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44047</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44047</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44048</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44048</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44049</v>
@@ -5054,13 +5054,13 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44049</v>
       </c>
       <c r="C335" t="n">
-        <v>6426</v>
+        <v>6425</v>
       </c>
       <c r="D335" t="s">
         <v>5</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44050</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44050</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44051</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44051</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44052</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44052</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44053</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44053</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44054</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44054</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44055</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44055</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44056</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44056</v>
@@ -5264,13 +5264,13 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44057</v>
       </c>
       <c r="C350" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D350" t="s">
         <v>4</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44057</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44058</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44058</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44059</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44059</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44060</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44060</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44061</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44061</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44062</v>
@@ -5418,13 +5418,13 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44062</v>
       </c>
       <c r="C361" t="n">
-        <v>9143</v>
+        <v>9142</v>
       </c>
       <c r="D361" t="s">
         <v>5</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44063</v>
@@ -5446,13 +5446,13 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44063</v>
       </c>
       <c r="C363" t="n">
-        <v>9740</v>
+        <v>9739</v>
       </c>
       <c r="D363" t="s">
         <v>5</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44064</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44064</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44065</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44065</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44066</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44066</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44067</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44067</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44068</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44068</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44069</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44069</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44070</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44070</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44071</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44071</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44072</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44072</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44073</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44073</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44074</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44074</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44075</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44075</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44076</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44076</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44077</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44077</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44078</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44078</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44079</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44079</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44080</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44080</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44081</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44081</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44082</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44082</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44083</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44083</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44084</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44084</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44085</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44085</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>44086</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B409" s="1" t="n">
         <v>44086</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B410" s="1" t="n">
         <v>44087</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B411" s="1" t="n">
         <v>44087</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B412" s="1" t="n">
         <v>44088</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B413" s="1" t="n">
         <v>44088</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B414" s="1" t="n">
         <v>44089</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B415" s="1" t="n">
         <v>44089</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B416" s="1" t="n">
         <v>44090</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B417" s="1" t="n">
         <v>44090</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B418" s="1" t="n">
         <v>44091</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B419" s="1" t="n">
         <v>44091</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B420" s="1" t="n">
         <v>44092</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B421" s="1" t="n">
         <v>44092</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B422" s="1" t="n">
         <v>44093</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B423" s="1" t="n">
         <v>44093</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B424" s="1" t="n">
         <v>44094</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B425" s="1" t="n">
         <v>44094</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B426" s="1" t="n">
         <v>44095</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B427" s="1" t="n">
         <v>44095</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B428" s="1" t="n">
         <v>44096</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B429" s="1" t="n">
         <v>44096</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B430" s="1" t="n">
         <v>44097</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B431" s="1" t="n">
         <v>44097</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B432" s="1" t="n">
         <v>44098</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B433" s="1" t="n">
         <v>44098</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B434" s="1" t="n">
         <v>44099</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B435" s="1" t="n">
         <v>44099</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B436" s="1" t="n">
         <v>44100</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B437" s="1" t="n">
         <v>44100</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B438" s="1" t="n">
         <v>44101</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B439" s="1" t="n">
         <v>44101</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B440" s="1" t="n">
         <v>44102</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B441" s="1" t="n">
         <v>44102</v>
@@ -6552,13 +6552,13 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B442" s="1" t="n">
         <v>44103</v>
       </c>
       <c r="C442" t="n">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D442" t="s">
         <v>4</v>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B443" s="1" t="n">
         <v>44103</v>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B444" s="1" t="n">
         <v>44104</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B445" s="1" t="n">
         <v>44104</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B446" s="1" t="n">
         <v>44105</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B447" s="1" t="n">
         <v>44105</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B448" s="1" t="n">
         <v>44106</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B449" s="1" t="n">
         <v>44106</v>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B450" s="1" t="n">
         <v>44107</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B451" s="1" t="n">
         <v>44107</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B452" s="1" t="n">
         <v>44108</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B453" s="1" t="n">
         <v>44108</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B454" s="1" t="n">
         <v>44109</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B455" s="1" t="n">
         <v>44109</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B456" s="1" t="n">
         <v>44110</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B457" s="1" t="n">
         <v>44110</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B458" s="1" t="n">
         <v>44111</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B459" s="1" t="n">
         <v>44111</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B460" s="1" t="n">
         <v>44112</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B461" s="1" t="n">
         <v>44112</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B462" s="1" t="n">
         <v>44113</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B463" s="1" t="n">
         <v>44113</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B464" s="1" t="n">
         <v>44114</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B465" s="1" t="n">
         <v>44114</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B466" s="1" t="n">
         <v>44115</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B467" s="1" t="n">
         <v>44115</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B468" s="1" t="n">
         <v>44116</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B469" s="1" t="n">
         <v>44116</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B470" s="1" t="n">
         <v>44117</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B471" s="1" t="n">
         <v>44117</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B472" s="1" t="n">
         <v>44118</v>
@@ -6986,7 +6986,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B473" s="1" t="n">
         <v>44118</v>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B474" s="1" t="n">
         <v>44119</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B475" s="1" t="n">
         <v>44119</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B476" s="1" t="n">
         <v>44120</v>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B477" s="1" t="n">
         <v>44120</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B478" s="1" t="n">
         <v>44121</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B479" s="1" t="n">
         <v>44121</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B480" s="1" t="n">
         <v>44122</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B481" s="1" t="n">
         <v>44122</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B482" s="1" t="n">
         <v>44123</v>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B483" s="1" t="n">
         <v>44123</v>
@@ -7140,7 +7140,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B484" s="1" t="n">
         <v>44124</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B485" s="1" t="n">
         <v>44124</v>
@@ -7168,13 +7168,13 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B486" s="1" t="n">
         <v>44125</v>
       </c>
       <c r="C486" t="n">
-        <v>6136</v>
+        <v>6137</v>
       </c>
       <c r="D486" t="s">
         <v>4</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B487" s="1" t="n">
         <v>44125</v>
@@ -7196,13 +7196,13 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B488" s="1" t="n">
         <v>44126</v>
       </c>
       <c r="C488" t="n">
-        <v>6817</v>
+        <v>6818</v>
       </c>
       <c r="D488" t="s">
         <v>4</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B489" s="1" t="n">
         <v>44126</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B490" s="1" t="n">
         <v>44127</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B491" s="1" t="n">
         <v>44127</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B492" s="1" t="n">
         <v>44128</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B493" s="1" t="n">
         <v>44128</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B494" s="1" t="n">
         <v>44129</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B495" s="1" t="n">
         <v>44129</v>
@@ -7308,13 +7308,13 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B496" s="1" t="n">
         <v>44130</v>
       </c>
       <c r="C496" t="n">
-        <v>7552</v>
+        <v>7553</v>
       </c>
       <c r="D496" t="s">
         <v>4</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B497" s="1" t="n">
         <v>44130</v>
@@ -7336,13 +7336,13 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B498" s="1" t="n">
         <v>44131</v>
       </c>
       <c r="C498" t="n">
-        <v>10121</v>
+        <v>10122</v>
       </c>
       <c r="D498" t="s">
         <v>4</v>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B499" s="1" t="n">
         <v>44131</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B500" s="1" t="n">
         <v>44132</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B501" s="1" t="n">
         <v>44132</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B502" s="1" t="n">
         <v>44133</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B503" s="1" t="n">
         <v>44133</v>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B504" s="1" t="n">
         <v>44134</v>
@@ -7434,7 +7434,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B505" s="1" t="n">
         <v>44134</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B506" s="1" t="n">
         <v>44135</v>
@@ -7462,7 +7462,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B507" s="1" t="n">
         <v>44135</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B508" s="1" t="n">
         <v>44136</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B509" s="1" t="n">
         <v>44136</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B510" s="1" t="n">
         <v>44137</v>
@@ -7518,13 +7518,13 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B511" s="1" t="n">
         <v>44137</v>
       </c>
       <c r="C511" t="n">
-        <v>22317</v>
+        <v>22318</v>
       </c>
       <c r="D511" t="s">
         <v>5</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B512" s="1" t="n">
         <v>44138</v>
@@ -7546,13 +7546,13 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B513" s="1" t="n">
         <v>44138</v>
       </c>
       <c r="C513" t="n">
-        <v>27456</v>
+        <v>27457</v>
       </c>
       <c r="D513" t="s">
         <v>5</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B514" s="1" t="n">
         <v>44139</v>
@@ -7574,13 +7574,13 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B515" s="1" t="n">
         <v>44139</v>
       </c>
       <c r="C515" t="n">
-        <v>26718</v>
+        <v>26719</v>
       </c>
       <c r="D515" t="s">
         <v>5</v>
@@ -7588,13 +7588,13 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B516" s="1" t="n">
         <v>44140</v>
       </c>
       <c r="C516" t="n">
-        <v>8922</v>
+        <v>8923</v>
       </c>
       <c r="D516" t="s">
         <v>4</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B517" s="1" t="n">
         <v>44140</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B518" s="1" t="n">
         <v>44141</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B519" s="1" t="n">
         <v>44141</v>
@@ -7644,7 +7644,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B520" s="1" t="n">
         <v>44142</v>
@@ -7658,7 +7658,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B521" s="1" t="n">
         <v>44142</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B522" s="1" t="n">
         <v>44143</v>
@@ -7686,13 +7686,13 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B523" s="1" t="n">
         <v>44143</v>
       </c>
       <c r="C523" t="n">
-        <v>8435</v>
+        <v>8434</v>
       </c>
       <c r="D523" t="s">
         <v>5</v>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B524" s="1" t="n">
         <v>44144</v>
@@ -7714,7 +7714,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B525" s="1" t="n">
         <v>44144</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B526" s="1" t="n">
         <v>44145</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B527" s="1" t="n">
         <v>44145</v>
@@ -7756,13 +7756,13 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B528" s="1" t="n">
         <v>44146</v>
       </c>
       <c r="C528" t="n">
-        <v>7325</v>
+        <v>7326</v>
       </c>
       <c r="D528" t="s">
         <v>4</v>
@@ -7770,7 +7770,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B529" s="1" t="n">
         <v>44146</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B530" s="1" t="n">
         <v>44147</v>
@@ -7798,7 +7798,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B531" s="1" t="n">
         <v>44147</v>
@@ -7812,7 +7812,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B532" s="1" t="n">
         <v>44148</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B533" s="1" t="n">
         <v>44148</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B534" s="1" t="n">
         <v>44149</v>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B535" s="1" t="n">
         <v>44149</v>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B536" s="1" t="n">
         <v>44150</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B537" s="1" t="n">
         <v>44150</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B538" s="1" t="n">
         <v>44151</v>
@@ -7910,7 +7910,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B539" s="1" t="n">
         <v>44151</v>
@@ -7924,13 +7924,13 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B540" s="1" t="n">
         <v>44152</v>
       </c>
       <c r="C540" t="n">
-        <v>6357</v>
+        <v>6358</v>
       </c>
       <c r="D540" t="s">
         <v>4</v>
@@ -7938,7 +7938,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B541" s="1" t="n">
         <v>44152</v>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B542" s="1" t="n">
         <v>44153</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B543" s="1" t="n">
         <v>44153</v>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B544" s="1" t="n">
         <v>44154</v>
@@ -7994,7 +7994,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B545" s="1" t="n">
         <v>44154</v>
@@ -8008,7 +8008,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B546" s="1" t="n">
         <v>44155</v>
@@ -8022,7 +8022,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B547" s="1" t="n">
         <v>44155</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B548" s="1" t="n">
         <v>44156</v>
@@ -8050,7 +8050,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B549" s="1" t="n">
         <v>44156</v>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B550" s="1" t="n">
         <v>44157</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B551" s="1" t="n">
         <v>44157</v>
@@ -8092,7 +8092,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B552" s="1" t="n">
         <v>44158</v>
@@ -8106,7 +8106,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B553" s="1" t="n">
         <v>44158</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B554" s="1" t="n">
         <v>44159</v>
@@ -8134,7 +8134,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B555" s="1" t="n">
         <v>44159</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B556" s="1" t="n">
         <v>44160</v>
@@ -8162,13 +8162,13 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B557" s="1" t="n">
         <v>44160</v>
       </c>
       <c r="C557" t="n">
-        <v>23002</v>
+        <v>23001</v>
       </c>
       <c r="D557" t="s">
         <v>5</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B558" s="1" t="n">
         <v>44161</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B559" s="1" t="n">
         <v>44161</v>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B560" s="1" t="n">
         <v>44162</v>
@@ -8218,7 +8218,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B561" s="1" t="n">
         <v>44162</v>
@@ -8232,7 +8232,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B562" s="1" t="n">
         <v>44163</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B563" s="1" t="n">
         <v>44163</v>
@@ -8260,13 +8260,13 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B564" s="1" t="n">
         <v>44164</v>
       </c>
       <c r="C564" t="n">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D564" t="s">
         <v>4</v>
@@ -8274,7 +8274,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B565" s="1" t="n">
         <v>44164</v>
@@ -8288,7 +8288,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B566" s="1" t="n">
         <v>44165</v>
@@ -8302,7 +8302,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B567" s="1" t="n">
         <v>44165</v>
@@ -8316,13 +8316,13 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B568" s="1" t="n">
         <v>44166</v>
       </c>
       <c r="C568" t="n">
-        <v>4941</v>
+        <v>4942</v>
       </c>
       <c r="D568" t="s">
         <v>4</v>
@@ -8330,7 +8330,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B569" s="1" t="n">
         <v>44166</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B570" s="1" t="n">
         <v>44167</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B571" s="1" t="n">
         <v>44167</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B572" s="1" t="n">
         <v>44168</v>
@@ -8386,7 +8386,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B573" s="1" t="n">
         <v>44168</v>
@@ -8400,7 +8400,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B574" s="1" t="n">
         <v>44169</v>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B575" s="1" t="n">
         <v>44169</v>
@@ -8428,7 +8428,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B576" s="1" t="n">
         <v>44170</v>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B577" s="1" t="n">
         <v>44170</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B578" s="1" t="n">
         <v>44171</v>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B579" s="1" t="n">
         <v>44171</v>
@@ -8484,7 +8484,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B580" s="1" t="n">
         <v>44172</v>
@@ -8498,13 +8498,13 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B581" s="1" t="n">
         <v>44172</v>
       </c>
       <c r="C581" t="n">
-        <v>23816</v>
+        <v>23815</v>
       </c>
       <c r="D581" t="s">
         <v>5</v>
@@ -8512,7 +8512,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B582" s="1" t="n">
         <v>44173</v>
@@ -8526,7 +8526,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B583" s="1" t="n">
         <v>44173</v>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B584" s="1" t="n">
         <v>44174</v>
@@ -8554,13 +8554,13 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B585" s="1" t="n">
         <v>44174</v>
       </c>
       <c r="C585" t="n">
-        <v>27703</v>
+        <v>27704</v>
       </c>
       <c r="D585" t="s">
         <v>5</v>
@@ -8568,7 +8568,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B586" s="1" t="n">
         <v>44175</v>
@@ -8582,7 +8582,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B587" s="1" t="n">
         <v>44175</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B588" s="1" t="n">
         <v>44176</v>
@@ -8610,13 +8610,13 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B589" s="1" t="n">
         <v>44176</v>
       </c>
       <c r="C589" t="n">
-        <v>34564</v>
+        <v>34565</v>
       </c>
       <c r="D589" t="s">
         <v>5</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B590" s="1" t="n">
         <v>44177</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B591" s="1" t="n">
         <v>44177</v>
@@ -8652,7 +8652,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B592" s="1" t="n">
         <v>44178</v>
@@ -8666,7 +8666,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B593" s="1" t="n">
         <v>44178</v>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B594" s="1" t="n">
         <v>44179</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B595" s="1" t="n">
         <v>44179</v>
@@ -8708,7 +8708,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B596" s="1" t="n">
         <v>44180</v>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B597" s="1" t="n">
         <v>44180</v>
@@ -8736,7 +8736,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B598" s="1" t="n">
         <v>44181</v>
@@ -8750,13 +8750,13 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B599" s="1" t="n">
         <v>44181</v>
       </c>
       <c r="C599" t="n">
-        <v>35967</v>
+        <v>35962</v>
       </c>
       <c r="D599" t="s">
         <v>5</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B600" s="1" t="n">
         <v>44182</v>
@@ -8778,13 +8778,13 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B601" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C601" t="n">
-        <v>39201</v>
+        <v>39199</v>
       </c>
       <c r="D601" t="s">
         <v>5</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B602" s="1" t="n">
         <v>44183</v>
@@ -8806,13 +8806,13 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B603" s="1" t="n">
         <v>44183</v>
       </c>
       <c r="C603" t="n">
-        <v>40194</v>
+        <v>40191</v>
       </c>
       <c r="D603" t="s">
         <v>5</v>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B604" s="1" t="n">
         <v>44184</v>
@@ -8834,13 +8834,13 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B605" s="1" t="n">
         <v>44184</v>
       </c>
       <c r="C605" t="n">
-        <v>23370</v>
+        <v>23354</v>
       </c>
       <c r="D605" t="s">
         <v>5</v>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B606" s="1" t="n">
         <v>44185</v>
@@ -8862,7 +8862,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B607" s="1" t="n">
         <v>44185</v>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B608" s="1" t="n">
         <v>44186</v>
@@ -8890,7 +8890,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B609" s="1" t="n">
         <v>44186</v>
@@ -8904,13 +8904,13 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B610" s="1" t="n">
         <v>44187</v>
       </c>
       <c r="C610" t="n">
-        <v>5217</v>
+        <v>5218</v>
       </c>
       <c r="D610" t="s">
         <v>4</v>
@@ -8918,13 +8918,13 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B611" s="1" t="n">
         <v>44187</v>
       </c>
       <c r="C611" t="n">
-        <v>40007</v>
+        <v>39986</v>
       </c>
       <c r="D611" t="s">
         <v>5</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B612" s="1" t="n">
         <v>44188</v>
@@ -8946,13 +8946,13 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B613" s="1" t="n">
         <v>44188</v>
       </c>
       <c r="C613" t="n">
-        <v>41657</v>
+        <v>41641</v>
       </c>
       <c r="D613" t="s">
         <v>5</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B614" s="1" t="n">
         <v>44189</v>
@@ -8974,13 +8974,13 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B615" s="1" t="n">
         <v>44189</v>
       </c>
       <c r="C615" t="n">
-        <v>30847</v>
+        <v>30839</v>
       </c>
       <c r="D615" t="s">
         <v>5</v>
@@ -8988,7 +8988,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B616" s="1" t="n">
         <v>44190</v>
@@ -9002,13 +9002,13 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B617" s="1" t="n">
         <v>44190</v>
       </c>
       <c r="C617" t="n">
-        <v>11150</v>
+        <v>11146</v>
       </c>
       <c r="D617" t="s">
         <v>5</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B618" s="1" t="n">
         <v>44191</v>
@@ -9030,13 +9030,13 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B619" s="1" t="n">
         <v>44191</v>
       </c>
       <c r="C619" t="n">
-        <v>12971</v>
+        <v>12961</v>
       </c>
       <c r="D619" t="s">
         <v>5</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B620" s="1" t="n">
         <v>44192</v>
@@ -9058,13 +9058,13 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B621" s="1" t="n">
         <v>44192</v>
       </c>
       <c r="C621" t="n">
-        <v>10659</v>
+        <v>10654</v>
       </c>
       <c r="D621" t="s">
         <v>5</v>
@@ -9072,7 +9072,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B622" s="1" t="n">
         <v>44193</v>
@@ -9086,13 +9086,13 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B623" s="1" t="n">
         <v>44193</v>
       </c>
       <c r="C623" t="n">
-        <v>24428</v>
+        <v>24420</v>
       </c>
       <c r="D623" t="s">
         <v>5</v>
@@ -9100,7 +9100,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B624" s="1" t="n">
         <v>44194</v>
@@ -9114,13 +9114,13 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B625" s="1" t="n">
         <v>44194</v>
       </c>
       <c r="C625" t="n">
-        <v>24660</v>
+        <v>24653</v>
       </c>
       <c r="D625" t="s">
         <v>5</v>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B626" s="1" t="n">
         <v>44195</v>
@@ -9142,13 +9142,13 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B627" s="1" t="n">
         <v>44195</v>
       </c>
       <c r="C627" t="n">
-        <v>23876</v>
+        <v>23873</v>
       </c>
       <c r="D627" t="s">
         <v>5</v>
@@ -9156,7 +9156,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B628" s="1" t="n">
         <v>44196</v>
@@ -9170,13 +9170,13 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B629" s="1" t="n">
         <v>44196</v>
       </c>
       <c r="C629" t="n">
-        <v>20031</v>
+        <v>20028</v>
       </c>
       <c r="D629" t="s">
         <v>5</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B630" s="1" t="n">
         <v>44197</v>
@@ -9198,13 +9198,13 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B631" s="1" t="n">
         <v>44197</v>
       </c>
       <c r="C631" t="n">
-        <v>8389</v>
+        <v>8385</v>
       </c>
       <c r="D631" t="s">
         <v>5</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B632" s="1" t="n">
         <v>44198</v>
@@ -9226,13 +9226,13 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B633" s="1" t="n">
         <v>44198</v>
       </c>
       <c r="C633" t="n">
-        <v>13256</v>
+        <v>13246</v>
       </c>
       <c r="D633" t="s">
         <v>5</v>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B634" s="1" t="n">
         <v>44199</v>
@@ -9254,7 +9254,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B635" s="1" t="n">
         <v>44199</v>
@@ -9268,13 +9268,13 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B636" s="1" t="n">
         <v>44200</v>
       </c>
       <c r="C636" t="n">
-        <v>4804</v>
+        <v>4805</v>
       </c>
       <c r="D636" t="s">
         <v>4</v>
@@ -9282,13 +9282,13 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B637" s="1" t="n">
         <v>44200</v>
       </c>
       <c r="C637" t="n">
-        <v>24912</v>
+        <v>24902</v>
       </c>
       <c r="D637" t="s">
         <v>5</v>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B638" s="1" t="n">
         <v>44201</v>
@@ -9310,13 +9310,13 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B639" s="1" t="n">
         <v>44201</v>
       </c>
       <c r="C639" t="n">
-        <v>26511</v>
+        <v>26508</v>
       </c>
       <c r="D639" t="s">
         <v>5</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B640" s="1" t="n">
         <v>44202</v>
@@ -9338,13 +9338,13 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B641" s="1" t="n">
         <v>44202</v>
       </c>
       <c r="C641" t="n">
-        <v>23404</v>
+        <v>23395</v>
       </c>
       <c r="D641" t="s">
         <v>5</v>
@@ -9352,7 +9352,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B642" s="1" t="n">
         <v>44203</v>
@@ -9366,13 +9366,13 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B643" s="1" t="n">
         <v>44203</v>
       </c>
       <c r="C643" t="n">
-        <v>24040</v>
+        <v>24034</v>
       </c>
       <c r="D643" t="s">
         <v>5</v>
@@ -9380,7 +9380,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B644" s="1" t="n">
         <v>44204</v>
@@ -9394,13 +9394,13 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B645" s="1" t="n">
         <v>44204</v>
       </c>
       <c r="C645" t="n">
-        <v>23413</v>
+        <v>23406</v>
       </c>
       <c r="D645" t="s">
         <v>5</v>
@@ -9408,7 +9408,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B646" s="1" t="n">
         <v>44205</v>
@@ -9422,13 +9422,13 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B647" s="1" t="n">
         <v>44205</v>
       </c>
       <c r="C647" t="n">
-        <v>13628</v>
+        <v>13626</v>
       </c>
       <c r="D647" t="s">
         <v>5</v>
@@ -9436,7 +9436,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B648" s="1" t="n">
         <v>44206</v>
@@ -9450,13 +9450,13 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B649" s="1" t="n">
         <v>44206</v>
       </c>
       <c r="C649" t="n">
-        <v>7544</v>
+        <v>7543</v>
       </c>
       <c r="D649" t="s">
         <v>5</v>
@@ -9464,7 +9464,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B650" s="1" t="n">
         <v>44207</v>
@@ -9478,13 +9478,13 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B651" s="1" t="n">
         <v>44207</v>
       </c>
       <c r="C651" t="n">
-        <v>24438</v>
+        <v>24427</v>
       </c>
       <c r="D651" t="s">
         <v>5</v>
@@ -9492,7 +9492,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B652" s="1" t="n">
         <v>44208</v>
@@ -9506,13 +9506,13 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B653" s="1" t="n">
         <v>44208</v>
       </c>
       <c r="C653" t="n">
-        <v>22856</v>
+        <v>22853</v>
       </c>
       <c r="D653" t="s">
         <v>5</v>
@@ -9520,13 +9520,13 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B654" s="1" t="n">
         <v>44209</v>
       </c>
       <c r="C654" t="n">
-        <v>2777</v>
+        <v>2779</v>
       </c>
       <c r="D654" t="s">
         <v>4</v>
@@ -9534,13 +9534,13 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B655" s="1" t="n">
         <v>44209</v>
       </c>
       <c r="C655" t="n">
-        <v>21880</v>
+        <v>21878</v>
       </c>
       <c r="D655" t="s">
         <v>5</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B656" s="1" t="n">
         <v>44210</v>
@@ -9562,13 +9562,13 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B657" s="1" t="n">
         <v>44210</v>
       </c>
       <c r="C657" t="n">
-        <v>21316</v>
+        <v>21312</v>
       </c>
       <c r="D657" t="s">
         <v>5</v>
@@ -9576,7 +9576,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B658" s="1" t="n">
         <v>44211</v>
@@ -9590,13 +9590,13 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B659" s="1" t="n">
         <v>44211</v>
       </c>
       <c r="C659" t="n">
-        <v>20563</v>
+        <v>20557</v>
       </c>
       <c r="D659" t="s">
         <v>5</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B660" s="1" t="n">
         <v>44212</v>
@@ -9618,13 +9618,13 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B661" s="1" t="n">
         <v>44212</v>
       </c>
       <c r="C661" t="n">
-        <v>12779</v>
+        <v>12773</v>
       </c>
       <c r="D661" t="s">
         <v>5</v>
@@ -9632,7 +9632,7 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B662" s="1" t="n">
         <v>44213</v>
@@ -9646,13 +9646,13 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B663" s="1" t="n">
         <v>44213</v>
       </c>
       <c r="C663" t="n">
-        <v>6918</v>
+        <v>6909</v>
       </c>
       <c r="D663" t="s">
         <v>5</v>
@@ -9660,7 +9660,7 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B664" s="1" t="n">
         <v>44214</v>
@@ -9674,13 +9674,13 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B665" s="1" t="n">
         <v>44214</v>
       </c>
       <c r="C665" t="n">
-        <v>25058</v>
+        <v>25051</v>
       </c>
       <c r="D665" t="s">
         <v>5</v>
@@ -9688,7 +9688,7 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B666" s="1" t="n">
         <v>44215</v>
@@ -9702,13 +9702,13 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B667" s="1" t="n">
         <v>44215</v>
       </c>
       <c r="C667" t="n">
-        <v>28679</v>
+        <v>28675</v>
       </c>
       <c r="D667" t="s">
         <v>5</v>
@@ -9716,7 +9716,7 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B668" s="1" t="n">
         <v>44216</v>
@@ -9730,13 +9730,13 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B669" s="1" t="n">
         <v>44216</v>
       </c>
       <c r="C669" t="n">
-        <v>24430</v>
+        <v>24423</v>
       </c>
       <c r="D669" t="s">
         <v>5</v>
@@ -9744,7 +9744,7 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B670" s="1" t="n">
         <v>44217</v>
@@ -9758,13 +9758,13 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B671" s="1" t="n">
         <v>44217</v>
       </c>
       <c r="C671" t="n">
-        <v>23910</v>
+        <v>23904</v>
       </c>
       <c r="D671" t="s">
         <v>5</v>
@@ -9772,7 +9772,7 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B672" s="1" t="n">
         <v>44218</v>
@@ -9786,13 +9786,13 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B673" s="1" t="n">
         <v>44218</v>
       </c>
       <c r="C673" t="n">
-        <v>24472</v>
+        <v>24461</v>
       </c>
       <c r="D673" t="s">
         <v>5</v>
@@ -9800,7 +9800,7 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B674" s="1" t="n">
         <v>44219</v>
@@ -9814,7 +9814,7 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B675" s="1" t="n">
         <v>44219</v>
@@ -9828,7 +9828,7 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B676" s="1" t="n">
         <v>44220</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B677" s="1" t="n">
         <v>44220</v>
@@ -9856,7 +9856,7 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B678" s="1" t="n">
         <v>44221</v>
@@ -9870,13 +9870,13 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B679" s="1" t="n">
         <v>44221</v>
       </c>
       <c r="C679" t="n">
-        <v>23697</v>
+        <v>23693</v>
       </c>
       <c r="D679" t="s">
         <v>5</v>
@@ -9884,7 +9884,7 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B680" s="1" t="n">
         <v>44222</v>
@@ -9898,13 +9898,13 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B681" s="1" t="n">
         <v>44222</v>
       </c>
       <c r="C681" t="n">
-        <v>25892</v>
+        <v>25886</v>
       </c>
       <c r="D681" t="s">
         <v>5</v>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B682" s="1" t="n">
         <v>44223</v>
@@ -9926,13 +9926,13 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B683" s="1" t="n">
         <v>44223</v>
       </c>
       <c r="C683" t="n">
-        <v>23838</v>
+        <v>23836</v>
       </c>
       <c r="D683" t="s">
         <v>5</v>
@@ -9940,7 +9940,7 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B684" s="1" t="n">
         <v>44224</v>
@@ -9954,13 +9954,13 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B685" s="1" t="n">
         <v>44224</v>
       </c>
       <c r="C685" t="n">
-        <v>27005</v>
+        <v>26985</v>
       </c>
       <c r="D685" t="s">
         <v>5</v>
@@ -9968,7 +9968,7 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B686" s="1" t="n">
         <v>44225</v>
@@ -9982,13 +9982,13 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B687" s="1" t="n">
         <v>44225</v>
       </c>
       <c r="C687" t="n">
-        <v>27441</v>
+        <v>27437</v>
       </c>
       <c r="D687" t="s">
         <v>5</v>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B688" s="1" t="n">
         <v>44226</v>
@@ -10010,13 +10010,13 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B689" s="1" t="n">
         <v>44226</v>
       </c>
       <c r="C689" t="n">
-        <v>17578</v>
+        <v>17573</v>
       </c>
       <c r="D689" t="s">
         <v>5</v>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B690" s="1" t="n">
         <v>44227</v>
@@ -10038,13 +10038,13 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B691" s="1" t="n">
         <v>44227</v>
       </c>
       <c r="C691" t="n">
-        <v>10093</v>
+        <v>10087</v>
       </c>
       <c r="D691" t="s">
         <v>5</v>
@@ -10052,7 +10052,7 @@
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B692" s="1" t="n">
         <v>44228</v>
@@ -10066,13 +10066,13 @@
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B693" s="1" t="n">
         <v>44228</v>
       </c>
       <c r="C693" t="n">
-        <v>26762</v>
+        <v>26743</v>
       </c>
       <c r="D693" t="s">
         <v>5</v>
@@ -10080,7 +10080,7 @@
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B694" s="1" t="n">
         <v>44229</v>
@@ -10094,13 +10094,13 @@
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B695" s="1" t="n">
         <v>44229</v>
       </c>
       <c r="C695" t="n">
-        <v>28510</v>
+        <v>28508</v>
       </c>
       <c r="D695" t="s">
         <v>5</v>
@@ -10108,7 +10108,7 @@
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B696" s="1" t="n">
         <v>44230</v>
@@ -10122,13 +10122,13 @@
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B697" s="1" t="n">
         <v>44230</v>
       </c>
       <c r="C697" t="n">
-        <v>29395</v>
+        <v>29391</v>
       </c>
       <c r="D697" t="s">
         <v>5</v>
@@ -10136,7 +10136,7 @@
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B698" s="1" t="n">
         <v>44231</v>
@@ -10150,13 +10150,13 @@
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B699" s="1" t="n">
         <v>44231</v>
       </c>
       <c r="C699" t="n">
-        <v>32893</v>
+        <v>32880</v>
       </c>
       <c r="D699" t="s">
         <v>5</v>
@@ -10164,7 +10164,7 @@
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B700" s="1" t="n">
         <v>44232</v>
@@ -10178,13 +10178,13 @@
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B701" s="1" t="n">
         <v>44232</v>
       </c>
       <c r="C701" t="n">
-        <v>29895</v>
+        <v>29884</v>
       </c>
       <c r="D701" t="s">
         <v>5</v>
@@ -10192,7 +10192,7 @@
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B702" s="1" t="n">
         <v>44233</v>
@@ -10206,13 +10206,13 @@
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B703" s="1" t="n">
         <v>44233</v>
       </c>
       <c r="C703" t="n">
-        <v>17333</v>
+        <v>17323</v>
       </c>
       <c r="D703" t="s">
         <v>5</v>
@@ -10220,7 +10220,7 @@
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B704" s="1" t="n">
         <v>44234</v>
@@ -10234,7 +10234,7 @@
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B705" s="1" t="n">
         <v>44234</v>
@@ -10248,7 +10248,7 @@
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B706" s="1" t="n">
         <v>44235</v>
@@ -10262,13 +10262,13 @@
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B707" s="1" t="n">
         <v>44235</v>
       </c>
       <c r="C707" t="n">
-        <v>31846</v>
+        <v>31842</v>
       </c>
       <c r="D707" t="s">
         <v>5</v>
@@ -10276,7 +10276,7 @@
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B708" s="1" t="n">
         <v>44236</v>
@@ -10290,13 +10290,13 @@
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B709" s="1" t="n">
         <v>44236</v>
       </c>
       <c r="C709" t="n">
-        <v>31871</v>
+        <v>31869</v>
       </c>
       <c r="D709" t="s">
         <v>5</v>
@@ -10304,7 +10304,7 @@
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B710" s="1" t="n">
         <v>44237</v>
@@ -10318,13 +10318,13 @@
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B711" s="1" t="n">
         <v>44237</v>
       </c>
       <c r="C711" t="n">
-        <v>30685</v>
+        <v>30679</v>
       </c>
       <c r="D711" t="s">
         <v>5</v>
@@ -10332,7 +10332,7 @@
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B712" s="1" t="n">
         <v>44238</v>
@@ -10346,13 +10346,13 @@
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B713" s="1" t="n">
         <v>44238</v>
       </c>
       <c r="C713" t="n">
-        <v>32968</v>
+        <v>32942</v>
       </c>
       <c r="D713" t="s">
         <v>5</v>
@@ -10360,7 +10360,7 @@
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B714" s="1" t="n">
         <v>44239</v>
@@ -10374,13 +10374,13 @@
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B715" s="1" t="n">
         <v>44239</v>
       </c>
       <c r="C715" t="n">
-        <v>31257</v>
+        <v>31258</v>
       </c>
       <c r="D715" t="s">
         <v>5</v>
@@ -10388,7 +10388,7 @@
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B716" s="1" t="n">
         <v>44240</v>
@@ -10402,13 +10402,13 @@
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B717" s="1" t="n">
         <v>44240</v>
       </c>
       <c r="C717" t="n">
-        <v>17632</v>
+        <v>17623</v>
       </c>
       <c r="D717" t="s">
         <v>5</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B718" s="1" t="n">
         <v>44241</v>
@@ -10430,13 +10430,13 @@
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B719" s="1" t="n">
         <v>44241</v>
       </c>
       <c r="C719" t="n">
-        <v>8851</v>
+        <v>8848</v>
       </c>
       <c r="D719" t="s">
         <v>5</v>
@@ -10444,7 +10444,7 @@
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B720" s="1" t="n">
         <v>44242</v>
@@ -10458,13 +10458,13 @@
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B721" s="1" t="n">
         <v>44242</v>
       </c>
       <c r="C721" t="n">
-        <v>29693</v>
+        <v>29695</v>
       </c>
       <c r="D721" t="s">
         <v>5</v>
@@ -10472,7 +10472,7 @@
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B722" s="1" t="n">
         <v>44243</v>
@@ -10486,13 +10486,13 @@
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B723" s="1" t="n">
         <v>44243</v>
       </c>
       <c r="C723" t="n">
-        <v>29697</v>
+        <v>29701</v>
       </c>
       <c r="D723" t="s">
         <v>5</v>
@@ -10500,7 +10500,7 @@
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B724" s="1" t="n">
         <v>44244</v>
@@ -10514,13 +10514,13 @@
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B725" s="1" t="n">
         <v>44244</v>
       </c>
       <c r="C725" t="n">
-        <v>28214</v>
+        <v>28217</v>
       </c>
       <c r="D725" t="s">
         <v>5</v>
@@ -10528,7 +10528,7 @@
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B726" s="1" t="n">
         <v>44245</v>
@@ -10542,13 +10542,13 @@
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B727" s="1" t="n">
         <v>44245</v>
       </c>
       <c r="C727" t="n">
-        <v>29570</v>
+        <v>29563</v>
       </c>
       <c r="D727" t="s">
         <v>5</v>
@@ -10556,7 +10556,7 @@
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B728" s="1" t="n">
         <v>44246</v>
@@ -10570,13 +10570,13 @@
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B729" s="1" t="n">
         <v>44246</v>
       </c>
       <c r="C729" t="n">
-        <v>28908</v>
+        <v>28895</v>
       </c>
       <c r="D729" t="s">
         <v>5</v>
@@ -10584,7 +10584,7 @@
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B730" s="1" t="n">
         <v>44247</v>
@@ -10598,13 +10598,13 @@
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B731" s="1" t="n">
         <v>44247</v>
       </c>
       <c r="C731" t="n">
-        <v>14830</v>
+        <v>14824</v>
       </c>
       <c r="D731" t="s">
         <v>5</v>
@@ -10612,7 +10612,7 @@
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B732" s="1" t="n">
         <v>44248</v>
@@ -10626,13 +10626,13 @@
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B733" s="1" t="n">
         <v>44248</v>
       </c>
       <c r="C733" t="n">
-        <v>8055</v>
+        <v>8047</v>
       </c>
       <c r="D733" t="s">
         <v>5</v>
@@ -10640,7 +10640,7 @@
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B734" s="1" t="n">
         <v>44249</v>
@@ -10654,13 +10654,13 @@
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B735" s="1" t="n">
         <v>44249</v>
       </c>
       <c r="C735" t="n">
-        <v>25436</v>
+        <v>25430</v>
       </c>
       <c r="D735" t="s">
         <v>5</v>
@@ -10668,7 +10668,7 @@
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B736" s="1" t="n">
         <v>44250</v>
@@ -10682,13 +10682,13 @@
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B737" s="1" t="n">
         <v>44250</v>
       </c>
       <c r="C737" t="n">
-        <v>26225</v>
+        <v>26224</v>
       </c>
       <c r="D737" t="s">
         <v>5</v>
@@ -10696,13 +10696,13 @@
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B738" s="1" t="n">
         <v>44251</v>
       </c>
       <c r="C738" t="n">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D738" t="s">
         <v>4</v>
@@ -10710,13 +10710,13 @@
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B739" s="1" t="n">
         <v>44251</v>
       </c>
       <c r="C739" t="n">
-        <v>25298</v>
+        <v>25306</v>
       </c>
       <c r="D739" t="s">
         <v>5</v>
@@ -10724,7 +10724,7 @@
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B740" s="1" t="n">
         <v>44252</v>
@@ -10738,13 +10738,13 @@
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B741" s="1" t="n">
         <v>44252</v>
       </c>
       <c r="C741" t="n">
-        <v>29673</v>
+        <v>29660</v>
       </c>
       <c r="D741" t="s">
         <v>5</v>
@@ -10752,7 +10752,7 @@
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B742" s="1" t="n">
         <v>44253</v>
@@ -10766,13 +10766,13 @@
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B743" s="1" t="n">
         <v>44253</v>
       </c>
       <c r="C743" t="n">
-        <v>29620</v>
+        <v>29603</v>
       </c>
       <c r="D743" t="s">
         <v>5</v>
@@ -10780,7 +10780,7 @@
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B744" s="1" t="n">
         <v>44254</v>
@@ -10794,13 +10794,13 @@
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B745" s="1" t="n">
         <v>44254</v>
       </c>
       <c r="C745" t="n">
-        <v>15544</v>
+        <v>15533</v>
       </c>
       <c r="D745" t="s">
         <v>5</v>
@@ -10808,7 +10808,7 @@
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B746" s="1" t="n">
         <v>44255</v>
@@ -10822,13 +10822,13 @@
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B747" s="1" t="n">
         <v>44255</v>
       </c>
       <c r="C747" t="n">
-        <v>8334</v>
+        <v>8328</v>
       </c>
       <c r="D747" t="s">
         <v>5</v>
@@ -10836,13 +10836,13 @@
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B748" s="1" t="n">
         <v>44256</v>
       </c>
       <c r="C748" t="n">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D748" t="s">
         <v>4</v>
@@ -10850,13 +10850,13 @@
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B749" s="1" t="n">
         <v>44256</v>
       </c>
       <c r="C749" t="n">
-        <v>26578</v>
+        <v>26569</v>
       </c>
       <c r="D749" t="s">
         <v>5</v>
@@ -10864,13 +10864,13 @@
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B750" s="1" t="n">
         <v>44257</v>
       </c>
       <c r="C750" t="n">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D750" t="s">
         <v>4</v>
@@ -10878,7 +10878,7 @@
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B751" s="1" t="n">
         <v>44257</v>
@@ -10892,7 +10892,7 @@
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B752" s="1" t="n">
         <v>44258</v>
@@ -10906,13 +10906,13 @@
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B753" s="1" t="n">
         <v>44258</v>
       </c>
       <c r="C753" t="n">
-        <v>27379</v>
+        <v>27380</v>
       </c>
       <c r="D753" t="s">
         <v>5</v>
@@ -10920,7 +10920,7 @@
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B754" s="1" t="n">
         <v>44259</v>
@@ -10934,13 +10934,13 @@
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B755" s="1" t="n">
         <v>44259</v>
       </c>
       <c r="C755" t="n">
-        <v>29732</v>
+        <v>29725</v>
       </c>
       <c r="D755" t="s">
         <v>5</v>
@@ -10948,13 +10948,13 @@
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B756" s="1" t="n">
         <v>44260</v>
       </c>
       <c r="C756" t="n">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D756" t="s">
         <v>4</v>
@@ -10962,13 +10962,13 @@
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B757" s="1" t="n">
         <v>44260</v>
       </c>
       <c r="C757" t="n">
-        <v>30264</v>
+        <v>30248</v>
       </c>
       <c r="D757" t="s">
         <v>5</v>
@@ -10976,13 +10976,13 @@
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B758" s="1" t="n">
         <v>44261</v>
       </c>
       <c r="C758" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D758" t="s">
         <v>4</v>
@@ -10990,7 +10990,7 @@
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B759" s="1" t="n">
         <v>44261</v>
@@ -11004,7 +11004,7 @@
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B760" s="1" t="n">
         <v>44262</v>
@@ -11018,13 +11018,13 @@
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B761" s="1" t="n">
         <v>44262</v>
       </c>
       <c r="C761" t="n">
-        <v>8537</v>
+        <v>8534</v>
       </c>
       <c r="D761" t="s">
         <v>5</v>
@@ -11032,7 +11032,7 @@
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B762" s="1" t="n">
         <v>44263</v>
@@ -11046,13 +11046,13 @@
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B763" s="1" t="n">
         <v>44263</v>
       </c>
       <c r="C763" t="n">
-        <v>29898</v>
+        <v>29889</v>
       </c>
       <c r="D763" t="s">
         <v>5</v>
@@ -11060,13 +11060,13 @@
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B764" s="1" t="n">
         <v>44264</v>
       </c>
       <c r="C764" t="n">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="D764" t="s">
         <v>4</v>
@@ -11074,13 +11074,13 @@
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B765" s="1" t="n">
         <v>44264</v>
       </c>
       <c r="C765" t="n">
-        <v>31837</v>
+        <v>31831</v>
       </c>
       <c r="D765" t="s">
         <v>5</v>
@@ -11088,13 +11088,13 @@
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B766" s="1" t="n">
         <v>44265</v>
       </c>
       <c r="C766" t="n">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="D766" t="s">
         <v>4</v>
@@ -11102,13 +11102,13 @@
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B767" s="1" t="n">
         <v>44265</v>
       </c>
       <c r="C767" t="n">
-        <v>30450</v>
+        <v>30395</v>
       </c>
       <c r="D767" t="s">
         <v>5</v>
@@ -11116,13 +11116,13 @@
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B768" s="1" t="n">
         <v>44266</v>
       </c>
       <c r="C768" t="n">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D768" t="s">
         <v>4</v>
@@ -11130,13 +11130,13 @@
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B769" s="1" t="n">
         <v>44266</v>
       </c>
       <c r="C769" t="n">
-        <v>33283</v>
+        <v>33275</v>
       </c>
       <c r="D769" t="s">
         <v>5</v>
@@ -11144,13 +11144,13 @@
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B770" s="1" t="n">
         <v>44267</v>
       </c>
       <c r="C770" t="n">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D770" t="s">
         <v>4</v>
@@ -11158,13 +11158,13 @@
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B771" s="1" t="n">
         <v>44267</v>
       </c>
       <c r="C771" t="n">
-        <v>32874</v>
+        <v>32873</v>
       </c>
       <c r="D771" t="s">
         <v>5</v>
@@ -11172,13 +11172,13 @@
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B772" s="1" t="n">
         <v>44268</v>
       </c>
       <c r="C772" t="n">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="D772" t="s">
         <v>4</v>
@@ -11186,7 +11186,7 @@
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B773" s="1" t="n">
         <v>44268</v>
@@ -11200,7 +11200,7 @@
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B774" s="1" t="n">
         <v>44269</v>
@@ -11214,13 +11214,13 @@
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B775" s="1" t="n">
         <v>44269</v>
       </c>
       <c r="C775" t="n">
-        <v>9693</v>
+        <v>9681</v>
       </c>
       <c r="D775" t="s">
         <v>5</v>
@@ -11228,7 +11228,7 @@
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B776" s="1" t="n">
         <v>44270</v>
@@ -11242,13 +11242,13 @@
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B777" s="1" t="n">
         <v>44270</v>
       </c>
       <c r="C777" t="n">
-        <v>34080</v>
+        <v>34072</v>
       </c>
       <c r="D777" t="s">
         <v>5</v>
@@ -11256,13 +11256,13 @@
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B778" s="1" t="n">
         <v>44271</v>
       </c>
       <c r="C778" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D778" t="s">
         <v>4</v>
@@ -11270,13 +11270,13 @@
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B779" s="1" t="n">
         <v>44271</v>
       </c>
       <c r="C779" t="n">
-        <v>35932</v>
+        <v>35926</v>
       </c>
       <c r="D779" t="s">
         <v>5</v>
@@ -11284,13 +11284,13 @@
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B780" s="1" t="n">
         <v>44272</v>
       </c>
       <c r="C780" t="n">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="D780" t="s">
         <v>4</v>
@@ -11298,13 +11298,13 @@
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B781" s="1" t="n">
         <v>44272</v>
       </c>
       <c r="C781" t="n">
-        <v>36168</v>
+        <v>36155</v>
       </c>
       <c r="D781" t="s">
         <v>5</v>
@@ -11312,13 +11312,13 @@
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B782" s="1" t="n">
         <v>44273</v>
       </c>
       <c r="C782" t="n">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="D782" t="s">
         <v>4</v>
@@ -11326,13 +11326,13 @@
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B783" s="1" t="n">
         <v>44273</v>
       </c>
       <c r="C783" t="n">
-        <v>39665</v>
+        <v>39662</v>
       </c>
       <c r="D783" t="s">
         <v>5</v>
@@ -11340,13 +11340,13 @@
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B784" s="1" t="n">
         <v>44274</v>
       </c>
       <c r="C784" t="n">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="D784" t="s">
         <v>4</v>
@@ -11354,13 +11354,13 @@
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B785" s="1" t="n">
         <v>44274</v>
       </c>
       <c r="C785" t="n">
-        <v>37999</v>
+        <v>38336</v>
       </c>
       <c r="D785" t="s">
         <v>5</v>
@@ -11368,13 +11368,13 @@
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B786" s="1" t="n">
         <v>44275</v>
       </c>
       <c r="C786" t="n">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D786" t="s">
         <v>4</v>
@@ -11382,13 +11382,13 @@
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B787" s="1" t="n">
         <v>44275</v>
       </c>
       <c r="C787" t="n">
-        <v>21048</v>
+        <v>21274</v>
       </c>
       <c r="D787" t="s">
         <v>5</v>
@@ -11396,7 +11396,7 @@
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B788" s="1" t="n">
         <v>44276</v>
@@ -11410,13 +11410,13 @@
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B789" s="1" t="n">
         <v>44276</v>
       </c>
       <c r="C789" t="n">
-        <v>12495</v>
+        <v>12523</v>
       </c>
       <c r="D789" t="s">
         <v>5</v>
@@ -11424,13 +11424,13 @@
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B790" s="1" t="n">
         <v>44277</v>
       </c>
       <c r="C790" t="n">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="D790" t="s">
         <v>4</v>
@@ -11438,13 +11438,13 @@
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B791" s="1" t="n">
         <v>44277</v>
       </c>
       <c r="C791" t="n">
-        <v>39426</v>
+        <v>39469</v>
       </c>
       <c r="D791" t="s">
         <v>5</v>
@@ -11452,13 +11452,13 @@
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B792" s="1" t="n">
         <v>44278</v>
       </c>
       <c r="C792" t="n">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="D792" t="s">
         <v>4</v>
@@ -11466,13 +11466,13 @@
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B793" s="1" t="n">
         <v>44278</v>
       </c>
       <c r="C793" t="n">
-        <v>39759</v>
+        <v>40280</v>
       </c>
       <c r="D793" t="s">
         <v>5</v>
@@ -11480,13 +11480,13 @@
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B794" s="1" t="n">
         <v>44279</v>
       </c>
       <c r="C794" t="n">
-        <v>2216</v>
+        <v>2220</v>
       </c>
       <c r="D794" t="s">
         <v>4</v>
@@ -11494,13 +11494,13 @@
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B795" s="1" t="n">
         <v>44279</v>
       </c>
       <c r="C795" t="n">
-        <v>37180</v>
+        <v>37785</v>
       </c>
       <c r="D795" t="s">
         <v>5</v>
@@ -11508,7 +11508,7 @@
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B796" s="1" t="n">
         <v>44280</v>
@@ -11522,13 +11522,13 @@
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B797" s="1" t="n">
         <v>44280</v>
       </c>
       <c r="C797" t="n">
-        <v>41261</v>
+        <v>41756</v>
       </c>
       <c r="D797" t="s">
         <v>5</v>
@@ -11536,13 +11536,13 @@
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B798" s="1" t="n">
         <v>44281</v>
       </c>
       <c r="C798" t="n">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="D798" t="s">
         <v>4</v>
@@ -11550,13 +11550,13 @@
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B799" s="1" t="n">
         <v>44281</v>
       </c>
       <c r="C799" t="n">
-        <v>41458</v>
+        <v>42195</v>
       </c>
       <c r="D799" t="s">
         <v>5</v>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B800" s="1" t="n">
         <v>44282</v>
@@ -11578,13 +11578,13 @@
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B801" s="1" t="n">
         <v>44282</v>
       </c>
       <c r="C801" t="n">
-        <v>24782</v>
+        <v>25441</v>
       </c>
       <c r="D801" t="s">
         <v>5</v>
@@ -11592,13 +11592,13 @@
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B802" s="1" t="n">
         <v>44283</v>
       </c>
       <c r="C802" t="n">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D802" t="s">
         <v>4</v>
@@ -11606,13 +11606,13 @@
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B803" s="1" t="n">
         <v>44283</v>
       </c>
       <c r="C803" t="n">
-        <v>13973</v>
+        <v>14094</v>
       </c>
       <c r="D803" t="s">
         <v>5</v>
@@ -11620,13 +11620,13 @@
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B804" s="1" t="n">
         <v>44284</v>
       </c>
       <c r="C804" t="n">
-        <v>2355</v>
+        <v>2359</v>
       </c>
       <c r="D804" t="s">
         <v>4</v>
@@ -11634,13 +11634,13 @@
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B805" s="1" t="n">
         <v>44284</v>
       </c>
       <c r="C805" t="n">
-        <v>37160</v>
+        <v>37159</v>
       </c>
       <c r="D805" t="s">
         <v>5</v>
@@ -11648,7 +11648,7 @@
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B806" s="1" t="n">
         <v>44285</v>
@@ -11662,13 +11662,13 @@
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B807" s="1" t="n">
         <v>44285</v>
       </c>
       <c r="C807" t="n">
-        <v>44886</v>
+        <v>45720</v>
       </c>
       <c r="D807" t="s">
         <v>5</v>
@@ -11676,13 +11676,13 @@
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B808" s="1" t="n">
         <v>44286</v>
       </c>
       <c r="C808" t="n">
-        <v>2377</v>
+        <v>2384</v>
       </c>
       <c r="D808" t="s">
         <v>4</v>
@@ -11690,13 +11690,13 @@
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B809" s="1" t="n">
         <v>44286</v>
       </c>
       <c r="C809" t="n">
-        <v>54032</v>
+        <v>55009</v>
       </c>
       <c r="D809" t="s">
         <v>5</v>
@@ -11704,13 +11704,13 @@
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B810" s="1" t="n">
         <v>44287</v>
       </c>
       <c r="C810" t="n">
-        <v>2445</v>
+        <v>2462</v>
       </c>
       <c r="D810" t="s">
         <v>4</v>
@@ -11718,13 +11718,13 @@
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B811" s="1" t="n">
         <v>44287</v>
       </c>
       <c r="C811" t="n">
-        <v>53753</v>
+        <v>55382</v>
       </c>
       <c r="D811" t="s">
         <v>5</v>
@@ -11732,13 +11732,13 @@
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B812" s="1" t="n">
         <v>44288</v>
       </c>
       <c r="C812" t="n">
-        <v>1414</v>
+        <v>1432</v>
       </c>
       <c r="D812" t="s">
         <v>4</v>
@@ -11746,13 +11746,13 @@
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B813" s="1" t="n">
         <v>44288</v>
       </c>
       <c r="C813" t="n">
-        <v>26312</v>
+        <v>26895</v>
       </c>
       <c r="D813" t="s">
         <v>5</v>
@@ -11760,13 +11760,13 @@
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B814" s="1" t="n">
         <v>44289</v>
       </c>
       <c r="C814" t="n">
-        <v>1603</v>
+        <v>1615</v>
       </c>
       <c r="D814" t="s">
         <v>4</v>
@@ -11774,13 +11774,13 @@
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B815" s="1" t="n">
         <v>44289</v>
       </c>
       <c r="C815" t="n">
-        <v>27103</v>
+        <v>27623</v>
       </c>
       <c r="D815" t="s">
         <v>5</v>
@@ -11788,13 +11788,13 @@
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B816" s="1" t="n">
         <v>44290</v>
       </c>
       <c r="C816" t="n">
-        <v>1135</v>
+        <v>1154</v>
       </c>
       <c r="D816" t="s">
         <v>4</v>
@@ -11802,13 +11802,13 @@
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B817" s="1" t="n">
         <v>44290</v>
       </c>
       <c r="C817" t="n">
-        <v>15627</v>
+        <v>16011</v>
       </c>
       <c r="D817" t="s">
         <v>5</v>
@@ -11816,13 +11816,13 @@
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B818" s="1" t="n">
         <v>44291</v>
       </c>
       <c r="C818" t="n">
-        <v>1160</v>
+        <v>1310</v>
       </c>
       <c r="D818" t="s">
         <v>4</v>
@@ -11830,15 +11830,771 @@
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
-        <v>44292.3292369599</v>
+        <v>44319.3309083333</v>
       </c>
       <c r="B819" s="1" t="n">
         <v>44291</v>
       </c>
       <c r="C819" t="n">
-        <v>13931</v>
+        <v>16770</v>
       </c>
       <c r="D819" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B820" s="1" t="n">
+        <v>44292</v>
+      </c>
+      <c r="C820" t="n">
+        <v>2693</v>
+      </c>
+      <c r="D820" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B821" s="1" t="n">
+        <v>44292</v>
+      </c>
+      <c r="C821" t="n">
+        <v>35748</v>
+      </c>
+      <c r="D821" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B822" s="1" t="n">
+        <v>44293</v>
+      </c>
+      <c r="C822" t="n">
+        <v>2663</v>
+      </c>
+      <c r="D822" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B823" s="1" t="n">
+        <v>44293</v>
+      </c>
+      <c r="C823" t="n">
+        <v>36991</v>
+      </c>
+      <c r="D823" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B824" s="1" t="n">
+        <v>44294</v>
+      </c>
+      <c r="C824" t="n">
+        <v>2805</v>
+      </c>
+      <c r="D824" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B825" s="1" t="n">
+        <v>44294</v>
+      </c>
+      <c r="C825" t="n">
+        <v>36130</v>
+      </c>
+      <c r="D825" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B826" s="1" t="n">
+        <v>44295</v>
+      </c>
+      <c r="C826" t="n">
+        <v>2663</v>
+      </c>
+      <c r="D826" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B827" s="1" t="n">
+        <v>44295</v>
+      </c>
+      <c r="C827" t="n">
+        <v>33207</v>
+      </c>
+      <c r="D827" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B828" s="1" t="n">
+        <v>44296</v>
+      </c>
+      <c r="C828" t="n">
+        <v>2059</v>
+      </c>
+      <c r="D828" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B829" s="1" t="n">
+        <v>44296</v>
+      </c>
+      <c r="C829" t="n">
+        <v>19599</v>
+      </c>
+      <c r="D829" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B830" s="1" t="n">
+        <v>44297</v>
+      </c>
+      <c r="C830" t="n">
+        <v>1254</v>
+      </c>
+      <c r="D830" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B831" s="1" t="n">
+        <v>44297</v>
+      </c>
+      <c r="C831" t="n">
+        <v>10844</v>
+      </c>
+      <c r="D831" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B832" s="1" t="n">
+        <v>44298</v>
+      </c>
+      <c r="C832" t="n">
+        <v>2576</v>
+      </c>
+      <c r="D832" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B833" s="1" t="n">
+        <v>44298</v>
+      </c>
+      <c r="C833" t="n">
+        <v>26560</v>
+      </c>
+      <c r="D833" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B834" s="1" t="n">
+        <v>44299</v>
+      </c>
+      <c r="C834" t="n">
+        <v>2879</v>
+      </c>
+      <c r="D834" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B835" s="1" t="n">
+        <v>44299</v>
+      </c>
+      <c r="C835" t="n">
+        <v>29063</v>
+      </c>
+      <c r="D835" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B836" s="1" t="n">
+        <v>44300</v>
+      </c>
+      <c r="C836" t="n">
+        <v>2344</v>
+      </c>
+      <c r="D836" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B837" s="1" t="n">
+        <v>44300</v>
+      </c>
+      <c r="C837" t="n">
+        <v>28546</v>
+      </c>
+      <c r="D837" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B838" s="1" t="n">
+        <v>44301</v>
+      </c>
+      <c r="C838" t="n">
+        <v>2421</v>
+      </c>
+      <c r="D838" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B839" s="1" t="n">
+        <v>44301</v>
+      </c>
+      <c r="C839" t="n">
+        <v>31049</v>
+      </c>
+      <c r="D839" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B840" s="1" t="n">
+        <v>44302</v>
+      </c>
+      <c r="C840" t="n">
+        <v>2399</v>
+      </c>
+      <c r="D840" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B841" s="1" t="n">
+        <v>44302</v>
+      </c>
+      <c r="C841" t="n">
+        <v>30191</v>
+      </c>
+      <c r="D841" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B842" s="1" t="n">
+        <v>44303</v>
+      </c>
+      <c r="C842" t="n">
+        <v>1752</v>
+      </c>
+      <c r="D842" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B843" s="1" t="n">
+        <v>44303</v>
+      </c>
+      <c r="C843" t="n">
+        <v>17482</v>
+      </c>
+      <c r="D843" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B844" s="1" t="n">
+        <v>44304</v>
+      </c>
+      <c r="C844" t="n">
+        <v>1154</v>
+      </c>
+      <c r="D844" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B845" s="1" t="n">
+        <v>44304</v>
+      </c>
+      <c r="C845" t="n">
+        <v>9913</v>
+      </c>
+      <c r="D845" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B846" s="1" t="n">
+        <v>44305</v>
+      </c>
+      <c r="C846" t="n">
+        <v>2538</v>
+      </c>
+      <c r="D846" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B847" s="1" t="n">
+        <v>44305</v>
+      </c>
+      <c r="C847" t="n">
+        <v>24411</v>
+      </c>
+      <c r="D847" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B848" s="1" t="n">
+        <v>44306</v>
+      </c>
+      <c r="C848" t="n">
+        <v>2770</v>
+      </c>
+      <c r="D848" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B849" s="1" t="n">
+        <v>44306</v>
+      </c>
+      <c r="C849" t="n">
+        <v>25941</v>
+      </c>
+      <c r="D849" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B850" s="1" t="n">
+        <v>44307</v>
+      </c>
+      <c r="C850" t="n">
+        <v>2529</v>
+      </c>
+      <c r="D850" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B851" s="1" t="n">
+        <v>44307</v>
+      </c>
+      <c r="C851" t="n">
+        <v>26621</v>
+      </c>
+      <c r="D851" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B852" s="1" t="n">
+        <v>44308</v>
+      </c>
+      <c r="C852" t="n">
+        <v>2419</v>
+      </c>
+      <c r="D852" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B853" s="1" t="n">
+        <v>44308</v>
+      </c>
+      <c r="C853" t="n">
+        <v>31278</v>
+      </c>
+      <c r="D853" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B854" s="1" t="n">
+        <v>44309</v>
+      </c>
+      <c r="C854" t="n">
+        <v>2539</v>
+      </c>
+      <c r="D854" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B855" s="1" t="n">
+        <v>44309</v>
+      </c>
+      <c r="C855" t="n">
+        <v>30871</v>
+      </c>
+      <c r="D855" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B856" s="1" t="n">
+        <v>44310</v>
+      </c>
+      <c r="C856" t="n">
+        <v>1811</v>
+      </c>
+      <c r="D856" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B857" s="1" t="n">
+        <v>44310</v>
+      </c>
+      <c r="C857" t="n">
+        <v>19206</v>
+      </c>
+      <c r="D857" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B858" s="1" t="n">
+        <v>44311</v>
+      </c>
+      <c r="C858" t="n">
+        <v>1206</v>
+      </c>
+      <c r="D858" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B859" s="1" t="n">
+        <v>44311</v>
+      </c>
+      <c r="C859" t="n">
+        <v>10430</v>
+      </c>
+      <c r="D859" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B860" s="1" t="n">
+        <v>44312</v>
+      </c>
+      <c r="C860" t="n">
+        <v>2394</v>
+      </c>
+      <c r="D860" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B861" s="1" t="n">
+        <v>44312</v>
+      </c>
+      <c r="C861" t="n">
+        <v>24937</v>
+      </c>
+      <c r="D861" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B862" s="1" t="n">
+        <v>44313</v>
+      </c>
+      <c r="C862" t="n">
+        <v>2370</v>
+      </c>
+      <c r="D862" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B863" s="1" t="n">
+        <v>44313</v>
+      </c>
+      <c r="C863" t="n">
+        <v>27431</v>
+      </c>
+      <c r="D863" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B864" s="1" t="n">
+        <v>44314</v>
+      </c>
+      <c r="C864" t="n">
+        <v>2233</v>
+      </c>
+      <c r="D864" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B865" s="1" t="n">
+        <v>44314</v>
+      </c>
+      <c r="C865" t="n">
+        <v>27748</v>
+      </c>
+      <c r="D865" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B866" s="1" t="n">
+        <v>44315</v>
+      </c>
+      <c r="C866" t="n">
+        <v>2054</v>
+      </c>
+      <c r="D866" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B867" s="1" t="n">
+        <v>44315</v>
+      </c>
+      <c r="C867" t="n">
+        <v>31391</v>
+      </c>
+      <c r="D867" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B868" s="1" t="n">
+        <v>44316</v>
+      </c>
+      <c r="C868" t="n">
+        <v>1853</v>
+      </c>
+      <c r="D868" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B869" s="1" t="n">
+        <v>44316</v>
+      </c>
+      <c r="C869" t="n">
+        <v>31229</v>
+      </c>
+      <c r="D869" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B870" s="1" t="n">
+        <v>44317</v>
+      </c>
+      <c r="C870" t="n">
+        <v>1373</v>
+      </c>
+      <c r="D870" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B871" s="1" t="n">
+        <v>44317</v>
+      </c>
+      <c r="C871" t="n">
+        <v>17032</v>
+      </c>
+      <c r="D871" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B872" s="1" t="n">
+        <v>44318</v>
+      </c>
+      <c r="C872" t="n">
+        <v>875</v>
+      </c>
+      <c r="D872" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="2" t="n">
+        <v>44319.3309083333</v>
+      </c>
+      <c r="B873" s="1" t="n">
+        <v>44318</v>
+      </c>
+      <c r="C873" t="n">
+        <v>8322</v>
+      </c>
+      <c r="D873" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data-raw/BAG-open/Dashboard_3_COVID19_labtests_positivity.xlsx
+++ b/data-raw/BAG-open/Dashboard_3_COVID19_labtests_positivity.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43867</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43867</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43873</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43873</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43885</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43885</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43886</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43886</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43887</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43887</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43888</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43888</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43889</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43889</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43890</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43890</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43891</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43891</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43892</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43892</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43893</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43893</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43894</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43894</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43895</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43895</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43896</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43896</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43897</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43897</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43898</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43898</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43899</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43899</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43900</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43900</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43901</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43901</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43902</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43902</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43903</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43903</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43904</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43904</v>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="C46" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43905</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43906</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43906</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43907</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43907</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43908</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43908</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43909</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43909</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43910</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43910</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43911</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43911</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43912</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43912</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43913</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43913</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43914</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43914</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43915</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43915</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43916</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43916</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43917</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43917</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43918</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43918</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43919</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43919</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43920</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43920</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43921</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43921</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43922</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43922</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43923</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43923</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43924</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43924</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43925</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43925</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43926</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43926</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43927</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43927</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43928</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43928</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43929</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43929</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43930</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43930</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43931</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43931</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43932</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43932</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43933</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43933</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43934</v>
@@ -1834,13 +1834,13 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43934</v>
       </c>
       <c r="C105" t="n">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="D105" t="s">
         <v>5</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43935</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43935</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43936</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43936</v>
@@ -1904,13 +1904,13 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43937</v>
       </c>
       <c r="C110" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D110" t="s">
         <v>4</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43937</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43938</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43938</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43939</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43939</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43940</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43940</v>
@@ -2016,13 +2016,13 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43941</v>
       </c>
       <c r="C118" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D118" t="s">
         <v>4</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43941</v>
@@ -2044,13 +2044,13 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43942</v>
       </c>
       <c r="C120" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D120" t="s">
         <v>4</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43942</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43943</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43943</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43944</v>
@@ -2114,13 +2114,13 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43944</v>
       </c>
       <c r="C125" t="n">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="D125" t="s">
         <v>5</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43945</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43945</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43946</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43946</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43947</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43947</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43948</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43948</v>
@@ -2240,13 +2240,13 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43949</v>
       </c>
       <c r="C134" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
@@ -2254,13 +2254,13 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43949</v>
       </c>
       <c r="C135" t="n">
-        <v>5362</v>
+        <v>5363</v>
       </c>
       <c r="D135" t="s">
         <v>5</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43950</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43950</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43951</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43951</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43952</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43952</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43953</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43953</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43954</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43954</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43955</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43955</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43956</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43956</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43957</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43957</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43958</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43958</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43959</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43959</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43960</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43960</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43961</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43961</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43962</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43962</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43963</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43963</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43964</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43964</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43965</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43965</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43966</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43966</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43967</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43967</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43968</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43968</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43969</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43969</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43970</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43970</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43971</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43971</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43972</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43972</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43973</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43973</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43974</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43974</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43975</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43975</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43976</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43976</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43977</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43977</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43978</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43978</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43979</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43979</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43980</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43980</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43981</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43981</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43982</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43982</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43983</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43983</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43984</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43984</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43985</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43985</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43986</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43986</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43987</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43987</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43988</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43988</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43989</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43989</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43990</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43990</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43991</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43991</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43992</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43992</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43993</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43993</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43994</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43994</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43995</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43995</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43996</v>
@@ -3570,13 +3570,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43996</v>
       </c>
       <c r="C229" t="n">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D229" t="s">
         <v>5</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43997</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43997</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43998</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43998</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43999</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43999</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>44000</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>44000</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>44001</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>44001</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>44002</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>44002</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>44003</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>44003</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>44004</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>44004</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>44005</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>44005</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>44006</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>44006</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>44007</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>44007</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>44008</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>44008</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>44009</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>44009</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>44010</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>44010</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>44011</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>44011</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>44012</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>44012</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>44013</v>
@@ -4046,13 +4046,13 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>44013</v>
       </c>
       <c r="C263" t="n">
-        <v>11116</v>
+        <v>11117</v>
       </c>
       <c r="D263" t="s">
         <v>5</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>44014</v>
@@ -4074,13 +4074,13 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>44014</v>
       </c>
       <c r="C265" t="n">
-        <v>10764</v>
+        <v>10763</v>
       </c>
       <c r="D265" t="s">
         <v>5</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>44015</v>
@@ -4102,13 +4102,13 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>44015</v>
       </c>
       <c r="C267" t="n">
-        <v>10270</v>
+        <v>10269</v>
       </c>
       <c r="D267" t="s">
         <v>5</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>44016</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>44016</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>44017</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>44017</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>44018</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>44018</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>44019</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>44019</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>44020</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>44020</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>44021</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>44021</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>44022</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>44022</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>44023</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>44023</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>44024</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>44024</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>44025</v>
@@ -4382,13 +4382,13 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>44025</v>
       </c>
       <c r="C287" t="n">
-        <v>6731</v>
+        <v>6732</v>
       </c>
       <c r="D287" t="s">
         <v>5</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>44026</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>44026</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44027</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44027</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44028</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44028</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44029</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44029</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44030</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44030</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44031</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44031</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44032</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44032</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44033</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44033</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44034</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44034</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44035</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44035</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44036</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44036</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44037</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44037</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44038</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44038</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44039</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44039</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44040</v>
@@ -4802,13 +4802,13 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44040</v>
       </c>
       <c r="C317" t="n">
-        <v>7141</v>
+        <v>7142</v>
       </c>
       <c r="D317" t="s">
         <v>5</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44041</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44041</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44042</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44042</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44043</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44043</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44044</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44044</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44045</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44045</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44046</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44046</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44047</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44047</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44048</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44048</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44049</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44049</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44050</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44050</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44051</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44051</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44052</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44052</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44053</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44053</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44054</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44054</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44055</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44055</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44056</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44056</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44057</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44057</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44058</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44058</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44059</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44059</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44060</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44060</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44061</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44061</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44062</v>
@@ -5418,13 +5418,13 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44062</v>
       </c>
       <c r="C361" t="n">
-        <v>9142</v>
+        <v>9143</v>
       </c>
       <c r="D361" t="s">
         <v>5</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44063</v>
@@ -5446,13 +5446,13 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44063</v>
       </c>
       <c r="C363" t="n">
-        <v>9739</v>
+        <v>9740</v>
       </c>
       <c r="D363" t="s">
         <v>5</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44064</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44064</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44065</v>
@@ -5502,13 +5502,13 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44065</v>
       </c>
       <c r="C367" t="n">
-        <v>5888</v>
+        <v>5887</v>
       </c>
       <c r="D367" t="s">
         <v>5</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44066</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44066</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44067</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44067</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44068</v>
@@ -5586,13 +5586,13 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44068</v>
       </c>
       <c r="C373" t="n">
-        <v>12805</v>
+        <v>12804</v>
       </c>
       <c r="D373" t="s">
         <v>5</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44069</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44069</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44070</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44070</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44071</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44071</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44072</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44072</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44073</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44073</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44074</v>
@@ -5754,13 +5754,13 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44074</v>
       </c>
       <c r="C385" t="n">
-        <v>11099</v>
+        <v>11098</v>
       </c>
       <c r="D385" t="s">
         <v>5</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44075</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44075</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44076</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44076</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44077</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44077</v>
@@ -5852,13 +5852,13 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44078</v>
       </c>
       <c r="C392" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D392" t="s">
         <v>4</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44078</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44079</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44079</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44080</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44080</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44081</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44081</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44082</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44082</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44083</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44083</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44084</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44084</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44085</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44085</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>44086</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B409" s="1" t="n">
         <v>44086</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B410" s="1" t="n">
         <v>44087</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B411" s="1" t="n">
         <v>44087</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B412" s="1" t="n">
         <v>44088</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B413" s="1" t="n">
         <v>44088</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B414" s="1" t="n">
         <v>44089</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B415" s="1" t="n">
         <v>44089</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B416" s="1" t="n">
         <v>44090</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B417" s="1" t="n">
         <v>44090</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B418" s="1" t="n">
         <v>44091</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B419" s="1" t="n">
         <v>44091</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B420" s="1" t="n">
         <v>44092</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B421" s="1" t="n">
         <v>44092</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B422" s="1" t="n">
         <v>44093</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B423" s="1" t="n">
         <v>44093</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B424" s="1" t="n">
         <v>44094</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B425" s="1" t="n">
         <v>44094</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B426" s="1" t="n">
         <v>44095</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B427" s="1" t="n">
         <v>44095</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B428" s="1" t="n">
         <v>44096</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B429" s="1" t="n">
         <v>44096</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B430" s="1" t="n">
         <v>44097</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B431" s="1" t="n">
         <v>44097</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B432" s="1" t="n">
         <v>44098</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B433" s="1" t="n">
         <v>44098</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B434" s="1" t="n">
         <v>44099</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B435" s="1" t="n">
         <v>44099</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B436" s="1" t="n">
         <v>44100</v>
@@ -6482,13 +6482,13 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B437" s="1" t="n">
         <v>44100</v>
       </c>
       <c r="C437" t="n">
-        <v>5728</v>
+        <v>5727</v>
       </c>
       <c r="D437" t="s">
         <v>5</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B438" s="1" t="n">
         <v>44101</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B439" s="1" t="n">
         <v>44101</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B440" s="1" t="n">
         <v>44102</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B441" s="1" t="n">
         <v>44102</v>
@@ -6552,13 +6552,13 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B442" s="1" t="n">
         <v>44103</v>
       </c>
       <c r="C442" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D442" t="s">
         <v>4</v>
@@ -6566,13 +6566,13 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B443" s="1" t="n">
         <v>44103</v>
       </c>
       <c r="C443" t="n">
-        <v>11960</v>
+        <v>11959</v>
       </c>
       <c r="D443" t="s">
         <v>5</v>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B444" s="1" t="n">
         <v>44104</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B445" s="1" t="n">
         <v>44104</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B446" s="1" t="n">
         <v>44105</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B447" s="1" t="n">
         <v>44105</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B448" s="1" t="n">
         <v>44106</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B449" s="1" t="n">
         <v>44106</v>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B450" s="1" t="n">
         <v>44107</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B451" s="1" t="n">
         <v>44107</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B452" s="1" t="n">
         <v>44108</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B453" s="1" t="n">
         <v>44108</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B454" s="1" t="n">
         <v>44109</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B455" s="1" t="n">
         <v>44109</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B456" s="1" t="n">
         <v>44110</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B457" s="1" t="n">
         <v>44110</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B458" s="1" t="n">
         <v>44111</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B459" s="1" t="n">
         <v>44111</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B460" s="1" t="n">
         <v>44112</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B461" s="1" t="n">
         <v>44112</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B462" s="1" t="n">
         <v>44113</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B463" s="1" t="n">
         <v>44113</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B464" s="1" t="n">
         <v>44114</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B465" s="1" t="n">
         <v>44114</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B466" s="1" t="n">
         <v>44115</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B467" s="1" t="n">
         <v>44115</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B468" s="1" t="n">
         <v>44116</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B469" s="1" t="n">
         <v>44116</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B470" s="1" t="n">
         <v>44117</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B471" s="1" t="n">
         <v>44117</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B472" s="1" t="n">
         <v>44118</v>
@@ -6986,7 +6986,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B473" s="1" t="n">
         <v>44118</v>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B474" s="1" t="n">
         <v>44119</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B475" s="1" t="n">
         <v>44119</v>
@@ -7028,13 +7028,13 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B476" s="1" t="n">
         <v>44120</v>
       </c>
       <c r="C476" t="n">
-        <v>3792</v>
+        <v>3793</v>
       </c>
       <c r="D476" t="s">
         <v>4</v>
@@ -7042,13 +7042,13 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B477" s="1" t="n">
         <v>44120</v>
       </c>
       <c r="C477" t="n">
-        <v>20628</v>
+        <v>20627</v>
       </c>
       <c r="D477" t="s">
         <v>5</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B478" s="1" t="n">
         <v>44121</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B479" s="1" t="n">
         <v>44121</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B480" s="1" t="n">
         <v>44122</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B481" s="1" t="n">
         <v>44122</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B482" s="1" t="n">
         <v>44123</v>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B483" s="1" t="n">
         <v>44123</v>
@@ -7140,13 +7140,13 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B484" s="1" t="n">
         <v>44124</v>
       </c>
       <c r="C484" t="n">
-        <v>5941</v>
+        <v>5942</v>
       </c>
       <c r="D484" t="s">
         <v>4</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B485" s="1" t="n">
         <v>44124</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B486" s="1" t="n">
         <v>44125</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B487" s="1" t="n">
         <v>44125</v>
@@ -7196,13 +7196,13 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B488" s="1" t="n">
         <v>44126</v>
       </c>
       <c r="C488" t="n">
-        <v>6818</v>
+        <v>6817</v>
       </c>
       <c r="D488" t="s">
         <v>4</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B489" s="1" t="n">
         <v>44126</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B490" s="1" t="n">
         <v>44127</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B491" s="1" t="n">
         <v>44127</v>
@@ -7252,13 +7252,13 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B492" s="1" t="n">
         <v>44128</v>
       </c>
       <c r="C492" t="n">
-        <v>5905</v>
+        <v>5904</v>
       </c>
       <c r="D492" t="s">
         <v>4</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B493" s="1" t="n">
         <v>44128</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B494" s="1" t="n">
         <v>44129</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B495" s="1" t="n">
         <v>44129</v>
@@ -7308,13 +7308,13 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B496" s="1" t="n">
         <v>44130</v>
       </c>
       <c r="C496" t="n">
-        <v>7553</v>
+        <v>7551</v>
       </c>
       <c r="D496" t="s">
         <v>4</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B497" s="1" t="n">
         <v>44130</v>
@@ -7336,13 +7336,13 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B498" s="1" t="n">
         <v>44131</v>
       </c>
       <c r="C498" t="n">
-        <v>10122</v>
+        <v>10123</v>
       </c>
       <c r="D498" t="s">
         <v>4</v>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B499" s="1" t="n">
         <v>44131</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B500" s="1" t="n">
         <v>44132</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B501" s="1" t="n">
         <v>44132</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B502" s="1" t="n">
         <v>44133</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B503" s="1" t="n">
         <v>44133</v>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B504" s="1" t="n">
         <v>44134</v>
@@ -7434,7 +7434,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B505" s="1" t="n">
         <v>44134</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B506" s="1" t="n">
         <v>44135</v>
@@ -7462,7 +7462,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B507" s="1" t="n">
         <v>44135</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B508" s="1" t="n">
         <v>44136</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B509" s="1" t="n">
         <v>44136</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B510" s="1" t="n">
         <v>44137</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B511" s="1" t="n">
         <v>44137</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B512" s="1" t="n">
         <v>44138</v>
@@ -7546,13 +7546,13 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B513" s="1" t="n">
         <v>44138</v>
       </c>
       <c r="C513" t="n">
-        <v>27457</v>
+        <v>27456</v>
       </c>
       <c r="D513" t="s">
         <v>5</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B514" s="1" t="n">
         <v>44139</v>
@@ -7574,13 +7574,13 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B515" s="1" t="n">
         <v>44139</v>
       </c>
       <c r="C515" t="n">
-        <v>26719</v>
+        <v>26722</v>
       </c>
       <c r="D515" t="s">
         <v>5</v>
@@ -7588,13 +7588,13 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B516" s="1" t="n">
         <v>44140</v>
       </c>
       <c r="C516" t="n">
-        <v>8923</v>
+        <v>8922</v>
       </c>
       <c r="D516" t="s">
         <v>4</v>
@@ -7602,13 +7602,13 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B517" s="1" t="n">
         <v>44140</v>
       </c>
       <c r="C517" t="n">
-        <v>26306</v>
+        <v>26303</v>
       </c>
       <c r="D517" t="s">
         <v>5</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B518" s="1" t="n">
         <v>44141</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B519" s="1" t="n">
         <v>44141</v>
@@ -7644,7 +7644,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B520" s="1" t="n">
         <v>44142</v>
@@ -7658,13 +7658,13 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B521" s="1" t="n">
         <v>44142</v>
       </c>
       <c r="C521" t="n">
-        <v>17095</v>
+        <v>17096</v>
       </c>
       <c r="D521" t="s">
         <v>5</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B522" s="1" t="n">
         <v>44143</v>
@@ -7686,13 +7686,13 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B523" s="1" t="n">
         <v>44143</v>
       </c>
       <c r="C523" t="n">
-        <v>8434</v>
+        <v>8435</v>
       </c>
       <c r="D523" t="s">
         <v>5</v>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B524" s="1" t="n">
         <v>44144</v>
@@ -7714,13 +7714,13 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B525" s="1" t="n">
         <v>44144</v>
       </c>
       <c r="C525" t="n">
-        <v>20362</v>
+        <v>20361</v>
       </c>
       <c r="D525" t="s">
         <v>5</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B526" s="1" t="n">
         <v>44145</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B527" s="1" t="n">
         <v>44145</v>
@@ -7756,13 +7756,13 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B528" s="1" t="n">
         <v>44146</v>
       </c>
       <c r="C528" t="n">
-        <v>7326</v>
+        <v>7327</v>
       </c>
       <c r="D528" t="s">
         <v>4</v>
@@ -7770,13 +7770,13 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B529" s="1" t="n">
         <v>44146</v>
       </c>
       <c r="C529" t="n">
-        <v>24181</v>
+        <v>24180</v>
       </c>
       <c r="D529" t="s">
         <v>5</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B530" s="1" t="n">
         <v>44147</v>
@@ -7798,7 +7798,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B531" s="1" t="n">
         <v>44147</v>
@@ -7812,13 +7812,13 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B532" s="1" t="n">
         <v>44148</v>
       </c>
       <c r="C532" t="n">
-        <v>6239</v>
+        <v>6240</v>
       </c>
       <c r="D532" t="s">
         <v>4</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B533" s="1" t="n">
         <v>44148</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B534" s="1" t="n">
         <v>44149</v>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B535" s="1" t="n">
         <v>44149</v>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B536" s="1" t="n">
         <v>44150</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B537" s="1" t="n">
         <v>44150</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B538" s="1" t="n">
         <v>44151</v>
@@ -7910,7 +7910,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B539" s="1" t="n">
         <v>44151</v>
@@ -7924,13 +7924,13 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B540" s="1" t="n">
         <v>44152</v>
       </c>
       <c r="C540" t="n">
-        <v>6358</v>
+        <v>6359</v>
       </c>
       <c r="D540" t="s">
         <v>4</v>
@@ -7938,13 +7938,13 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B541" s="1" t="n">
         <v>44152</v>
       </c>
       <c r="C541" t="n">
-        <v>22960</v>
+        <v>22962</v>
       </c>
       <c r="D541" t="s">
         <v>5</v>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B542" s="1" t="n">
         <v>44153</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B543" s="1" t="n">
         <v>44153</v>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B544" s="1" t="n">
         <v>44154</v>
@@ -7994,7 +7994,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B545" s="1" t="n">
         <v>44154</v>
@@ -8008,7 +8008,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B546" s="1" t="n">
         <v>44155</v>
@@ -8022,13 +8022,13 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B547" s="1" t="n">
         <v>44155</v>
       </c>
       <c r="C547" t="n">
-        <v>20978</v>
+        <v>20977</v>
       </c>
       <c r="D547" t="s">
         <v>5</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B548" s="1" t="n">
         <v>44156</v>
@@ -8050,13 +8050,13 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B549" s="1" t="n">
         <v>44156</v>
       </c>
       <c r="C549" t="n">
-        <v>13324</v>
+        <v>13325</v>
       </c>
       <c r="D549" t="s">
         <v>5</v>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B550" s="1" t="n">
         <v>44157</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B551" s="1" t="n">
         <v>44157</v>
@@ -8092,7 +8092,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B552" s="1" t="n">
         <v>44158</v>
@@ -8106,7 +8106,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B553" s="1" t="n">
         <v>44158</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B554" s="1" t="n">
         <v>44159</v>
@@ -8134,7 +8134,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B555" s="1" t="n">
         <v>44159</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B556" s="1" t="n">
         <v>44160</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B557" s="1" t="n">
         <v>44160</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B558" s="1" t="n">
         <v>44161</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B559" s="1" t="n">
         <v>44161</v>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B560" s="1" t="n">
         <v>44162</v>
@@ -8218,7 +8218,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B561" s="1" t="n">
         <v>44162</v>
@@ -8232,7 +8232,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B562" s="1" t="n">
         <v>44163</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B563" s="1" t="n">
         <v>44163</v>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B564" s="1" t="n">
         <v>44164</v>
@@ -8274,7 +8274,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B565" s="1" t="n">
         <v>44164</v>
@@ -8288,7 +8288,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B566" s="1" t="n">
         <v>44165</v>
@@ -8302,7 +8302,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B567" s="1" t="n">
         <v>44165</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B568" s="1" t="n">
         <v>44166</v>
@@ -8330,7 +8330,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B569" s="1" t="n">
         <v>44166</v>
@@ -8344,13 +8344,13 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B570" s="1" t="n">
         <v>44167</v>
       </c>
       <c r="C570" t="n">
-        <v>4831</v>
+        <v>4832</v>
       </c>
       <c r="D570" t="s">
         <v>4</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B571" s="1" t="n">
         <v>44167</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B572" s="1" t="n">
         <v>44168</v>
@@ -8386,7 +8386,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B573" s="1" t="n">
         <v>44168</v>
@@ -8400,7 +8400,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B574" s="1" t="n">
         <v>44169</v>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B575" s="1" t="n">
         <v>44169</v>
@@ -8428,7 +8428,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B576" s="1" t="n">
         <v>44170</v>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B577" s="1" t="n">
         <v>44170</v>
@@ -8456,13 +8456,13 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B578" s="1" t="n">
         <v>44171</v>
       </c>
       <c r="C578" t="n">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="D578" t="s">
         <v>4</v>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B579" s="1" t="n">
         <v>44171</v>
@@ -8484,7 +8484,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B580" s="1" t="n">
         <v>44172</v>
@@ -8498,7 +8498,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B581" s="1" t="n">
         <v>44172</v>
@@ -8512,7 +8512,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B582" s="1" t="n">
         <v>44173</v>
@@ -8526,7 +8526,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B583" s="1" t="n">
         <v>44173</v>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B584" s="1" t="n">
         <v>44174</v>
@@ -8554,7 +8554,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B585" s="1" t="n">
         <v>44174</v>
@@ -8568,7 +8568,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B586" s="1" t="n">
         <v>44175</v>
@@ -8582,7 +8582,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B587" s="1" t="n">
         <v>44175</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B588" s="1" t="n">
         <v>44176</v>
@@ -8610,7 +8610,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B589" s="1" t="n">
         <v>44176</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B590" s="1" t="n">
         <v>44177</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B591" s="1" t="n">
         <v>44177</v>
@@ -8652,7 +8652,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B592" s="1" t="n">
         <v>44178</v>
@@ -8666,13 +8666,13 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B593" s="1" t="n">
         <v>44178</v>
       </c>
       <c r="C593" t="n">
-        <v>13286</v>
+        <v>13285</v>
       </c>
       <c r="D593" t="s">
         <v>5</v>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B594" s="1" t="n">
         <v>44179</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B595" s="1" t="n">
         <v>44179</v>
@@ -8708,7 +8708,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B596" s="1" t="n">
         <v>44180</v>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B597" s="1" t="n">
         <v>44180</v>
@@ -8736,7 +8736,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B598" s="1" t="n">
         <v>44181</v>
@@ -8750,13 +8750,13 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B599" s="1" t="n">
         <v>44181</v>
       </c>
       <c r="C599" t="n">
-        <v>35962</v>
+        <v>35958</v>
       </c>
       <c r="D599" t="s">
         <v>5</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B600" s="1" t="n">
         <v>44182</v>
@@ -8778,13 +8778,13 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B601" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C601" t="n">
-        <v>39199</v>
+        <v>39193</v>
       </c>
       <c r="D601" t="s">
         <v>5</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B602" s="1" t="n">
         <v>44183</v>
@@ -8806,7 +8806,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B603" s="1" t="n">
         <v>44183</v>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B604" s="1" t="n">
         <v>44184</v>
@@ -8834,13 +8834,13 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B605" s="1" t="n">
         <v>44184</v>
       </c>
       <c r="C605" t="n">
-        <v>23354</v>
+        <v>23332</v>
       </c>
       <c r="D605" t="s">
         <v>5</v>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B606" s="1" t="n">
         <v>44185</v>
@@ -8862,13 +8862,13 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B607" s="1" t="n">
         <v>44185</v>
       </c>
       <c r="C607" t="n">
-        <v>13144</v>
+        <v>13141</v>
       </c>
       <c r="D607" t="s">
         <v>5</v>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B608" s="1" t="n">
         <v>44186</v>
@@ -8890,7 +8890,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B609" s="1" t="n">
         <v>44186</v>
@@ -8904,7 +8904,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B610" s="1" t="n">
         <v>44187</v>
@@ -8918,13 +8918,13 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B611" s="1" t="n">
         <v>44187</v>
       </c>
       <c r="C611" t="n">
-        <v>39986</v>
+        <v>39977</v>
       </c>
       <c r="D611" t="s">
         <v>5</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B612" s="1" t="n">
         <v>44188</v>
@@ -8946,13 +8946,13 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B613" s="1" t="n">
         <v>44188</v>
       </c>
       <c r="C613" t="n">
-        <v>41641</v>
+        <v>41633</v>
       </c>
       <c r="D613" t="s">
         <v>5</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B614" s="1" t="n">
         <v>44189</v>
@@ -8974,7 +8974,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B615" s="1" t="n">
         <v>44189</v>
@@ -8988,7 +8988,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B616" s="1" t="n">
         <v>44190</v>
@@ -9002,13 +9002,13 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B617" s="1" t="n">
         <v>44190</v>
       </c>
       <c r="C617" t="n">
-        <v>11146</v>
+        <v>11141</v>
       </c>
       <c r="D617" t="s">
         <v>5</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B618" s="1" t="n">
         <v>44191</v>
@@ -9030,7 +9030,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B619" s="1" t="n">
         <v>44191</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B620" s="1" t="n">
         <v>44192</v>
@@ -9058,7 +9058,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B621" s="1" t="n">
         <v>44192</v>
@@ -9072,7 +9072,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B622" s="1" t="n">
         <v>44193</v>
@@ -9086,13 +9086,13 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B623" s="1" t="n">
         <v>44193</v>
       </c>
       <c r="C623" t="n">
-        <v>24420</v>
+        <v>24413</v>
       </c>
       <c r="D623" t="s">
         <v>5</v>
@@ -9100,7 +9100,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B624" s="1" t="n">
         <v>44194</v>
@@ -9114,13 +9114,13 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B625" s="1" t="n">
         <v>44194</v>
       </c>
       <c r="C625" t="n">
-        <v>24653</v>
+        <v>24646</v>
       </c>
       <c r="D625" t="s">
         <v>5</v>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B626" s="1" t="n">
         <v>44195</v>
@@ -9142,7 +9142,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B627" s="1" t="n">
         <v>44195</v>
@@ -9156,7 +9156,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B628" s="1" t="n">
         <v>44196</v>
@@ -9170,13 +9170,13 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B629" s="1" t="n">
         <v>44196</v>
       </c>
       <c r="C629" t="n">
-        <v>20028</v>
+        <v>20023</v>
       </c>
       <c r="D629" t="s">
         <v>5</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B630" s="1" t="n">
         <v>44197</v>
@@ -9198,13 +9198,13 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B631" s="1" t="n">
         <v>44197</v>
       </c>
       <c r="C631" t="n">
-        <v>8385</v>
+        <v>8386</v>
       </c>
       <c r="D631" t="s">
         <v>5</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B632" s="1" t="n">
         <v>44198</v>
@@ -9226,13 +9226,13 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B633" s="1" t="n">
         <v>44198</v>
       </c>
       <c r="C633" t="n">
-        <v>13246</v>
+        <v>13243</v>
       </c>
       <c r="D633" t="s">
         <v>5</v>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B634" s="1" t="n">
         <v>44199</v>
@@ -9254,7 +9254,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B635" s="1" t="n">
         <v>44199</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B636" s="1" t="n">
         <v>44200</v>
@@ -9282,13 +9282,13 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B637" s="1" t="n">
         <v>44200</v>
       </c>
       <c r="C637" t="n">
-        <v>24902</v>
+        <v>24903</v>
       </c>
       <c r="D637" t="s">
         <v>5</v>
@@ -9296,13 +9296,13 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B638" s="1" t="n">
         <v>44201</v>
       </c>
       <c r="C638" t="n">
-        <v>5014</v>
+        <v>5015</v>
       </c>
       <c r="D638" t="s">
         <v>4</v>
@@ -9310,13 +9310,13 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B639" s="1" t="n">
         <v>44201</v>
       </c>
       <c r="C639" t="n">
-        <v>26508</v>
+        <v>26502</v>
       </c>
       <c r="D639" t="s">
         <v>5</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B640" s="1" t="n">
         <v>44202</v>
@@ -9338,13 +9338,13 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B641" s="1" t="n">
         <v>44202</v>
       </c>
       <c r="C641" t="n">
-        <v>23395</v>
+        <v>23387</v>
       </c>
       <c r="D641" t="s">
         <v>5</v>
@@ -9352,7 +9352,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B642" s="1" t="n">
         <v>44203</v>
@@ -9366,13 +9366,13 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B643" s="1" t="n">
         <v>44203</v>
       </c>
       <c r="C643" t="n">
-        <v>24034</v>
+        <v>24029</v>
       </c>
       <c r="D643" t="s">
         <v>5</v>
@@ -9380,13 +9380,13 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B644" s="1" t="n">
         <v>44204</v>
       </c>
       <c r="C644" t="n">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="D644" t="s">
         <v>4</v>
@@ -9394,13 +9394,13 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B645" s="1" t="n">
         <v>44204</v>
       </c>
       <c r="C645" t="n">
-        <v>23406</v>
+        <v>23404</v>
       </c>
       <c r="D645" t="s">
         <v>5</v>
@@ -9408,7 +9408,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B646" s="1" t="n">
         <v>44205</v>
@@ -9422,13 +9422,13 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B647" s="1" t="n">
         <v>44205</v>
       </c>
       <c r="C647" t="n">
-        <v>13626</v>
+        <v>13623</v>
       </c>
       <c r="D647" t="s">
         <v>5</v>
@@ -9436,7 +9436,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B648" s="1" t="n">
         <v>44206</v>
@@ -9450,13 +9450,13 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B649" s="1" t="n">
         <v>44206</v>
       </c>
       <c r="C649" t="n">
-        <v>7543</v>
+        <v>7541</v>
       </c>
       <c r="D649" t="s">
         <v>5</v>
@@ -9464,7 +9464,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B650" s="1" t="n">
         <v>44207</v>
@@ -9478,13 +9478,13 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B651" s="1" t="n">
         <v>44207</v>
       </c>
       <c r="C651" t="n">
-        <v>24427</v>
+        <v>24423</v>
       </c>
       <c r="D651" t="s">
         <v>5</v>
@@ -9492,7 +9492,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B652" s="1" t="n">
         <v>44208</v>
@@ -9506,13 +9506,13 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B653" s="1" t="n">
         <v>44208</v>
       </c>
       <c r="C653" t="n">
-        <v>22853</v>
+        <v>22849</v>
       </c>
       <c r="D653" t="s">
         <v>5</v>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B654" s="1" t="n">
         <v>44209</v>
@@ -9534,13 +9534,13 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B655" s="1" t="n">
         <v>44209</v>
       </c>
       <c r="C655" t="n">
-        <v>21878</v>
+        <v>21876</v>
       </c>
       <c r="D655" t="s">
         <v>5</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B656" s="1" t="n">
         <v>44210</v>
@@ -9562,13 +9562,13 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B657" s="1" t="n">
         <v>44210</v>
       </c>
       <c r="C657" t="n">
-        <v>21312</v>
+        <v>21308</v>
       </c>
       <c r="D657" t="s">
         <v>5</v>
@@ -9576,7 +9576,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B658" s="1" t="n">
         <v>44211</v>
@@ -9590,13 +9590,13 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B659" s="1" t="n">
         <v>44211</v>
       </c>
       <c r="C659" t="n">
-        <v>20557</v>
+        <v>20556</v>
       </c>
       <c r="D659" t="s">
         <v>5</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B660" s="1" t="n">
         <v>44212</v>
@@ -9618,13 +9618,13 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B661" s="1" t="n">
         <v>44212</v>
       </c>
       <c r="C661" t="n">
-        <v>12773</v>
+        <v>12772</v>
       </c>
       <c r="D661" t="s">
         <v>5</v>
@@ -9632,7 +9632,7 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B662" s="1" t="n">
         <v>44213</v>
@@ -9646,13 +9646,13 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B663" s="1" t="n">
         <v>44213</v>
       </c>
       <c r="C663" t="n">
-        <v>6909</v>
+        <v>6908</v>
       </c>
       <c r="D663" t="s">
         <v>5</v>
@@ -9660,7 +9660,7 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B664" s="1" t="n">
         <v>44214</v>
@@ -9674,13 +9674,13 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B665" s="1" t="n">
         <v>44214</v>
       </c>
       <c r="C665" t="n">
-        <v>25051</v>
+        <v>25049</v>
       </c>
       <c r="D665" t="s">
         <v>5</v>
@@ -9688,7 +9688,7 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B666" s="1" t="n">
         <v>44215</v>
@@ -9702,13 +9702,13 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B667" s="1" t="n">
         <v>44215</v>
       </c>
       <c r="C667" t="n">
-        <v>28675</v>
+        <v>28673</v>
       </c>
       <c r="D667" t="s">
         <v>5</v>
@@ -9716,13 +9716,13 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B668" s="1" t="n">
         <v>44216</v>
       </c>
       <c r="C668" t="n">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="D668" t="s">
         <v>4</v>
@@ -9730,13 +9730,13 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B669" s="1" t="n">
         <v>44216</v>
       </c>
       <c r="C669" t="n">
-        <v>24423</v>
+        <v>24421</v>
       </c>
       <c r="D669" t="s">
         <v>5</v>
@@ -9744,7 +9744,7 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B670" s="1" t="n">
         <v>44217</v>
@@ -9758,13 +9758,13 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B671" s="1" t="n">
         <v>44217</v>
       </c>
       <c r="C671" t="n">
-        <v>23904</v>
+        <v>23902</v>
       </c>
       <c r="D671" t="s">
         <v>5</v>
@@ -9772,7 +9772,7 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B672" s="1" t="n">
         <v>44218</v>
@@ -9786,13 +9786,13 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B673" s="1" t="n">
         <v>44218</v>
       </c>
       <c r="C673" t="n">
-        <v>24461</v>
+        <v>24448</v>
       </c>
       <c r="D673" t="s">
         <v>5</v>
@@ -9800,7 +9800,7 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B674" s="1" t="n">
         <v>44219</v>
@@ -9814,7 +9814,7 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B675" s="1" t="n">
         <v>44219</v>
@@ -9828,13 +9828,13 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B676" s="1" t="n">
         <v>44220</v>
       </c>
       <c r="C676" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D676" t="s">
         <v>4</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B677" s="1" t="n">
         <v>44220</v>
@@ -9856,7 +9856,7 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B678" s="1" t="n">
         <v>44221</v>
@@ -9870,13 +9870,13 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B679" s="1" t="n">
         <v>44221</v>
       </c>
       <c r="C679" t="n">
-        <v>23693</v>
+        <v>23687</v>
       </c>
       <c r="D679" t="s">
         <v>5</v>
@@ -9884,7 +9884,7 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B680" s="1" t="n">
         <v>44222</v>
@@ -9898,13 +9898,13 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B681" s="1" t="n">
         <v>44222</v>
       </c>
       <c r="C681" t="n">
-        <v>25886</v>
+        <v>25884</v>
       </c>
       <c r="D681" t="s">
         <v>5</v>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B682" s="1" t="n">
         <v>44223</v>
@@ -9926,13 +9926,13 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B683" s="1" t="n">
         <v>44223</v>
       </c>
       <c r="C683" t="n">
-        <v>23836</v>
+        <v>23833</v>
       </c>
       <c r="D683" t="s">
         <v>5</v>
@@ -9940,7 +9940,7 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B684" s="1" t="n">
         <v>44224</v>
@@ -9954,13 +9954,13 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B685" s="1" t="n">
         <v>44224</v>
       </c>
       <c r="C685" t="n">
-        <v>26985</v>
+        <v>26974</v>
       </c>
       <c r="D685" t="s">
         <v>5</v>
@@ -9968,7 +9968,7 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B686" s="1" t="n">
         <v>44225</v>
@@ -9982,13 +9982,13 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B687" s="1" t="n">
         <v>44225</v>
       </c>
       <c r="C687" t="n">
-        <v>27437</v>
+        <v>27433</v>
       </c>
       <c r="D687" t="s">
         <v>5</v>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B688" s="1" t="n">
         <v>44226</v>
@@ -10010,13 +10010,13 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B689" s="1" t="n">
         <v>44226</v>
       </c>
       <c r="C689" t="n">
-        <v>17573</v>
+        <v>17566</v>
       </c>
       <c r="D689" t="s">
         <v>5</v>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B690" s="1" t="n">
         <v>44227</v>
@@ -10038,13 +10038,13 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B691" s="1" t="n">
         <v>44227</v>
       </c>
       <c r="C691" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="D691" t="s">
         <v>5</v>
@@ -10052,7 +10052,7 @@
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B692" s="1" t="n">
         <v>44228</v>
@@ -10066,13 +10066,13 @@
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B693" s="1" t="n">
         <v>44228</v>
       </c>
       <c r="C693" t="n">
-        <v>26743</v>
+        <v>26733</v>
       </c>
       <c r="D693" t="s">
         <v>5</v>
@@ -10080,7 +10080,7 @@
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B694" s="1" t="n">
         <v>44229</v>
@@ -10094,7 +10094,7 @@
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B695" s="1" t="n">
         <v>44229</v>
@@ -10108,13 +10108,13 @@
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B696" s="1" t="n">
         <v>44230</v>
       </c>
       <c r="C696" t="n">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D696" t="s">
         <v>4</v>
@@ -10122,7 +10122,7 @@
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B697" s="1" t="n">
         <v>44230</v>
@@ -10136,7 +10136,7 @@
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B698" s="1" t="n">
         <v>44231</v>
@@ -10150,13 +10150,13 @@
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B699" s="1" t="n">
         <v>44231</v>
       </c>
       <c r="C699" t="n">
-        <v>32880</v>
+        <v>32878</v>
       </c>
       <c r="D699" t="s">
         <v>5</v>
@@ -10164,7 +10164,7 @@
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B700" s="1" t="n">
         <v>44232</v>
@@ -10178,13 +10178,13 @@
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B701" s="1" t="n">
         <v>44232</v>
       </c>
       <c r="C701" t="n">
-        <v>29884</v>
+        <v>29882</v>
       </c>
       <c r="D701" t="s">
         <v>5</v>
@@ -10192,7 +10192,7 @@
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B702" s="1" t="n">
         <v>44233</v>
@@ -10206,13 +10206,13 @@
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B703" s="1" t="n">
         <v>44233</v>
       </c>
       <c r="C703" t="n">
-        <v>17323</v>
+        <v>17313</v>
       </c>
       <c r="D703" t="s">
         <v>5</v>
@@ -10220,7 +10220,7 @@
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B704" s="1" t="n">
         <v>44234</v>
@@ -10234,7 +10234,7 @@
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B705" s="1" t="n">
         <v>44234</v>
@@ -10248,7 +10248,7 @@
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B706" s="1" t="n">
         <v>44235</v>
@@ -10262,13 +10262,13 @@
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B707" s="1" t="n">
         <v>44235</v>
       </c>
       <c r="C707" t="n">
-        <v>31842</v>
+        <v>31839</v>
       </c>
       <c r="D707" t="s">
         <v>5</v>
@@ -10276,7 +10276,7 @@
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B708" s="1" t="n">
         <v>44236</v>
@@ -10290,13 +10290,13 @@
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B709" s="1" t="n">
         <v>44236</v>
       </c>
       <c r="C709" t="n">
-        <v>31869</v>
+        <v>31864</v>
       </c>
       <c r="D709" t="s">
         <v>5</v>
@@ -10304,13 +10304,13 @@
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B710" s="1" t="n">
         <v>44237</v>
       </c>
       <c r="C710" t="n">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D710" t="s">
         <v>4</v>
@@ -10318,13 +10318,13 @@
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B711" s="1" t="n">
         <v>44237</v>
       </c>
       <c r="C711" t="n">
-        <v>30679</v>
+        <v>30674</v>
       </c>
       <c r="D711" t="s">
         <v>5</v>
@@ -10332,7 +10332,7 @@
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B712" s="1" t="n">
         <v>44238</v>
@@ -10346,13 +10346,13 @@
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B713" s="1" t="n">
         <v>44238</v>
       </c>
       <c r="C713" t="n">
-        <v>32942</v>
+        <v>32922</v>
       </c>
       <c r="D713" t="s">
         <v>5</v>
@@ -10360,7 +10360,7 @@
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B714" s="1" t="n">
         <v>44239</v>
@@ -10374,13 +10374,13 @@
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B715" s="1" t="n">
         <v>44239</v>
       </c>
       <c r="C715" t="n">
-        <v>31258</v>
+        <v>31259</v>
       </c>
       <c r="D715" t="s">
         <v>5</v>
@@ -10388,7 +10388,7 @@
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B716" s="1" t="n">
         <v>44240</v>
@@ -10402,13 +10402,13 @@
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B717" s="1" t="n">
         <v>44240</v>
       </c>
       <c r="C717" t="n">
-        <v>17623</v>
+        <v>17622</v>
       </c>
       <c r="D717" t="s">
         <v>5</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B718" s="1" t="n">
         <v>44241</v>
@@ -10430,13 +10430,13 @@
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B719" s="1" t="n">
         <v>44241</v>
       </c>
       <c r="C719" t="n">
-        <v>8848</v>
+        <v>8846</v>
       </c>
       <c r="D719" t="s">
         <v>5</v>
@@ -10444,7 +10444,7 @@
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B720" s="1" t="n">
         <v>44242</v>
@@ -10458,7 +10458,7 @@
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B721" s="1" t="n">
         <v>44242</v>
@@ -10472,7 +10472,7 @@
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B722" s="1" t="n">
         <v>44243</v>
@@ -10486,13 +10486,13 @@
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B723" s="1" t="n">
         <v>44243</v>
       </c>
       <c r="C723" t="n">
-        <v>29701</v>
+        <v>29699</v>
       </c>
       <c r="D723" t="s">
         <v>5</v>
@@ -10500,7 +10500,7 @@
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B724" s="1" t="n">
         <v>44244</v>
@@ -10514,13 +10514,13 @@
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B725" s="1" t="n">
         <v>44244</v>
       </c>
       <c r="C725" t="n">
-        <v>28217</v>
+        <v>28212</v>
       </c>
       <c r="D725" t="s">
         <v>5</v>
@@ -10528,7 +10528,7 @@
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B726" s="1" t="n">
         <v>44245</v>
@@ -10542,13 +10542,13 @@
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B727" s="1" t="n">
         <v>44245</v>
       </c>
       <c r="C727" t="n">
-        <v>29563</v>
+        <v>29555</v>
       </c>
       <c r="D727" t="s">
         <v>5</v>
@@ -10556,7 +10556,7 @@
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B728" s="1" t="n">
         <v>44246</v>
@@ -10570,13 +10570,13 @@
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B729" s="1" t="n">
         <v>44246</v>
       </c>
       <c r="C729" t="n">
-        <v>28895</v>
+        <v>28888</v>
       </c>
       <c r="D729" t="s">
         <v>5</v>
@@ -10584,7 +10584,7 @@
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B730" s="1" t="n">
         <v>44247</v>
@@ -10598,13 +10598,13 @@
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B731" s="1" t="n">
         <v>44247</v>
       </c>
       <c r="C731" t="n">
-        <v>14824</v>
+        <v>14821</v>
       </c>
       <c r="D731" t="s">
         <v>5</v>
@@ -10612,7 +10612,7 @@
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B732" s="1" t="n">
         <v>44248</v>
@@ -10626,13 +10626,13 @@
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B733" s="1" t="n">
         <v>44248</v>
       </c>
       <c r="C733" t="n">
-        <v>8047</v>
+        <v>8046</v>
       </c>
       <c r="D733" t="s">
         <v>5</v>
@@ -10640,7 +10640,7 @@
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B734" s="1" t="n">
         <v>44249</v>
@@ -10654,13 +10654,13 @@
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B735" s="1" t="n">
         <v>44249</v>
       </c>
       <c r="C735" t="n">
-        <v>25430</v>
+        <v>25426</v>
       </c>
       <c r="D735" t="s">
         <v>5</v>
@@ -10668,7 +10668,7 @@
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B736" s="1" t="n">
         <v>44250</v>
@@ -10682,7 +10682,7 @@
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B737" s="1" t="n">
         <v>44250</v>
@@ -10696,13 +10696,13 @@
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B738" s="1" t="n">
         <v>44251</v>
       </c>
       <c r="C738" t="n">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D738" t="s">
         <v>4</v>
@@ -10710,13 +10710,13 @@
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B739" s="1" t="n">
         <v>44251</v>
       </c>
       <c r="C739" t="n">
-        <v>25306</v>
+        <v>25300</v>
       </c>
       <c r="D739" t="s">
         <v>5</v>
@@ -10724,7 +10724,7 @@
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B740" s="1" t="n">
         <v>44252</v>
@@ -10738,13 +10738,13 @@
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B741" s="1" t="n">
         <v>44252</v>
       </c>
       <c r="C741" t="n">
-        <v>29660</v>
+        <v>29653</v>
       </c>
       <c r="D741" t="s">
         <v>5</v>
@@ -10752,13 +10752,13 @@
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B742" s="1" t="n">
         <v>44253</v>
       </c>
       <c r="C742" t="n">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D742" t="s">
         <v>4</v>
@@ -10766,13 +10766,13 @@
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B743" s="1" t="n">
         <v>44253</v>
       </c>
       <c r="C743" t="n">
-        <v>29603</v>
+        <v>29592</v>
       </c>
       <c r="D743" t="s">
         <v>5</v>
@@ -10780,7 +10780,7 @@
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B744" s="1" t="n">
         <v>44254</v>
@@ -10794,13 +10794,13 @@
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B745" s="1" t="n">
         <v>44254</v>
       </c>
       <c r="C745" t="n">
-        <v>15533</v>
+        <v>15527</v>
       </c>
       <c r="D745" t="s">
         <v>5</v>
@@ -10808,7 +10808,7 @@
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B746" s="1" t="n">
         <v>44255</v>
@@ -10822,13 +10822,13 @@
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B747" s="1" t="n">
         <v>44255</v>
       </c>
       <c r="C747" t="n">
-        <v>8328</v>
+        <v>8329</v>
       </c>
       <c r="D747" t="s">
         <v>5</v>
@@ -10836,7 +10836,7 @@
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B748" s="1" t="n">
         <v>44256</v>
@@ -10850,13 +10850,13 @@
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B749" s="1" t="n">
         <v>44256</v>
       </c>
       <c r="C749" t="n">
-        <v>26569</v>
+        <v>26563</v>
       </c>
       <c r="D749" t="s">
         <v>5</v>
@@ -10864,7 +10864,7 @@
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B750" s="1" t="n">
         <v>44257</v>
@@ -10878,13 +10878,13 @@
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B751" s="1" t="n">
         <v>44257</v>
       </c>
       <c r="C751" t="n">
-        <v>28508</v>
+        <v>28499</v>
       </c>
       <c r="D751" t="s">
         <v>5</v>
@@ -10892,13 +10892,13 @@
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B752" s="1" t="n">
         <v>44258</v>
       </c>
       <c r="C752" t="n">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D752" t="s">
         <v>4</v>
@@ -10906,13 +10906,13 @@
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B753" s="1" t="n">
         <v>44258</v>
       </c>
       <c r="C753" t="n">
-        <v>27380</v>
+        <v>27377</v>
       </c>
       <c r="D753" t="s">
         <v>5</v>
@@ -10920,7 +10920,7 @@
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B754" s="1" t="n">
         <v>44259</v>
@@ -10934,13 +10934,13 @@
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B755" s="1" t="n">
         <v>44259</v>
       </c>
       <c r="C755" t="n">
-        <v>29725</v>
+        <v>29723</v>
       </c>
       <c r="D755" t="s">
         <v>5</v>
@@ -10948,7 +10948,7 @@
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B756" s="1" t="n">
         <v>44260</v>
@@ -10962,13 +10962,13 @@
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B757" s="1" t="n">
         <v>44260</v>
       </c>
       <c r="C757" t="n">
-        <v>30248</v>
+        <v>30239</v>
       </c>
       <c r="D757" t="s">
         <v>5</v>
@@ -10976,7 +10976,7 @@
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B758" s="1" t="n">
         <v>44261</v>
@@ -10990,13 +10990,13 @@
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B759" s="1" t="n">
         <v>44261</v>
       </c>
       <c r="C759" t="n">
-        <v>15128</v>
+        <v>15124</v>
       </c>
       <c r="D759" t="s">
         <v>5</v>
@@ -11004,7 +11004,7 @@
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B760" s="1" t="n">
         <v>44262</v>
@@ -11018,13 +11018,13 @@
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B761" s="1" t="n">
         <v>44262</v>
       </c>
       <c r="C761" t="n">
-        <v>8534</v>
+        <v>8530</v>
       </c>
       <c r="D761" t="s">
         <v>5</v>
@@ -11032,7 +11032,7 @@
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B762" s="1" t="n">
         <v>44263</v>
@@ -11046,13 +11046,13 @@
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B763" s="1" t="n">
         <v>44263</v>
       </c>
       <c r="C763" t="n">
-        <v>29889</v>
+        <v>29882</v>
       </c>
       <c r="D763" t="s">
         <v>5</v>
@@ -11060,7 +11060,7 @@
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B764" s="1" t="n">
         <v>44264</v>
@@ -11074,13 +11074,13 @@
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B765" s="1" t="n">
         <v>44264</v>
       </c>
       <c r="C765" t="n">
-        <v>31831</v>
+        <v>31816</v>
       </c>
       <c r="D765" t="s">
         <v>5</v>
@@ -11088,7 +11088,7 @@
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B766" s="1" t="n">
         <v>44265</v>
@@ -11102,13 +11102,13 @@
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B767" s="1" t="n">
         <v>44265</v>
       </c>
       <c r="C767" t="n">
-        <v>30395</v>
+        <v>30381</v>
       </c>
       <c r="D767" t="s">
         <v>5</v>
@@ -11116,7 +11116,7 @@
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B768" s="1" t="n">
         <v>44266</v>
@@ -11130,13 +11130,13 @@
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B769" s="1" t="n">
         <v>44266</v>
       </c>
       <c r="C769" t="n">
-        <v>33275</v>
+        <v>33256</v>
       </c>
       <c r="D769" t="s">
         <v>5</v>
@@ -11144,7 +11144,7 @@
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B770" s="1" t="n">
         <v>44267</v>
@@ -11158,13 +11158,13 @@
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B771" s="1" t="n">
         <v>44267</v>
       </c>
       <c r="C771" t="n">
-        <v>32873</v>
+        <v>32858</v>
       </c>
       <c r="D771" t="s">
         <v>5</v>
@@ -11172,7 +11172,7 @@
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B772" s="1" t="n">
         <v>44268</v>
@@ -11186,13 +11186,13 @@
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B773" s="1" t="n">
         <v>44268</v>
       </c>
       <c r="C773" t="n">
-        <v>16661</v>
+        <v>16654</v>
       </c>
       <c r="D773" t="s">
         <v>5</v>
@@ -11200,7 +11200,7 @@
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B774" s="1" t="n">
         <v>44269</v>
@@ -11214,13 +11214,13 @@
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B775" s="1" t="n">
         <v>44269</v>
       </c>
       <c r="C775" t="n">
-        <v>9681</v>
+        <v>9669</v>
       </c>
       <c r="D775" t="s">
         <v>5</v>
@@ -11228,7 +11228,7 @@
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B776" s="1" t="n">
         <v>44270</v>
@@ -11242,13 +11242,13 @@
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B777" s="1" t="n">
         <v>44270</v>
       </c>
       <c r="C777" t="n">
-        <v>34072</v>
+        <v>34051</v>
       </c>
       <c r="D777" t="s">
         <v>5</v>
@@ -11256,7 +11256,7 @@
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B778" s="1" t="n">
         <v>44271</v>
@@ -11270,13 +11270,13 @@
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B779" s="1" t="n">
         <v>44271</v>
       </c>
       <c r="C779" t="n">
-        <v>35926</v>
+        <v>35899</v>
       </c>
       <c r="D779" t="s">
         <v>5</v>
@@ -11284,7 +11284,7 @@
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B780" s="1" t="n">
         <v>44272</v>
@@ -11298,13 +11298,13 @@
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B781" s="1" t="n">
         <v>44272</v>
       </c>
       <c r="C781" t="n">
-        <v>36155</v>
+        <v>36137</v>
       </c>
       <c r="D781" t="s">
         <v>5</v>
@@ -11312,7 +11312,7 @@
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B782" s="1" t="n">
         <v>44273</v>
@@ -11326,13 +11326,13 @@
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B783" s="1" t="n">
         <v>44273</v>
       </c>
       <c r="C783" t="n">
-        <v>39662</v>
+        <v>39627</v>
       </c>
       <c r="D783" t="s">
         <v>5</v>
@@ -11340,7 +11340,7 @@
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B784" s="1" t="n">
         <v>44274</v>
@@ -11354,13 +11354,13 @@
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B785" s="1" t="n">
         <v>44274</v>
       </c>
       <c r="C785" t="n">
-        <v>38336</v>
+        <v>38283</v>
       </c>
       <c r="D785" t="s">
         <v>5</v>
@@ -11368,7 +11368,7 @@
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B786" s="1" t="n">
         <v>44275</v>
@@ -11382,13 +11382,13 @@
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B787" s="1" t="n">
         <v>44275</v>
       </c>
       <c r="C787" t="n">
-        <v>21274</v>
+        <v>21257</v>
       </c>
       <c r="D787" t="s">
         <v>5</v>
@@ -11396,7 +11396,7 @@
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B788" s="1" t="n">
         <v>44276</v>
@@ -11410,13 +11410,13 @@
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B789" s="1" t="n">
         <v>44276</v>
       </c>
       <c r="C789" t="n">
-        <v>12523</v>
+        <v>12515</v>
       </c>
       <c r="D789" t="s">
         <v>5</v>
@@ -11424,7 +11424,7 @@
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B790" s="1" t="n">
         <v>44277</v>
@@ -11438,13 +11438,13 @@
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B791" s="1" t="n">
         <v>44277</v>
       </c>
       <c r="C791" t="n">
-        <v>39469</v>
+        <v>39444</v>
       </c>
       <c r="D791" t="s">
         <v>5</v>
@@ -11452,7 +11452,7 @@
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B792" s="1" t="n">
         <v>44278</v>
@@ -11466,13 +11466,13 @@
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B793" s="1" t="n">
         <v>44278</v>
       </c>
       <c r="C793" t="n">
-        <v>40280</v>
+        <v>40259</v>
       </c>
       <c r="D793" t="s">
         <v>5</v>
@@ -11480,13 +11480,13 @@
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B794" s="1" t="n">
         <v>44279</v>
       </c>
       <c r="C794" t="n">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="D794" t="s">
         <v>4</v>
@@ -11494,13 +11494,13 @@
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B795" s="1" t="n">
         <v>44279</v>
       </c>
       <c r="C795" t="n">
-        <v>37785</v>
+        <v>37753</v>
       </c>
       <c r="D795" t="s">
         <v>5</v>
@@ -11508,13 +11508,13 @@
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B796" s="1" t="n">
         <v>44280</v>
       </c>
       <c r="C796" t="n">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="D796" t="s">
         <v>4</v>
@@ -11522,13 +11522,13 @@
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B797" s="1" t="n">
         <v>44280</v>
       </c>
       <c r="C797" t="n">
-        <v>41756</v>
+        <v>41710</v>
       </c>
       <c r="D797" t="s">
         <v>5</v>
@@ -11536,7 +11536,7 @@
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B798" s="1" t="n">
         <v>44281</v>
@@ -11550,13 +11550,13 @@
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B799" s="1" t="n">
         <v>44281</v>
       </c>
       <c r="C799" t="n">
-        <v>42195</v>
+        <v>42117</v>
       </c>
       <c r="D799" t="s">
         <v>5</v>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B800" s="1" t="n">
         <v>44282</v>
@@ -11578,13 +11578,13 @@
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B801" s="1" t="n">
         <v>44282</v>
       </c>
       <c r="C801" t="n">
-        <v>25441</v>
+        <v>25406</v>
       </c>
       <c r="D801" t="s">
         <v>5</v>
@@ -11592,7 +11592,7 @@
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B802" s="1" t="n">
         <v>44283</v>
@@ -11606,13 +11606,13 @@
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B803" s="1" t="n">
         <v>44283</v>
       </c>
       <c r="C803" t="n">
-        <v>14094</v>
+        <v>14077</v>
       </c>
       <c r="D803" t="s">
         <v>5</v>
@@ -11620,13 +11620,13 @@
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B804" s="1" t="n">
         <v>44284</v>
       </c>
       <c r="C804" t="n">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="D804" t="s">
         <v>4</v>
@@ -11634,13 +11634,13 @@
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B805" s="1" t="n">
         <v>44284</v>
       </c>
       <c r="C805" t="n">
-        <v>37159</v>
+        <v>37088</v>
       </c>
       <c r="D805" t="s">
         <v>5</v>
@@ -11648,7 +11648,7 @@
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B806" s="1" t="n">
         <v>44285</v>
@@ -11662,13 +11662,13 @@
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B807" s="1" t="n">
         <v>44285</v>
       </c>
       <c r="C807" t="n">
-        <v>45720</v>
+        <v>45608</v>
       </c>
       <c r="D807" t="s">
         <v>5</v>
@@ -11676,7 +11676,7 @@
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B808" s="1" t="n">
         <v>44286</v>
@@ -11690,13 +11690,13 @@
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B809" s="1" t="n">
         <v>44286</v>
       </c>
       <c r="C809" t="n">
-        <v>55009</v>
+        <v>54916</v>
       </c>
       <c r="D809" t="s">
         <v>5</v>
@@ -11704,13 +11704,13 @@
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B810" s="1" t="n">
         <v>44287</v>
       </c>
       <c r="C810" t="n">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D810" t="s">
         <v>4</v>
@@ -11718,13 +11718,13 @@
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B811" s="1" t="n">
         <v>44287</v>
       </c>
       <c r="C811" t="n">
-        <v>55382</v>
+        <v>55252</v>
       </c>
       <c r="D811" t="s">
         <v>5</v>
@@ -11732,7 +11732,7 @@
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B812" s="1" t="n">
         <v>44288</v>
@@ -11746,13 +11746,13 @@
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B813" s="1" t="n">
         <v>44288</v>
       </c>
       <c r="C813" t="n">
-        <v>26895</v>
+        <v>26889</v>
       </c>
       <c r="D813" t="s">
         <v>5</v>
@@ -11760,13 +11760,13 @@
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B814" s="1" t="n">
         <v>44289</v>
       </c>
       <c r="C814" t="n">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D814" t="s">
         <v>4</v>
@@ -11774,13 +11774,13 @@
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B815" s="1" t="n">
         <v>44289</v>
       </c>
       <c r="C815" t="n">
-        <v>27623</v>
+        <v>27596</v>
       </c>
       <c r="D815" t="s">
         <v>5</v>
@@ -11788,7 +11788,7 @@
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B816" s="1" t="n">
         <v>44290</v>
@@ -11802,13 +11802,13 @@
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B817" s="1" t="n">
         <v>44290</v>
       </c>
       <c r="C817" t="n">
-        <v>16011</v>
+        <v>15999</v>
       </c>
       <c r="D817" t="s">
         <v>5</v>
@@ -11816,7 +11816,7 @@
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B818" s="1" t="n">
         <v>44291</v>
@@ -11830,13 +11830,13 @@
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B819" s="1" t="n">
         <v>44291</v>
       </c>
       <c r="C819" t="n">
-        <v>16770</v>
+        <v>16772</v>
       </c>
       <c r="D819" t="s">
         <v>5</v>
@@ -11844,7 +11844,7 @@
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B820" s="1" t="n">
         <v>44292</v>
@@ -11858,13 +11858,13 @@
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B821" s="1" t="n">
         <v>44292</v>
       </c>
       <c r="C821" t="n">
-        <v>35748</v>
+        <v>35720</v>
       </c>
       <c r="D821" t="s">
         <v>5</v>
@@ -11872,7 +11872,7 @@
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B822" s="1" t="n">
         <v>44293</v>
@@ -11886,13 +11886,13 @@
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B823" s="1" t="n">
         <v>44293</v>
       </c>
       <c r="C823" t="n">
-        <v>36991</v>
+        <v>36947</v>
       </c>
       <c r="D823" t="s">
         <v>5</v>
@@ -11900,13 +11900,13 @@
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B824" s="1" t="n">
         <v>44294</v>
       </c>
       <c r="C824" t="n">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="D824" t="s">
         <v>4</v>
@@ -11914,13 +11914,13 @@
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B825" s="1" t="n">
         <v>44294</v>
       </c>
       <c r="C825" t="n">
-        <v>36130</v>
+        <v>36132</v>
       </c>
       <c r="D825" t="s">
         <v>5</v>
@@ -11928,7 +11928,7 @@
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B826" s="1" t="n">
         <v>44295</v>
@@ -11942,13 +11942,13 @@
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B827" s="1" t="n">
         <v>44295</v>
       </c>
       <c r="C827" t="n">
-        <v>33207</v>
+        <v>33190</v>
       </c>
       <c r="D827" t="s">
         <v>5</v>
@@ -11956,13 +11956,13 @@
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B828" s="1" t="n">
         <v>44296</v>
       </c>
       <c r="C828" t="n">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="D828" t="s">
         <v>4</v>
@@ -11970,13 +11970,13 @@
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B829" s="1" t="n">
         <v>44296</v>
       </c>
       <c r="C829" t="n">
-        <v>19599</v>
+        <v>19635</v>
       </c>
       <c r="D829" t="s">
         <v>5</v>
@@ -11984,13 +11984,13 @@
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B830" s="1" t="n">
         <v>44297</v>
       </c>
       <c r="C830" t="n">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D830" t="s">
         <v>4</v>
@@ -11998,13 +11998,13 @@
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B831" s="1" t="n">
         <v>44297</v>
       </c>
       <c r="C831" t="n">
-        <v>10844</v>
+        <v>10879</v>
       </c>
       <c r="D831" t="s">
         <v>5</v>
@@ -12012,13 +12012,13 @@
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B832" s="1" t="n">
         <v>44298</v>
       </c>
       <c r="C832" t="n">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="D832" t="s">
         <v>4</v>
@@ -12026,13 +12026,13 @@
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B833" s="1" t="n">
         <v>44298</v>
       </c>
       <c r="C833" t="n">
-        <v>26560</v>
+        <v>26551</v>
       </c>
       <c r="D833" t="s">
         <v>5</v>
@@ -12040,13 +12040,13 @@
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B834" s="1" t="n">
         <v>44299</v>
       </c>
       <c r="C834" t="n">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="D834" t="s">
         <v>4</v>
@@ -12054,13 +12054,13 @@
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B835" s="1" t="n">
         <v>44299</v>
       </c>
       <c r="C835" t="n">
-        <v>29063</v>
+        <v>29039</v>
       </c>
       <c r="D835" t="s">
         <v>5</v>
@@ -12068,7 +12068,7 @@
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B836" s="1" t="n">
         <v>44300</v>
@@ -12082,13 +12082,13 @@
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B837" s="1" t="n">
         <v>44300</v>
       </c>
       <c r="C837" t="n">
-        <v>28546</v>
+        <v>28558</v>
       </c>
       <c r="D837" t="s">
         <v>5</v>
@@ -12096,7 +12096,7 @@
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B838" s="1" t="n">
         <v>44301</v>
@@ -12110,13 +12110,13 @@
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B839" s="1" t="n">
         <v>44301</v>
       </c>
       <c r="C839" t="n">
-        <v>31049</v>
+        <v>31021</v>
       </c>
       <c r="D839" t="s">
         <v>5</v>
@@ -12124,13 +12124,13 @@
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B840" s="1" t="n">
         <v>44302</v>
       </c>
       <c r="C840" t="n">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D840" t="s">
         <v>4</v>
@@ -12138,13 +12138,13 @@
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B841" s="1" t="n">
         <v>44302</v>
       </c>
       <c r="C841" t="n">
-        <v>30191</v>
+        <v>30200</v>
       </c>
       <c r="D841" t="s">
         <v>5</v>
@@ -12152,13 +12152,13 @@
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B842" s="1" t="n">
         <v>44303</v>
       </c>
       <c r="C842" t="n">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D842" t="s">
         <v>4</v>
@@ -12166,13 +12166,13 @@
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B843" s="1" t="n">
         <v>44303</v>
       </c>
       <c r="C843" t="n">
-        <v>17482</v>
+        <v>17451</v>
       </c>
       <c r="D843" t="s">
         <v>5</v>
@@ -12180,13 +12180,13 @@
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B844" s="1" t="n">
         <v>44304</v>
       </c>
       <c r="C844" t="n">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D844" t="s">
         <v>4</v>
@@ -12194,13 +12194,13 @@
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B845" s="1" t="n">
         <v>44304</v>
       </c>
       <c r="C845" t="n">
-        <v>9913</v>
+        <v>9903</v>
       </c>
       <c r="D845" t="s">
         <v>5</v>
@@ -12208,13 +12208,13 @@
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B846" s="1" t="n">
         <v>44305</v>
       </c>
       <c r="C846" t="n">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="D846" t="s">
         <v>4</v>
@@ -12222,13 +12222,13 @@
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B847" s="1" t="n">
         <v>44305</v>
       </c>
       <c r="C847" t="n">
-        <v>24411</v>
+        <v>24441</v>
       </c>
       <c r="D847" t="s">
         <v>5</v>
@@ -12236,13 +12236,13 @@
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B848" s="1" t="n">
         <v>44306</v>
       </c>
       <c r="C848" t="n">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="D848" t="s">
         <v>4</v>
@@ -12250,13 +12250,13 @@
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B849" s="1" t="n">
         <v>44306</v>
       </c>
       <c r="C849" t="n">
-        <v>25941</v>
+        <v>25905</v>
       </c>
       <c r="D849" t="s">
         <v>5</v>
@@ -12264,13 +12264,13 @@
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B850" s="1" t="n">
         <v>44307</v>
       </c>
       <c r="C850" t="n">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="D850" t="s">
         <v>4</v>
@@ -12278,13 +12278,13 @@
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B851" s="1" t="n">
         <v>44307</v>
       </c>
       <c r="C851" t="n">
-        <v>26621</v>
+        <v>26628</v>
       </c>
       <c r="D851" t="s">
         <v>5</v>
@@ -12292,13 +12292,13 @@
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B852" s="1" t="n">
         <v>44308</v>
       </c>
       <c r="C852" t="n">
-        <v>2419</v>
+        <v>2407</v>
       </c>
       <c r="D852" t="s">
         <v>4</v>
@@ -12306,13 +12306,13 @@
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B853" s="1" t="n">
         <v>44308</v>
       </c>
       <c r="C853" t="n">
-        <v>31278</v>
+        <v>31263</v>
       </c>
       <c r="D853" t="s">
         <v>5</v>
@@ -12320,13 +12320,13 @@
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B854" s="1" t="n">
         <v>44309</v>
       </c>
       <c r="C854" t="n">
-        <v>2539</v>
+        <v>2517</v>
       </c>
       <c r="D854" t="s">
         <v>4</v>
@@ -12334,13 +12334,13 @@
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B855" s="1" t="n">
         <v>44309</v>
       </c>
       <c r="C855" t="n">
-        <v>30871</v>
+        <v>30830</v>
       </c>
       <c r="D855" t="s">
         <v>5</v>
@@ -12348,7 +12348,7 @@
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B856" s="1" t="n">
         <v>44310</v>
@@ -12362,13 +12362,13 @@
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B857" s="1" t="n">
         <v>44310</v>
       </c>
       <c r="C857" t="n">
-        <v>19206</v>
+        <v>19250</v>
       </c>
       <c r="D857" t="s">
         <v>5</v>
@@ -12376,13 +12376,13 @@
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B858" s="1" t="n">
         <v>44311</v>
       </c>
       <c r="C858" t="n">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="D858" t="s">
         <v>4</v>
@@ -12390,7 +12390,7 @@
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B859" s="1" t="n">
         <v>44311</v>
@@ -12404,13 +12404,13 @@
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B860" s="1" t="n">
         <v>44312</v>
       </c>
       <c r="C860" t="n">
-        <v>2394</v>
+        <v>2396</v>
       </c>
       <c r="D860" t="s">
         <v>4</v>
@@ -12418,13 +12418,13 @@
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B861" s="1" t="n">
         <v>44312</v>
       </c>
       <c r="C861" t="n">
-        <v>24937</v>
+        <v>25015</v>
       </c>
       <c r="D861" t="s">
         <v>5</v>
@@ -12432,13 +12432,13 @@
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B862" s="1" t="n">
         <v>44313</v>
       </c>
       <c r="C862" t="n">
-        <v>2370</v>
+        <v>2385</v>
       </c>
       <c r="D862" t="s">
         <v>4</v>
@@ -12446,13 +12446,13 @@
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B863" s="1" t="n">
         <v>44313</v>
       </c>
       <c r="C863" t="n">
-        <v>27431</v>
+        <v>27481</v>
       </c>
       <c r="D863" t="s">
         <v>5</v>
@@ -12460,13 +12460,13 @@
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B864" s="1" t="n">
         <v>44314</v>
       </c>
       <c r="C864" t="n">
-        <v>2233</v>
+        <v>2236</v>
       </c>
       <c r="D864" t="s">
         <v>4</v>
@@ -12474,13 +12474,13 @@
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B865" s="1" t="n">
         <v>44314</v>
       </c>
       <c r="C865" t="n">
-        <v>27748</v>
+        <v>27809</v>
       </c>
       <c r="D865" t="s">
         <v>5</v>
@@ -12488,13 +12488,13 @@
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B866" s="1" t="n">
         <v>44315</v>
       </c>
       <c r="C866" t="n">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="D866" t="s">
         <v>4</v>
@@ -12502,13 +12502,13 @@
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B867" s="1" t="n">
         <v>44315</v>
       </c>
       <c r="C867" t="n">
-        <v>31391</v>
+        <v>31433</v>
       </c>
       <c r="D867" t="s">
         <v>5</v>
@@ -12516,13 +12516,13 @@
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B868" s="1" t="n">
         <v>44316</v>
       </c>
       <c r="C868" t="n">
-        <v>1853</v>
+        <v>1864</v>
       </c>
       <c r="D868" t="s">
         <v>4</v>
@@ -12530,13 +12530,13 @@
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B869" s="1" t="n">
         <v>44316</v>
       </c>
       <c r="C869" t="n">
-        <v>31229</v>
+        <v>31455</v>
       </c>
       <c r="D869" t="s">
         <v>5</v>
@@ -12544,13 +12544,13 @@
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B870" s="1" t="n">
         <v>44317</v>
       </c>
       <c r="C870" t="n">
-        <v>1373</v>
+        <v>1383</v>
       </c>
       <c r="D870" t="s">
         <v>4</v>
@@ -12558,13 +12558,13 @@
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B871" s="1" t="n">
         <v>44317</v>
       </c>
       <c r="C871" t="n">
-        <v>17032</v>
+        <v>17551</v>
       </c>
       <c r="D871" t="s">
         <v>5</v>
@@ -12572,13 +12572,13 @@
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B872" s="1" t="n">
         <v>44318</v>
       </c>
       <c r="C872" t="n">
-        <v>875</v>
+        <v>935</v>
       </c>
       <c r="D872" t="s">
         <v>4</v>
@@ -12586,15 +12586,715 @@
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
-        <v>44319.3309083333</v>
+        <v>44344.332001929</v>
       </c>
       <c r="B873" s="1" t="n">
         <v>44318</v>
       </c>
       <c r="C873" t="n">
-        <v>8322</v>
+        <v>9515</v>
       </c>
       <c r="D873" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B874" s="1" t="n">
+        <v>44319</v>
+      </c>
+      <c r="C874" t="n">
+        <v>1944</v>
+      </c>
+      <c r="D874" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B875" s="1" t="n">
+        <v>44319</v>
+      </c>
+      <c r="C875" t="n">
+        <v>23702</v>
+      </c>
+      <c r="D875" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B876" s="1" t="n">
+        <v>44320</v>
+      </c>
+      <c r="C876" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D876" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B877" s="1" t="n">
+        <v>44320</v>
+      </c>
+      <c r="C877" t="n">
+        <v>25580</v>
+      </c>
+      <c r="D877" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B878" s="1" t="n">
+        <v>44321</v>
+      </c>
+      <c r="C878" t="n">
+        <v>1814</v>
+      </c>
+      <c r="D878" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B879" s="1" t="n">
+        <v>44321</v>
+      </c>
+      <c r="C879" t="n">
+        <v>26906</v>
+      </c>
+      <c r="D879" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B880" s="1" t="n">
+        <v>44322</v>
+      </c>
+      <c r="C880" t="n">
+        <v>1726</v>
+      </c>
+      <c r="D880" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B881" s="1" t="n">
+        <v>44322</v>
+      </c>
+      <c r="C881" t="n">
+        <v>31062</v>
+      </c>
+      <c r="D881" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B882" s="1" t="n">
+        <v>44323</v>
+      </c>
+      <c r="C882" t="n">
+        <v>1772</v>
+      </c>
+      <c r="D882" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B883" s="1" t="n">
+        <v>44323</v>
+      </c>
+      <c r="C883" t="n">
+        <v>31843</v>
+      </c>
+      <c r="D883" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B884" s="1" t="n">
+        <v>44324</v>
+      </c>
+      <c r="C884" t="n">
+        <v>1233</v>
+      </c>
+      <c r="D884" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B885" s="1" t="n">
+        <v>44324</v>
+      </c>
+      <c r="C885" t="n">
+        <v>17129</v>
+      </c>
+      <c r="D885" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B886" s="1" t="n">
+        <v>44325</v>
+      </c>
+      <c r="C886" t="n">
+        <v>856</v>
+      </c>
+      <c r="D886" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B887" s="1" t="n">
+        <v>44325</v>
+      </c>
+      <c r="C887" t="n">
+        <v>9601</v>
+      </c>
+      <c r="D887" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B888" s="1" t="n">
+        <v>44326</v>
+      </c>
+      <c r="C888" t="n">
+        <v>1632</v>
+      </c>
+      <c r="D888" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B889" s="1" t="n">
+        <v>44326</v>
+      </c>
+      <c r="C889" t="n">
+        <v>28550</v>
+      </c>
+      <c r="D889" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B890" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C890" t="n">
+        <v>1669</v>
+      </c>
+      <c r="D890" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B891" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C891" t="n">
+        <v>36930</v>
+      </c>
+      <c r="D891" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B892" s="1" t="n">
+        <v>44328</v>
+      </c>
+      <c r="C892" t="n">
+        <v>1624</v>
+      </c>
+      <c r="D892" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B893" s="1" t="n">
+        <v>44328</v>
+      </c>
+      <c r="C893" t="n">
+        <v>38905</v>
+      </c>
+      <c r="D893" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B894" s="1" t="n">
+        <v>44329</v>
+      </c>
+      <c r="C894" t="n">
+        <v>804</v>
+      </c>
+      <c r="D894" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B895" s="1" t="n">
+        <v>44329</v>
+      </c>
+      <c r="C895" t="n">
+        <v>15958</v>
+      </c>
+      <c r="D895" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B896" s="1" t="n">
+        <v>44330</v>
+      </c>
+      <c r="C896" t="n">
+        <v>1253</v>
+      </c>
+      <c r="D896" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B897" s="1" t="n">
+        <v>44330</v>
+      </c>
+      <c r="C897" t="n">
+        <v>26279</v>
+      </c>
+      <c r="D897" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B898" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C898" t="n">
+        <v>980</v>
+      </c>
+      <c r="D898" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B899" s="1" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C899" t="n">
+        <v>18180</v>
+      </c>
+      <c r="D899" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B900" s="1" t="n">
+        <v>44332</v>
+      </c>
+      <c r="C900" t="n">
+        <v>676</v>
+      </c>
+      <c r="D900" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B901" s="1" t="n">
+        <v>44332</v>
+      </c>
+      <c r="C901" t="n">
+        <v>10068</v>
+      </c>
+      <c r="D901" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B902" s="1" t="n">
+        <v>44333</v>
+      </c>
+      <c r="C902" t="n">
+        <v>1555</v>
+      </c>
+      <c r="D902" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B903" s="1" t="n">
+        <v>44333</v>
+      </c>
+      <c r="C903" t="n">
+        <v>25239</v>
+      </c>
+      <c r="D903" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B904" s="1" t="n">
+        <v>44334</v>
+      </c>
+      <c r="C904" t="n">
+        <v>1576</v>
+      </c>
+      <c r="D904" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B905" s="1" t="n">
+        <v>44334</v>
+      </c>
+      <c r="C905" t="n">
+        <v>27408</v>
+      </c>
+      <c r="D905" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B906" s="1" t="n">
+        <v>44335</v>
+      </c>
+      <c r="C906" t="n">
+        <v>1393</v>
+      </c>
+      <c r="D906" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B907" s="1" t="n">
+        <v>44335</v>
+      </c>
+      <c r="C907" t="n">
+        <v>32303</v>
+      </c>
+      <c r="D907" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B908" s="1" t="n">
+        <v>44336</v>
+      </c>
+      <c r="C908" t="n">
+        <v>1268</v>
+      </c>
+      <c r="D908" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B909" s="1" t="n">
+        <v>44336</v>
+      </c>
+      <c r="C909" t="n">
+        <v>39124</v>
+      </c>
+      <c r="D909" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B910" s="1" t="n">
+        <v>44337</v>
+      </c>
+      <c r="C910" t="n">
+        <v>1144</v>
+      </c>
+      <c r="D910" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B911" s="1" t="n">
+        <v>44337</v>
+      </c>
+      <c r="C911" t="n">
+        <v>37936</v>
+      </c>
+      <c r="D911" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B912" s="1" t="n">
+        <v>44338</v>
+      </c>
+      <c r="C912" t="n">
+        <v>774</v>
+      </c>
+      <c r="D912" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B913" s="1" t="n">
+        <v>44338</v>
+      </c>
+      <c r="C913" t="n">
+        <v>19924</v>
+      </c>
+      <c r="D913" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B914" s="1" t="n">
+        <v>44339</v>
+      </c>
+      <c r="C914" t="n">
+        <v>489</v>
+      </c>
+      <c r="D914" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B915" s="1" t="n">
+        <v>44339</v>
+      </c>
+      <c r="C915" t="n">
+        <v>9845</v>
+      </c>
+      <c r="D915" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B916" s="1" t="n">
+        <v>44340</v>
+      </c>
+      <c r="C916" t="n">
+        <v>626</v>
+      </c>
+      <c r="D916" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B917" s="1" t="n">
+        <v>44340</v>
+      </c>
+      <c r="C917" t="n">
+        <v>11626</v>
+      </c>
+      <c r="D917" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B918" s="1" t="n">
+        <v>44341</v>
+      </c>
+      <c r="C918" t="n">
+        <v>1145</v>
+      </c>
+      <c r="D918" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B919" s="1" t="n">
+        <v>44341</v>
+      </c>
+      <c r="C919" t="n">
+        <v>24579</v>
+      </c>
+      <c r="D919" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B920" s="1" t="n">
+        <v>44342</v>
+      </c>
+      <c r="C920" t="n">
+        <v>1075</v>
+      </c>
+      <c r="D920" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B921" s="1" t="n">
+        <v>44342</v>
+      </c>
+      <c r="C921" t="n">
+        <v>27712</v>
+      </c>
+      <c r="D921" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B922" s="1" t="n">
+        <v>44343</v>
+      </c>
+      <c r="C922" t="n">
+        <v>871</v>
+      </c>
+      <c r="D922" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="2" t="n">
+        <v>44344.332001929</v>
+      </c>
+      <c r="B923" s="1" t="n">
+        <v>44343</v>
+      </c>
+      <c r="C923" t="n">
+        <v>22832</v>
+      </c>
+      <c r="D923" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data-raw/BAG-open/Dashboard_3_COVID19_labtests_positivity.xlsx
+++ b/data-raw/BAG-open/Dashboard_3_COVID19_labtests_positivity.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43867</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43867</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43873</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43873</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43885</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43885</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43886</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43886</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43887</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43887</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43888</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43888</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43889</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43889</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43890</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43890</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43891</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43891</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43892</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43892</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43893</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43893</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43894</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43894</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43895</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43895</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43896</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43896</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43897</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43897</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43898</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43898</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43899</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43899</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43900</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43900</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43901</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43901</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43902</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43902</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43903</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43903</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43904</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43904</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43905</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43905</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43906</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43906</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43907</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43907</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43908</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43908</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43909</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43909</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43910</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43910</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43911</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43911</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43912</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43912</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43913</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43913</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>43914</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43914</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>43915</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43915</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43916</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43916</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>43917</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>43917</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43918</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>43918</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43919</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43919</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43920</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>43920</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>43921</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>43921</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43922</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43922</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43923</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43923</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43924</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43924</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43925</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>43925</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43926</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43926</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>43927</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>43927</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>43928</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>43928</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>43929</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>43929</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>43930</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>43930</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>43931</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>43931</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43932</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>43932</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43933</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>43933</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>43934</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>43934</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>43935</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>43935</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>43936</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>43936</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>43937</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>43937</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>43938</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>43938</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>43939</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>43939</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>43940</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>43940</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>43941</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>43941</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>43942</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>43942</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>43943</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43943</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>43944</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>43944</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>43945</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>43945</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>43946</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>43946</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>43947</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>43947</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>43948</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>43948</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>43949</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>43949</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>43950</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>43950</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>43951</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>43951</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>43952</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>43952</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>43953</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>43953</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>43954</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>43954</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>43955</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>43955</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>43956</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>43956</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>43957</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43957</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>43958</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>43958</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>43959</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>43959</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>43960</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>43960</v>
@@ -2576,13 +2576,13 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>43961</v>
       </c>
       <c r="C158" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D158" t="s">
         <v>4</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>43961</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>43962</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>43962</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>43963</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>43963</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>43964</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>43964</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>43965</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>43965</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>43966</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>43966</v>
@@ -2744,13 +2744,13 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>43967</v>
       </c>
       <c r="C170" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D170" t="s">
         <v>4</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>43967</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>43968</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>43968</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>43969</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>43969</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>43970</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>43970</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>43971</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>43971</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>43972</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>43972</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>43973</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43973</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>43974</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>43974</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>43975</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>43975</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>43976</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>43976</v>
@@ -3024,13 +3024,13 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>43977</v>
       </c>
       <c r="C190" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D190" t="s">
         <v>4</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>43977</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>43978</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>43978</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>43979</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>43979</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>43980</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>43980</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>43981</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>43981</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>43982</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>43982</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>43983</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>43983</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>43984</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>43984</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>43985</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>43985</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>43986</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>43986</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>43987</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>43987</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>43988</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>43988</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>43989</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>43989</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>43990</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>43990</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>43991</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>43991</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>43992</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>43992</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>43993</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>43993</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>43994</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>43994</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>43995</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>43995</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>43996</v>
@@ -3570,13 +3570,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>43996</v>
       </c>
       <c r="C229" t="n">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="D229" t="s">
         <v>5</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>43997</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>43997</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>43998</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>43998</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>43999</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>43999</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>44000</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>44000</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>44001</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>44001</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>44002</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>44002</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>44003</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>44003</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>44004</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>44004</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>44005</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>44005</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>44006</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>44006</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>44007</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>44007</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>44008</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>44008</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>44009</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>44009</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>44010</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>44010</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>44011</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>44011</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>44012</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>44012</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>44013</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>44013</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>44014</v>
@@ -4074,13 +4074,13 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>44014</v>
       </c>
       <c r="C265" t="n">
-        <v>10763</v>
+        <v>10764</v>
       </c>
       <c r="D265" t="s">
         <v>5</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>44015</v>
@@ -4102,13 +4102,13 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>44015</v>
       </c>
       <c r="C267" t="n">
-        <v>10269</v>
+        <v>10270</v>
       </c>
       <c r="D267" t="s">
         <v>5</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>44016</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>44016</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>44017</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>44017</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>44018</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>44018</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>44019</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>44019</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>44020</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>44020</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>44021</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>44021</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>44022</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>44022</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>44023</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>44023</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>44024</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>44024</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>44025</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>44025</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>44026</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>44026</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>44027</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>44027</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>44028</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>44028</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>44029</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>44029</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>44030</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>44030</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>44031</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>44031</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>44032</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>44032</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>44033</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>44033</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>44034</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>44034</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>44035</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>44035</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>44036</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>44036</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>44037</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>44037</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>44038</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>44038</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>44039</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>44039</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>44040</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>44040</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>44041</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>44041</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>44042</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>44042</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>44043</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>44043</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>44044</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>44044</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>44045</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>44045</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>44046</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>44046</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>44047</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>44047</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>44048</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>44048</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>44049</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>44049</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>44050</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>44050</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>44051</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>44051</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>44052</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>44052</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>44053</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>44053</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>44054</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>44054</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>44055</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>44055</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>44056</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>44056</v>
@@ -5264,13 +5264,13 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>44057</v>
       </c>
       <c r="C350" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D350" t="s">
         <v>4</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>44057</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>44058</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>44058</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>44059</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>44059</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>44060</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>44060</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>44061</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>44061</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>44062</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>44062</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>44063</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>44063</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>44064</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>44064</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>44065</v>
@@ -5502,13 +5502,13 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>44065</v>
       </c>
       <c r="C367" t="n">
-        <v>5887</v>
+        <v>5888</v>
       </c>
       <c r="D367" t="s">
         <v>5</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>44066</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>44066</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>44067</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>44067</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>44068</v>
@@ -5586,13 +5586,13 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>44068</v>
       </c>
       <c r="C373" t="n">
-        <v>12804</v>
+        <v>12805</v>
       </c>
       <c r="D373" t="s">
         <v>5</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>44069</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>44069</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>44070</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>44070</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>44071</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>44071</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44072</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44072</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44073</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44073</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44074</v>
@@ -5754,13 +5754,13 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44074</v>
       </c>
       <c r="C385" t="n">
-        <v>11098</v>
+        <v>11099</v>
       </c>
       <c r="D385" t="s">
         <v>5</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44075</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44075</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44076</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44076</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44077</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44077</v>
@@ -5852,13 +5852,13 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44078</v>
       </c>
       <c r="C392" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D392" t="s">
         <v>4</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44078</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44079</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44079</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44080</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44080</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44081</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44081</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44082</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44082</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44083</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44083</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44084</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44084</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44085</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44085</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>44086</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B409" s="1" t="n">
         <v>44086</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B410" s="1" t="n">
         <v>44087</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B411" s="1" t="n">
         <v>44087</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B412" s="1" t="n">
         <v>44088</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B413" s="1" t="n">
         <v>44088</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B414" s="1" t="n">
         <v>44089</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B415" s="1" t="n">
         <v>44089</v>
@@ -6188,13 +6188,13 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B416" s="1" t="n">
         <v>44090</v>
       </c>
       <c r="C416" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D416" t="s">
         <v>4</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B417" s="1" t="n">
         <v>44090</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B418" s="1" t="n">
         <v>44091</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B419" s="1" t="n">
         <v>44091</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B420" s="1" t="n">
         <v>44092</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B421" s="1" t="n">
         <v>44092</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B422" s="1" t="n">
         <v>44093</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B423" s="1" t="n">
         <v>44093</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B424" s="1" t="n">
         <v>44094</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B425" s="1" t="n">
         <v>44094</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B426" s="1" t="n">
         <v>44095</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B427" s="1" t="n">
         <v>44095</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B428" s="1" t="n">
         <v>44096</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B429" s="1" t="n">
         <v>44096</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B430" s="1" t="n">
         <v>44097</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B431" s="1" t="n">
         <v>44097</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B432" s="1" t="n">
         <v>44098</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B433" s="1" t="n">
         <v>44098</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B434" s="1" t="n">
         <v>44099</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B435" s="1" t="n">
         <v>44099</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B436" s="1" t="n">
         <v>44100</v>
@@ -6482,13 +6482,13 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B437" s="1" t="n">
         <v>44100</v>
       </c>
       <c r="C437" t="n">
-        <v>5727</v>
+        <v>5728</v>
       </c>
       <c r="D437" t="s">
         <v>5</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B438" s="1" t="n">
         <v>44101</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B439" s="1" t="n">
         <v>44101</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B440" s="1" t="n">
         <v>44102</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B441" s="1" t="n">
         <v>44102</v>
@@ -6552,7 +6552,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B442" s="1" t="n">
         <v>44103</v>
@@ -6566,13 +6566,13 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B443" s="1" t="n">
         <v>44103</v>
       </c>
       <c r="C443" t="n">
-        <v>11959</v>
+        <v>11960</v>
       </c>
       <c r="D443" t="s">
         <v>5</v>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B444" s="1" t="n">
         <v>44104</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B445" s="1" t="n">
         <v>44104</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B446" s="1" t="n">
         <v>44105</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B447" s="1" t="n">
         <v>44105</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B448" s="1" t="n">
         <v>44106</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B449" s="1" t="n">
         <v>44106</v>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B450" s="1" t="n">
         <v>44107</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B451" s="1" t="n">
         <v>44107</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B452" s="1" t="n">
         <v>44108</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B453" s="1" t="n">
         <v>44108</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B454" s="1" t="n">
         <v>44109</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B455" s="1" t="n">
         <v>44109</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B456" s="1" t="n">
         <v>44110</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B457" s="1" t="n">
         <v>44110</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B458" s="1" t="n">
         <v>44111</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B459" s="1" t="n">
         <v>44111</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B460" s="1" t="n">
         <v>44112</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B461" s="1" t="n">
         <v>44112</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B462" s="1" t="n">
         <v>44113</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B463" s="1" t="n">
         <v>44113</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B464" s="1" t="n">
         <v>44114</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B465" s="1" t="n">
         <v>44114</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B466" s="1" t="n">
         <v>44115</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B467" s="1" t="n">
         <v>44115</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B468" s="1" t="n">
         <v>44116</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B469" s="1" t="n">
         <v>44116</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B470" s="1" t="n">
         <v>44117</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B471" s="1" t="n">
         <v>44117</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B472" s="1" t="n">
         <v>44118</v>
@@ -6986,7 +6986,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B473" s="1" t="n">
         <v>44118</v>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B474" s="1" t="n">
         <v>44119</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B475" s="1" t="n">
         <v>44119</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B476" s="1" t="n">
         <v>44120</v>
@@ -7042,13 +7042,13 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B477" s="1" t="n">
         <v>44120</v>
       </c>
       <c r="C477" t="n">
-        <v>20627</v>
+        <v>20628</v>
       </c>
       <c r="D477" t="s">
         <v>5</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B478" s="1" t="n">
         <v>44121</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B479" s="1" t="n">
         <v>44121</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B480" s="1" t="n">
         <v>44122</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B481" s="1" t="n">
         <v>44122</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B482" s="1" t="n">
         <v>44123</v>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B483" s="1" t="n">
         <v>44123</v>
@@ -7140,7 +7140,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B484" s="1" t="n">
         <v>44124</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B485" s="1" t="n">
         <v>44124</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B486" s="1" t="n">
         <v>44125</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B487" s="1" t="n">
         <v>44125</v>
@@ -7196,13 +7196,13 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B488" s="1" t="n">
         <v>44126</v>
       </c>
       <c r="C488" t="n">
-        <v>6817</v>
+        <v>6818</v>
       </c>
       <c r="D488" t="s">
         <v>4</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B489" s="1" t="n">
         <v>44126</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B490" s="1" t="n">
         <v>44127</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B491" s="1" t="n">
         <v>44127</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B492" s="1" t="n">
         <v>44128</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B493" s="1" t="n">
         <v>44128</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B494" s="1" t="n">
         <v>44129</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B495" s="1" t="n">
         <v>44129</v>
@@ -7308,13 +7308,13 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B496" s="1" t="n">
         <v>44130</v>
       </c>
       <c r="C496" t="n">
-        <v>7551</v>
+        <v>7552</v>
       </c>
       <c r="D496" t="s">
         <v>4</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B497" s="1" t="n">
         <v>44130</v>
@@ -7336,13 +7336,13 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B498" s="1" t="n">
         <v>44131</v>
       </c>
       <c r="C498" t="n">
-        <v>10123</v>
+        <v>10122</v>
       </c>
       <c r="D498" t="s">
         <v>4</v>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B499" s="1" t="n">
         <v>44131</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B500" s="1" t="n">
         <v>44132</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B501" s="1" t="n">
         <v>44132</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B502" s="1" t="n">
         <v>44133</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B503" s="1" t="n">
         <v>44133</v>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B504" s="1" t="n">
         <v>44134</v>
@@ -7434,7 +7434,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B505" s="1" t="n">
         <v>44134</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B506" s="1" t="n">
         <v>44135</v>
@@ -7462,13 +7462,13 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B507" s="1" t="n">
         <v>44135</v>
       </c>
       <c r="C507" t="n">
-        <v>17741</v>
+        <v>17742</v>
       </c>
       <c r="D507" t="s">
         <v>5</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B508" s="1" t="n">
         <v>44136</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B509" s="1" t="n">
         <v>44136</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B510" s="1" t="n">
         <v>44137</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B511" s="1" t="n">
         <v>44137</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B512" s="1" t="n">
         <v>44138</v>
@@ -7546,13 +7546,13 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B513" s="1" t="n">
         <v>44138</v>
       </c>
       <c r="C513" t="n">
-        <v>27456</v>
+        <v>27457</v>
       </c>
       <c r="D513" t="s">
         <v>5</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B514" s="1" t="n">
         <v>44139</v>
@@ -7574,13 +7574,13 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B515" s="1" t="n">
         <v>44139</v>
       </c>
       <c r="C515" t="n">
-        <v>26722</v>
+        <v>26723</v>
       </c>
       <c r="D515" t="s">
         <v>5</v>
@@ -7588,13 +7588,13 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B516" s="1" t="n">
         <v>44140</v>
       </c>
       <c r="C516" t="n">
-        <v>8922</v>
+        <v>8923</v>
       </c>
       <c r="D516" t="s">
         <v>4</v>
@@ -7602,13 +7602,13 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B517" s="1" t="n">
         <v>44140</v>
       </c>
       <c r="C517" t="n">
-        <v>26303</v>
+        <v>26306</v>
       </c>
       <c r="D517" t="s">
         <v>5</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B518" s="1" t="n">
         <v>44141</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B519" s="1" t="n">
         <v>44141</v>
@@ -7644,7 +7644,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B520" s="1" t="n">
         <v>44142</v>
@@ -7658,7 +7658,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B521" s="1" t="n">
         <v>44142</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B522" s="1" t="n">
         <v>44143</v>
@@ -7686,7 +7686,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B523" s="1" t="n">
         <v>44143</v>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B524" s="1" t="n">
         <v>44144</v>
@@ -7714,13 +7714,13 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B525" s="1" t="n">
         <v>44144</v>
       </c>
       <c r="C525" t="n">
-        <v>20361</v>
+        <v>20362</v>
       </c>
       <c r="D525" t="s">
         <v>5</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B526" s="1" t="n">
         <v>44145</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B527" s="1" t="n">
         <v>44145</v>
@@ -7756,7 +7756,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B528" s="1" t="n">
         <v>44146</v>
@@ -7770,7 +7770,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B529" s="1" t="n">
         <v>44146</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B530" s="1" t="n">
         <v>44147</v>
@@ -7798,7 +7798,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B531" s="1" t="n">
         <v>44147</v>
@@ -7812,7 +7812,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B532" s="1" t="n">
         <v>44148</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B533" s="1" t="n">
         <v>44148</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B534" s="1" t="n">
         <v>44149</v>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B535" s="1" t="n">
         <v>44149</v>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B536" s="1" t="n">
         <v>44150</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B537" s="1" t="n">
         <v>44150</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B538" s="1" t="n">
         <v>44151</v>
@@ -7910,7 +7910,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B539" s="1" t="n">
         <v>44151</v>
@@ -7924,7 +7924,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B540" s="1" t="n">
         <v>44152</v>
@@ -7938,7 +7938,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B541" s="1" t="n">
         <v>44152</v>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B542" s="1" t="n">
         <v>44153</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B543" s="1" t="n">
         <v>44153</v>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B544" s="1" t="n">
         <v>44154</v>
@@ -7994,7 +7994,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B545" s="1" t="n">
         <v>44154</v>
@@ -8008,7 +8008,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B546" s="1" t="n">
         <v>44155</v>
@@ -8022,13 +8022,13 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B547" s="1" t="n">
         <v>44155</v>
       </c>
       <c r="C547" t="n">
-        <v>20977</v>
+        <v>20978</v>
       </c>
       <c r="D547" t="s">
         <v>5</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B548" s="1" t="n">
         <v>44156</v>
@@ -8050,7 +8050,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B549" s="1" t="n">
         <v>44156</v>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B550" s="1" t="n">
         <v>44157</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B551" s="1" t="n">
         <v>44157</v>
@@ -8092,7 +8092,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B552" s="1" t="n">
         <v>44158</v>
@@ -8106,7 +8106,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B553" s="1" t="n">
         <v>44158</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B554" s="1" t="n">
         <v>44159</v>
@@ -8134,7 +8134,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B555" s="1" t="n">
         <v>44159</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B556" s="1" t="n">
         <v>44160</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B557" s="1" t="n">
         <v>44160</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B558" s="1" t="n">
         <v>44161</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B559" s="1" t="n">
         <v>44161</v>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B560" s="1" t="n">
         <v>44162</v>
@@ -8218,7 +8218,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B561" s="1" t="n">
         <v>44162</v>
@@ -8232,7 +8232,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B562" s="1" t="n">
         <v>44163</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B563" s="1" t="n">
         <v>44163</v>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B564" s="1" t="n">
         <v>44164</v>
@@ -8274,7 +8274,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B565" s="1" t="n">
         <v>44164</v>
@@ -8288,7 +8288,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B566" s="1" t="n">
         <v>44165</v>
@@ -8302,7 +8302,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B567" s="1" t="n">
         <v>44165</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B568" s="1" t="n">
         <v>44166</v>
@@ -8330,7 +8330,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B569" s="1" t="n">
         <v>44166</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B570" s="1" t="n">
         <v>44167</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B571" s="1" t="n">
         <v>44167</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B572" s="1" t="n">
         <v>44168</v>
@@ -8386,7 +8386,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B573" s="1" t="n">
         <v>44168</v>
@@ -8400,7 +8400,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B574" s="1" t="n">
         <v>44169</v>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B575" s="1" t="n">
         <v>44169</v>
@@ -8428,7 +8428,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B576" s="1" t="n">
         <v>44170</v>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B577" s="1" t="n">
         <v>44170</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B578" s="1" t="n">
         <v>44171</v>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B579" s="1" t="n">
         <v>44171</v>
@@ -8484,7 +8484,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B580" s="1" t="n">
         <v>44172</v>
@@ -8498,7 +8498,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B581" s="1" t="n">
         <v>44172</v>
@@ -8512,7 +8512,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B582" s="1" t="n">
         <v>44173</v>
@@ -8526,7 +8526,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B583" s="1" t="n">
         <v>44173</v>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B584" s="1" t="n">
         <v>44174</v>
@@ -8554,7 +8554,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B585" s="1" t="n">
         <v>44174</v>
@@ -8568,7 +8568,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B586" s="1" t="n">
         <v>44175</v>
@@ -8582,7 +8582,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B587" s="1" t="n">
         <v>44175</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B588" s="1" t="n">
         <v>44176</v>
@@ -8610,7 +8610,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B589" s="1" t="n">
         <v>44176</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B590" s="1" t="n">
         <v>44177</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B591" s="1" t="n">
         <v>44177</v>
@@ -8652,7 +8652,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B592" s="1" t="n">
         <v>44178</v>
@@ -8666,13 +8666,13 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B593" s="1" t="n">
         <v>44178</v>
       </c>
       <c r="C593" t="n">
-        <v>13285</v>
+        <v>13286</v>
       </c>
       <c r="D593" t="s">
         <v>5</v>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B594" s="1" t="n">
         <v>44179</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B595" s="1" t="n">
         <v>44179</v>
@@ -8708,7 +8708,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B596" s="1" t="n">
         <v>44180</v>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B597" s="1" t="n">
         <v>44180</v>
@@ -8736,7 +8736,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B598" s="1" t="n">
         <v>44181</v>
@@ -8750,13 +8750,13 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B599" s="1" t="n">
         <v>44181</v>
       </c>
       <c r="C599" t="n">
-        <v>35958</v>
+        <v>35952</v>
       </c>
       <c r="D599" t="s">
         <v>5</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B600" s="1" t="n">
         <v>44182</v>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B601" s="1" t="n">
         <v>44182</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B602" s="1" t="n">
         <v>44183</v>
@@ -8806,7 +8806,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B603" s="1" t="n">
         <v>44183</v>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B604" s="1" t="n">
         <v>44184</v>
@@ -8834,13 +8834,13 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B605" s="1" t="n">
         <v>44184</v>
       </c>
       <c r="C605" t="n">
-        <v>23332</v>
+        <v>23327</v>
       </c>
       <c r="D605" t="s">
         <v>5</v>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B606" s="1" t="n">
         <v>44185</v>
@@ -8862,13 +8862,13 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B607" s="1" t="n">
         <v>44185</v>
       </c>
       <c r="C607" t="n">
-        <v>13141</v>
+        <v>13140</v>
       </c>
       <c r="D607" t="s">
         <v>5</v>
@@ -8876,13 +8876,13 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B608" s="1" t="n">
         <v>44186</v>
       </c>
       <c r="C608" t="n">
-        <v>5187</v>
+        <v>5188</v>
       </c>
       <c r="D608" t="s">
         <v>4</v>
@@ -8890,7 +8890,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B609" s="1" t="n">
         <v>44186</v>
@@ -8904,7 +8904,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B610" s="1" t="n">
         <v>44187</v>
@@ -8918,13 +8918,13 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B611" s="1" t="n">
         <v>44187</v>
       </c>
       <c r="C611" t="n">
-        <v>39977</v>
+        <v>39975</v>
       </c>
       <c r="D611" t="s">
         <v>5</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B612" s="1" t="n">
         <v>44188</v>
@@ -8946,7 +8946,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B613" s="1" t="n">
         <v>44188</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B614" s="1" t="n">
         <v>44189</v>
@@ -8974,13 +8974,13 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B615" s="1" t="n">
         <v>44189</v>
       </c>
       <c r="C615" t="n">
-        <v>30839</v>
+        <v>30837</v>
       </c>
       <c r="D615" t="s">
         <v>5</v>
@@ -8988,7 +8988,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B616" s="1" t="n">
         <v>44190</v>
@@ -9002,7 +9002,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B617" s="1" t="n">
         <v>44190</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B618" s="1" t="n">
         <v>44191</v>
@@ -9030,13 +9030,13 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B619" s="1" t="n">
         <v>44191</v>
       </c>
       <c r="C619" t="n">
-        <v>12961</v>
+        <v>12960</v>
       </c>
       <c r="D619" t="s">
         <v>5</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B620" s="1" t="n">
         <v>44192</v>
@@ -9058,13 +9058,13 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B621" s="1" t="n">
         <v>44192</v>
       </c>
       <c r="C621" t="n">
-        <v>10654</v>
+        <v>10652</v>
       </c>
       <c r="D621" t="s">
         <v>5</v>
@@ -9072,13 +9072,13 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B622" s="1" t="n">
         <v>44193</v>
       </c>
       <c r="C622" t="n">
-        <v>4788</v>
+        <v>4789</v>
       </c>
       <c r="D622" t="s">
         <v>4</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B623" s="1" t="n">
         <v>44193</v>
@@ -9100,13 +9100,13 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B624" s="1" t="n">
         <v>44194</v>
       </c>
       <c r="C624" t="n">
-        <v>5019</v>
+        <v>5018</v>
       </c>
       <c r="D624" t="s">
         <v>4</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B625" s="1" t="n">
         <v>44194</v>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B626" s="1" t="n">
         <v>44195</v>
@@ -9142,7 +9142,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B627" s="1" t="n">
         <v>44195</v>
@@ -9156,13 +9156,13 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B628" s="1" t="n">
         <v>44196</v>
       </c>
       <c r="C628" t="n">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="D628" t="s">
         <v>4</v>
@@ -9170,13 +9170,13 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B629" s="1" t="n">
         <v>44196</v>
       </c>
       <c r="C629" t="n">
-        <v>20023</v>
+        <v>20022</v>
       </c>
       <c r="D629" t="s">
         <v>5</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B630" s="1" t="n">
         <v>44197</v>
@@ -9198,13 +9198,13 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B631" s="1" t="n">
         <v>44197</v>
       </c>
       <c r="C631" t="n">
-        <v>8386</v>
+        <v>8385</v>
       </c>
       <c r="D631" t="s">
         <v>5</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B632" s="1" t="n">
         <v>44198</v>
@@ -9226,7 +9226,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B633" s="1" t="n">
         <v>44198</v>
@@ -9240,13 +9240,13 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B634" s="1" t="n">
         <v>44199</v>
       </c>
       <c r="C634" t="n">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="D634" t="s">
         <v>4</v>
@@ -9254,13 +9254,13 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B635" s="1" t="n">
         <v>44199</v>
       </c>
       <c r="C635" t="n">
-        <v>10040</v>
+        <v>10041</v>
       </c>
       <c r="D635" t="s">
         <v>5</v>
@@ -9268,13 +9268,13 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B636" s="1" t="n">
         <v>44200</v>
       </c>
       <c r="C636" t="n">
-        <v>4805</v>
+        <v>4806</v>
       </c>
       <c r="D636" t="s">
         <v>4</v>
@@ -9282,13 +9282,13 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B637" s="1" t="n">
         <v>44200</v>
       </c>
       <c r="C637" t="n">
-        <v>24903</v>
+        <v>24900</v>
       </c>
       <c r="D637" t="s">
         <v>5</v>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B638" s="1" t="n">
         <v>44201</v>
@@ -9310,13 +9310,13 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B639" s="1" t="n">
         <v>44201</v>
       </c>
       <c r="C639" t="n">
-        <v>26502</v>
+        <v>26501</v>
       </c>
       <c r="D639" t="s">
         <v>5</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B640" s="1" t="n">
         <v>44202</v>
@@ -9338,7 +9338,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B641" s="1" t="n">
         <v>44202</v>
@@ -9352,7 +9352,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B642" s="1" t="n">
         <v>44203</v>
@@ -9366,13 +9366,13 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B643" s="1" t="n">
         <v>44203</v>
       </c>
       <c r="C643" t="n">
-        <v>24029</v>
+        <v>24025</v>
       </c>
       <c r="D643" t="s">
         <v>5</v>
@@ -9380,7 +9380,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B644" s="1" t="n">
         <v>44204</v>
@@ -9394,13 +9394,13 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B645" s="1" t="n">
         <v>44204</v>
       </c>
       <c r="C645" t="n">
-        <v>23404</v>
+        <v>23405</v>
       </c>
       <c r="D645" t="s">
         <v>5</v>
@@ -9408,7 +9408,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B646" s="1" t="n">
         <v>44205</v>
@@ -9422,13 +9422,13 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B647" s="1" t="n">
         <v>44205</v>
       </c>
       <c r="C647" t="n">
-        <v>13623</v>
+        <v>13622</v>
       </c>
       <c r="D647" t="s">
         <v>5</v>
@@ -9436,7 +9436,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B648" s="1" t="n">
         <v>44206</v>
@@ -9450,13 +9450,13 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B649" s="1" t="n">
         <v>44206</v>
       </c>
       <c r="C649" t="n">
-        <v>7541</v>
+        <v>7542</v>
       </c>
       <c r="D649" t="s">
         <v>5</v>
@@ -9464,7 +9464,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B650" s="1" t="n">
         <v>44207</v>
@@ -9478,13 +9478,13 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B651" s="1" t="n">
         <v>44207</v>
       </c>
       <c r="C651" t="n">
-        <v>24423</v>
+        <v>24421</v>
       </c>
       <c r="D651" t="s">
         <v>5</v>
@@ -9492,7 +9492,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B652" s="1" t="n">
         <v>44208</v>
@@ -9506,7 +9506,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B653" s="1" t="n">
         <v>44208</v>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B654" s="1" t="n">
         <v>44209</v>
@@ -9534,7 +9534,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B655" s="1" t="n">
         <v>44209</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B656" s="1" t="n">
         <v>44210</v>
@@ -9562,13 +9562,13 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B657" s="1" t="n">
         <v>44210</v>
       </c>
       <c r="C657" t="n">
-        <v>21308</v>
+        <v>21307</v>
       </c>
       <c r="D657" t="s">
         <v>5</v>
@@ -9576,7 +9576,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B658" s="1" t="n">
         <v>44211</v>
@@ -9590,13 +9590,13 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B659" s="1" t="n">
         <v>44211</v>
       </c>
       <c r="C659" t="n">
-        <v>20556</v>
+        <v>20555</v>
       </c>
       <c r="D659" t="s">
         <v>5</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B660" s="1" t="n">
         <v>44212</v>
@@ -9618,7 +9618,7 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B661" s="1" t="n">
         <v>44212</v>
@@ -9632,7 +9632,7 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B662" s="1" t="n">
         <v>44213</v>
@@ -9646,7 +9646,7 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B663" s="1" t="n">
         <v>44213</v>
@@ -9660,7 +9660,7 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B664" s="1" t="n">
         <v>44214</v>
@@ -9674,7 +9674,7 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B665" s="1" t="n">
         <v>44214</v>
@@ -9688,7 +9688,7 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B666" s="1" t="n">
         <v>44215</v>
@@ -9702,7 +9702,7 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B667" s="1" t="n">
         <v>44215</v>
@@ -9716,7 +9716,7 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B668" s="1" t="n">
         <v>44216</v>
@@ -9730,13 +9730,13 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B669" s="1" t="n">
         <v>44216</v>
       </c>
       <c r="C669" t="n">
-        <v>24421</v>
+        <v>24419</v>
       </c>
       <c r="D669" t="s">
         <v>5</v>
@@ -9744,7 +9744,7 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B670" s="1" t="n">
         <v>44217</v>
@@ -9758,13 +9758,13 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B671" s="1" t="n">
         <v>44217</v>
       </c>
       <c r="C671" t="n">
-        <v>23902</v>
+        <v>23900</v>
       </c>
       <c r="D671" t="s">
         <v>5</v>
@@ -9772,7 +9772,7 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B672" s="1" t="n">
         <v>44218</v>
@@ -9786,13 +9786,13 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B673" s="1" t="n">
         <v>44218</v>
       </c>
       <c r="C673" t="n">
-        <v>24448</v>
+        <v>24434</v>
       </c>
       <c r="D673" t="s">
         <v>5</v>
@@ -9800,7 +9800,7 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B674" s="1" t="n">
         <v>44219</v>
@@ -9814,7 +9814,7 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B675" s="1" t="n">
         <v>44219</v>
@@ -9828,7 +9828,7 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B676" s="1" t="n">
         <v>44220</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B677" s="1" t="n">
         <v>44220</v>
@@ -9856,7 +9856,7 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B678" s="1" t="n">
         <v>44221</v>
@@ -9870,7 +9870,7 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B679" s="1" t="n">
         <v>44221</v>
@@ -9884,7 +9884,7 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B680" s="1" t="n">
         <v>44222</v>
@@ -9898,13 +9898,13 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B681" s="1" t="n">
         <v>44222</v>
       </c>
       <c r="C681" t="n">
-        <v>25884</v>
+        <v>25883</v>
       </c>
       <c r="D681" t="s">
         <v>5</v>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B682" s="1" t="n">
         <v>44223</v>
@@ -9926,13 +9926,13 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B683" s="1" t="n">
         <v>44223</v>
       </c>
       <c r="C683" t="n">
-        <v>23833</v>
+        <v>23831</v>
       </c>
       <c r="D683" t="s">
         <v>5</v>
@@ -9940,7 +9940,7 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B684" s="1" t="n">
         <v>44224</v>
@@ -9954,7 +9954,7 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B685" s="1" t="n">
         <v>44224</v>
@@ -9968,7 +9968,7 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B686" s="1" t="n">
         <v>44225</v>
@@ -9982,13 +9982,13 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B687" s="1" t="n">
         <v>44225</v>
       </c>
       <c r="C687" t="n">
-        <v>27433</v>
+        <v>27434</v>
       </c>
       <c r="D687" t="s">
         <v>5</v>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B688" s="1" t="n">
         <v>44226</v>
@@ -10010,13 +10010,13 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B689" s="1" t="n">
         <v>44226</v>
       </c>
       <c r="C689" t="n">
-        <v>17566</v>
+        <v>17563</v>
       </c>
       <c r="D689" t="s">
         <v>5</v>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B690" s="1" t="n">
         <v>44227</v>
@@ -10038,13 +10038,13 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B691" s="1" t="n">
         <v>44227</v>
       </c>
       <c r="C691" t="n">
-        <v>10084</v>
+        <v>10083</v>
       </c>
       <c r="D691" t="s">
         <v>5</v>
@@ -10052,7 +10052,7 @@
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B692" s="1" t="n">
         <v>44228</v>
@@ -10066,13 +10066,13 @@
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B693" s="1" t="n">
         <v>44228</v>
       </c>
       <c r="C693" t="n">
-        <v>26733</v>
+        <v>26732</v>
       </c>
       <c r="D693" t="s">
         <v>5</v>
@@ -10080,7 +10080,7 @@
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B694" s="1" t="n">
         <v>44229</v>
@@ -10094,13 +10094,13 @@
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B695" s="1" t="n">
         <v>44229</v>
       </c>
       <c r="C695" t="n">
-        <v>28508</v>
+        <v>28507</v>
       </c>
       <c r="D695" t="s">
         <v>5</v>
@@ -10108,7 +10108,7 @@
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B696" s="1" t="n">
         <v>44230</v>
@@ -10122,13 +10122,13 @@
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B697" s="1" t="n">
         <v>44230</v>
       </c>
       <c r="C697" t="n">
-        <v>29391</v>
+        <v>29392</v>
       </c>
       <c r="D697" t="s">
         <v>5</v>
@@ -10136,7 +10136,7 @@
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B698" s="1" t="n">
         <v>44231</v>
@@ -10150,13 +10150,13 @@
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B699" s="1" t="n">
         <v>44231</v>
       </c>
       <c r="C699" t="n">
-        <v>32878</v>
+        <v>32876</v>
       </c>
       <c r="D699" t="s">
         <v>5</v>
@@ -10164,7 +10164,7 @@
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B700" s="1" t="n">
         <v>44232</v>
@@ -10178,13 +10178,13 @@
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B701" s="1" t="n">
         <v>44232</v>
       </c>
       <c r="C701" t="n">
-        <v>29882</v>
+        <v>29878</v>
       </c>
       <c r="D701" t="s">
         <v>5</v>
@@ -10192,7 +10192,7 @@
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B702" s="1" t="n">
         <v>44233</v>
@@ -10206,7 +10206,7 @@
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B703" s="1" t="n">
         <v>44233</v>
@@ -10220,7 +10220,7 @@
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B704" s="1" t="n">
         <v>44234</v>
@@ -10234,7 +10234,7 @@
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B705" s="1" t="n">
         <v>44234</v>
@@ -10248,7 +10248,7 @@
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B706" s="1" t="n">
         <v>44235</v>
@@ -10262,7 +10262,7 @@
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B707" s="1" t="n">
         <v>44235</v>
@@ -10276,13 +10276,13 @@
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B708" s="1" t="n">
         <v>44236</v>
       </c>
       <c r="C708" t="n">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="D708" t="s">
         <v>4</v>
@@ -10290,13 +10290,13 @@
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B709" s="1" t="n">
         <v>44236</v>
       </c>
       <c r="C709" t="n">
-        <v>31864</v>
+        <v>31863</v>
       </c>
       <c r="D709" t="s">
         <v>5</v>
@@ -10304,7 +10304,7 @@
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B710" s="1" t="n">
         <v>44237</v>
@@ -10318,13 +10318,13 @@
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B711" s="1" t="n">
         <v>44237</v>
       </c>
       <c r="C711" t="n">
-        <v>30674</v>
+        <v>30672</v>
       </c>
       <c r="D711" t="s">
         <v>5</v>
@@ -10332,7 +10332,7 @@
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B712" s="1" t="n">
         <v>44238</v>
@@ -10346,13 +10346,13 @@
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B713" s="1" t="n">
         <v>44238</v>
       </c>
       <c r="C713" t="n">
-        <v>32922</v>
+        <v>32918</v>
       </c>
       <c r="D713" t="s">
         <v>5</v>
@@ -10360,7 +10360,7 @@
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B714" s="1" t="n">
         <v>44239</v>
@@ -10374,13 +10374,13 @@
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B715" s="1" t="n">
         <v>44239</v>
       </c>
       <c r="C715" t="n">
-        <v>31259</v>
+        <v>31258</v>
       </c>
       <c r="D715" t="s">
         <v>5</v>
@@ -10388,7 +10388,7 @@
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B716" s="1" t="n">
         <v>44240</v>
@@ -10402,7 +10402,7 @@
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B717" s="1" t="n">
         <v>44240</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B718" s="1" t="n">
         <v>44241</v>
@@ -10430,13 +10430,13 @@
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B719" s="1" t="n">
         <v>44241</v>
       </c>
       <c r="C719" t="n">
-        <v>8846</v>
+        <v>8844</v>
       </c>
       <c r="D719" t="s">
         <v>5</v>
@@ -10444,7 +10444,7 @@
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B720" s="1" t="n">
         <v>44242</v>
@@ -10458,7 +10458,7 @@
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B721" s="1" t="n">
         <v>44242</v>
@@ -10472,7 +10472,7 @@
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B722" s="1" t="n">
         <v>44243</v>
@@ -10486,7 +10486,7 @@
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B723" s="1" t="n">
         <v>44243</v>
@@ -10500,7 +10500,7 @@
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B724" s="1" t="n">
         <v>44244</v>
@@ -10514,13 +10514,13 @@
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B725" s="1" t="n">
         <v>44244</v>
       </c>
       <c r="C725" t="n">
-        <v>28212</v>
+        <v>28211</v>
       </c>
       <c r="D725" t="s">
         <v>5</v>
@@ -10528,7 +10528,7 @@
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B726" s="1" t="n">
         <v>44245</v>
@@ -10542,13 +10542,13 @@
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B727" s="1" t="n">
         <v>44245</v>
       </c>
       <c r="C727" t="n">
-        <v>29555</v>
+        <v>29552</v>
       </c>
       <c r="D727" t="s">
         <v>5</v>
@@ -10556,7 +10556,7 @@
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B728" s="1" t="n">
         <v>44246</v>
@@ -10570,13 +10570,13 @@
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B729" s="1" t="n">
         <v>44246</v>
       </c>
       <c r="C729" t="n">
-        <v>28888</v>
+        <v>28883</v>
       </c>
       <c r="D729" t="s">
         <v>5</v>
@@ -10584,7 +10584,7 @@
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B730" s="1" t="n">
         <v>44247</v>
@@ -10598,13 +10598,13 @@
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B731" s="1" t="n">
         <v>44247</v>
       </c>
       <c r="C731" t="n">
-        <v>14821</v>
+        <v>14820</v>
       </c>
       <c r="D731" t="s">
         <v>5</v>
@@ -10612,7 +10612,7 @@
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B732" s="1" t="n">
         <v>44248</v>
@@ -10626,13 +10626,13 @@
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B733" s="1" t="n">
         <v>44248</v>
       </c>
       <c r="C733" t="n">
-        <v>8046</v>
+        <v>8044</v>
       </c>
       <c r="D733" t="s">
         <v>5</v>
@@ -10640,7 +10640,7 @@
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B734" s="1" t="n">
         <v>44249</v>
@@ -10654,13 +10654,13 @@
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B735" s="1" t="n">
         <v>44249</v>
       </c>
       <c r="C735" t="n">
-        <v>25426</v>
+        <v>25425</v>
       </c>
       <c r="D735" t="s">
         <v>5</v>
@@ -10668,7 +10668,7 @@
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B736" s="1" t="n">
         <v>44250</v>
@@ -10682,7 +10682,7 @@
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B737" s="1" t="n">
         <v>44250</v>
@@ -10696,7 +10696,7 @@
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B738" s="1" t="n">
         <v>44251</v>
@@ -10710,7 +10710,7 @@
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B739" s="1" t="n">
         <v>44251</v>
@@ -10724,7 +10724,7 @@
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B740" s="1" t="n">
         <v>44252</v>
@@ -10738,13 +10738,13 @@
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B741" s="1" t="n">
         <v>44252</v>
       </c>
       <c r="C741" t="n">
-        <v>29653</v>
+        <v>29649</v>
       </c>
       <c r="D741" t="s">
         <v>5</v>
@@ -10752,7 +10752,7 @@
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B742" s="1" t="n">
         <v>44253</v>
@@ -10766,13 +10766,13 @@
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B743" s="1" t="n">
         <v>44253</v>
       </c>
       <c r="C743" t="n">
-        <v>29592</v>
+        <v>29590</v>
       </c>
       <c r="D743" t="s">
         <v>5</v>
@@ -10780,7 +10780,7 @@
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B744" s="1" t="n">
         <v>44254</v>
@@ -10794,13 +10794,13 @@
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B745" s="1" t="n">
         <v>44254</v>
       </c>
       <c r="C745" t="n">
-        <v>15527</v>
+        <v>15528</v>
       </c>
       <c r="D745" t="s">
         <v>5</v>
@@ -10808,7 +10808,7 @@
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B746" s="1" t="n">
         <v>44255</v>
@@ -10822,13 +10822,13 @@
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B747" s="1" t="n">
         <v>44255</v>
       </c>
       <c r="C747" t="n">
-        <v>8329</v>
+        <v>8328</v>
       </c>
       <c r="D747" t="s">
         <v>5</v>
@@ -10836,7 +10836,7 @@
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B748" s="1" t="n">
         <v>44256</v>
@@ -10850,7 +10850,7 @@
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B749" s="1" t="n">
         <v>44256</v>
@@ -10864,7 +10864,7 @@
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B750" s="1" t="n">
         <v>44257</v>
@@ -10878,7 +10878,7 @@
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B751" s="1" t="n">
         <v>44257</v>
@@ -10892,7 +10892,7 @@
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B752" s="1" t="n">
         <v>44258</v>
@@ -10906,13 +10906,13 @@
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B753" s="1" t="n">
         <v>44258</v>
       </c>
       <c r="C753" t="n">
-        <v>27377</v>
+        <v>27376</v>
       </c>
       <c r="D753" t="s">
         <v>5</v>
@@ -10920,7 +10920,7 @@
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B754" s="1" t="n">
         <v>44259</v>
@@ -10934,13 +10934,13 @@
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B755" s="1" t="n">
         <v>44259</v>
       </c>
       <c r="C755" t="n">
-        <v>29723</v>
+        <v>29721</v>
       </c>
       <c r="D755" t="s">
         <v>5</v>
@@ -10948,7 +10948,7 @@
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B756" s="1" t="n">
         <v>44260</v>
@@ -10962,7 +10962,7 @@
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B757" s="1" t="n">
         <v>44260</v>
@@ -10976,7 +10976,7 @@
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B758" s="1" t="n">
         <v>44261</v>
@@ -10990,13 +10990,13 @@
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B759" s="1" t="n">
         <v>44261</v>
       </c>
       <c r="C759" t="n">
-        <v>15124</v>
+        <v>15121</v>
       </c>
       <c r="D759" t="s">
         <v>5</v>
@@ -11004,7 +11004,7 @@
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B760" s="1" t="n">
         <v>44262</v>
@@ -11018,13 +11018,13 @@
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B761" s="1" t="n">
         <v>44262</v>
       </c>
       <c r="C761" t="n">
-        <v>8530</v>
+        <v>8529</v>
       </c>
       <c r="D761" t="s">
         <v>5</v>
@@ -11032,7 +11032,7 @@
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B762" s="1" t="n">
         <v>44263</v>
@@ -11046,7 +11046,7 @@
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B763" s="1" t="n">
         <v>44263</v>
@@ -11060,7 +11060,7 @@
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B764" s="1" t="n">
         <v>44264</v>
@@ -11074,13 +11074,13 @@
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B765" s="1" t="n">
         <v>44264</v>
       </c>
       <c r="C765" t="n">
-        <v>31816</v>
+        <v>31815</v>
       </c>
       <c r="D765" t="s">
         <v>5</v>
@@ -11088,7 +11088,7 @@
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B766" s="1" t="n">
         <v>44265</v>
@@ -11102,13 +11102,13 @@
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B767" s="1" t="n">
         <v>44265</v>
       </c>
       <c r="C767" t="n">
-        <v>30381</v>
+        <v>30380</v>
       </c>
       <c r="D767" t="s">
         <v>5</v>
@@ -11116,7 +11116,7 @@
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B768" s="1" t="n">
         <v>44266</v>
@@ -11130,13 +11130,13 @@
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B769" s="1" t="n">
         <v>44266</v>
       </c>
       <c r="C769" t="n">
-        <v>33256</v>
+        <v>33255</v>
       </c>
       <c r="D769" t="s">
         <v>5</v>
@@ -11144,7 +11144,7 @@
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B770" s="1" t="n">
         <v>44267</v>
@@ -11158,13 +11158,13 @@
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B771" s="1" t="n">
         <v>44267</v>
       </c>
       <c r="C771" t="n">
-        <v>32858</v>
+        <v>32857</v>
       </c>
       <c r="D771" t="s">
         <v>5</v>
@@ -11172,7 +11172,7 @@
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B772" s="1" t="n">
         <v>44268</v>
@@ -11186,7 +11186,7 @@
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B773" s="1" t="n">
         <v>44268</v>
@@ -11200,7 +11200,7 @@
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B774" s="1" t="n">
         <v>44269</v>
@@ -11214,13 +11214,13 @@
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B775" s="1" t="n">
         <v>44269</v>
       </c>
       <c r="C775" t="n">
-        <v>9669</v>
+        <v>9668</v>
       </c>
       <c r="D775" t="s">
         <v>5</v>
@@ -11228,7 +11228,7 @@
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B776" s="1" t="n">
         <v>44270</v>
@@ -11242,13 +11242,13 @@
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B777" s="1" t="n">
         <v>44270</v>
       </c>
       <c r="C777" t="n">
-        <v>34051</v>
+        <v>34049</v>
       </c>
       <c r="D777" t="s">
         <v>5</v>
@@ -11256,7 +11256,7 @@
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B778" s="1" t="n">
         <v>44271</v>
@@ -11270,13 +11270,13 @@
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B779" s="1" t="n">
         <v>44271</v>
       </c>
       <c r="C779" t="n">
-        <v>35899</v>
+        <v>35898</v>
       </c>
       <c r="D779" t="s">
         <v>5</v>
@@ -11284,7 +11284,7 @@
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B780" s="1" t="n">
         <v>44272</v>
@@ -11298,13 +11298,13 @@
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B781" s="1" t="n">
         <v>44272</v>
       </c>
       <c r="C781" t="n">
-        <v>36137</v>
+        <v>36135</v>
       </c>
       <c r="D781" t="s">
         <v>5</v>
@@ -11312,7 +11312,7 @@
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B782" s="1" t="n">
         <v>44273</v>
@@ -11326,13 +11326,13 @@
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B783" s="1" t="n">
         <v>44273</v>
       </c>
       <c r="C783" t="n">
-        <v>39627</v>
+        <v>39619</v>
       </c>
       <c r="D783" t="s">
         <v>5</v>
@@ -11340,7 +11340,7 @@
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B784" s="1" t="n">
         <v>44274</v>
@@ -11354,13 +11354,13 @@
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B785" s="1" t="n">
         <v>44274</v>
       </c>
       <c r="C785" t="n">
-        <v>38283</v>
+        <v>38277</v>
       </c>
       <c r="D785" t="s">
         <v>5</v>
@@ -11368,7 +11368,7 @@
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B786" s="1" t="n">
         <v>44275</v>
@@ -11382,13 +11382,13 @@
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B787" s="1" t="n">
         <v>44275</v>
       </c>
       <c r="C787" t="n">
-        <v>21257</v>
+        <v>21253</v>
       </c>
       <c r="D787" t="s">
         <v>5</v>
@@ -11396,7 +11396,7 @@
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B788" s="1" t="n">
         <v>44276</v>
@@ -11410,7 +11410,7 @@
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B789" s="1" t="n">
         <v>44276</v>
@@ -11424,7 +11424,7 @@
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B790" s="1" t="n">
         <v>44277</v>
@@ -11438,13 +11438,13 @@
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B791" s="1" t="n">
         <v>44277</v>
       </c>
       <c r="C791" t="n">
-        <v>39444</v>
+        <v>39440</v>
       </c>
       <c r="D791" t="s">
         <v>5</v>
@@ -11452,7 +11452,7 @@
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B792" s="1" t="n">
         <v>44278</v>
@@ -11466,13 +11466,13 @@
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B793" s="1" t="n">
         <v>44278</v>
       </c>
       <c r="C793" t="n">
-        <v>40259</v>
+        <v>40258</v>
       </c>
       <c r="D793" t="s">
         <v>5</v>
@@ -11480,13 +11480,13 @@
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B794" s="1" t="n">
         <v>44279</v>
       </c>
       <c r="C794" t="n">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="D794" t="s">
         <v>4</v>
@@ -11494,13 +11494,13 @@
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B795" s="1" t="n">
         <v>44279</v>
       </c>
       <c r="C795" t="n">
-        <v>37753</v>
+        <v>37747</v>
       </c>
       <c r="D795" t="s">
         <v>5</v>
@@ -11508,7 +11508,7 @@
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B796" s="1" t="n">
         <v>44280</v>
@@ -11522,13 +11522,13 @@
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B797" s="1" t="n">
         <v>44280</v>
       </c>
       <c r="C797" t="n">
-        <v>41710</v>
+        <v>41714</v>
       </c>
       <c r="D797" t="s">
         <v>5</v>
@@ -11536,7 +11536,7 @@
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B798" s="1" t="n">
         <v>44281</v>
@@ -11550,13 +11550,13 @@
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B799" s="1" t="n">
         <v>44281</v>
       </c>
       <c r="C799" t="n">
-        <v>42117</v>
+        <v>42111</v>
       </c>
       <c r="D799" t="s">
         <v>5</v>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B800" s="1" t="n">
         <v>44282</v>
@@ -11578,13 +11578,13 @@
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B801" s="1" t="n">
         <v>44282</v>
       </c>
       <c r="C801" t="n">
-        <v>25406</v>
+        <v>25410</v>
       </c>
       <c r="D801" t="s">
         <v>5</v>
@@ -11592,7 +11592,7 @@
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B802" s="1" t="n">
         <v>44283</v>
@@ -11606,13 +11606,13 @@
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B803" s="1" t="n">
         <v>44283</v>
       </c>
       <c r="C803" t="n">
-        <v>14077</v>
+        <v>14072</v>
       </c>
       <c r="D803" t="s">
         <v>5</v>
@@ -11620,13 +11620,13 @@
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B804" s="1" t="n">
         <v>44284</v>
       </c>
       <c r="C804" t="n">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="D804" t="s">
         <v>4</v>
@@ -11634,13 +11634,13 @@
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B805" s="1" t="n">
         <v>44284</v>
       </c>
       <c r="C805" t="n">
-        <v>37088</v>
+        <v>37092</v>
       </c>
       <c r="D805" t="s">
         <v>5</v>
@@ -11648,7 +11648,7 @@
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B806" s="1" t="n">
         <v>44285</v>
@@ -11662,13 +11662,13 @@
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B807" s="1" t="n">
         <v>44285</v>
       </c>
       <c r="C807" t="n">
-        <v>45608</v>
+        <v>45610</v>
       </c>
       <c r="D807" t="s">
         <v>5</v>
@@ -11676,7 +11676,7 @@
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B808" s="1" t="n">
         <v>44286</v>
@@ -11690,13 +11690,13 @@
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B809" s="1" t="n">
         <v>44286</v>
       </c>
       <c r="C809" t="n">
-        <v>54916</v>
+        <v>54919</v>
       </c>
       <c r="D809" t="s">
         <v>5</v>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B810" s="1" t="n">
         <v>44287</v>
@@ -11718,13 +11718,13 @@
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B811" s="1" t="n">
         <v>44287</v>
       </c>
       <c r="C811" t="n">
-        <v>55252</v>
+        <v>55260</v>
       </c>
       <c r="D811" t="s">
         <v>5</v>
@@ -11732,7 +11732,7 @@
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B812" s="1" t="n">
         <v>44288</v>
@@ -11746,13 +11746,13 @@
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B813" s="1" t="n">
         <v>44288</v>
       </c>
       <c r="C813" t="n">
-        <v>26889</v>
+        <v>26885</v>
       </c>
       <c r="D813" t="s">
         <v>5</v>
@@ -11760,7 +11760,7 @@
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B814" s="1" t="n">
         <v>44289</v>
@@ -11774,7 +11774,7 @@
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B815" s="1" t="n">
         <v>44289</v>
@@ -11788,7 +11788,7 @@
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B816" s="1" t="n">
         <v>44290</v>
@@ -11802,13 +11802,13 @@
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B817" s="1" t="n">
         <v>44290</v>
       </c>
       <c r="C817" t="n">
-        <v>15999</v>
+        <v>15992</v>
       </c>
       <c r="D817" t="s">
         <v>5</v>
@@ -11816,7 +11816,7 @@
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B818" s="1" t="n">
         <v>44291</v>
@@ -11830,13 +11830,13 @@
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B819" s="1" t="n">
         <v>44291</v>
       </c>
       <c r="C819" t="n">
-        <v>16772</v>
+        <v>16763</v>
       </c>
       <c r="D819" t="s">
         <v>5</v>
@@ -11844,7 +11844,7 @@
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B820" s="1" t="n">
         <v>44292</v>
@@ -11858,13 +11858,13 @@
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B821" s="1" t="n">
         <v>44292</v>
       </c>
       <c r="C821" t="n">
-        <v>35720</v>
+        <v>35716</v>
       </c>
       <c r="D821" t="s">
         <v>5</v>
@@ -11872,7 +11872,7 @@
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B822" s="1" t="n">
         <v>44293</v>
@@ -11886,13 +11886,13 @@
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B823" s="1" t="n">
         <v>44293</v>
       </c>
       <c r="C823" t="n">
-        <v>36947</v>
+        <v>36940</v>
       </c>
       <c r="D823" t="s">
         <v>5</v>
@@ -11900,7 +11900,7 @@
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B824" s="1" t="n">
         <v>44294</v>
@@ -11914,13 +11914,13 @@
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B825" s="1" t="n">
         <v>44294</v>
       </c>
       <c r="C825" t="n">
-        <v>36132</v>
+        <v>36128</v>
       </c>
       <c r="D825" t="s">
         <v>5</v>
@@ -11928,7 +11928,7 @@
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B826" s="1" t="n">
         <v>44295</v>
@@ -11942,13 +11942,13 @@
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B827" s="1" t="n">
         <v>44295</v>
       </c>
       <c r="C827" t="n">
-        <v>33190</v>
+        <v>33188</v>
       </c>
       <c r="D827" t="s">
         <v>5</v>
@@ -11956,13 +11956,13 @@
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B828" s="1" t="n">
         <v>44296</v>
       </c>
       <c r="C828" t="n">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="D828" t="s">
         <v>4</v>
@@ -11970,13 +11970,13 @@
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B829" s="1" t="n">
         <v>44296</v>
       </c>
       <c r="C829" t="n">
-        <v>19635</v>
+        <v>19633</v>
       </c>
       <c r="D829" t="s">
         <v>5</v>
@@ -11984,7 +11984,7 @@
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B830" s="1" t="n">
         <v>44297</v>
@@ -11998,13 +11998,13 @@
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B831" s="1" t="n">
         <v>44297</v>
       </c>
       <c r="C831" t="n">
-        <v>10879</v>
+        <v>10867</v>
       </c>
       <c r="D831" t="s">
         <v>5</v>
@@ -12012,7 +12012,7 @@
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B832" s="1" t="n">
         <v>44298</v>
@@ -12026,13 +12026,13 @@
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B833" s="1" t="n">
         <v>44298</v>
       </c>
       <c r="C833" t="n">
-        <v>26551</v>
+        <v>26547</v>
       </c>
       <c r="D833" t="s">
         <v>5</v>
@@ -12040,13 +12040,13 @@
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B834" s="1" t="n">
         <v>44299</v>
       </c>
       <c r="C834" t="n">
-        <v>2876</v>
+        <v>2878</v>
       </c>
       <c r="D834" t="s">
         <v>4</v>
@@ -12054,13 +12054,13 @@
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B835" s="1" t="n">
         <v>44299</v>
       </c>
       <c r="C835" t="n">
-        <v>29039</v>
+        <v>29035</v>
       </c>
       <c r="D835" t="s">
         <v>5</v>
@@ -12068,13 +12068,13 @@
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B836" s="1" t="n">
         <v>44300</v>
       </c>
       <c r="C836" t="n">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="D836" t="s">
         <v>4</v>
@@ -12082,7 +12082,7 @@
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B837" s="1" t="n">
         <v>44300</v>
@@ -12096,7 +12096,7 @@
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B838" s="1" t="n">
         <v>44301</v>
@@ -12110,13 +12110,13 @@
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B839" s="1" t="n">
         <v>44301</v>
       </c>
       <c r="C839" t="n">
-        <v>31021</v>
+        <v>31023</v>
       </c>
       <c r="D839" t="s">
         <v>5</v>
@@ -12124,13 +12124,13 @@
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B840" s="1" t="n">
         <v>44302</v>
       </c>
       <c r="C840" t="n">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="D840" t="s">
         <v>4</v>
@@ -12138,13 +12138,13 @@
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B841" s="1" t="n">
         <v>44302</v>
       </c>
       <c r="C841" t="n">
-        <v>30200</v>
+        <v>30194</v>
       </c>
       <c r="D841" t="s">
         <v>5</v>
@@ -12152,7 +12152,7 @@
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B842" s="1" t="n">
         <v>44303</v>
@@ -12166,13 +12166,13 @@
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B843" s="1" t="n">
         <v>44303</v>
       </c>
       <c r="C843" t="n">
-        <v>17451</v>
+        <v>17455</v>
       </c>
       <c r="D843" t="s">
         <v>5</v>
@@ -12180,7 +12180,7 @@
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B844" s="1" t="n">
         <v>44304</v>
@@ -12194,13 +12194,13 @@
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B845" s="1" t="n">
         <v>44304</v>
       </c>
       <c r="C845" t="n">
-        <v>9903</v>
+        <v>9898</v>
       </c>
       <c r="D845" t="s">
         <v>5</v>
@@ -12208,7 +12208,7 @@
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B846" s="1" t="n">
         <v>44305</v>
@@ -12222,13 +12222,13 @@
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B847" s="1" t="n">
         <v>44305</v>
       </c>
       <c r="C847" t="n">
-        <v>24441</v>
+        <v>24440</v>
       </c>
       <c r="D847" t="s">
         <v>5</v>
@@ -12236,7 +12236,7 @@
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B848" s="1" t="n">
         <v>44306</v>
@@ -12250,13 +12250,13 @@
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B849" s="1" t="n">
         <v>44306</v>
       </c>
       <c r="C849" t="n">
-        <v>25905</v>
+        <v>25907</v>
       </c>
       <c r="D849" t="s">
         <v>5</v>
@@ -12264,7 +12264,7 @@
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B850" s="1" t="n">
         <v>44307</v>
@@ -12278,13 +12278,13 @@
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B851" s="1" t="n">
         <v>44307</v>
       </c>
       <c r="C851" t="n">
-        <v>26628</v>
+        <v>26636</v>
       </c>
       <c r="D851" t="s">
         <v>5</v>
@@ -12292,7 +12292,7 @@
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B852" s="1" t="n">
         <v>44308</v>
@@ -12306,13 +12306,13 @@
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B853" s="1" t="n">
         <v>44308</v>
       </c>
       <c r="C853" t="n">
-        <v>31263</v>
+        <v>31272</v>
       </c>
       <c r="D853" t="s">
         <v>5</v>
@@ -12320,7 +12320,7 @@
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B854" s="1" t="n">
         <v>44309</v>
@@ -12334,13 +12334,13 @@
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B855" s="1" t="n">
         <v>44309</v>
       </c>
       <c r="C855" t="n">
-        <v>30830</v>
+        <v>30829</v>
       </c>
       <c r="D855" t="s">
         <v>5</v>
@@ -12348,7 +12348,7 @@
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B856" s="1" t="n">
         <v>44310</v>
@@ -12362,13 +12362,13 @@
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B857" s="1" t="n">
         <v>44310</v>
       </c>
       <c r="C857" t="n">
-        <v>19250</v>
+        <v>19248</v>
       </c>
       <c r="D857" t="s">
         <v>5</v>
@@ -12376,7 +12376,7 @@
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B858" s="1" t="n">
         <v>44311</v>
@@ -12390,13 +12390,13 @@
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B859" s="1" t="n">
         <v>44311</v>
       </c>
       <c r="C859" t="n">
-        <v>10430</v>
+        <v>10427</v>
       </c>
       <c r="D859" t="s">
         <v>5</v>
@@ -12404,7 +12404,7 @@
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B860" s="1" t="n">
         <v>44312</v>
@@ -12418,13 +12418,13 @@
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B861" s="1" t="n">
         <v>44312</v>
       </c>
       <c r="C861" t="n">
-        <v>25015</v>
+        <v>25018</v>
       </c>
       <c r="D861" t="s">
         <v>5</v>
@@ -12432,7 +12432,7 @@
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B862" s="1" t="n">
         <v>44313</v>
@@ -12446,13 +12446,13 @@
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B863" s="1" t="n">
         <v>44313</v>
       </c>
       <c r="C863" t="n">
-        <v>27481</v>
+        <v>27482</v>
       </c>
       <c r="D863" t="s">
         <v>5</v>
@@ -12460,7 +12460,7 @@
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B864" s="1" t="n">
         <v>44314</v>
@@ -12474,13 +12474,13 @@
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B865" s="1" t="n">
         <v>44314</v>
       </c>
       <c r="C865" t="n">
-        <v>27809</v>
+        <v>27805</v>
       </c>
       <c r="D865" t="s">
         <v>5</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B866" s="1" t="n">
         <v>44315</v>
@@ -12502,13 +12502,13 @@
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B867" s="1" t="n">
         <v>44315</v>
       </c>
       <c r="C867" t="n">
-        <v>31433</v>
+        <v>31427</v>
       </c>
       <c r="D867" t="s">
         <v>5</v>
@@ -12516,7 +12516,7 @@
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B868" s="1" t="n">
         <v>44316</v>
@@ -12530,13 +12530,13 @@
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B869" s="1" t="n">
         <v>44316</v>
       </c>
       <c r="C869" t="n">
-        <v>31455</v>
+        <v>31453</v>
       </c>
       <c r="D869" t="s">
         <v>5</v>
@@ -12544,7 +12544,7 @@
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B870" s="1" t="n">
         <v>44317</v>
@@ -12558,7 +12558,7 @@
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B871" s="1" t="n">
         <v>44317</v>
@@ -12572,7 +12572,7 @@
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B872" s="1" t="n">
         <v>44318</v>
@@ -12586,13 +12586,13 @@
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B873" s="1" t="n">
         <v>44318</v>
       </c>
       <c r="C873" t="n">
-        <v>9515</v>
+        <v>9509</v>
       </c>
       <c r="D873" t="s">
         <v>5</v>
@@ -12600,7 +12600,7 @@
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B874" s="1" t="n">
         <v>44319</v>
@@ -12614,13 +12614,13 @@
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B875" s="1" t="n">
         <v>44319</v>
       </c>
       <c r="C875" t="n">
-        <v>23702</v>
+        <v>23718</v>
       </c>
       <c r="D875" t="s">
         <v>5</v>
@@ -12628,13 +12628,13 @@
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B876" s="1" t="n">
         <v>44320</v>
       </c>
       <c r="C876" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D876" t="s">
         <v>4</v>
@@ -12642,13 +12642,13 @@
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B877" s="1" t="n">
         <v>44320</v>
       </c>
       <c r="C877" t="n">
-        <v>25580</v>
+        <v>25579</v>
       </c>
       <c r="D877" t="s">
         <v>5</v>
@@ -12656,7 +12656,7 @@
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B878" s="1" t="n">
         <v>44321</v>
@@ -12670,13 +12670,13 @@
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B879" s="1" t="n">
         <v>44321</v>
       </c>
       <c r="C879" t="n">
-        <v>26906</v>
+        <v>26900</v>
       </c>
       <c r="D879" t="s">
         <v>5</v>
@@ -12684,13 +12684,13 @@
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B880" s="1" t="n">
         <v>44322</v>
       </c>
       <c r="C880" t="n">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="D880" t="s">
         <v>4</v>
@@ -12698,13 +12698,13 @@
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B881" s="1" t="n">
         <v>44322</v>
       </c>
       <c r="C881" t="n">
-        <v>31062</v>
+        <v>31059</v>
       </c>
       <c r="D881" t="s">
         <v>5</v>
@@ -12712,7 +12712,7 @@
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B882" s="1" t="n">
         <v>44323</v>
@@ -12726,13 +12726,13 @@
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B883" s="1" t="n">
         <v>44323</v>
       </c>
       <c r="C883" t="n">
-        <v>31843</v>
+        <v>31832</v>
       </c>
       <c r="D883" t="s">
         <v>5</v>
@@ -12740,7 +12740,7 @@
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B884" s="1" t="n">
         <v>44324</v>
@@ -12754,13 +12754,13 @@
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B885" s="1" t="n">
         <v>44324</v>
       </c>
       <c r="C885" t="n">
-        <v>17129</v>
+        <v>17122</v>
       </c>
       <c r="D885" t="s">
         <v>5</v>
@@ -12768,7 +12768,7 @@
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B886" s="1" t="n">
         <v>44325</v>
@@ -12782,13 +12782,13 @@
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B887" s="1" t="n">
         <v>44325</v>
       </c>
       <c r="C887" t="n">
-        <v>9601</v>
+        <v>9593</v>
       </c>
       <c r="D887" t="s">
         <v>5</v>
@@ -12796,7 +12796,7 @@
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B888" s="1" t="n">
         <v>44326</v>
@@ -12810,7 +12810,7 @@
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B889" s="1" t="n">
         <v>44326</v>
@@ -12824,13 +12824,13 @@
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B890" s="1" t="n">
         <v>44327</v>
       </c>
       <c r="C890" t="n">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D890" t="s">
         <v>4</v>
@@ -12838,13 +12838,13 @@
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B891" s="1" t="n">
         <v>44327</v>
       </c>
       <c r="C891" t="n">
-        <v>36930</v>
+        <v>36931</v>
       </c>
       <c r="D891" t="s">
         <v>5</v>
@@ -12852,13 +12852,13 @@
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B892" s="1" t="n">
         <v>44328</v>
       </c>
       <c r="C892" t="n">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="D892" t="s">
         <v>4</v>
@@ -12866,13 +12866,13 @@
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B893" s="1" t="n">
         <v>44328</v>
       </c>
       <c r="C893" t="n">
-        <v>38905</v>
+        <v>38883</v>
       </c>
       <c r="D893" t="s">
         <v>5</v>
@@ -12880,7 +12880,7 @@
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B894" s="1" t="n">
         <v>44329</v>
@@ -12894,13 +12894,13 @@
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B895" s="1" t="n">
         <v>44329</v>
       </c>
       <c r="C895" t="n">
-        <v>15958</v>
+        <v>15955</v>
       </c>
       <c r="D895" t="s">
         <v>5</v>
@@ -12908,7 +12908,7 @@
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B896" s="1" t="n">
         <v>44330</v>
@@ -12922,13 +12922,13 @@
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B897" s="1" t="n">
         <v>44330</v>
       </c>
       <c r="C897" t="n">
-        <v>26279</v>
+        <v>26294</v>
       </c>
       <c r="D897" t="s">
         <v>5</v>
@@ -12936,13 +12936,13 @@
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B898" s="1" t="n">
         <v>44331</v>
       </c>
       <c r="C898" t="n">
-        <v>980</v>
+        <v>989</v>
       </c>
       <c r="D898" t="s">
         <v>4</v>
@@ -12950,13 +12950,13 @@
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B899" s="1" t="n">
         <v>44331</v>
       </c>
       <c r="C899" t="n">
-        <v>18180</v>
+        <v>18216</v>
       </c>
       <c r="D899" t="s">
         <v>5</v>
@@ -12964,13 +12964,13 @@
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B900" s="1" t="n">
         <v>44332</v>
       </c>
       <c r="C900" t="n">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="D900" t="s">
         <v>4</v>
@@ -12978,13 +12978,13 @@
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B901" s="1" t="n">
         <v>44332</v>
       </c>
       <c r="C901" t="n">
-        <v>10068</v>
+        <v>10120</v>
       </c>
       <c r="D901" t="s">
         <v>5</v>
@@ -12992,13 +12992,13 @@
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B902" s="1" t="n">
         <v>44333</v>
       </c>
       <c r="C902" t="n">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D902" t="s">
         <v>4</v>
@@ -13006,13 +13006,13 @@
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B903" s="1" t="n">
         <v>44333</v>
       </c>
       <c r="C903" t="n">
-        <v>25239</v>
+        <v>25284</v>
       </c>
       <c r="D903" t="s">
         <v>5</v>
@@ -13020,13 +13020,13 @@
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B904" s="1" t="n">
         <v>44334</v>
       </c>
       <c r="C904" t="n">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D904" t="s">
         <v>4</v>
@@ -13034,13 +13034,13 @@
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B905" s="1" t="n">
         <v>44334</v>
       </c>
       <c r="C905" t="n">
-        <v>27408</v>
+        <v>27431</v>
       </c>
       <c r="D905" t="s">
         <v>5</v>
@@ -13048,7 +13048,7 @@
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B906" s="1" t="n">
         <v>44335</v>
@@ -13062,13 +13062,13 @@
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B907" s="1" t="n">
         <v>44335</v>
       </c>
       <c r="C907" t="n">
-        <v>32303</v>
+        <v>32322</v>
       </c>
       <c r="D907" t="s">
         <v>5</v>
@@ -13076,7 +13076,7 @@
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B908" s="1" t="n">
         <v>44336</v>
@@ -13090,13 +13090,13 @@
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B909" s="1" t="n">
         <v>44336</v>
       </c>
       <c r="C909" t="n">
-        <v>39124</v>
+        <v>39161</v>
       </c>
       <c r="D909" t="s">
         <v>5</v>
@@ -13104,7 +13104,7 @@
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B910" s="1" t="n">
         <v>44337</v>
@@ -13118,13 +13118,13 @@
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B911" s="1" t="n">
         <v>44337</v>
       </c>
       <c r="C911" t="n">
-        <v>37936</v>
+        <v>38002</v>
       </c>
       <c r="D911" t="s">
         <v>5</v>
@@ -13132,7 +13132,7 @@
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B912" s="1" t="n">
         <v>44338</v>
@@ -13146,13 +13146,13 @@
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B913" s="1" t="n">
         <v>44338</v>
       </c>
       <c r="C913" t="n">
-        <v>19924</v>
+        <v>20004</v>
       </c>
       <c r="D913" t="s">
         <v>5</v>
@@ -13160,7 +13160,7 @@
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B914" s="1" t="n">
         <v>44339</v>
@@ -13174,13 +13174,13 @@
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B915" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="C915" t="n">
-        <v>9845</v>
+        <v>9891</v>
       </c>
       <c r="D915" t="s">
         <v>5</v>
@@ -13188,13 +13188,13 @@
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B916" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="C916" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D916" t="s">
         <v>4</v>
@@ -13202,13 +13202,13 @@
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B917" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="C917" t="n">
-        <v>11626</v>
+        <v>11683</v>
       </c>
       <c r="D917" t="s">
         <v>5</v>
@@ -13216,13 +13216,13 @@
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B918" s="1" t="n">
         <v>44341</v>
       </c>
       <c r="C918" t="n">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D918" t="s">
         <v>4</v>
@@ -13230,13 +13230,13 @@
     </row>
     <row r="919">
       <c r="A919" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B919" s="1" t="n">
         <v>44341</v>
       </c>
       <c r="C919" t="n">
-        <v>24579</v>
+        <v>24694</v>
       </c>
       <c r="D919" t="s">
         <v>5</v>
@@ -13244,13 +13244,13 @@
     </row>
     <row r="920">
       <c r="A920" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B920" s="1" t="n">
         <v>44342</v>
       </c>
       <c r="C920" t="n">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="D920" t="s">
         <v>4</v>
@@ -13258,13 +13258,13 @@
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B921" s="1" t="n">
         <v>44342</v>
       </c>
       <c r="C921" t="n">
-        <v>27712</v>
+        <v>27901</v>
       </c>
       <c r="D921" t="s">
         <v>5</v>
@@ -13272,13 +13272,13 @@
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B922" s="1" t="n">
         <v>44343</v>
       </c>
       <c r="C922" t="n">
-        <v>871</v>
+        <v>997</v>
       </c>
       <c r="D922" t="s">
         <v>4</v>
@@ -13286,15 +13286,295 @@
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
-        <v>44344.332001929</v>
+        <v>44354.3303601466</v>
       </c>
       <c r="B923" s="1" t="n">
         <v>44343</v>
       </c>
       <c r="C923" t="n">
-        <v>22832</v>
+        <v>29532</v>
       </c>
       <c r="D923" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B924" s="1" t="n">
+        <v>44344</v>
+      </c>
+      <c r="C924" t="n">
+        <v>855</v>
+      </c>
+      <c r="D924" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B925" s="1" t="n">
+        <v>44344</v>
+      </c>
+      <c r="C925" t="n">
+        <v>30538</v>
+      </c>
+      <c r="D925" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B926" s="1" t="n">
+        <v>44345</v>
+      </c>
+      <c r="C926" t="n">
+        <v>607</v>
+      </c>
+      <c r="D926" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B927" s="1" t="n">
+        <v>44345</v>
+      </c>
+      <c r="C927" t="n">
+        <v>17322</v>
+      </c>
+      <c r="D927" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B928" s="1" t="n">
+        <v>44346</v>
+      </c>
+      <c r="C928" t="n">
+        <v>387</v>
+      </c>
+      <c r="D928" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B929" s="1" t="n">
+        <v>44346</v>
+      </c>
+      <c r="C929" t="n">
+        <v>8603</v>
+      </c>
+      <c r="D929" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B930" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="C930" t="n">
+        <v>875</v>
+      </c>
+      <c r="D930" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B931" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="C931" t="n">
+        <v>23251</v>
+      </c>
+      <c r="D931" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B932" s="1" t="n">
+        <v>44348</v>
+      </c>
+      <c r="C932" t="n">
+        <v>764</v>
+      </c>
+      <c r="D932" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B933" s="1" t="n">
+        <v>44348</v>
+      </c>
+      <c r="C933" t="n">
+        <v>26592</v>
+      </c>
+      <c r="D933" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B934" s="1" t="n">
+        <v>44349</v>
+      </c>
+      <c r="C934" t="n">
+        <v>667</v>
+      </c>
+      <c r="D934" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B935" s="1" t="n">
+        <v>44349</v>
+      </c>
+      <c r="C935" t="n">
+        <v>30474</v>
+      </c>
+      <c r="D935" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B936" s="1" t="n">
+        <v>44350</v>
+      </c>
+      <c r="C936" t="n">
+        <v>574</v>
+      </c>
+      <c r="D936" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B937" s="1" t="n">
+        <v>44350</v>
+      </c>
+      <c r="C937" t="n">
+        <v>26164</v>
+      </c>
+      <c r="D937" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B938" s="1" t="n">
+        <v>44351</v>
+      </c>
+      <c r="C938" t="n">
+        <v>545</v>
+      </c>
+      <c r="D938" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B939" s="1" t="n">
+        <v>44351</v>
+      </c>
+      <c r="C939" t="n">
+        <v>27827</v>
+      </c>
+      <c r="D939" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B940" s="1" t="n">
+        <v>44352</v>
+      </c>
+      <c r="C940" t="n">
+        <v>387</v>
+      </c>
+      <c r="D940" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B941" s="1" t="n">
+        <v>44352</v>
+      </c>
+      <c r="C941" t="n">
+        <v>15340</v>
+      </c>
+      <c r="D941" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B942" s="1" t="n">
+        <v>44353</v>
+      </c>
+      <c r="C942" t="n">
+        <v>192</v>
+      </c>
+      <c r="D942" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="2" t="n">
+        <v>44354.3303601466</v>
+      </c>
+      <c r="B943" s="1" t="n">
+        <v>44353</v>
+      </c>
+      <c r="C943" t="n">
+        <v>7522</v>
+      </c>
+      <c r="D943" t="s">
         <v>5</v>
       </c>
     </row>
